--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6352210</v>
+        <v>6353035</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O14">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q14">
+        <v>-0.75</v>
+      </c>
+      <c r="R14">
+        <v>1.9</v>
+      </c>
+      <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>1.775</v>
+      </c>
+      <c r="V14">
+        <v>2.025</v>
+      </c>
+      <c r="W14">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>0.45</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>1.8</v>
-      </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.925</v>
-      </c>
-      <c r="V14">
-        <v>1.875</v>
-      </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>2.5</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
-      <c r="AA14">
-        <v>0.8</v>
-      </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6353035</v>
+        <v>6352210</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N15">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P15">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z15">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
+        <v>0.8</v>
+      </c>
+      <c r="AB15">
         <v>-0.5</v>
       </c>
-      <c r="AB15">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6352216</v>
+        <v>6352215</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2675,76 @@
         <v>45018.125</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N25">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W25">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z25">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6353320</v>
+        <v>6352216</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,34 +2764,34 @@
         <v>45018.125</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>3.1</v>
       </c>
       <c r="M26">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N26">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
         <v>3.2</v>
@@ -2809,31 +2809,31 @@
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6352215</v>
+        <v>6353320</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,10 +2853,10 @@
         <v>45018.125</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2868,41 +2868,41 @@
         <v>47</v>
       </c>
       <c r="K27">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N27">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
         <v>3</v>
       </c>
       <c r="P27">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
+        <v>1.9</v>
+      </c>
+      <c r="S27">
+        <v>1.9</v>
+      </c>
+      <c r="T27">
+        <v>2.25</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
         <v>1.8</v>
       </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
-      <c r="U27">
-        <v>1.775</v>
-      </c>
-      <c r="V27">
-        <v>2.025</v>
-      </c>
       <c r="W27">
         <v>-1</v>
       </c>
@@ -2910,19 +2910,19 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Z27">
         <v>-1</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6352220</v>
+        <v>6352889</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3921,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P39">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W39">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z39">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352889</v>
+        <v>6352220</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
         <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
         <v>1</v>
       </c>
-      <c r="AB40">
-        <v>-0.5</v>
-      </c>
       <c r="AC40">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6352227</v>
+        <v>6352891</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M50">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="N50">
+        <v>2.75</v>
+      </c>
+      <c r="O50">
+        <v>3.25</v>
+      </c>
+      <c r="P50">
+        <v>2.3</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1.975</v>
+      </c>
+      <c r="S50">
+        <v>1.725</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
         <v>1.75</v>
       </c>
-      <c r="O50">
-        <v>3.6</v>
-      </c>
-      <c r="P50">
-        <v>4</v>
-      </c>
-      <c r="Q50">
-        <v>-0.5</v>
-      </c>
-      <c r="R50">
+      <c r="V50">
+        <v>1.95</v>
+      </c>
+      <c r="W50">
         <v>1.75</v>
       </c>
-      <c r="S50">
-        <v>1.95</v>
-      </c>
-      <c r="T50">
-        <v>1.75</v>
-      </c>
-      <c r="U50">
-        <v>1.8</v>
-      </c>
-      <c r="V50">
-        <v>2</v>
-      </c>
-      <c r="W50">
-        <v>-1</v>
-      </c>
       <c r="X50">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.95</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6352891</v>
+        <v>6352227</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51">
+        <v>1.833</v>
+      </c>
+      <c r="L51">
+        <v>3.4</v>
+      </c>
+      <c r="M51">
+        <v>3.6</v>
+      </c>
+      <c r="N51">
+        <v>1.75</v>
+      </c>
+      <c r="O51">
+        <v>3.6</v>
+      </c>
+      <c r="P51">
+        <v>4</v>
+      </c>
+      <c r="Q51">
+        <v>-0.5</v>
+      </c>
+      <c r="R51">
+        <v>1.75</v>
+      </c>
+      <c r="S51">
+        <v>1.95</v>
+      </c>
+      <c r="T51">
+        <v>1.75</v>
+      </c>
+      <c r="U51">
+        <v>1.8</v>
+      </c>
+      <c r="V51">
+        <v>2</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <v>2.6</v>
+      </c>
+      <c r="Y51">
+        <v>-1</v>
+      </c>
+      <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>0.95</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>45</v>
-      </c>
-      <c r="K51">
-        <v>4.75</v>
-      </c>
-      <c r="L51">
-        <v>3.8</v>
-      </c>
-      <c r="M51">
-        <v>1.571</v>
-      </c>
-      <c r="N51">
-        <v>2.75</v>
-      </c>
-      <c r="O51">
-        <v>3.25</v>
-      </c>
-      <c r="P51">
-        <v>2.3</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>1.975</v>
-      </c>
-      <c r="S51">
-        <v>1.725</v>
-      </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
-      <c r="U51">
-        <v>1.75</v>
-      </c>
-      <c r="V51">
-        <v>1.95</v>
-      </c>
-      <c r="W51">
-        <v>1.75</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>-1</v>
-      </c>
-      <c r="Z51">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6352900</v>
+        <v>6352242</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,73 +7659,73 @@
         <v>45073.125</v>
       </c>
       <c r="F81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>2</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="M81">
-        <v>4.75</v>
+        <v>2.45</v>
       </c>
       <c r="N81">
-        <v>1.5</v>
+        <v>2.55</v>
       </c>
       <c r="O81">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="P81">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="Q81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S81">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T81">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U81">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V81">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W81">
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
-        <v>-1</v>
+        <v>1.8</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB81">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6352901</v>
+        <v>6352900</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45073.125</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N82">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O82">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6352242</v>
+        <v>6352901</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45073.125</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="L83">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M83">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O83">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P83">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q83">
         <v>0</v>
       </c>
       <c r="R83">
+        <v>1.875</v>
+      </c>
+      <c r="S83">
+        <v>1.925</v>
+      </c>
+      <c r="T83">
+        <v>2.25</v>
+      </c>
+      <c r="U83">
+        <v>2</v>
+      </c>
+      <c r="V83">
         <v>1.8</v>
       </c>
-      <c r="S83">
-        <v>2</v>
-      </c>
-      <c r="T83">
-        <v>1.75</v>
-      </c>
-      <c r="U83">
-        <v>1.875</v>
-      </c>
-      <c r="V83">
-        <v>1.925</v>
-      </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6353326</v>
+        <v>6352921</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,76 +10062,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>45</v>
+      </c>
+      <c r="K108">
+        <v>1.8</v>
+      </c>
+      <c r="L108">
+        <v>3.1</v>
+      </c>
+      <c r="M108">
+        <v>4.2</v>
+      </c>
+      <c r="N108">
+        <v>2.25</v>
+      </c>
+      <c r="O108">
+        <v>3</v>
+      </c>
+      <c r="P108">
+        <v>3</v>
+      </c>
+      <c r="Q108">
+        <v>-0.25</v>
+      </c>
+      <c r="R108">
+        <v>2</v>
+      </c>
+      <c r="S108">
+        <v>1.8</v>
+      </c>
+      <c r="T108">
+        <v>2</v>
+      </c>
+      <c r="U108">
+        <v>1.725</v>
+      </c>
+      <c r="V108">
+        <v>1.975</v>
+      </c>
+      <c r="W108">
+        <v>1.25</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>-1</v>
+      </c>
+      <c r="Z108">
         <v>1</v>
       </c>
-      <c r="J108" t="s">
-        <v>47</v>
-      </c>
-      <c r="K108">
-        <v>2.2</v>
-      </c>
-      <c r="L108">
-        <v>3.25</v>
-      </c>
-      <c r="M108">
-        <v>2.8</v>
-      </c>
-      <c r="N108">
-        <v>2.3</v>
-      </c>
-      <c r="O108">
-        <v>3.25</v>
-      </c>
-      <c r="P108">
-        <v>2.625</v>
-      </c>
-      <c r="Q108">
-        <v>0</v>
-      </c>
-      <c r="R108">
-        <v>1.775</v>
-      </c>
-      <c r="S108">
-        <v>2.025</v>
-      </c>
-      <c r="T108">
-        <v>2.25</v>
-      </c>
-      <c r="U108">
-        <v>1.925</v>
-      </c>
-      <c r="V108">
-        <v>1.875</v>
-      </c>
-      <c r="W108">
-        <v>-1</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>1.625</v>
-      </c>
-      <c r="Z108">
-        <v>-1</v>
-      </c>
       <c r="AA108">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
         <v>-1</v>
       </c>
       <c r="AC108">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6352921</v>
+        <v>6353326</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,76 +10151,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
         <v>1</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K109">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L109">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M109">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N109">
+        <v>2.3</v>
+      </c>
+      <c r="O109">
+        <v>3.25</v>
+      </c>
+      <c r="P109">
+        <v>2.625</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>1.775</v>
+      </c>
+      <c r="S109">
+        <v>2.025</v>
+      </c>
+      <c r="T109">
         <v>2.25</v>
       </c>
-      <c r="O109">
-        <v>3</v>
-      </c>
-      <c r="P109">
-        <v>3</v>
-      </c>
-      <c r="Q109">
-        <v>-0.25</v>
-      </c>
-      <c r="R109">
-        <v>2</v>
-      </c>
-      <c r="S109">
-        <v>1.8</v>
-      </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
       <c r="U109">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6352265</v>
+        <v>6352923</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,58 +11486,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
         <v>45</v>
       </c>
       <c r="K124">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N124">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="O124">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
+        <v>1.75</v>
+      </c>
+      <c r="V124">
         <v>1.95</v>
       </c>
-      <c r="V124">
-        <v>1.85</v>
-      </c>
       <c r="W124">
-        <v>0.6659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA124">
+        <v>-1</v>
+      </c>
+      <c r="AB124">
         <v>-0.5</v>
       </c>
-      <c r="AB124">
-        <v>0.95</v>
-      </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6352923</v>
+        <v>6352265</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,58 +11575,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>45</v>
       </c>
       <c r="K125">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N125">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P125">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>0.3999999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11635,16 +11635,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6353022</v>
+        <v>6353328</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,61 +12821,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L139">
+        <v>2.9</v>
+      </c>
+      <c r="M139">
         <v>3.4</v>
       </c>
-      <c r="M139">
-        <v>6</v>
-      </c>
       <c r="N139">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P139">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y139">
         <v>-1</v>
@@ -12887,10 +12887,10 @@
         <v>-0</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC139">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6353328</v>
+        <v>6353022</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,61 +12910,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L140">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N140">
+        <v>1.5</v>
+      </c>
+      <c r="O140">
+        <v>3.5</v>
+      </c>
+      <c r="P140">
+        <v>6</v>
+      </c>
+      <c r="Q140">
+        <v>-1</v>
+      </c>
+      <c r="R140">
+        <v>1.875</v>
+      </c>
+      <c r="S140">
+        <v>1.925</v>
+      </c>
+      <c r="T140">
         <v>2.5</v>
       </c>
-      <c r="O140">
-        <v>2.9</v>
-      </c>
-      <c r="P140">
-        <v>2.9</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-      <c r="R140">
-        <v>1.775</v>
-      </c>
-      <c r="S140">
-        <v>2.025</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X140">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12976,10 +12976,10 @@
         <v>-0</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6352279</v>
+        <v>6353330</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,76 +14245,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K155">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L155">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M155">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N155">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P155">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q155">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T155">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U155">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6353330</v>
+        <v>6352279</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="L156">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N156">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O156">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P156">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z156">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC156">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6352290</v>
+        <v>6352289</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,58 +16114,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I176">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
         <v>45</v>
       </c>
       <c r="K176">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L176">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M176">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="N176">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O176">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P176">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="Q176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
+        <v>1.875</v>
+      </c>
+      <c r="V176">
         <v>1.925</v>
       </c>
-      <c r="V176">
-        <v>1.875</v>
-      </c>
       <c r="W176">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6352289</v>
+        <v>6352290</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,58 +16203,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H177">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="s">
         <v>45</v>
       </c>
       <c r="K177">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L177">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M177">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N177">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P177">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="Q177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U177">
+        <v>1.925</v>
+      </c>
+      <c r="V177">
         <v>1.875</v>
       </c>
-      <c r="V177">
-        <v>1.925</v>
-      </c>
       <c r="W177">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16263,16 +16263,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>0.875</v>
-      </c>
-      <c r="AC177">
-        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6352958</v>
+        <v>6352957</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,49 +18606,49 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H204">
         <v>0</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K204">
+        <v>1.95</v>
+      </c>
+      <c r="L204">
+        <v>3.2</v>
+      </c>
+      <c r="M204">
         <v>3.5</v>
       </c>
-      <c r="L204">
-        <v>3.25</v>
-      </c>
-      <c r="M204">
-        <v>1.909</v>
-      </c>
       <c r="N204">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="O204">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P204">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R204">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="S204">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
         <v>1.925</v>
@@ -18660,16 +18660,16 @@
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y204">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="AB204">
         <v>-1</v>
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6352956</v>
+        <v>6352958</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,76 +18695,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H205">
         <v>0</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K205">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L205">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M205">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N205">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O205">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P205">
+        <v>2.875</v>
+      </c>
+      <c r="Q205">
+        <v>0</v>
+      </c>
+      <c r="R205">
+        <v>1.675</v>
+      </c>
+      <c r="S205">
         <v>2.15</v>
       </c>
-      <c r="Q205">
-        <v>0.25</v>
-      </c>
-      <c r="R205">
-        <v>1.8</v>
-      </c>
-      <c r="S205">
-        <v>2</v>
-      </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z205">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-0.5</v>
+        <v>1.15</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6353334</v>
+        <v>6352956</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,40 +18784,40 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G206" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K206">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L206">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M206">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N206">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
         <v>1.8</v>
@@ -18829,31 +18829,31 @@
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y206">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA206">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18861,7 +18861,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6352957</v>
+        <v>6353334</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18873,46 +18873,46 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J207" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K207">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L207">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M207">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N207">
-        <v>1.45</v>
+        <v>2.375</v>
       </c>
       <c r="O207">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P207">
-        <v>6</v>
+        <v>2.55</v>
       </c>
       <c r="Q207">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T207">
         <v>2.5</v>
@@ -18927,22 +18927,22 @@
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z207">
         <v>-1</v>
       </c>
       <c r="AA207">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC207">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6352209</v>
+        <v>6353318</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,58 +1429,58 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>45</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N11">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O11">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W11">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1489,16 +1489,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6353318</v>
+        <v>6352209</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,58 +1518,58 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N12">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P12">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,16 +1578,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6353035</v>
+        <v>6352210</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N14">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P14">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z14">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
+        <v>0.8</v>
+      </c>
+      <c r="AB14">
         <v>-0.5</v>
       </c>
-      <c r="AB14">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6352210</v>
+        <v>6353035</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O15">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q15">
+        <v>-0.75</v>
+      </c>
+      <c r="R15">
+        <v>1.9</v>
+      </c>
+      <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>1.775</v>
+      </c>
+      <c r="V15">
+        <v>2.025</v>
+      </c>
+      <c r="W15">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>-1</v>
+      </c>
+      <c r="Z15">
+        <v>0.45</v>
+      </c>
+      <c r="AA15">
         <v>-0.5</v>
       </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>1.8</v>
-      </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.925</v>
-      </c>
-      <c r="V15">
-        <v>1.875</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>2.5</v>
-      </c>
-      <c r="Z15">
-        <v>-1</v>
-      </c>
-      <c r="AA15">
-        <v>0.8</v>
-      </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6352889</v>
+        <v>6352220</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3921,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M39">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="O39">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V39">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>1</v>
       </c>
-      <c r="AB39">
-        <v>-0.5</v>
-      </c>
       <c r="AC39">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352220</v>
+        <v>6352889</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N40">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P40">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T40">
         <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W40">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z40">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6352891</v>
+        <v>6352227</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50">
+        <v>1.833</v>
+      </c>
+      <c r="L50">
+        <v>3.4</v>
+      </c>
+      <c r="M50">
+        <v>3.6</v>
+      </c>
+      <c r="N50">
+        <v>1.75</v>
+      </c>
+      <c r="O50">
+        <v>3.6</v>
+      </c>
+      <c r="P50">
+        <v>4</v>
+      </c>
+      <c r="Q50">
+        <v>-0.5</v>
+      </c>
+      <c r="R50">
+        <v>1.75</v>
+      </c>
+      <c r="S50">
+        <v>1.95</v>
+      </c>
+      <c r="T50">
+        <v>1.75</v>
+      </c>
+      <c r="U50">
+        <v>1.8</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>2.6</v>
+      </c>
+      <c r="Y50">
+        <v>-1</v>
+      </c>
+      <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
+        <v>0.95</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>45</v>
-      </c>
-      <c r="K50">
-        <v>4.75</v>
-      </c>
-      <c r="L50">
-        <v>3.8</v>
-      </c>
-      <c r="M50">
-        <v>1.571</v>
-      </c>
-      <c r="N50">
-        <v>2.75</v>
-      </c>
-      <c r="O50">
-        <v>3.25</v>
-      </c>
-      <c r="P50">
-        <v>2.3</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>1.975</v>
-      </c>
-      <c r="S50">
-        <v>1.725</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
-      <c r="U50">
-        <v>1.75</v>
-      </c>
-      <c r="V50">
-        <v>1.95</v>
-      </c>
-      <c r="W50">
-        <v>1.75</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
-      <c r="Z50">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6352227</v>
+        <v>6352891</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="N51">
+        <v>2.75</v>
+      </c>
+      <c r="O51">
+        <v>3.25</v>
+      </c>
+      <c r="P51">
+        <v>2.3</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1.975</v>
+      </c>
+      <c r="S51">
+        <v>1.725</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
         <v>1.75</v>
       </c>
-      <c r="O51">
-        <v>3.6</v>
-      </c>
-      <c r="P51">
-        <v>4</v>
-      </c>
-      <c r="Q51">
-        <v>-0.5</v>
-      </c>
-      <c r="R51">
+      <c r="V51">
+        <v>1.95</v>
+      </c>
+      <c r="W51">
         <v>1.75</v>
       </c>
-      <c r="S51">
-        <v>1.95</v>
-      </c>
-      <c r="T51">
-        <v>1.75</v>
-      </c>
-      <c r="U51">
-        <v>1.8</v>
-      </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
       <c r="X51">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.95</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6353027</v>
+        <v>6352250</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,46 +8816,46 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>3.6</v>
+      </c>
+      <c r="N94">
+        <v>2.1</v>
+      </c>
+      <c r="O94">
         <v>3.25</v>
       </c>
-      <c r="M94">
-        <v>3.3</v>
-      </c>
-      <c r="N94">
-        <v>1.7</v>
-      </c>
-      <c r="O94">
-        <v>3.5</v>
-      </c>
       <c r="P94">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
         <v>2.25</v>
@@ -8867,25 +8867,25 @@
         <v>1.725</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X94">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC94">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6352250</v>
+        <v>6353027</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,46 +8905,46 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M95">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N95">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
         <v>2.25</v>
@@ -8956,25 +8956,25 @@
         <v>1.725</v>
       </c>
       <c r="W95">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6352258</v>
+        <v>6352257</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M110">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P110">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q110">
         <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC110">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6352257</v>
+        <v>6352258</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L111">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M111">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N111">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O111">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q111">
         <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S111">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y111">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6352923</v>
+        <v>6352265</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,58 +11486,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
         <v>45</v>
       </c>
       <c r="K124">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N124">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
-        <v>0.3999999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X124">
         <v>-1</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC124">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6352265</v>
+        <v>6352923</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,58 +11575,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>45</v>
       </c>
       <c r="K125">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L125">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N125">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="O125">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
+        <v>1.75</v>
+      </c>
+      <c r="V125">
         <v>1.95</v>
       </c>
-      <c r="V125">
-        <v>1.85</v>
-      </c>
       <c r="W125">
-        <v>0.6659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11635,16 +11635,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
         <v>-0.5</v>
       </c>
-      <c r="AB125">
-        <v>0.95</v>
-      </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6352926</v>
+        <v>6353327</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,37 +12198,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N132">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O132">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
         <v>0.25</v>
@@ -12243,31 +12243,31 @@
         <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z132">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6353327</v>
+        <v>6352926</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,37 +12287,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N133">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O133">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q133">
         <v>0.25</v>
@@ -12332,31 +12332,31 @@
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y133">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.7250000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6352270</v>
+        <v>6352927</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,58 +12554,58 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
         <v>3</v>
-      </c>
-      <c r="I136">
-        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>45</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L136">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12614,13 +12614,13 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6352927</v>
+        <v>6352270</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,73 +12643,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>45</v>
       </c>
       <c r="K137">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M137">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N137">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q137">
         <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W137">
+        <v>0.833</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6352289</v>
+        <v>6352290</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,58 +16114,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>45</v>
       </c>
       <c r="K176">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L176">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M176">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N176">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O176">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P176">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="Q176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S176">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U176">
+        <v>1.925</v>
+      </c>
+      <c r="V176">
         <v>1.875</v>
       </c>
-      <c r="V176">
-        <v>1.925</v>
-      </c>
       <c r="W176">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
         <v>0.875</v>
-      </c>
-      <c r="AC176">
-        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6352290</v>
+        <v>6352289</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,58 +16203,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>45</v>
       </c>
       <c r="K177">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L177">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="N177">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O177">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P177">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U177">
+        <v>1.875</v>
+      </c>
+      <c r="V177">
         <v>1.925</v>
       </c>
-      <c r="V177">
-        <v>1.875</v>
-      </c>
       <c r="W177">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16263,16 +16263,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -18327,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6353333</v>
+        <v>6352951</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18339,58 +18339,58 @@
         <v>45234.125</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>45</v>
       </c>
       <c r="K201">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L201">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N201">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O201">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>1.975</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>1.875</v>
+      </c>
+      <c r="V201">
         <v>1.925</v>
       </c>
-      <c r="S201">
-        <v>1.875</v>
-      </c>
-      <c r="T201">
-        <v>2.25</v>
-      </c>
-      <c r="U201">
-        <v>1.85</v>
-      </c>
-      <c r="V201">
-        <v>1.95</v>
-      </c>
       <c r="W201">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18399,13 +18399,13 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6352951</v>
+        <v>6353333</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,58 +18428,58 @@
         <v>45234.125</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
         <v>45</v>
       </c>
       <c r="K202">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M202">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N202">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P202">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18488,13 +18488,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6352957</v>
+        <v>6352956</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,10 +18606,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G204" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -18621,61 +18621,61 @@
         <v>46</v>
       </c>
       <c r="K204">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M204">
+        <v>2.9</v>
+      </c>
+      <c r="N204">
+        <v>2.75</v>
+      </c>
+      <c r="O204">
         <v>3.5</v>
       </c>
-      <c r="N204">
-        <v>1.45</v>
-      </c>
-      <c r="O204">
-        <v>4</v>
-      </c>
       <c r="P204">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q204">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R204">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S204">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V204">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA204">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB204">
         <v>-1</v>
       </c>
       <c r="AC204">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6352958</v>
+        <v>6352957</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,49 +18695,49 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H205">
         <v>0</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K205">
+        <v>1.95</v>
+      </c>
+      <c r="L205">
+        <v>3.2</v>
+      </c>
+      <c r="M205">
         <v>3.5</v>
       </c>
-      <c r="L205">
-        <v>3.25</v>
-      </c>
-      <c r="M205">
-        <v>1.909</v>
-      </c>
       <c r="N205">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="O205">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R205">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="S205">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
         <v>1.925</v>
@@ -18749,16 +18749,16 @@
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y205">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="AB205">
         <v>-1</v>
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6352956</v>
+        <v>6352958</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,76 +18784,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K206">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L206">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N206">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O206">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P206">
+        <v>2.875</v>
+      </c>
+      <c r="Q206">
+        <v>0</v>
+      </c>
+      <c r="R206">
+        <v>1.675</v>
+      </c>
+      <c r="S206">
         <v>2.15</v>
       </c>
-      <c r="Q206">
-        <v>0.25</v>
-      </c>
-      <c r="R206">
-        <v>1.8</v>
-      </c>
-      <c r="S206">
-        <v>2</v>
-      </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z206">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-0.5</v>
+        <v>1.15</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6353335</v>
+        <v>6352953</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,76 +18962,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H208">
         <v>2</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K208">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L208">
         <v>3.25</v>
       </c>
       <c r="M208">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N208">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O208">
         <v>3.4</v>
       </c>
       <c r="P208">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q208">
         <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S208">
+        <v>1.975</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
+        <v>2</v>
+      </c>
+      <c r="V208">
         <v>1.8</v>
       </c>
-      <c r="T208">
-        <v>2.25</v>
-      </c>
-      <c r="U208">
-        <v>1.775</v>
-      </c>
-      <c r="V208">
-        <v>2.025</v>
-      </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X208">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
         <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA208">
+        <v>-1</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
         <v>0.8</v>
-      </c>
-      <c r="AB208">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC208">
-        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6352952</v>
+        <v>6353335</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,76 +19051,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K209">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L209">
+        <v>3.25</v>
+      </c>
+      <c r="M209">
+        <v>2.8</v>
+      </c>
+      <c r="N209">
+        <v>1.95</v>
+      </c>
+      <c r="O209">
+        <v>3.4</v>
+      </c>
+      <c r="P209">
         <v>3.2</v>
       </c>
-      <c r="M209">
-        <v>2.4</v>
-      </c>
-      <c r="N209">
-        <v>3.1</v>
-      </c>
-      <c r="O209">
-        <v>3.3</v>
-      </c>
-      <c r="P209">
-        <v>2.05</v>
-      </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S209">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V209">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y209">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC209">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19128,7 +19128,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6352953</v>
+        <v>6352952</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19140,76 +19140,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K210">
+        <v>2.6</v>
+      </c>
+      <c r="L210">
+        <v>3.2</v>
+      </c>
+      <c r="M210">
+        <v>2.4</v>
+      </c>
+      <c r="N210">
+        <v>3.1</v>
+      </c>
+      <c r="O210">
+        <v>3.3</v>
+      </c>
+      <c r="P210">
         <v>2.05</v>
       </c>
-      <c r="L210">
-        <v>3.25</v>
-      </c>
-      <c r="M210">
-        <v>3.1</v>
-      </c>
-      <c r="N210">
+      <c r="Q210">
+        <v>0.25</v>
+      </c>
+      <c r="R210">
+        <v>1.95</v>
+      </c>
+      <c r="S210">
+        <v>1.85</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
         <v>1.8</v>
       </c>
-      <c r="O210">
-        <v>3.4</v>
-      </c>
-      <c r="P210">
-        <v>3.75</v>
-      </c>
-      <c r="Q210">
-        <v>-0.5</v>
-      </c>
-      <c r="R210">
-        <v>1.825</v>
-      </c>
-      <c r="S210">
-        <v>1.975</v>
-      </c>
-      <c r="T210">
-        <v>2.5</v>
-      </c>
-      <c r="U210">
-        <v>2</v>
-      </c>
       <c r="V210">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W210">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:29">

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -103,16 +103,16 @@
     <t>South Korea K3 League</t>
   </si>
   <si>
+    <t>Busan Trans Corp</t>
+  </si>
+  <si>
+    <t>Ulsan Citizen FC</t>
+  </si>
+  <si>
     <t>Pocheon Citizen FC</t>
   </si>
   <si>
     <t>Hwaseong FC</t>
-  </si>
-  <si>
-    <t>Busan Trans Corp</t>
-  </si>
-  <si>
-    <t>Ulsan Citizen FC</t>
   </si>
   <si>
     <t>Siheung City AC</t>
@@ -136,10 +136,10 @@
     <t>Gangneung City</t>
   </si>
   <si>
-    <t>Yangpyeong FC</t>
+    <t>Chuncheon FC</t>
   </si>
   <si>
-    <t>Chuncheon FC</t>
+    <t>Yangpyeong FC</t>
   </si>
   <si>
     <t>Gyeongju HNP</t>
@@ -151,10 +151,10 @@
     <t>Jinju Citizen FC</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6352204</v>
+        <v>6378022</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,73 +631,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="L2">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N2">
-        <v>2.6</v>
+        <v>1.571</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S2">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6352205</v>
+        <v>6352203</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K3">
+        <v>3.75</v>
+      </c>
+      <c r="L3">
+        <v>3.1</v>
+      </c>
+      <c r="M3">
         <v>1.909</v>
       </c>
-      <c r="L3">
-        <v>3.2</v>
-      </c>
-      <c r="M3">
+      <c r="N3">
         <v>3.6</v>
-      </c>
-      <c r="N3">
-        <v>2.1</v>
       </c>
       <c r="O3">
         <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
+        <v>1.775</v>
+      </c>
+      <c r="S3">
+        <v>2.025</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="S3">
-        <v>1.925</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>1.85</v>
-      </c>
-      <c r="V3">
-        <v>1.95</v>
-      </c>
       <c r="W3">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -777,13 +777,13 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6378022</v>
+        <v>6352204</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M4">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q4">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X4">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6352203</v>
+        <v>6352205</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -907,46 +907,46 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N5">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
         <v>3.1</v>
       </c>
       <c r="P5">
+        <v>3.25</v>
+      </c>
+      <c r="Q5">
+        <v>-0.25</v>
+      </c>
+      <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.925</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>1.85</v>
+      </c>
+      <c r="V5">
         <v>1.95</v>
       </c>
-      <c r="Q5">
-        <v>0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
       <c r="W5">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -955,13 +955,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -996,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>1.615</v>
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>2.625</v>
@@ -1432,7 +1432,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>1.833</v>
@@ -1518,7 +1518,7 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1696,7 +1696,7 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
         <v>39</v>
@@ -1785,10 +1785,10 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K15">
         <v>1.666</v>
@@ -1877,7 +1877,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6352213</v>
+        <v>6352212</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,76 +1963,76 @@
         <v>45010.125</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N17">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O17">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA17">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6352212</v>
+        <v>6352213</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45010.125</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P18">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S18">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z18">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6352879</v>
+        <v>6352880</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,55 +2141,55 @@
         <v>45011.08333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L19">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M19">
         <v>2.75</v>
       </c>
       <c r="N19">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O19">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P19">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
         <v>2</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
         <v>-1</v>
@@ -2198,19 +2198,19 @@
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="Z19">
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6352880</v>
+        <v>6353034</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45011.08333333334</v>
       </c>
       <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
         <v>31</v>
       </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>3.6</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>2.75</v>
+      </c>
+      <c r="O20">
+        <v>3.4</v>
+      </c>
+      <c r="P20">
+        <v>2.25</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.975</v>
+      </c>
+      <c r="S20">
+        <v>1.725</v>
+      </c>
+      <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>1.8</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
         <v>2.4</v>
       </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <v>2.75</v>
-      </c>
-      <c r="N20">
-        <v>2.55</v>
-      </c>
-      <c r="O20">
-        <v>2.875</v>
-      </c>
-      <c r="P20">
-        <v>2.7</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>1.85</v>
-      </c>
-      <c r="S20">
-        <v>1.95</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>1.9</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
       <c r="Y20">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6353034</v>
+        <v>6352879</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,73 +2322,73 @@
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N21">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P21">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
+        <v>1.875</v>
+      </c>
+      <c r="S21">
+        <v>1.925</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
         <v>1.975</v>
       </c>
-      <c r="S21">
-        <v>1.725</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>2</v>
-      </c>
       <c r="V21">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
+        <v>0.925</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
         <v>-0</v>
-      </c>
-      <c r="AB21">
-        <v>-0.5</v>
-      </c>
-      <c r="AC21">
-        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6353033</v>
+        <v>6352882</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M22">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P22">
+        <v>2.3</v>
+      </c>
+      <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>1.85</v>
+      </c>
+      <c r="V22">
         <v>1.95</v>
       </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.8</v>
-      </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.975</v>
-      </c>
-      <c r="V22">
-        <v>1.825</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6352882</v>
+        <v>6352214</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L23">
         <v>3.1</v>
       </c>
       <c r="M23">
+        <v>3.75</v>
+      </c>
+      <c r="N23">
+        <v>1.7</v>
+      </c>
+      <c r="O23">
+        <v>3.1</v>
+      </c>
+      <c r="P23">
+        <v>4.75</v>
+      </c>
+      <c r="Q23">
+        <v>-0.75</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>1.8</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
         <v>2.1</v>
       </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23">
-        <v>2.9</v>
-      </c>
-      <c r="P23">
-        <v>2.3</v>
-      </c>
-      <c r="Q23">
-        <v>0.25</v>
-      </c>
-      <c r="R23">
-        <v>1.775</v>
-      </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.85</v>
-      </c>
-      <c r="V23">
-        <v>1.95</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
       <c r="Y23">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6352214</v>
+        <v>6353033</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,11 +2586,11 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F24" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" t="s">
         <v>30</v>
       </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
       <c r="H24">
         <v>0</v>
       </c>
@@ -2598,43 +2598,43 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M24">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="N24">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="O24">
         <v>3.1</v>
       </c>
       <c r="P24">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2646,16 +2646,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6352215</v>
+        <v>6353320</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,10 +2675,10 @@
         <v>45018.125</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2690,41 +2690,41 @@
         <v>47</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="N25">
-        <v>2.45</v>
+        <v>2.15</v>
       </c>
       <c r="O25">
         <v>3</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
+        <v>1.9</v>
+      </c>
+      <c r="S25">
+        <v>1.9</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
         <v>1.8</v>
       </c>
-      <c r="S25">
-        <v>2</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>1.775</v>
-      </c>
-      <c r="V25">
-        <v>2.025</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
@@ -2732,19 +2732,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6352216</v>
+        <v>6352215</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2764,76 @@
         <v>45018.125</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L26">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M26">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N26">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P26">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z26">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6353320</v>
+        <v>6352216</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,34 +2853,34 @@
         <v>45018.125</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
         <v>3.1</v>
       </c>
       <c r="M27">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
         <v>3.2</v>
@@ -2898,31 +2898,31 @@
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2954,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>1.727</v>
@@ -3034,7 +3034,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>2.8</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6353032</v>
+        <v>6352217</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45024.08333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L31">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N31">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P31">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6352217</v>
+        <v>6353032</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45024.08333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M32">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N32">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O32">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P32">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>36</v>
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
         <v>2.05</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6352888</v>
+        <v>6352219</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,58 +3654,58 @@
         <v>45031.125</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>1</v>
       </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L36">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N36">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O36">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3714,16 +3714,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6352219</v>
+        <v>6352888</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,58 +3743,58 @@
         <v>45031.125</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M37">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N37">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P37">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3803,16 +3803,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6353322</v>
+        <v>6352220</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
         <v>46</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L38">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N38">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="O38">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
+        <v>1.725</v>
+      </c>
+      <c r="S38">
+        <v>1.975</v>
+      </c>
+      <c r="T38">
+        <v>2.25</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
         <v>1.8</v>
       </c>
-      <c r="S38">
-        <v>2</v>
-      </c>
-      <c r="T38">
-        <v>2</v>
-      </c>
-      <c r="U38">
-        <v>1.8</v>
-      </c>
-      <c r="V38">
-        <v>2</v>
-      </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X38">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA38">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6352220</v>
+        <v>6352889</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3921,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P39">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W39">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z39">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352889</v>
+        <v>6353322</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,40 +4010,40 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N40">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P40">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
         <v>1.8</v>
@@ -4052,34 +4052,34 @@
         <v>2</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y40">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41">
         <v>2.25</v>
@@ -4191,7 +4191,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>2.4</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6352223</v>
+        <v>6352887</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,76 +4366,76 @@
         <v>45038.08333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>2.9</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M44">
+        <v>2.3</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44">
         <v>2.25</v>
       </c>
-      <c r="N44">
-        <v>3.4</v>
-      </c>
-      <c r="O44">
-        <v>3.2</v>
-      </c>
-      <c r="P44">
-        <v>1.95</v>
-      </c>
       <c r="Q44">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6352887</v>
+        <v>6352223</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>45038.08333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>2.9</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P45">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
         <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA45">
+        <v>-1</v>
+      </c>
+      <c r="AB45">
         <v>-0.5</v>
       </c>
-      <c r="AB45">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6352225</v>
+        <v>6352226</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,13 +4544,13 @@
         <v>45038.125</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>2</v>
@@ -4559,40 +4559,40 @@
         <v>47</v>
       </c>
       <c r="K46">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L46">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N46">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O46">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T46">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
         <v>-1</v>
@@ -4601,19 +4601,19 @@
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z46">
         <v>-1</v>
       </c>
       <c r="AA46">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6352226</v>
+        <v>6352225</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,13 +4633,13 @@
         <v>45038.125</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -4648,40 +4648,40 @@
         <v>47</v>
       </c>
       <c r="K47">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L47">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M47">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N47">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P47">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4690,19 +4690,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4725,7 +4725,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4734,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K48">
         <v>2.05</v>
@@ -4814,7 +4814,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>35</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>1.833</v>
@@ -4989,7 +4989,7 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K51">
         <v>4.75</v>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6352892</v>
+        <v>6352229</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,49 +5167,49 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>4</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L53">
+        <v>3.1</v>
+      </c>
+      <c r="M53">
         <v>3.4</v>
       </c>
-      <c r="M53">
+      <c r="N53">
+        <v>1.85</v>
+      </c>
+      <c r="O53">
+        <v>3.2</v>
+      </c>
+      <c r="P53">
         <v>3.8</v>
-      </c>
-      <c r="N53">
-        <v>1.727</v>
-      </c>
-      <c r="O53">
-        <v>3.4</v>
-      </c>
-      <c r="P53">
-        <v>4.5</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
         <v>1.975</v>
@@ -5218,7 +5218,7 @@
         <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.7270000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5227,7 +5227,7 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA53">
         <v>-1</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6352229</v>
+        <v>6352892</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,49 +5256,49 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
+        <v>3.8</v>
+      </c>
+      <c r="N54">
+        <v>1.727</v>
+      </c>
+      <c r="O54">
         <v>3.4</v>
       </c>
-      <c r="N54">
-        <v>1.85</v>
-      </c>
-      <c r="O54">
-        <v>3.2</v>
-      </c>
       <c r="P54">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U54">
         <v>1.975</v>
@@ -5307,7 +5307,7 @@
         <v>1.825</v>
       </c>
       <c r="W54">
-        <v>0.8500000000000001</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5316,7 +5316,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5345,7 +5345,7 @@
         <v>45046.08333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
         <v>43</v>
@@ -5357,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K55">
         <v>2.6</v>
@@ -5434,10 +5434,10 @@
         <v>45046.08333333334</v>
       </c>
       <c r="F56" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" t="s">
         <v>41</v>
-      </c>
-      <c r="G56" t="s">
-        <v>40</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
         <v>2.1</v>
@@ -5615,7 +5615,7 @@
         <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>1.833</v>
@@ -5701,10 +5701,10 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5790,7 +5790,7 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
         <v>36</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60">
         <v>2.5</v>
@@ -5879,7 +5879,7 @@
         <v>45053.08333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>2.375</v>
@@ -6060,7 +6060,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>2.3</v>
@@ -6235,7 +6235,7 @@
         <v>45059.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>35</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>2.875</v>
@@ -6413,7 +6413,7 @@
         <v>45060.08333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>2.3</v>
@@ -6505,7 +6505,7 @@
         <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>2.25</v>
@@ -6591,10 +6591,10 @@
         <v>45060.20833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>1.95</v>
@@ -6683,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>2.875</v>
@@ -6858,11 +6858,11 @@
         <v>45066.08333333334</v>
       </c>
       <c r="F72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" t="s">
         <v>31</v>
       </c>
-      <c r="G72" t="s">
-        <v>29</v>
-      </c>
       <c r="H72">
         <v>2</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>3.1</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6352898</v>
+        <v>6352238</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45066.125</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="L73">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M73">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P73">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z73">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6352238</v>
+        <v>6352898</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45066.125</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M74">
+        <v>1.571</v>
+      </c>
+      <c r="N74">
+        <v>2.6</v>
+      </c>
+      <c r="O74">
+        <v>3.6</v>
+      </c>
+      <c r="P74">
         <v>2.2</v>
       </c>
-      <c r="N74">
-        <v>2.2</v>
-      </c>
-      <c r="O74">
-        <v>3.1</v>
-      </c>
-      <c r="P74">
-        <v>3</v>
-      </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75">
         <v>1.833</v>
@@ -7226,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>2.375</v>
@@ -7303,10 +7303,10 @@
         <v>45067.16666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7395,7 +7395,7 @@
         <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>2.5</v>
@@ -7481,10 +7481,10 @@
         <v>45073.08333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7570,10 +7570,10 @@
         <v>45073.08333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7582,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>2.15</v>
@@ -7760,7 +7760,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
         <v>1.615</v>
@@ -7849,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83">
         <v>2.3</v>
@@ -7929,7 +7929,7 @@
         <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H84">
         <v>4</v>
@@ -7938,7 +7938,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K84">
         <v>1.6</v>
@@ -8015,7 +8015,7 @@
         <v>45079.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
         <v>37</v>
@@ -8116,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8193,10 +8193,10 @@
         <v>45080.20833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K87">
         <v>3.4</v>
@@ -8282,10 +8282,10 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F88" t="s">
+        <v>30</v>
+      </c>
+      <c r="G88" t="s">
         <v>32</v>
-      </c>
-      <c r="G88" t="s">
-        <v>30</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6352244</v>
+        <v>6352245</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,58 +8371,58 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q89">
         <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
+        <v>1.975</v>
+      </c>
+      <c r="V89">
         <v>1.825</v>
       </c>
-      <c r="V89">
-        <v>1.975</v>
-      </c>
       <c r="W89">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,13 +8431,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6352245</v>
+        <v>6352244</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,58 +8460,58 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" t="s">
+        <v>46</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
         <v>3</v>
       </c>
-      <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90" t="s">
-        <v>45</v>
-      </c>
-      <c r="K90">
-        <v>1.727</v>
-      </c>
-      <c r="L90">
-        <v>3.5</v>
-      </c>
       <c r="M90">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P90">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q90">
         <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U90">
+        <v>1.825</v>
+      </c>
+      <c r="V90">
         <v>1.975</v>
       </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8520,13 +8520,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8549,7 +8549,7 @@
         <v>45081.20833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91" t="s">
         <v>43</v>
@@ -8638,7 +8638,7 @@
         <v>45086.29166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
         <v>42</v>
@@ -8650,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8727,7 +8727,7 @@
         <v>45087.20833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>37</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
         <v>1.5</v>
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>1.833</v>
@@ -8908,7 +8908,7 @@
         <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9006,7 +9006,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96">
         <v>2.8</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6352908</v>
+        <v>6352251</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L97">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N97">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O97">
         <v>3</v>
       </c>
       <c r="P97">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
+        <v>2.025</v>
+      </c>
+      <c r="S97">
+        <v>1.775</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
         <v>1.95</v>
       </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="T97">
-        <v>2.25</v>
-      </c>
-      <c r="U97">
-        <v>2.025</v>
-      </c>
-      <c r="V97">
-        <v>1.775</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6352251</v>
+        <v>6352908</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K98">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
         <v>3</v>
       </c>
       <c r="P98">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>1.85</v>
+      </c>
+      <c r="T98">
+        <v>2.25</v>
+      </c>
+      <c r="U98">
         <v>2.025</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.775</v>
       </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
-      <c r="U98">
-        <v>1.95</v>
-      </c>
-      <c r="V98">
-        <v>1.85</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y98">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA98">
+        <v>-0</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
-      <c r="AC98">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>45093.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6352252</v>
+        <v>6352253</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>6</v>
+      </c>
+      <c r="N100">
+        <v>1.571</v>
+      </c>
+      <c r="O100">
+        <v>3.8</v>
+      </c>
+      <c r="P100">
+        <v>4.75</v>
+      </c>
+      <c r="Q100">
+        <v>-0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.775</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
+        <v>1.925</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
         <v>2.8</v>
       </c>
-      <c r="M100">
-        <v>3</v>
-      </c>
-      <c r="N100">
-        <v>2.625</v>
-      </c>
-      <c r="O100">
-        <v>2.875</v>
-      </c>
-      <c r="P100">
-        <v>2.55</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>1.95</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>1.875</v>
-      </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6352253</v>
+        <v>6353026</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,10 +9439,10 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F101" t="s">
+        <v>41</v>
+      </c>
+      <c r="G101" t="s">
         <v>30</v>
-      </c>
-      <c r="G101" t="s">
-        <v>42</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9451,64 +9451,64 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="N101">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P101">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T101">
         <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA101">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
         <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6353026</v>
+        <v>6352252</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,76 +9528,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K102">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L102">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M102">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N102">
+        <v>2.625</v>
+      </c>
+      <c r="O102">
         <v>2.875</v>
       </c>
-      <c r="O102">
-        <v>3.25</v>
-      </c>
       <c r="P102">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W102">
         <v>-1</v>
       </c>
       <c r="X102">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>2.5</v>
@@ -9706,7 +9706,7 @@
         <v>45095.20833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
         <v>33</v>
@@ -9718,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>2.25</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>2.375</v>
@@ -9887,7 +9887,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6352256</v>
+        <v>6353326</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,55 +9973,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
         <v>1</v>
-      </c>
-      <c r="I107">
-        <v>3</v>
       </c>
       <c r="J107" t="s">
         <v>47</v>
       </c>
       <c r="K107">
+        <v>2.2</v>
+      </c>
+      <c r="L107">
+        <v>3.25</v>
+      </c>
+      <c r="M107">
+        <v>2.8</v>
+      </c>
+      <c r="N107">
+        <v>2.3</v>
+      </c>
+      <c r="O107">
+        <v>3.25</v>
+      </c>
+      <c r="P107">
         <v>2.625</v>
       </c>
-      <c r="L107">
-        <v>3.2</v>
-      </c>
-      <c r="M107">
-        <v>2.375</v>
-      </c>
-      <c r="N107">
-        <v>2.1</v>
-      </c>
-      <c r="O107">
-        <v>3.2</v>
-      </c>
-      <c r="P107">
-        <v>3.1</v>
-      </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10030,19 +10030,19 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10062,10 +10062,10 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K108">
         <v>1.8</v>
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6353326</v>
+        <v>6352256</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,55 +10151,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
         <v>47</v>
       </c>
       <c r="K109">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L109">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N109">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O109">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P109">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6352257</v>
+        <v>6352258</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K110">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L110">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M110">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N110">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P110">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q110">
         <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S110">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y110">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB110">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6352258</v>
+        <v>6352257</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N111">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O111">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P111">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q111">
         <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S111">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10421,7 +10421,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
         <v>6</v>
@@ -10519,7 +10519,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
         <v>2.375</v>
@@ -10599,7 +10599,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>2.2</v>
@@ -10685,10 +10685,10 @@
         <v>45108.25</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>3.3</v>
@@ -10774,7 +10774,7 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
         <v>36</v>
@@ -10786,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K116">
         <v>2.3</v>
@@ -10863,7 +10863,7 @@
         <v>45109.20833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
         <v>37</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K117">
         <v>2.5</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6352262</v>
+        <v>6352922</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>46</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N118">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X118">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6352922</v>
+        <v>6352262</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
         <v>45</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N119">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6352263</v>
+        <v>6441138</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,13 +11130,13 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -11145,61 +11145,61 @@
         <v>46</v>
       </c>
       <c r="K120">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
         <v>3.2</v>
       </c>
       <c r="M120">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N120">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X120">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6441138</v>
+        <v>6353024</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,13 +11219,13 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -11234,61 +11234,61 @@
         <v>45</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M121">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="N121">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P121">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q121">
         <v>-0.25</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T121">
         <v>2</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6353024</v>
+        <v>6352263</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,10 +11308,10 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11320,37 +11320,37 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L122">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N122">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
         <v>1.75</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
         <v>1.95</v>
@@ -11362,16 +11362,16 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA122">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>-1</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352264</v>
+        <v>6352265</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,73 +11400,73 @@
         <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
         <v>1.727</v>
       </c>
       <c r="L123">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N123">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P123">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA123">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6352265</v>
+        <v>6352264</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11489,73 +11489,73 @@
         <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K124">
         <v>1.727</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N124">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O124">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P124">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
+        <v>1.9</v>
+      </c>
+      <c r="S124">
+        <v>1.9</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
         <v>1.925</v>
       </c>
-      <c r="S124">
+      <c r="V124">
         <v>1.875</v>
       </c>
-      <c r="T124">
-        <v>2</v>
-      </c>
-      <c r="U124">
-        <v>1.95</v>
-      </c>
-      <c r="V124">
-        <v>1.85</v>
-      </c>
       <c r="W124">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z124">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11578,7 +11578,7 @@
         <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K125">
         <v>1.533</v>
@@ -11667,7 +11667,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11842,7 +11842,7 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G128" t="s">
         <v>36</v>
@@ -11943,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K129">
         <v>2.25</v>
@@ -12023,7 +12023,7 @@
         <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12032,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K130">
         <v>3.5</v>
@@ -12109,10 +12109,10 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131">
         <v>2</v>
@@ -12198,7 +12198,7 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G132" t="s">
         <v>42</v>
@@ -12299,7 +12299,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K133">
         <v>2.35</v>
@@ -12379,7 +12379,7 @@
         <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12465,7 +12465,7 @@
         <v>45129.20833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -12477,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
         <v>2.2</v>
@@ -12566,7 +12566,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K136">
         <v>1.909</v>
@@ -12646,7 +12646,7 @@
         <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -12655,7 +12655,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K137">
         <v>2</v>
@@ -12732,7 +12732,7 @@
         <v>45130.25</v>
       </c>
       <c r="F138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G138" t="s">
         <v>37</v>
@@ -12744,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K138">
         <v>1.833</v>
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K139">
         <v>2.1</v>
@@ -12913,7 +12913,7 @@
         <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K140">
         <v>1.533</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6353329</v>
+        <v>6352272</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L142">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="N142">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R142">
+        <v>1.875</v>
+      </c>
+      <c r="S142">
         <v>1.925</v>
       </c>
-      <c r="S142">
-        <v>1.875</v>
-      </c>
       <c r="T142">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6352272</v>
+        <v>6353329</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K143">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M143">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="N143">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q143">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
+        <v>1.925</v>
+      </c>
+      <c r="S143">
         <v>1.875</v>
       </c>
-      <c r="S143">
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
+        <v>1.875</v>
+      </c>
+      <c r="V143">
         <v>1.925</v>
       </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
-      <c r="U143">
-        <v>1.85</v>
-      </c>
-      <c r="V143">
-        <v>1.95</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13266,7 +13266,7 @@
         <v>45150.25</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G144" t="s">
         <v>42</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K144">
         <v>2.375</v>
@@ -13355,7 +13355,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>38</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K145">
         <v>2.6</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K146">
         <v>1.8</v>
@@ -13536,7 +13536,7 @@
         <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K147">
         <v>2</v>
@@ -13634,7 +13634,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K148">
         <v>2.3</v>
@@ -13711,7 +13711,7 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G149" t="s">
         <v>34</v>
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -13800,7 +13800,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13981,7 +13981,7 @@
         <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H152">
         <v>4</v>
@@ -13990,7 +13990,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
         <v>1.833</v>
@@ -14067,7 +14067,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
         <v>43</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14245,10 +14245,10 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F155" t="s">
+        <v>41</v>
+      </c>
+      <c r="G155" t="s">
         <v>40</v>
-      </c>
-      <c r="G155" t="s">
-        <v>41</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14257,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K155">
         <v>4</v>
@@ -14337,7 +14337,7 @@
         <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6352280</v>
+        <v>6352281</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,73 +14423,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H157">
         <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>45</v>
       </c>
       <c r="K157">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N157">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P157">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6352281</v>
+        <v>6352280</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,73 +14512,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>46</v>
       </c>
       <c r="K158">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L158">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M158">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N158">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S158">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X158">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB158">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14613,7 +14613,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K159">
         <v>3.4</v>
@@ -14702,7 +14702,7 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K160">
         <v>2.625</v>
@@ -14782,7 +14782,7 @@
         <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14791,7 +14791,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K161">
         <v>2.2</v>
@@ -14868,10 +14868,10 @@
         <v>45171.08333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H162">
         <v>4</v>
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6352284</v>
+        <v>6352283</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,46 +15046,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
         <v>46</v>
       </c>
       <c r="K164">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
         <v>3.1</v>
       </c>
       <c r="M164">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N164">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
         <v>2.25</v>
@@ -15097,19 +15097,19 @@
         <v>1.825</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X164">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
         <v>-0.5</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6352283</v>
+        <v>6352284</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,46 +15135,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
         <v>45</v>
       </c>
       <c r="K165">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L165">
         <v>3.1</v>
       </c>
       <c r="M165">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N165">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O165">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P165">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
         <v>2.25</v>
@@ -15186,19 +15186,19 @@
         <v>1.825</v>
       </c>
       <c r="W165">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB165">
         <v>-0.5</v>
@@ -15236,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15313,7 +15313,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K167">
         <v>1.666</v>
@@ -15402,10 +15402,10 @@
         <v>45178.08333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K168">
         <v>6</v>
@@ -15491,7 +15491,7 @@
         <v>45178.16666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G169" t="s">
         <v>36</v>
@@ -15503,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K169">
         <v>3.6</v>
@@ -15580,7 +15580,7 @@
         <v>45178.20833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G170" t="s">
         <v>38</v>
@@ -15592,7 +15592,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K170">
         <v>2.4</v>
@@ -15672,7 +15672,7 @@
         <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -15681,7 +15681,7 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K171">
         <v>2.4</v>
@@ -15770,7 +15770,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K172">
         <v>1.333</v>
@@ -15850,7 +15850,7 @@
         <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K173">
         <v>1.909</v>
@@ -15948,7 +15948,7 @@
         <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K174">
         <v>2.25</v>
@@ -16025,7 +16025,7 @@
         <v>45182.25</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G175" t="s">
         <v>39</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6352290</v>
+        <v>6352289</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,58 +16114,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H176">
+        <v>3</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176" t="s">
+        <v>46</v>
+      </c>
+      <c r="K176">
+        <v>4.2</v>
+      </c>
+      <c r="L176">
+        <v>3.6</v>
+      </c>
+      <c r="M176">
+        <v>1.666</v>
+      </c>
+      <c r="N176">
+        <v>4.5</v>
+      </c>
+      <c r="O176">
+        <v>3.8</v>
+      </c>
+      <c r="P176">
+        <v>1.571</v>
+      </c>
+      <c r="Q176">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176" t="s">
-        <v>45</v>
-      </c>
-      <c r="K176">
-        <v>2.3</v>
-      </c>
-      <c r="L176">
-        <v>3</v>
-      </c>
-      <c r="M176">
-        <v>2.875</v>
-      </c>
-      <c r="N176">
-        <v>2.5</v>
-      </c>
-      <c r="O176">
-        <v>3</v>
-      </c>
-      <c r="P176">
-        <v>2.625</v>
-      </c>
-      <c r="Q176">
-        <v>0</v>
-      </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
+        <v>1.875</v>
+      </c>
+      <c r="V176">
         <v>1.925</v>
       </c>
-      <c r="V176">
-        <v>1.875</v>
-      </c>
       <c r="W176">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6352289</v>
+        <v>6352290</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,58 +16203,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>46</v>
+      </c>
+      <c r="K177">
+        <v>2.3</v>
+      </c>
+      <c r="L177">
         <v>3</v>
       </c>
-      <c r="I177">
-        <v>2</v>
-      </c>
-      <c r="J177" t="s">
-        <v>45</v>
-      </c>
-      <c r="K177">
-        <v>4.2</v>
-      </c>
-      <c r="L177">
-        <v>3.6</v>
-      </c>
       <c r="M177">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N177">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P177">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="Q177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U177">
+        <v>1.925</v>
+      </c>
+      <c r="V177">
         <v>1.875</v>
       </c>
-      <c r="V177">
-        <v>1.925</v>
-      </c>
       <c r="W177">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16263,16 +16263,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>0.875</v>
-      </c>
-      <c r="AC177">
-        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6352291</v>
+        <v>6353019</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,58 +16292,58 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K178">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L178">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M178">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N178">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O178">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P178">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R178">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,13 +16352,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6353019</v>
+        <v>6352291</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,58 +16381,58 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K179">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L179">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M179">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N179">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O179">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P179">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>0.3999999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16441,13 +16441,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K180">
         <v>1.444</v>
@@ -16571,7 +16571,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K181">
         <v>1.85</v>
@@ -16648,7 +16648,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
         <v>33</v>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K183">
         <v>4</v>
@@ -16838,7 +16838,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K184">
         <v>3.25</v>
@@ -16915,7 +16915,7 @@
         <v>45192.16666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G185" t="s">
         <v>38</v>
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K185">
         <v>3.5</v>
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6352294</v>
+        <v>6352295</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,46 +17004,46 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H186">
+        <v>0</v>
+      </c>
+      <c r="I186">
         <v>1</v>
-      </c>
-      <c r="I186">
-        <v>3</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L186">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M186">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N186">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O186">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P186">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q186">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R186">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S186">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
         <v>2.25</v>
@@ -17061,19 +17061,19 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB186">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC186">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6352295</v>
+        <v>6352294</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,46 +17093,46 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F187" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L187">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M187">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N187">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O187">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P187">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q187">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R187">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S187">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T187">
         <v>2.25</v>
@@ -17150,19 +17150,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC187">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17182,7 +17182,7 @@
         <v>45193.20833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
         <v>34</v>
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K188">
         <v>1.909</v>
@@ -17271,10 +17271,10 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17283,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K189">
         <v>1.615</v>
@@ -17363,7 +17363,7 @@
         <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6352296</v>
+        <v>6353018</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,10 +17449,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17464,40 +17464,40 @@
         <v>47</v>
       </c>
       <c r="K191">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L191">
         <v>3.1</v>
       </c>
       <c r="M191">
+        <v>2.8</v>
+      </c>
+      <c r="N191">
         <v>2.4</v>
-      </c>
-      <c r="N191">
-        <v>3</v>
       </c>
       <c r="O191">
         <v>3.1</v>
       </c>
       <c r="P191">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17506,16 +17506,16 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.2</v>
+        <v>1.625</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6353018</v>
+        <v>6352296</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,10 +17538,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17553,40 +17553,40 @@
         <v>47</v>
       </c>
       <c r="K192">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L192">
         <v>3.1</v>
       </c>
       <c r="M192">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N192">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O192">
         <v>3.1</v>
       </c>
       <c r="P192">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q192">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R192">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
         <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V192">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W192">
         <v>-1</v>
@@ -17595,16 +17595,16 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.625</v>
+        <v>1.2</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB192">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17615,7 +17615,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6352948</v>
+        <v>6352949</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17627,73 +17627,73 @@
         <v>45227.125</v>
       </c>
       <c r="F193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H193">
         <v>3</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193" t="s">
         <v>45</v>
       </c>
       <c r="K193">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L193">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N193">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="O193">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P193">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S193">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T193">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB193">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17704,7 +17704,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6352949</v>
+        <v>6352948</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17716,73 +17716,73 @@
         <v>45227.125</v>
       </c>
       <c r="F194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G194" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H194">
         <v>3</v>
       </c>
       <c r="I194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
         <v>46</v>
       </c>
       <c r="K194">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L194">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M194">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N194">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O194">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P194">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q194">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S194">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U194">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X194">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA194">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -17805,10 +17805,10 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F195" t="s">
+        <v>32</v>
+      </c>
+      <c r="G195" t="s">
         <v>30</v>
-      </c>
-      <c r="G195" t="s">
-        <v>32</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17817,7 +17817,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K195">
         <v>1.615</v>
@@ -17995,7 +17995,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K197">
         <v>3.1</v>
@@ -18075,7 +18075,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K199">
         <v>2.25</v>
@@ -18250,7 +18250,7 @@
         <v>45234.08333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
         <v>35</v>
@@ -18351,7 +18351,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K201">
         <v>1.8</v>
@@ -18431,7 +18431,7 @@
         <v>42</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H202">
         <v>3</v>
@@ -18440,7 +18440,7 @@
         <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K202">
         <v>2.375</v>
@@ -18517,10 +18517,10 @@
         <v>45235.08333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6352956</v>
+        <v>6353334</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,40 +18606,40 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K204">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L204">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M204">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N204">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="O204">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P204">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q204">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R204">
         <v>1.8</v>
@@ -18651,31 +18651,31 @@
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V204">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W204">
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z204">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC204">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6352957</v>
+        <v>6352953</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,13 +18695,13 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205">
         <v>0</v>
@@ -18710,61 +18710,61 @@
         <v>46</v>
       </c>
       <c r="K205">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L205">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M205">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N205">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O205">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P205">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S205">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T205">
         <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V205">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W205">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X205">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA205">
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>-1</v>
+      </c>
+      <c r="AC205">
         <v>0.8</v>
-      </c>
-      <c r="AB205">
-        <v>-1</v>
-      </c>
-      <c r="AC205">
-        <v>0.875</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6352958</v>
+        <v>6352952</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,10 +18784,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -18799,40 +18799,40 @@
         <v>47</v>
       </c>
       <c r="K206">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="L206">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M206">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="N206">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="O206">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P206">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
-        <v>1.675</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
         <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W206">
         <v>-1</v>
@@ -18841,19 +18841,19 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>1.875</v>
+        <v>1.05</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>1.15</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18861,7 +18861,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6353334</v>
+        <v>6352957</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18873,46 +18873,46 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
         <v>31</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K207">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L207">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M207">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N207">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="O207">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P207">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
         <v>1.8</v>
-      </c>
-      <c r="S207">
-        <v>2</v>
       </c>
       <c r="T207">
         <v>2.5</v>
@@ -18927,22 +18927,22 @@
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y207">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
         <v>-1</v>
       </c>
       <c r="AA207">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB207">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6352953</v>
+        <v>6353335</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,76 +18962,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G208" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H208">
         <v>2</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
         <v>45</v>
       </c>
       <c r="K208">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L208">
         <v>3.25</v>
       </c>
       <c r="M208">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N208">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O208">
         <v>3.4</v>
       </c>
       <c r="P208">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q208">
         <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S208">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U208">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V208">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W208">
+        <v>-1</v>
+      </c>
+      <c r="X208">
+        <v>2.4</v>
+      </c>
+      <c r="Y208">
+        <v>-1</v>
+      </c>
+      <c r="Z208">
+        <v>-1</v>
+      </c>
+      <c r="AA208">
         <v>0.8</v>
       </c>
-      <c r="X208">
-        <v>-1</v>
-      </c>
-      <c r="Y208">
-        <v>-1</v>
-      </c>
-      <c r="Z208">
-        <v>0.825</v>
-      </c>
-      <c r="AA208">
-        <v>-1</v>
-      </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC208">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6353335</v>
+        <v>6352958</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,76 +19051,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G209" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K209">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L209">
         <v>3.25</v>
       </c>
       <c r="M209">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N209">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P209">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q209">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R209">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="S209">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="T209">
         <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="AB209">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19128,7 +19128,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6352952</v>
+        <v>6352956</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19140,76 +19140,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G210" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H210">
         <v>0</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K210">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M210">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N210">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O210">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P210">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q210">
         <v>0.25</v>
       </c>
       <c r="R210">
+        <v>1.8</v>
+      </c>
+      <c r="S210">
+        <v>2</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
         <v>1.95</v>
       </c>
-      <c r="S210">
+      <c r="V210">
         <v>1.85</v>
       </c>
-      <c r="T210">
-        <v>2.25</v>
-      </c>
-      <c r="U210">
-        <v>1.8</v>
-      </c>
-      <c r="V210">
-        <v>2</v>
-      </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y210">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA210">
+        <v>-0.5</v>
+      </c>
+      <c r="AB210">
+        <v>-1</v>
+      </c>
+      <c r="AC210">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB210">
-        <v>-1</v>
-      </c>
-      <c r="AC210">
-        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K211">
         <v>1.909</v>

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -103,6 +103,9 @@
     <t>South Korea K3 League</t>
   </si>
   <si>
+    <t>Hwaseong FC</t>
+  </si>
+  <si>
     <t>Busan Trans Corp</t>
   </si>
   <si>
@@ -110,9 +113,6 @@
   </si>
   <si>
     <t>Pocheon Citizen FC</t>
-  </si>
-  <si>
-    <t>Hwaseong FC</t>
   </si>
   <si>
     <t>Siheung City AC</t>
@@ -151,10 +151,10 @@
     <t>Jinju Citizen FC</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6378022</v>
+        <v>6352205</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,73 +631,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.533</v>
+        <v>1.909</v>
       </c>
       <c r="L2">
+        <v>3.2</v>
+      </c>
+      <c r="M2">
         <v>3.6</v>
       </c>
-      <c r="M2">
-        <v>5.5</v>
-      </c>
       <c r="N2">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X2">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA2">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC2">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6352203</v>
+        <v>6378022</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,37 +720,37 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>3.75</v>
+        <v>1.533</v>
       </c>
       <c r="L3">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>1.909</v>
+        <v>5.5</v>
       </c>
       <c r="N3">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P3">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
         <v>1.775</v>
@@ -759,34 +759,34 @@
         <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6352204</v>
+        <v>6352203</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,56 +809,56 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L4">
         <v>3.1</v>
       </c>
       <c r="M4">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N4">
+        <v>3.6</v>
+      </c>
+      <c r="O4">
+        <v>3.1</v>
+      </c>
+      <c r="P4">
+        <v>1.95</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>1.775</v>
+      </c>
+      <c r="S4">
+        <v>2.025</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>1.925</v>
+      </c>
+      <c r="V4">
+        <v>1.875</v>
+      </c>
+      <c r="W4">
         <v>2.6</v>
       </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>2.55</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>1.925</v>
-      </c>
-      <c r="S4">
-        <v>1.875</v>
-      </c>
-      <c r="T4">
-        <v>2.25</v>
-      </c>
-      <c r="U4">
-        <v>1.9</v>
-      </c>
-      <c r="V4">
-        <v>1.9</v>
-      </c>
-      <c r="W4">
-        <v>1.6</v>
-      </c>
       <c r="X4">
         <v>-1</v>
       </c>
@@ -866,16 +866,16 @@
         <v>-1</v>
       </c>
       <c r="Z4">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA4">
+        <v>-1</v>
+      </c>
+      <c r="AB4">
         <v>0.925</v>
       </c>
-      <c r="AA4">
-        <v>-1</v>
-      </c>
-      <c r="AB4">
-        <v>-1</v>
-      </c>
       <c r="AC4">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6352205</v>
+        <v>6352204</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,55 +898,55 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>3.1</v>
+      </c>
+      <c r="M5">
+        <v>3.4</v>
+      </c>
+      <c r="N5">
+        <v>2.6</v>
+      </c>
+      <c r="O5">
         <v>3</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5">
-        <v>1.909</v>
-      </c>
-      <c r="L5">
-        <v>3.2</v>
-      </c>
-      <c r="M5">
-        <v>3.6</v>
-      </c>
-      <c r="N5">
-        <v>2.1</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
       <c r="P5">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
+        <v>1.925</v>
+      </c>
+      <c r="S5">
         <v>1.875</v>
       </c>
-      <c r="S5">
-        <v>1.925</v>
-      </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -955,16 +955,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -996,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.615</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>2.625</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>1.833</v>
@@ -1518,7 +1518,7 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6352210</v>
+        <v>6353035</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O14">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q14">
+        <v>-0.75</v>
+      </c>
+      <c r="R14">
+        <v>1.9</v>
+      </c>
+      <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>1.775</v>
+      </c>
+      <c r="V14">
+        <v>2.025</v>
+      </c>
+      <c r="W14">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>0.45</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>1.8</v>
-      </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.925</v>
-      </c>
-      <c r="V14">
-        <v>1.875</v>
-      </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>2.5</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
-      <c r="AA14">
-        <v>0.8</v>
-      </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6353035</v>
+        <v>6352210</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N15">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P15">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z15">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
+        <v>0.8</v>
+      </c>
+      <c r="AB15">
         <v>-0.5</v>
       </c>
-      <c r="AB15">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1877,7 +1877,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K17">
         <v>1.8</v>
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6352880</v>
+        <v>6353034</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45011.08333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>3.6</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>2.75</v>
+      </c>
+      <c r="O19">
+        <v>3.4</v>
+      </c>
+      <c r="P19">
+        <v>2.25</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.975</v>
+      </c>
+      <c r="S19">
+        <v>1.725</v>
+      </c>
+      <c r="T19">
+        <v>2.25</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>1.8</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
         <v>2.4</v>
       </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>2.75</v>
-      </c>
-      <c r="N19">
-        <v>2.55</v>
-      </c>
-      <c r="O19">
-        <v>2.875</v>
-      </c>
-      <c r="P19">
-        <v>2.7</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1.85</v>
-      </c>
-      <c r="S19">
-        <v>1.95</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19">
-        <v>1.9</v>
-      </c>
-      <c r="V19">
-        <v>1.9</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
       <c r="Y19">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6353034</v>
+        <v>6352880</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45011.08333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K20">
+        <v>2.4</v>
+      </c>
+      <c r="L20">
         <v>3</v>
       </c>
-      <c r="L20">
-        <v>3.6</v>
-      </c>
       <c r="M20">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P20">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6352882</v>
+        <v>6352214</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
         <v>3.1</v>
       </c>
       <c r="M22">
+        <v>3.75</v>
+      </c>
+      <c r="N22">
+        <v>1.7</v>
+      </c>
+      <c r="O22">
+        <v>3.1</v>
+      </c>
+      <c r="P22">
+        <v>4.75</v>
+      </c>
+      <c r="Q22">
+        <v>-0.75</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>1.8</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
         <v>2.1</v>
       </c>
-      <c r="N22">
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <v>2.9</v>
-      </c>
-      <c r="P22">
-        <v>2.3</v>
-      </c>
-      <c r="Q22">
-        <v>0.25</v>
-      </c>
-      <c r="R22">
-        <v>1.775</v>
-      </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.85</v>
-      </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
       <c r="Y22">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6352214</v>
+        <v>6352882</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L23">
         <v>3.1</v>
       </c>
       <c r="M23">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P23">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
         <v>2</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K24">
         <v>4.2</v>
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6352215</v>
+        <v>6352216</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2764,76 @@
         <v>45018.125</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M26">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N26">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6352216</v>
+        <v>6352215</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45018.125</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L27">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N27">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2954,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>1.727</v>
@@ -3123,7 +3123,7 @@
         <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>2.8</v>
@@ -3209,7 +3209,7 @@
         <v>45024.08333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3476,7 +3476,7 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G34" t="s">
         <v>36</v>
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>2.05</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6352219</v>
+        <v>6352888</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,58 +3654,58 @@
         <v>45031.125</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M36">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N36">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P36">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3714,16 +3714,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6352888</v>
+        <v>6352219</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,58 +3743,58 @@
         <v>45031.125</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L37">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N37">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O37">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P37">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3803,16 +3803,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3832,7 +3832,7 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>34</v>
@@ -3844,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K38">
         <v>1.5</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6352889</v>
+        <v>6353322</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,40 +3921,40 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O39">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P39">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
         <v>1.8</v>
@@ -3963,34 +3963,34 @@
         <v>2</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y39">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6353322</v>
+        <v>6352889</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,40 +4010,40 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N40">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P40">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>1.8</v>
@@ -4052,34 +4052,34 @@
         <v>2</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
+        <v>1</v>
+      </c>
+      <c r="AB40">
         <v>-0.5</v>
       </c>
-      <c r="AA40">
-        <v>0.5</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>2.25</v>
@@ -4191,7 +4191,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>2.4</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6352887</v>
+        <v>6352223</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,76 +4366,76 @@
         <v>45038.08333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>2.9</v>
       </c>
       <c r="L44">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M44">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N44">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O44">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P44">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R44">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T44">
         <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA44">
+        <v>-1</v>
+      </c>
+      <c r="AB44">
         <v>-0.5</v>
       </c>
-      <c r="AB44">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6352223</v>
+        <v>6352887</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,76 +4455,76 @@
         <v>45038.08333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45">
         <v>2.9</v>
       </c>
       <c r="L45">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M45">
+        <v>2.3</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+      <c r="P45">
         <v>2.25</v>
       </c>
-      <c r="N45">
-        <v>3.4</v>
-      </c>
-      <c r="O45">
-        <v>3.2</v>
-      </c>
-      <c r="P45">
-        <v>1.95</v>
-      </c>
       <c r="Q45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S45">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T45">
         <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC45">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6352226</v>
+        <v>6352224</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45038.125</v>
       </c>
       <c r="F46" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L46">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M46">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="N46">
-        <v>1.666</v>
+        <v>2.25</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P46">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC46">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4636,7 +4636,7 @@
         <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6352224</v>
+        <v>6352226</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45038.125</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="N48">
+        <v>1.666</v>
+      </c>
+      <c r="O48">
+        <v>3.4</v>
+      </c>
+      <c r="P48">
+        <v>4.5</v>
+      </c>
+      <c r="Q48">
+        <v>-0.75</v>
+      </c>
+      <c r="R48">
+        <v>1.95</v>
+      </c>
+      <c r="S48">
+        <v>1.85</v>
+      </c>
+      <c r="T48">
         <v>2.25</v>
       </c>
-      <c r="O48">
-        <v>3.1</v>
-      </c>
-      <c r="P48">
-        <v>3</v>
-      </c>
-      <c r="Q48">
-        <v>-0.25</v>
-      </c>
-      <c r="R48">
-        <v>2</v>
-      </c>
-      <c r="S48">
-        <v>1.8</v>
-      </c>
-      <c r="T48">
-        <v>2</v>
-      </c>
       <c r="U48">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X48">
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
         <v>35</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K50">
         <v>1.833</v>
@@ -4989,7 +4989,7 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51">
         <v>4.75</v>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5167,7 +5167,7 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54">
         <v>1.8</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6352230</v>
+        <v>6353323</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,73 +5345,73 @@
         <v>45046.08333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>45</v>
       </c>
       <c r="K55">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N55">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O55">
         <v>3.1</v>
       </c>
       <c r="P55">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
+        <v>1.95</v>
+      </c>
+      <c r="S55">
         <v>1.85</v>
       </c>
-      <c r="S55">
-        <v>1.95</v>
-      </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X55">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6353323</v>
+        <v>6352230</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,73 +5434,73 @@
         <v>45046.08333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>46</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N56">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O56">
         <v>3.1</v>
       </c>
       <c r="P56">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R56">
+        <v>1.85</v>
+      </c>
+      <c r="S56">
         <v>1.95</v>
       </c>
-      <c r="S56">
-        <v>1.85</v>
-      </c>
       <c r="T56">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5615,7 +5615,7 @@
         <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>1.833</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6352894</v>
+        <v>6353031</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M59">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N59">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P59">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
         <v>2</v>
       </c>
       <c r="U59">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6353031</v>
+        <v>6352894</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L60">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N60">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="O60">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
+        <v>1.85</v>
+      </c>
+      <c r="S60">
+        <v>1.95</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
         <v>1.75</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>2.05</v>
       </c>
-      <c r="T60">
-        <v>2</v>
-      </c>
-      <c r="U60">
-        <v>1.9</v>
-      </c>
-      <c r="V60">
-        <v>1.9</v>
-      </c>
       <c r="W60">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
+        <v>0.95</v>
+      </c>
+      <c r="AB60">
         <v>0.75</v>
       </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
-      <c r="AB60">
-        <v>-1</v>
-      </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>45053.08333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
         <v>2.375</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6352895</v>
+        <v>6352233</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,55 +5968,55 @@
         <v>45053.125</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M62">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="N62">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O62">
         <v>3.1</v>
       </c>
       <c r="P62">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6025,19 +6025,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6352233</v>
+        <v>6352895</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,55 +6057,55 @@
         <v>45053.125</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L63">
+        <v>3.25</v>
+      </c>
+      <c r="M63">
+        <v>1.833</v>
+      </c>
+      <c r="N63">
         <v>3.1</v>
-      </c>
-      <c r="M63">
-        <v>1.909</v>
-      </c>
-      <c r="N63">
-        <v>3.5</v>
       </c>
       <c r="O63">
         <v>3.1</v>
       </c>
       <c r="P63">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U63">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6114,19 +6114,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>2.3</v>
@@ -6235,7 +6235,7 @@
         <v>45059.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
         <v>35</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>2.875</v>
@@ -6413,7 +6413,7 @@
         <v>45060.08333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>2.3</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.25</v>
@@ -6591,10 +6591,10 @@
         <v>45060.20833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.95</v>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>2.875</v>
@@ -6858,10 +6858,10 @@
         <v>45066.08333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6870,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>3.1</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6352238</v>
+        <v>6352898</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45066.125</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="L73">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M73">
+        <v>1.571</v>
+      </c>
+      <c r="N73">
+        <v>2.6</v>
+      </c>
+      <c r="O73">
+        <v>3.6</v>
+      </c>
+      <c r="P73">
         <v>2.2</v>
       </c>
-      <c r="N73">
-        <v>2.2</v>
-      </c>
-      <c r="O73">
-        <v>3.1</v>
-      </c>
-      <c r="P73">
-        <v>3</v>
-      </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y73">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6352898</v>
+        <v>6352238</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45066.125</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P74">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z74">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>1.833</v>
@@ -7226,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>2.375</v>
@@ -7306,7 +7306,7 @@
         <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>2.5</v>
@@ -7481,10 +7481,10 @@
         <v>45073.08333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7570,10 +7570,10 @@
         <v>45073.08333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7582,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>2.15</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6352242</v>
+        <v>6352901</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45073.125</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="L81">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N81">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O81">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P81">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
+        <v>1.875</v>
+      </c>
+      <c r="S81">
+        <v>1.925</v>
+      </c>
+      <c r="T81">
+        <v>2.25</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
         <v>1.8</v>
       </c>
-      <c r="S81">
-        <v>2</v>
-      </c>
-      <c r="T81">
-        <v>1.75</v>
-      </c>
-      <c r="U81">
-        <v>1.875</v>
-      </c>
-      <c r="V81">
-        <v>1.925</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7760,7 +7760,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>1.615</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6352901</v>
+        <v>6352242</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45073.125</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>47</v>
+      </c>
+      <c r="K83">
+        <v>2.8</v>
+      </c>
+      <c r="L83">
+        <v>2.875</v>
+      </c>
+      <c r="M83">
+        <v>2.45</v>
+      </c>
+      <c r="N83">
+        <v>2.55</v>
+      </c>
+      <c r="O83">
+        <v>2.875</v>
+      </c>
+      <c r="P83">
+        <v>2.8</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>1.8</v>
+      </c>
+      <c r="S83">
+        <v>2</v>
+      </c>
+      <c r="T83">
+        <v>1.75</v>
+      </c>
+      <c r="U83">
+        <v>1.875</v>
+      </c>
+      <c r="V83">
+        <v>1.925</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>1.8</v>
+      </c>
+      <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>1</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>46</v>
-      </c>
-      <c r="K83">
-        <v>2.3</v>
-      </c>
-      <c r="L83">
-        <v>3</v>
-      </c>
-      <c r="M83">
-        <v>2.9</v>
-      </c>
-      <c r="N83">
-        <v>2.625</v>
-      </c>
-      <c r="O83">
-        <v>2.9</v>
-      </c>
-      <c r="P83">
-        <v>2.625</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>1.875</v>
-      </c>
-      <c r="S83">
-        <v>1.925</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>2</v>
-      </c>
-      <c r="V83">
-        <v>1.8</v>
-      </c>
-      <c r="W83">
-        <v>1.625</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
-      <c r="Z83">
+      <c r="AB83">
         <v>0.875</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
       <c r="AC83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7938,7 +7938,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K84">
         <v>1.6</v>
@@ -8015,7 +8015,7 @@
         <v>45079.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
         <v>37</v>
@@ -8116,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8196,7 +8196,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.4</v>
@@ -8282,10 +8282,10 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8383,7 +8383,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K89">
         <v>1.727</v>
@@ -8472,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -8638,7 +8638,7 @@
         <v>45086.29166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>42</v>
@@ -8650,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8727,7 +8727,7 @@
         <v>45087.20833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
         <v>37</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>1.5</v>
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
         <v>1.833</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9006,7 +9006,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>2.8</v>
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6352251</v>
+        <v>6352908</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K97">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L97">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M97">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N97">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O97">
         <v>3</v>
       </c>
       <c r="P97">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R97">
+        <v>1.95</v>
+      </c>
+      <c r="S97">
+        <v>1.85</v>
+      </c>
+      <c r="T97">
+        <v>2.25</v>
+      </c>
+      <c r="U97">
         <v>2.025</v>
       </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.775</v>
       </c>
-      <c r="T97">
-        <v>2</v>
-      </c>
-      <c r="U97">
-        <v>1.95</v>
-      </c>
-      <c r="V97">
-        <v>1.85</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y97">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA97">
+        <v>-0</v>
+      </c>
+      <c r="AB97">
+        <v>-1</v>
+      </c>
+      <c r="AC97">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB97">
-        <v>-1</v>
-      </c>
-      <c r="AC97">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6352908</v>
+        <v>6352251</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L98">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M98">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N98">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O98">
         <v>3</v>
       </c>
       <c r="P98">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
+        <v>2.025</v>
+      </c>
+      <c r="S98">
+        <v>1.775</v>
+      </c>
+      <c r="T98">
+        <v>2</v>
+      </c>
+      <c r="U98">
         <v>1.95</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
-      <c r="U98">
-        <v>2.025</v>
-      </c>
-      <c r="V98">
-        <v>1.775</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>45093.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6352253</v>
+        <v>6353026</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,10 +9350,10 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9362,64 +9362,64 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="N100">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P100">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA100">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
         <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6353026</v>
+        <v>6352253</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,10 +9439,10 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9451,64 +9451,64 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
+        <v>1.333</v>
+      </c>
+      <c r="L101">
+        <v>5</v>
+      </c>
+      <c r="M101">
+        <v>6</v>
+      </c>
+      <c r="N101">
+        <v>1.571</v>
+      </c>
+      <c r="O101">
         <v>3.8</v>
       </c>
-      <c r="L101">
-        <v>3.25</v>
-      </c>
-      <c r="M101">
-        <v>1.833</v>
-      </c>
-      <c r="N101">
-        <v>2.875</v>
-      </c>
-      <c r="O101">
-        <v>3.25</v>
-      </c>
       <c r="P101">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T101">
         <v>2.25</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V101">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB101">
         <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.4</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9528,7 +9528,7 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
@@ -9540,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K102">
         <v>2.375</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K103">
         <v>2.5</v>
@@ -9718,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>2.25</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>2.375</v>
@@ -9887,7 +9887,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6353326</v>
+        <v>6352256</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,55 +9973,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
         <v>47</v>
       </c>
       <c r="K107">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L107">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N107">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O107">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10030,19 +10030,19 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>1.8</v>
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6352256</v>
+        <v>6353326</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,55 +10151,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
         <v>1</v>
-      </c>
-      <c r="I109">
-        <v>3</v>
       </c>
       <c r="J109" t="s">
         <v>47</v>
       </c>
       <c r="K109">
+        <v>2.2</v>
+      </c>
+      <c r="L109">
+        <v>3.25</v>
+      </c>
+      <c r="M109">
+        <v>2.8</v>
+      </c>
+      <c r="N109">
+        <v>2.3</v>
+      </c>
+      <c r="O109">
+        <v>3.25</v>
+      </c>
+      <c r="P109">
         <v>2.625</v>
       </c>
-      <c r="L109">
-        <v>3.2</v>
-      </c>
-      <c r="M109">
-        <v>2.375</v>
-      </c>
-      <c r="N109">
-        <v>2.1</v>
-      </c>
-      <c r="O109">
-        <v>3.2</v>
-      </c>
-      <c r="P109">
-        <v>3.1</v>
-      </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K110">
         <v>2.375</v>
@@ -10421,7 +10421,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112">
         <v>6</v>
@@ -10519,7 +10519,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
         <v>2.375</v>
@@ -10599,7 +10599,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
         <v>2.2</v>
@@ -10688,7 +10688,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
         <v>3.3</v>
@@ -10774,7 +10774,7 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G116" t="s">
         <v>36</v>
@@ -10786,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>2.3</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>2.5</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6352922</v>
+        <v>6352262</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
         <v>46</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N118">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W118">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6352262</v>
+        <v>6352922</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>45</v>
       </c>
       <c r="K119">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N119">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O119">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X119">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11142,7 +11142,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K120">
         <v>2.1</v>
@@ -11219,7 +11219,7 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
         <v>40</v>
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K122">
         <v>2.5</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352265</v>
+        <v>6352264</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K123">
         <v>1.727</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M123">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N123">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P123">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>2</v>
+      </c>
+      <c r="U123">
         <v>1.925</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>1.875</v>
       </c>
-      <c r="T123">
-        <v>2</v>
-      </c>
-      <c r="U123">
-        <v>1.95</v>
-      </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
       <c r="W123">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z123">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6352264</v>
+        <v>6352265</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K124">
         <v>1.727</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M124">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N124">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O124">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T124">
         <v>2</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA124">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>1.533</v>
@@ -11667,7 +11667,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11842,7 +11842,7 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
         <v>36</v>
@@ -11943,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K129">
         <v>2.25</v>
@@ -12023,7 +12023,7 @@
         <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12032,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K130">
         <v>3.5</v>
@@ -12109,7 +12109,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
         <v>40</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K131">
         <v>2</v>
@@ -12299,7 +12299,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K133">
         <v>2.35</v>
@@ -12379,7 +12379,7 @@
         <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12465,7 +12465,7 @@
         <v>45129.20833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -12477,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
         <v>2.2</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6352927</v>
+        <v>6352270</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,73 +12554,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W136">
+        <v>0.833</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6352270</v>
+        <v>6352927</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,58 +12643,58 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H137">
+        <v>4</v>
+      </c>
+      <c r="I137">
         <v>3</v>
       </c>
-      <c r="I137">
-        <v>1</v>
-      </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N137">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
         <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,13 +12703,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12744,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K138">
         <v>1.833</v>
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K139">
         <v>2.1</v>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K140">
         <v>1.533</v>
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6352272</v>
+        <v>6353329</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="N142">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q142">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
+        <v>1.925</v>
+      </c>
+      <c r="S142">
         <v>1.875</v>
       </c>
-      <c r="S142">
+      <c r="T142">
+        <v>2</v>
+      </c>
+      <c r="U142">
+        <v>1.875</v>
+      </c>
+      <c r="V142">
         <v>1.925</v>
       </c>
-      <c r="T142">
-        <v>2.25</v>
-      </c>
-      <c r="U142">
-        <v>1.85</v>
-      </c>
-      <c r="V142">
-        <v>1.95</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6353329</v>
+        <v>6352272</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R143">
+        <v>1.875</v>
+      </c>
+      <c r="S143">
         <v>1.925</v>
       </c>
-      <c r="S143">
-        <v>1.875</v>
-      </c>
       <c r="T143">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z143">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K144">
         <v>2.375</v>
@@ -13355,7 +13355,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
         <v>38</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K145">
         <v>2.6</v>
@@ -13456,7 +13456,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K146">
         <v>1.8</v>
@@ -13536,7 +13536,7 @@
         <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -13545,7 +13545,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K147">
         <v>2</v>
@@ -13634,7 +13634,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>2.3</v>
@@ -13711,7 +13711,7 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>34</v>
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -13800,7 +13800,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13990,7 +13990,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K152">
         <v>1.833</v>
@@ -14067,7 +14067,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
         <v>43</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14257,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K155">
         <v>4</v>
@@ -14337,7 +14337,7 @@
         <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -14426,7 +14426,7 @@
         <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14435,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
         <v>3.1</v>
@@ -14515,7 +14515,7 @@
         <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
@@ -14524,7 +14524,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K158">
         <v>1.5</v>
@@ -14613,7 +14613,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K159">
         <v>3.4</v>
@@ -14702,7 +14702,7 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K160">
         <v>2.625</v>
@@ -14791,7 +14791,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K161">
         <v>2.2</v>
@@ -14868,7 +14868,7 @@
         <v>45171.08333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
         <v>41</v>
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15049,7 +15049,7 @@
         <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15058,7 +15058,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K164">
         <v>1.909</v>
@@ -15135,7 +15135,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
         <v>43</v>
@@ -15147,7 +15147,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K165">
         <v>2.3</v>
@@ -15236,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15313,7 +15313,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K167">
         <v>1.666</v>
@@ -15402,10 +15402,10 @@
         <v>45178.08333333334</v>
       </c>
       <c r="F168" t="s">
+        <v>30</v>
+      </c>
+      <c r="G168" t="s">
         <v>29</v>
-      </c>
-      <c r="G168" t="s">
-        <v>32</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K168">
         <v>6</v>
@@ -15503,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K169">
         <v>3.6</v>
@@ -15592,7 +15592,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K170">
         <v>2.4</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6352287</v>
+        <v>6352941</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,73 +15669,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G171" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
         <v>45</v>
       </c>
       <c r="K171">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L171">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="M171">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="N171">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O171">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P171">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R171">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S171">
         <v>1.975</v>
       </c>
       <c r="T171">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X171">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA171">
+        <v>-1</v>
+      </c>
+      <c r="AB171">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB171">
-        <v>1</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6352941</v>
+        <v>6352287</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,73 +15758,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H172">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>46</v>
       </c>
       <c r="K172">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="L172">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="M172">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N172">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O172">
+        <v>3.25</v>
+      </c>
+      <c r="P172">
         <v>4</v>
       </c>
-      <c r="P172">
-        <v>5.75</v>
-      </c>
       <c r="Q172">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S172">
         <v>1.975</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W172">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB172">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15850,7 +15850,7 @@
         <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K173">
         <v>1.909</v>
@@ -15948,7 +15948,7 @@
         <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K174">
         <v>2.25</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6352289</v>
+        <v>6352290</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,58 +16114,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H176">
+        <v>1</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176" t="s">
+        <v>45</v>
+      </c>
+      <c r="K176">
+        <v>2.3</v>
+      </c>
+      <c r="L176">
         <v>3</v>
       </c>
-      <c r="I176">
-        <v>2</v>
-      </c>
-      <c r="J176" t="s">
-        <v>46</v>
-      </c>
-      <c r="K176">
-        <v>4.2</v>
-      </c>
-      <c r="L176">
-        <v>3.6</v>
-      </c>
       <c r="M176">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N176">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O176">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P176">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="Q176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S176">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U176">
+        <v>1.925</v>
+      </c>
+      <c r="V176">
         <v>1.875</v>
       </c>
-      <c r="V176">
-        <v>1.925</v>
-      </c>
       <c r="W176">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
         <v>0.875</v>
-      </c>
-      <c r="AC176">
-        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6352290</v>
+        <v>6352289</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,58 +16203,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H177">
+        <v>3</v>
+      </c>
+      <c r="I177">
+        <v>2</v>
+      </c>
+      <c r="J177" t="s">
+        <v>45</v>
+      </c>
+      <c r="K177">
+        <v>4.2</v>
+      </c>
+      <c r="L177">
+        <v>3.6</v>
+      </c>
+      <c r="M177">
+        <v>1.666</v>
+      </c>
+      <c r="N177">
+        <v>4.5</v>
+      </c>
+      <c r="O177">
+        <v>3.8</v>
+      </c>
+      <c r="P177">
+        <v>1.571</v>
+      </c>
+      <c r="Q177">
         <v>1</v>
       </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177" t="s">
-        <v>46</v>
-      </c>
-      <c r="K177">
-        <v>2.3</v>
-      </c>
-      <c r="L177">
-        <v>3</v>
-      </c>
-      <c r="M177">
-        <v>2.875</v>
-      </c>
-      <c r="N177">
-        <v>2.5</v>
-      </c>
-      <c r="O177">
-        <v>3</v>
-      </c>
-      <c r="P177">
-        <v>2.625</v>
-      </c>
-      <c r="Q177">
-        <v>0</v>
-      </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U177">
+        <v>1.875</v>
+      </c>
+      <c r="V177">
         <v>1.925</v>
       </c>
-      <c r="V177">
-        <v>1.875</v>
-      </c>
       <c r="W177">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16263,16 +16263,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6353019</v>
+        <v>6352291</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16295,55 +16295,55 @@
         <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K178">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L178">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M178">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N178">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O178">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P178">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
-        <v>0.3999999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,13 +16352,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6352291</v>
+        <v>6353019</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,58 +16381,58 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L179">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M179">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N179">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O179">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P179">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16441,13 +16441,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K180">
         <v>1.444</v>
@@ -16571,7 +16571,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K181">
         <v>1.85</v>
@@ -16648,7 +16648,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G182" t="s">
         <v>33</v>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K183">
         <v>4</v>
@@ -16838,7 +16838,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K184">
         <v>3.25</v>
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K185">
         <v>3.5</v>
@@ -17093,10 +17093,10 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F187" t="s">
+        <v>31</v>
+      </c>
+      <c r="G187" t="s">
         <v>30</v>
-      </c>
-      <c r="G187" t="s">
-        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K188">
         <v>1.909</v>
@@ -17271,11 +17271,11 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F189" t="s">
+        <v>29</v>
+      </c>
+      <c r="G189" t="s">
         <v>32</v>
       </c>
-      <c r="G189" t="s">
-        <v>31</v>
-      </c>
       <c r="H189">
         <v>0</v>
       </c>
@@ -17283,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K189">
         <v>1.615</v>
@@ -17363,7 +17363,7 @@
         <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17449,7 +17449,7 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
         <v>41</v>
@@ -17639,7 +17639,7 @@
         <v>3</v>
       </c>
       <c r="J193" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K193">
         <v>1.571</v>
@@ -17728,7 +17728,7 @@
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K194">
         <v>2</v>
@@ -17805,10 +17805,10 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17817,7 +17817,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K195">
         <v>1.615</v>
@@ -17995,7 +17995,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K197">
         <v>3.1</v>
@@ -18075,7 +18075,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K199">
         <v>2.25</v>
@@ -18327,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6352951</v>
+        <v>6353333</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18339,58 +18339,58 @@
         <v>45234.125</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K201">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M201">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N201">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P201">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W201">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18399,13 +18399,13 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6353333</v>
+        <v>6352951</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,58 +18428,58 @@
         <v>45234.125</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K202">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L202">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N202">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O202">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
+        <v>1.825</v>
+      </c>
+      <c r="S202">
+        <v>1.975</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.875</v>
+      </c>
+      <c r="V202">
         <v>1.925</v>
       </c>
-      <c r="S202">
-        <v>1.875</v>
-      </c>
-      <c r="T202">
-        <v>2.25</v>
-      </c>
-      <c r="U202">
-        <v>1.85</v>
-      </c>
-      <c r="V202">
-        <v>1.95</v>
-      </c>
       <c r="W202">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18488,13 +18488,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18517,10 +18517,10 @@
         <v>45235.08333333334</v>
       </c>
       <c r="F203" t="s">
+        <v>32</v>
+      </c>
+      <c r="G203" t="s">
         <v>31</v>
-      </c>
-      <c r="G203" t="s">
-        <v>30</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6353334</v>
+        <v>6352952</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,55 +18606,55 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G204" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J204" t="s">
         <v>47</v>
       </c>
       <c r="K204">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L204">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="N204">
-        <v>2.375</v>
+        <v>3.1</v>
       </c>
       <c r="O204">
         <v>3.3</v>
       </c>
       <c r="P204">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R204">
+        <v>1.95</v>
+      </c>
+      <c r="S204">
+        <v>1.85</v>
+      </c>
+      <c r="T204">
+        <v>2.25</v>
+      </c>
+      <c r="U204">
         <v>1.8</v>
       </c>
-      <c r="S204">
-        <v>2</v>
-      </c>
-      <c r="T204">
-        <v>2.5</v>
-      </c>
-      <c r="U204">
-        <v>1.925</v>
-      </c>
       <c r="V204">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18663,19 +18663,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
         <v>1</v>
-      </c>
-      <c r="AB204">
-        <v>0.925</v>
-      </c>
-      <c r="AC204">
-        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18707,7 +18707,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K205">
         <v>2.05</v>
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6352952</v>
+        <v>6352957</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,76 +18784,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G206" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K206">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L206">
         <v>3.2</v>
       </c>
       <c r="M206">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N206">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P206">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="Q206">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y206">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18861,7 +18861,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6352957</v>
+        <v>6352956</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18873,10 +18873,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G207" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -18885,64 +18885,64 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K207">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L207">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M207">
+        <v>2.9</v>
+      </c>
+      <c r="N207">
+        <v>2.75</v>
+      </c>
+      <c r="O207">
         <v>3.5</v>
       </c>
-      <c r="N207">
-        <v>1.45</v>
-      </c>
-      <c r="O207">
-        <v>4</v>
-      </c>
       <c r="P207">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q207">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V207">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA207">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB207">
         <v>-1</v>
       </c>
       <c r="AC207">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6353335</v>
+        <v>6352958</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,76 +18962,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K208">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L208">
         <v>3.25</v>
       </c>
       <c r="M208">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N208">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O208">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P208">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="S208">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z208">
         <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="AB208">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6352958</v>
+        <v>6353334</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,49 +19051,49 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G209" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J209" t="s">
         <v>47</v>
       </c>
       <c r="K209">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L209">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M209">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N209">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O209">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P209">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="Q209">
         <v>0</v>
       </c>
       <c r="R209">
-        <v>1.675</v>
+        <v>1.8</v>
       </c>
       <c r="S209">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
         <v>1.925</v>
@@ -19108,19 +19108,19 @@
         <v>-1</v>
       </c>
       <c r="Y209">
-        <v>1.875</v>
+        <v>1.55</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC209">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19128,7 +19128,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6352956</v>
+        <v>6353335</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19140,76 +19140,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G210" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K210">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L210">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N210">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O210">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
+        <v>2</v>
+      </c>
+      <c r="S210">
         <v>1.8</v>
       </c>
-      <c r="S210">
-        <v>2</v>
-      </c>
       <c r="T210">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V210">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y210">
         <v>-1</v>
       </c>
       <c r="Z210">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB210">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K211">
         <v>1.909</v>

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -103,13 +103,13 @@
     <t>South Korea K3 League</t>
   </si>
   <si>
-    <t>Hwaseong FC</t>
-  </si>
-  <si>
     <t>Busan Trans Corp</t>
   </si>
   <si>
     <t>Ulsan Citizen FC</t>
+  </si>
+  <si>
+    <t>Hwaseong FC</t>
   </si>
   <si>
     <t>Pocheon Citizen FC</t>
@@ -151,10 +151,10 @@
     <t>Jinju Citizen FC</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6352205</v>
+        <v>6378022</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,73 +631,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L2">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N2">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P2">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB2">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6378022</v>
+        <v>6352203</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,37 +720,37 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>46</v>
       </c>
       <c r="K3">
-        <v>1.533</v>
+        <v>3.75</v>
       </c>
       <c r="L3">
+        <v>3.1</v>
+      </c>
+      <c r="M3">
+        <v>1.909</v>
+      </c>
+      <c r="N3">
         <v>3.6</v>
       </c>
-      <c r="M3">
-        <v>5.5</v>
-      </c>
-      <c r="N3">
-        <v>1.571</v>
-      </c>
       <c r="O3">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
         <v>1.775</v>
@@ -759,34 +759,34 @@
         <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X3">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6352203</v>
+        <v>6352205</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -818,46 +818,46 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K4">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M4">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N4">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
         <v>3.1</v>
       </c>
       <c r="P4">
+        <v>3.25</v>
+      </c>
+      <c r="Q4">
+        <v>-0.25</v>
+      </c>
+      <c r="R4">
+        <v>1.875</v>
+      </c>
+      <c r="S4">
+        <v>1.925</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4">
+        <v>1.85</v>
+      </c>
+      <c r="V4">
         <v>1.95</v>
       </c>
-      <c r="Q4">
-        <v>0.5</v>
-      </c>
-      <c r="R4">
-        <v>1.775</v>
-      </c>
-      <c r="S4">
-        <v>2.025</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4">
-        <v>1.925</v>
-      </c>
-      <c r="V4">
-        <v>1.875</v>
-      </c>
       <c r="W4">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -866,13 +866,13 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC4">
         <v>-1</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -996,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>1.615</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K9">
         <v>2.625</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>1.833</v>
@@ -1518,7 +1518,7 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>42</v>
@@ -1530,7 +1530,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6353035</v>
+        <v>6352210</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N14">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P14">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z14">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
+        <v>0.8</v>
+      </c>
+      <c r="AB14">
         <v>-0.5</v>
       </c>
-      <c r="AB14">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6352210</v>
+        <v>6353035</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O15">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q15">
+        <v>-0.75</v>
+      </c>
+      <c r="R15">
+        <v>1.9</v>
+      </c>
+      <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>1.775</v>
+      </c>
+      <c r="V15">
+        <v>2.025</v>
+      </c>
+      <c r="W15">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>-1</v>
+      </c>
+      <c r="Z15">
+        <v>0.45</v>
+      </c>
+      <c r="AA15">
         <v>-0.5</v>
       </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>1.8</v>
-      </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.925</v>
-      </c>
-      <c r="V15">
-        <v>1.875</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>2.5</v>
-      </c>
-      <c r="Z15">
-        <v>-1</v>
-      </c>
-      <c r="AA15">
-        <v>0.8</v>
-      </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1877,7 +1877,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K17">
         <v>1.8</v>
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6352880</v>
+        <v>6352879</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>45011.08333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M20">
         <v>2.75</v>
       </c>
       <c r="N20">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O20">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P20">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6352879</v>
+        <v>6352880</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,55 +2319,55 @@
         <v>45011.08333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L21">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M21">
         <v>2.75</v>
       </c>
       <c r="N21">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O21">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P21">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2376,19 +2376,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6352214</v>
+        <v>6353033</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,10 +2408,10 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2420,43 +2420,43 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K22">
-        <v>1.909</v>
+        <v>4.2</v>
       </c>
       <c r="L22">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M22">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="N22">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="O22">
         <v>3.1</v>
       </c>
       <c r="P22">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q22">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T22">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W22">
         <v>-1</v>
@@ -2468,16 +2468,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6353033</v>
+        <v>6352214</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,10 +2586,10 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2598,43 +2598,43 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>4.2</v>
+        <v>1.909</v>
       </c>
       <c r="L24">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="N24">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="O24">
         <v>3.1</v>
       </c>
       <c r="P24">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
         <v>1.8</v>
       </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2646,16 +2646,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
         <v>0.8</v>
       </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2954,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K28">
         <v>1.727</v>
@@ -3123,7 +3123,7 @@
         <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
         <v>2.8</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K31">
         <v>2.6</v>
@@ -3476,7 +3476,7 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>36</v>
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K34">
         <v>2.05</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K36">
         <v>2.375</v>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K37">
         <v>2.75</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6352220</v>
+        <v>6352889</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3835,73 +3835,73 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N38">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W38">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z38">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K39">
         <v>2.15</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352889</v>
+        <v>6352220</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
         <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
         <v>1</v>
       </c>
-      <c r="AB40">
-        <v>-0.5</v>
-      </c>
       <c r="AC40">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41">
         <v>2.25</v>
@@ -4191,7 +4191,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K43">
         <v>2.4</v>
@@ -4378,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K44">
         <v>2.9</v>
@@ -4467,7 +4467,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K45">
         <v>2.9</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6352224</v>
+        <v>6352225</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,73 +4544,73 @@
         <v>45038.125</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L46">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M46">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="N46">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O46">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V46">
         <v>1.975</v>
       </c>
       <c r="W46">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB46">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6352225</v>
+        <v>6352224</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,73 +4633,73 @@
         <v>45038.125</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>29</v>
       </c>
       <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K47">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L47">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O47">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P47">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
         <v>1.975</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA47">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6352227</v>
+        <v>6352891</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4903,10 +4903,10 @@
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -4915,61 +4915,61 @@
         <v>46</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M50">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="N50">
+        <v>2.75</v>
+      </c>
+      <c r="O50">
+        <v>3.25</v>
+      </c>
+      <c r="P50">
+        <v>2.3</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1.975</v>
+      </c>
+      <c r="S50">
+        <v>1.725</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
         <v>1.75</v>
       </c>
-      <c r="O50">
-        <v>3.6</v>
-      </c>
-      <c r="P50">
-        <v>4</v>
-      </c>
-      <c r="Q50">
-        <v>-0.5</v>
-      </c>
-      <c r="R50">
+      <c r="V50">
+        <v>1.95</v>
+      </c>
+      <c r="W50">
         <v>1.75</v>
       </c>
-      <c r="S50">
-        <v>1.95</v>
-      </c>
-      <c r="T50">
-        <v>1.75</v>
-      </c>
-      <c r="U50">
-        <v>1.8</v>
-      </c>
-      <c r="V50">
-        <v>2</v>
-      </c>
-      <c r="W50">
-        <v>-1</v>
-      </c>
       <c r="X50">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.95</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6352891</v>
+        <v>6352227</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,13 +4989,13 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -5004,61 +5004,61 @@
         <v>45</v>
       </c>
       <c r="K51">
-        <v>4.75</v>
+        <v>1.833</v>
       </c>
       <c r="L51">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M51">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="N51">
-        <v>2.75</v>
+        <v>1.75</v>
       </c>
       <c r="O51">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P51">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S51">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U51">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V51">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="X51">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6352229</v>
+        <v>6352892</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,49 +5167,49 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H53">
         <v>4</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L53">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
+        <v>3.8</v>
+      </c>
+      <c r="N53">
+        <v>1.727</v>
+      </c>
+      <c r="O53">
         <v>3.4</v>
       </c>
-      <c r="N53">
-        <v>1.85</v>
-      </c>
-      <c r="O53">
-        <v>3.2</v>
-      </c>
       <c r="P53">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U53">
         <v>1.975</v>
@@ -5218,7 +5218,7 @@
         <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.8500000000000001</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5227,7 +5227,7 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA53">
         <v>-1</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6352892</v>
+        <v>6352229</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,49 +5256,49 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L54">
+        <v>3.1</v>
+      </c>
+      <c r="M54">
         <v>3.4</v>
       </c>
-      <c r="M54">
+      <c r="N54">
+        <v>1.85</v>
+      </c>
+      <c r="O54">
+        <v>3.2</v>
+      </c>
+      <c r="P54">
         <v>3.8</v>
-      </c>
-      <c r="N54">
-        <v>1.727</v>
-      </c>
-      <c r="O54">
-        <v>3.4</v>
-      </c>
-      <c r="P54">
-        <v>4.5</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
         <v>1.975</v>
@@ -5307,7 +5307,7 @@
         <v>1.825</v>
       </c>
       <c r="W54">
-        <v>0.7270000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5316,7 +5316,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6353323</v>
+        <v>6352230</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,73 +5345,73 @@
         <v>45046.08333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>45</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L55">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O55">
         <v>3.1</v>
       </c>
       <c r="P55">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R55">
+        <v>1.85</v>
+      </c>
+      <c r="S55">
         <v>1.95</v>
       </c>
-      <c r="S55">
-        <v>1.85</v>
-      </c>
       <c r="T55">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6352230</v>
+        <v>6353323</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,73 +5434,73 @@
         <v>45046.08333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
         <v>46</v>
       </c>
       <c r="K56">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M56">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N56">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O56">
         <v>3.1</v>
       </c>
       <c r="P56">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
+        <v>1.95</v>
+      </c>
+      <c r="S56">
         <v>1.85</v>
       </c>
-      <c r="S56">
-        <v>1.95</v>
-      </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X56">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5615,7 +5615,7 @@
         <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K58">
         <v>1.833</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59">
         <v>2.5</v>
@@ -5793,7 +5793,7 @@
         <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K61">
         <v>2.375</v>
@@ -5971,7 +5971,7 @@
         <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K64">
         <v>2.3</v>
@@ -6235,7 +6235,7 @@
         <v>45059.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>35</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K65">
         <v>2.875</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K67">
         <v>2.3</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K68">
         <v>2.25</v>
@@ -6591,10 +6591,10 @@
         <v>45060.20833333334</v>
       </c>
       <c r="F69" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" t="s">
         <v>29</v>
-      </c>
-      <c r="G69" t="s">
-        <v>30</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K69">
         <v>1.95</v>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K71">
         <v>2.875</v>
@@ -6858,7 +6858,7 @@
         <v>45066.08333333334</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -6870,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K72">
         <v>3.1</v>
@@ -6959,7 +6959,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K73">
         <v>4.75</v>
@@ -7039,7 +7039,7 @@
         <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K75">
         <v>1.833</v>
@@ -7226,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K76">
         <v>2.375</v>
@@ -7306,7 +7306,7 @@
         <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K78">
         <v>2.5</v>
@@ -7484,7 +7484,7 @@
         <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7570,10 +7570,10 @@
         <v>45073.08333333334</v>
       </c>
       <c r="F80" t="s">
+        <v>29</v>
+      </c>
+      <c r="G80" t="s">
         <v>30</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7582,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K80">
         <v>2.15</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6352901</v>
+        <v>6352242</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45073.125</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+      <c r="J81" t="s">
+        <v>47</v>
+      </c>
+      <c r="K81">
+        <v>2.8</v>
+      </c>
+      <c r="L81">
+        <v>2.875</v>
+      </c>
+      <c r="M81">
+        <v>2.45</v>
+      </c>
+      <c r="N81">
+        <v>2.55</v>
+      </c>
+      <c r="O81">
+        <v>2.875</v>
+      </c>
+      <c r="P81">
+        <v>2.8</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
+        <v>2</v>
+      </c>
+      <c r="T81">
+        <v>1.75</v>
+      </c>
+      <c r="U81">
+        <v>1.875</v>
+      </c>
+      <c r="V81">
+        <v>1.925</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>1.8</v>
+      </c>
+      <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
         <v>1</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" t="s">
-        <v>45</v>
-      </c>
-      <c r="K81">
-        <v>2.3</v>
-      </c>
-      <c r="L81">
-        <v>3</v>
-      </c>
-      <c r="M81">
-        <v>2.9</v>
-      </c>
-      <c r="N81">
-        <v>2.625</v>
-      </c>
-      <c r="O81">
-        <v>2.9</v>
-      </c>
-      <c r="P81">
-        <v>2.625</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>1.875</v>
-      </c>
-      <c r="S81">
-        <v>1.925</v>
-      </c>
-      <c r="T81">
-        <v>2.25</v>
-      </c>
-      <c r="U81">
-        <v>2</v>
-      </c>
-      <c r="V81">
-        <v>1.8</v>
-      </c>
-      <c r="W81">
-        <v>1.625</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
-      <c r="Z81">
+      <c r="AB81">
         <v>0.875</v>
       </c>
-      <c r="AA81">
-        <v>-1</v>
-      </c>
-      <c r="AB81">
-        <v>-1</v>
-      </c>
       <c r="AC81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6352900</v>
+        <v>6352901</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45073.125</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>46</v>
       </c>
       <c r="K82">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="N82">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P82">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X82">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6352242</v>
+        <v>6352900</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,73 +7837,73 @@
         <v>45073.125</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L83">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="N83">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O83">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P83">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y83">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB83">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -7938,7 +7938,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K84">
         <v>1.6</v>
@@ -8015,7 +8015,7 @@
         <v>45079.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
         <v>37</v>
@@ -8116,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K87">
         <v>3.4</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6352246</v>
+        <v>6352244</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,76 +8282,76 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L88">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M88">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N88">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O88">
         <v>3.1</v>
       </c>
       <c r="P88">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="Q88">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T88">
         <v>2</v>
       </c>
       <c r="U88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8383,7 +8383,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K89">
         <v>1.727</v>
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6352244</v>
+        <v>6352246</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L90">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M90">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N90">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="O90">
         <v>3.1</v>
       </c>
       <c r="P90">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="Q90">
+        <v>0.75</v>
+      </c>
+      <c r="R90">
+        <v>1.9</v>
+      </c>
+      <c r="S90">
+        <v>1.9</v>
+      </c>
+      <c r="T90">
+        <v>2</v>
+      </c>
+      <c r="U90">
+        <v>1.8</v>
+      </c>
+      <c r="V90">
+        <v>2</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z90">
         <v>-0.5</v>
       </c>
-      <c r="R90">
-        <v>1.8</v>
-      </c>
-      <c r="S90">
-        <v>2</v>
-      </c>
-      <c r="T90">
-        <v>2</v>
-      </c>
-      <c r="U90">
-        <v>1.825</v>
-      </c>
-      <c r="V90">
-        <v>1.975</v>
-      </c>
-      <c r="W90">
-        <v>0.8</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>0.8</v>
-      </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8638,7 +8638,7 @@
         <v>45086.29166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
         <v>42</v>
@@ -8650,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8727,7 +8727,7 @@
         <v>45087.20833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
         <v>37</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K93">
         <v>1.5</v>
@@ -8828,7 +8828,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K94">
         <v>1.833</v>
@@ -8917,7 +8917,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K95">
         <v>2</v>
@@ -9006,7 +9006,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K96">
         <v>2.8</v>
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K97">
         <v>2.5</v>
@@ -9172,7 +9172,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>32</v>
@@ -9261,7 +9261,7 @@
         <v>45093.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6353026</v>
+        <v>6352252</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K100">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L100">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M100">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N100">
+        <v>2.625</v>
+      </c>
+      <c r="O100">
         <v>2.875</v>
       </c>
-      <c r="O100">
-        <v>3.25</v>
-      </c>
       <c r="P100">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T100">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6352253</v>
+        <v>6353026</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,10 +9439,10 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9451,64 +9451,64 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K101">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="L101">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="N101">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P101">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q101">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T101">
         <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V101">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA101">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
         <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6352252</v>
+        <v>6352253</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,76 +9528,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K102">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>6</v>
+      </c>
+      <c r="N102">
+        <v>1.571</v>
+      </c>
+      <c r="O102">
+        <v>3.8</v>
+      </c>
+      <c r="P102">
+        <v>4.75</v>
+      </c>
+      <c r="Q102">
+        <v>-0.75</v>
+      </c>
+      <c r="R102">
+        <v>1.775</v>
+      </c>
+      <c r="S102">
+        <v>2.025</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>1.875</v>
+      </c>
+      <c r="V102">
+        <v>1.925</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
         <v>2.8</v>
       </c>
-      <c r="M102">
-        <v>3</v>
-      </c>
-      <c r="N102">
-        <v>2.625</v>
-      </c>
-      <c r="O102">
-        <v>2.875</v>
-      </c>
-      <c r="P102">
-        <v>2.55</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.95</v>
-      </c>
-      <c r="S102">
-        <v>1.85</v>
-      </c>
-      <c r="T102">
-        <v>2</v>
-      </c>
-      <c r="U102">
-        <v>1.85</v>
-      </c>
-      <c r="V102">
-        <v>1.95</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>1.875</v>
-      </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K103">
         <v>2.5</v>
@@ -9718,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K104">
         <v>2.25</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K105">
         <v>2.375</v>
@@ -9887,7 +9887,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6352256</v>
+        <v>6353326</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,55 +9973,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
         <v>1</v>
-      </c>
-      <c r="I107">
-        <v>3</v>
       </c>
       <c r="J107" t="s">
         <v>47</v>
       </c>
       <c r="K107">
+        <v>2.2</v>
+      </c>
+      <c r="L107">
+        <v>3.25</v>
+      </c>
+      <c r="M107">
+        <v>2.8</v>
+      </c>
+      <c r="N107">
+        <v>2.3</v>
+      </c>
+      <c r="O107">
+        <v>3.25</v>
+      </c>
+      <c r="P107">
         <v>2.625</v>
       </c>
-      <c r="L107">
-        <v>3.2</v>
-      </c>
-      <c r="M107">
-        <v>2.375</v>
-      </c>
-      <c r="N107">
-        <v>2.1</v>
-      </c>
-      <c r="O107">
-        <v>3.2</v>
-      </c>
-      <c r="P107">
-        <v>3.1</v>
-      </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10030,19 +10030,19 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6352921</v>
+        <v>6352256</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,76 +10062,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L108">
+        <v>3.2</v>
+      </c>
+      <c r="M108">
+        <v>2.375</v>
+      </c>
+      <c r="N108">
+        <v>2.1</v>
+      </c>
+      <c r="O108">
+        <v>3.2</v>
+      </c>
+      <c r="P108">
         <v>3.1</v>
-      </c>
-      <c r="M108">
-        <v>4.2</v>
-      </c>
-      <c r="N108">
-        <v>2.25</v>
-      </c>
-      <c r="O108">
-        <v>3</v>
-      </c>
-      <c r="P108">
-        <v>3</v>
       </c>
       <c r="Q108">
         <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S108">
+        <v>1.925</v>
+      </c>
+      <c r="T108">
+        <v>2.25</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="V108">
         <v>1.8</v>
       </c>
-      <c r="T108">
-        <v>2</v>
-      </c>
-      <c r="U108">
-        <v>1.725</v>
-      </c>
-      <c r="V108">
-        <v>1.975</v>
-      </c>
       <c r="W108">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z108">
+        <v>-1</v>
+      </c>
+      <c r="AA108">
+        <v>0.925</v>
+      </c>
+      <c r="AB108">
         <v>1</v>
       </c>
-      <c r="AA108">
-        <v>-1</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6353326</v>
+        <v>6352921</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,76 +10151,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>46</v>
+      </c>
+      <c r="K109">
+        <v>1.8</v>
+      </c>
+      <c r="L109">
+        <v>3.1</v>
+      </c>
+      <c r="M109">
+        <v>4.2</v>
+      </c>
+      <c r="N109">
+        <v>2.25</v>
+      </c>
+      <c r="O109">
+        <v>3</v>
+      </c>
+      <c r="P109">
+        <v>3</v>
+      </c>
+      <c r="Q109">
+        <v>-0.25</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
+        <v>1.8</v>
+      </c>
+      <c r="T109">
+        <v>2</v>
+      </c>
+      <c r="U109">
+        <v>1.725</v>
+      </c>
+      <c r="V109">
+        <v>1.975</v>
+      </c>
+      <c r="W109">
+        <v>1.25</v>
+      </c>
+      <c r="X109">
+        <v>-1</v>
+      </c>
+      <c r="Y109">
+        <v>-1</v>
+      </c>
+      <c r="Z109">
         <v>1</v>
       </c>
-      <c r="J109" t="s">
-        <v>47</v>
-      </c>
-      <c r="K109">
-        <v>2.2</v>
-      </c>
-      <c r="L109">
-        <v>3.25</v>
-      </c>
-      <c r="M109">
-        <v>2.8</v>
-      </c>
-      <c r="N109">
-        <v>2.3</v>
-      </c>
-      <c r="O109">
-        <v>3.25</v>
-      </c>
-      <c r="P109">
-        <v>2.625</v>
-      </c>
-      <c r="Q109">
-        <v>0</v>
-      </c>
-      <c r="R109">
-        <v>1.775</v>
-      </c>
-      <c r="S109">
-        <v>2.025</v>
-      </c>
-      <c r="T109">
-        <v>2.25</v>
-      </c>
-      <c r="U109">
-        <v>1.925</v>
-      </c>
-      <c r="V109">
-        <v>1.875</v>
-      </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
-      <c r="X109">
-        <v>-1</v>
-      </c>
-      <c r="Y109">
-        <v>1.625</v>
-      </c>
-      <c r="Z109">
-        <v>-1</v>
-      </c>
       <c r="AA109">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10252,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K110">
         <v>2.375</v>
@@ -10421,7 +10421,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K112">
         <v>6</v>
@@ -10519,7 +10519,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K113">
         <v>2.375</v>
@@ -10599,7 +10599,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K114">
         <v>2.2</v>
@@ -10688,7 +10688,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K115">
         <v>3.3</v>
@@ -10774,7 +10774,7 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
         <v>36</v>
@@ -10786,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K116">
         <v>2.3</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K117">
         <v>2.5</v>
@@ -10964,7 +10964,7 @@
         <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K118">
         <v>2.4</v>
@@ -11053,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K119">
         <v>1.666</v>
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6441138</v>
+        <v>6352263</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,13 +11130,13 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -11145,61 +11145,61 @@
         <v>45</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L120">
         <v>3.2</v>
       </c>
       <c r="M120">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N120">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O120">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P120">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6352263</v>
+        <v>6441138</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,13 +11308,13 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11323,61 +11323,61 @@
         <v>46</v>
       </c>
       <c r="K122">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
         <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O122">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X122">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352264</v>
+        <v>6352265</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,73 +11400,73 @@
         <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
         <v>1.727</v>
       </c>
       <c r="L123">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N123">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P123">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA123">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6352265</v>
+        <v>6352264</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K124">
         <v>1.727</v>
       </c>
       <c r="L124">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N124">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O124">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P124">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
+        <v>1.9</v>
+      </c>
+      <c r="S124">
+        <v>1.9</v>
+      </c>
+      <c r="T124">
+        <v>2</v>
+      </c>
+      <c r="U124">
         <v>1.925</v>
       </c>
-      <c r="S124">
+      <c r="V124">
         <v>1.875</v>
       </c>
-      <c r="T124">
-        <v>2</v>
-      </c>
-      <c r="U124">
-        <v>1.95</v>
-      </c>
-      <c r="V124">
-        <v>1.85</v>
-      </c>
       <c r="W124">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z124">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K125">
         <v>1.533</v>
@@ -11667,7 +11667,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6352267</v>
+        <v>6353023</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>46</v>
       </c>
       <c r="K129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L129">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M129">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N129">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O129">
+        <v>2.75</v>
+      </c>
+      <c r="P129">
         <v>3.4</v>
-      </c>
-      <c r="P129">
-        <v>2.75</v>
       </c>
       <c r="Q129">
         <v>-0.25</v>
       </c>
       <c r="R129">
+        <v>1.875</v>
+      </c>
+      <c r="S129">
+        <v>1.925</v>
+      </c>
+      <c r="T129">
+        <v>1.75</v>
+      </c>
+      <c r="U129">
+        <v>1.775</v>
+      </c>
+      <c r="V129">
         <v>2.025</v>
       </c>
-      <c r="S129">
-        <v>1.775</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
-      <c r="U129">
-        <v>1.85</v>
-      </c>
-      <c r="V129">
-        <v>1.95</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X129">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA129">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12023,7 +12023,7 @@
         <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12032,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K130">
         <v>3.5</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6353023</v>
+        <v>6352267</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L131">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M131">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N131">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O131">
+        <v>3.4</v>
+      </c>
+      <c r="P131">
         <v>2.75</v>
-      </c>
-      <c r="P131">
-        <v>3.4</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T131">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6353327</v>
+        <v>6352926</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,37 +12198,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K132">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="L132">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M132">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N132">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O132">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P132">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q132">
         <v>0.25</v>
@@ -12243,31 +12243,31 @@
         <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y132">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA132">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC132">
-        <v>0.7250000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6352926</v>
+        <v>6353327</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,37 +12287,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K133">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="L133">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M133">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N133">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O133">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P133">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q133">
         <v>0.25</v>
@@ -12332,31 +12332,31 @@
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12465,7 +12465,7 @@
         <v>45129.20833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -12477,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K135">
         <v>2.2</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6352270</v>
+        <v>6352927</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,58 +12554,58 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
         <v>3</v>
       </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
       <c r="J136" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L136">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12614,13 +12614,13 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6352927</v>
+        <v>6352270</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,73 +12643,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K137">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M137">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N137">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q137">
         <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W137">
+        <v>0.833</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12744,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K138">
         <v>1.833</v>
@@ -12833,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K139">
         <v>2.1</v>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K140">
         <v>1.533</v>
@@ -13100,7 +13100,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K142">
         <v>3.3</v>
@@ -13180,7 +13180,7 @@
         <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K144">
         <v>2.375</v>
@@ -13355,7 +13355,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>38</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K145">
         <v>2.6</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6352274</v>
+        <v>6352931</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,13 +13444,13 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -13459,19 +13459,19 @@
         <v>46</v>
       </c>
       <c r="K146">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L146">
         <v>3</v>
       </c>
       <c r="M146">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N146">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O146">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P146">
         <v>4</v>
@@ -13480,40 +13480,40 @@
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X146">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6352931</v>
+        <v>6352274</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,13 +13533,13 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13548,19 +13548,19 @@
         <v>45</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L147">
         <v>3</v>
       </c>
       <c r="M147">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N147">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
         <v>4</v>
@@ -13569,40 +13569,40 @@
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K148">
         <v>2.3</v>
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -13800,7 +13800,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13990,7 +13990,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K152">
         <v>1.833</v>
@@ -14067,7 +14067,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G153" t="s">
         <v>43</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6353330</v>
+        <v>6352279</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,76 +14245,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K155">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="L155">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M155">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N155">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O155">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R155">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V155">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W155">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z155">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC155">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6352279</v>
+        <v>6353330</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K156">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M156">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N156">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P156">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q156">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14426,7 +14426,7 @@
         <v>35</v>
       </c>
       <c r="G157" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -14435,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K157">
         <v>3.1</v>
@@ -14524,7 +14524,7 @@
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K158">
         <v>1.5</v>
@@ -14613,7 +14613,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K159">
         <v>3.4</v>
@@ -14702,7 +14702,7 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K160">
         <v>2.625</v>
@@ -14791,7 +14791,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K161">
         <v>2.2</v>
@@ -14868,7 +14868,7 @@
         <v>45171.08333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G162" t="s">
         <v>41</v>
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15058,7 +15058,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K164">
         <v>1.909</v>
@@ -15135,7 +15135,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
         <v>43</v>
@@ -15147,7 +15147,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K165">
         <v>2.3</v>
@@ -15236,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15313,7 +15313,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K167">
         <v>1.666</v>
@@ -15402,10 +15402,10 @@
         <v>45178.08333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K168">
         <v>6</v>
@@ -15503,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K169">
         <v>3.6</v>
@@ -15592,7 +15592,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K170">
         <v>2.4</v>
@@ -15681,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K171">
         <v>1.333</v>
@@ -15761,7 +15761,7 @@
         <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15770,7 +15770,7 @@
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K172">
         <v>2.4</v>
@@ -15859,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K173">
         <v>1.909</v>
@@ -15948,7 +15948,7 @@
         <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K174">
         <v>2.25</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6352290</v>
+        <v>6352289</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,58 +16114,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H176">
+        <v>3</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176" t="s">
+        <v>46</v>
+      </c>
+      <c r="K176">
+        <v>4.2</v>
+      </c>
+      <c r="L176">
+        <v>3.6</v>
+      </c>
+      <c r="M176">
+        <v>1.666</v>
+      </c>
+      <c r="N176">
+        <v>4.5</v>
+      </c>
+      <c r="O176">
+        <v>3.8</v>
+      </c>
+      <c r="P176">
+        <v>1.571</v>
+      </c>
+      <c r="Q176">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176" t="s">
-        <v>45</v>
-      </c>
-      <c r="K176">
-        <v>2.3</v>
-      </c>
-      <c r="L176">
-        <v>3</v>
-      </c>
-      <c r="M176">
-        <v>2.875</v>
-      </c>
-      <c r="N176">
-        <v>2.5</v>
-      </c>
-      <c r="O176">
-        <v>3</v>
-      </c>
-      <c r="P176">
-        <v>2.625</v>
-      </c>
-      <c r="Q176">
-        <v>0</v>
-      </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
+        <v>1.875</v>
+      </c>
+      <c r="V176">
         <v>1.925</v>
       </c>
-      <c r="V176">
-        <v>1.875</v>
-      </c>
       <c r="W176">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6352289</v>
+        <v>6352290</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,58 +16203,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>46</v>
+      </c>
+      <c r="K177">
+        <v>2.3</v>
+      </c>
+      <c r="L177">
         <v>3</v>
       </c>
-      <c r="I177">
-        <v>2</v>
-      </c>
-      <c r="J177" t="s">
-        <v>45</v>
-      </c>
-      <c r="K177">
-        <v>4.2</v>
-      </c>
-      <c r="L177">
-        <v>3.6</v>
-      </c>
       <c r="M177">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N177">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P177">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="Q177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U177">
+        <v>1.925</v>
+      </c>
+      <c r="V177">
         <v>1.875</v>
       </c>
-      <c r="V177">
-        <v>1.925</v>
-      </c>
       <c r="W177">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16263,16 +16263,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>0.875</v>
-      </c>
-      <c r="AC177">
-        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16295,7 +16295,7 @@
         <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H178">
         <v>2</v>
@@ -16304,7 +16304,7 @@
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K178">
         <v>2.4</v>
@@ -16381,7 +16381,7 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G179" t="s">
         <v>41</v>
@@ -16393,7 +16393,7 @@
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K179">
         <v>1.3</v>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K180">
         <v>1.444</v>
@@ -16571,7 +16571,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K181">
         <v>1.85</v>
@@ -16648,7 +16648,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
         <v>33</v>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K183">
         <v>4</v>
@@ -16838,7 +16838,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K184">
         <v>3.25</v>
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K185">
         <v>3.5</v>
@@ -17093,10 +17093,10 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K188">
         <v>1.909</v>
@@ -17271,7 +17271,7 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G189" t="s">
         <v>32</v>
@@ -17283,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K189">
         <v>1.615</v>
@@ -17363,7 +17363,7 @@
         <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6353018</v>
+        <v>6352296</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,10 +17449,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17464,40 +17464,40 @@
         <v>47</v>
       </c>
       <c r="K191">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L191">
         <v>3.1</v>
       </c>
       <c r="M191">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N191">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O191">
         <v>3.1</v>
       </c>
       <c r="P191">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q191">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R191">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S191">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V191">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17506,16 +17506,16 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.625</v>
+        <v>1.2</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB191">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6352296</v>
+        <v>6353018</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,10 +17538,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17553,40 +17553,40 @@
         <v>47</v>
       </c>
       <c r="K192">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L192">
         <v>3.1</v>
       </c>
       <c r="M192">
+        <v>2.8</v>
+      </c>
+      <c r="N192">
         <v>2.4</v>
-      </c>
-      <c r="N192">
-        <v>3</v>
       </c>
       <c r="O192">
         <v>3.1</v>
       </c>
       <c r="P192">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q192">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R192">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S192">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T192">
         <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V192">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W192">
         <v>-1</v>
@@ -17595,16 +17595,16 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.2</v>
+        <v>1.625</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB192">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17615,7 +17615,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6352949</v>
+        <v>6352948</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17627,73 +17627,73 @@
         <v>45227.125</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H193">
         <v>3</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
         <v>46</v>
       </c>
       <c r="K193">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M193">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N193">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O193">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P193">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q193">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X193">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA193">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17704,7 +17704,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6352948</v>
+        <v>6352949</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17716,73 +17716,73 @@
         <v>45227.125</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H194">
         <v>3</v>
       </c>
       <c r="I194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J194" t="s">
         <v>45</v>
       </c>
       <c r="K194">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L194">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M194">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N194">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="O194">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P194">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q194">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R194">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S194">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T194">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W194">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB194">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -17805,10 +17805,10 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -17817,7 +17817,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K195">
         <v>1.615</v>
@@ -17995,7 +17995,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K197">
         <v>3.1</v>
@@ -18075,7 +18075,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K199">
         <v>2.25</v>
@@ -18327,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6353333</v>
+        <v>6352951</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18339,58 +18339,58 @@
         <v>45234.125</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K201">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L201">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N201">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O201">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>1.975</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>1.875</v>
+      </c>
+      <c r="V201">
         <v>1.925</v>
       </c>
-      <c r="S201">
-        <v>1.875</v>
-      </c>
-      <c r="T201">
-        <v>2.25</v>
-      </c>
-      <c r="U201">
-        <v>1.85</v>
-      </c>
-      <c r="V201">
-        <v>1.95</v>
-      </c>
       <c r="W201">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18399,13 +18399,13 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6352951</v>
+        <v>6353333</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,58 +18428,58 @@
         <v>45234.125</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K202">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M202">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N202">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P202">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18488,13 +18488,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18520,7 +18520,7 @@
         <v>32</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6352952</v>
+        <v>6353334</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,55 +18606,55 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
         <v>47</v>
       </c>
       <c r="K204">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M204">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N204">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O204">
         <v>3.3</v>
       </c>
       <c r="P204">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q204">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R204">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S204">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T204">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W204">
         <v>-1</v>
@@ -18663,19 +18663,19 @@
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC204">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6352953</v>
+        <v>6352958</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,76 +18695,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K205">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L205">
         <v>3.25</v>
       </c>
       <c r="M205">
+        <v>1.909</v>
+      </c>
+      <c r="N205">
+        <v>2.25</v>
+      </c>
+      <c r="O205">
         <v>3.1</v>
       </c>
-      <c r="N205">
-        <v>1.8</v>
-      </c>
-      <c r="O205">
-        <v>3.4</v>
-      </c>
       <c r="P205">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R205">
-        <v>1.825</v>
+        <v>1.675</v>
       </c>
       <c r="S205">
-        <v>1.975</v>
+        <v>2.15</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U205">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X205">
         <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z205">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6352957</v>
+        <v>6353335</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,40 +18784,40 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G206" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K206">
+        <v>2.2</v>
+      </c>
+      <c r="L206">
+        <v>3.25</v>
+      </c>
+      <c r="M206">
+        <v>2.8</v>
+      </c>
+      <c r="N206">
         <v>1.95</v>
       </c>
-      <c r="L206">
+      <c r="O206">
+        <v>3.4</v>
+      </c>
+      <c r="P206">
         <v>3.2</v>
       </c>
-      <c r="M206">
-        <v>3.5</v>
-      </c>
-      <c r="N206">
-        <v>1.45</v>
-      </c>
-      <c r="O206">
-        <v>4</v>
-      </c>
-      <c r="P206">
-        <v>6</v>
-      </c>
       <c r="Q206">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R206">
         <v>2</v>
@@ -18826,19 +18826,19 @@
         <v>1.8</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y206">
         <v>-1</v>
@@ -18850,10 +18850,10 @@
         <v>0.8</v>
       </c>
       <c r="AB206">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC206">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18873,7 +18873,7 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G207" t="s">
         <v>41</v>
@@ -18885,7 +18885,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K207">
         <v>2.05</v>
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6352958</v>
+        <v>6352953</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,76 +18962,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K208">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L208">
         <v>3.25</v>
       </c>
       <c r="M208">
-        <v>1.909</v>
+        <v>3.1</v>
       </c>
       <c r="N208">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="O208">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P208">
-        <v>2.875</v>
+        <v>3.75</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.675</v>
+        <v>1.825</v>
       </c>
       <c r="S208">
-        <v>2.15</v>
+        <v>1.975</v>
       </c>
       <c r="T208">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W208">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA208">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6353334</v>
+        <v>6352957</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,46 +19051,46 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K209">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L209">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N209">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="O209">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P209">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q209">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R209">
+        <v>2</v>
+      </c>
+      <c r="S209">
         <v>1.8</v>
-      </c>
-      <c r="S209">
-        <v>2</v>
       </c>
       <c r="T209">
         <v>2.5</v>
@@ -19105,22 +19105,22 @@
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y209">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB209">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19128,7 +19128,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6353335</v>
+        <v>6352952</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19140,76 +19140,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K210">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L210">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M210">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N210">
+        <v>3.1</v>
+      </c>
+      <c r="O210">
+        <v>3.3</v>
+      </c>
+      <c r="P210">
+        <v>2.05</v>
+      </c>
+      <c r="Q210">
+        <v>0.25</v>
+      </c>
+      <c r="R210">
         <v>1.95</v>
       </c>
-      <c r="O210">
-        <v>3.4</v>
-      </c>
-      <c r="P210">
-        <v>3.2</v>
-      </c>
-      <c r="Q210">
-        <v>-0.5</v>
-      </c>
-      <c r="R210">
-        <v>2</v>
-      </c>
       <c r="S210">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V210">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W210">
         <v>-1</v>
       </c>
       <c r="X210">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z210">
         <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB210">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC210">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K211">
         <v>1.909</v>

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -106,13 +106,13 @@
     <t>Busan Trans Corp</t>
   </si>
   <si>
-    <t>Ulsan Citizen FC</t>
+    <t>Pocheon Citizen FC</t>
   </si>
   <si>
     <t>Hwaseong FC</t>
   </si>
   <si>
-    <t>Pocheon Citizen FC</t>
+    <t>Ulsan Citizen FC</t>
   </si>
   <si>
     <t>Siheung City AC</t>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6352203</v>
+        <v>6352204</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,10 +720,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -732,43 +732,43 @@
         <v>46</v>
       </c>
       <c r="K3">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>3.1</v>
       </c>
       <c r="M3">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N3">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>1.95</v>
+        <v>2.55</v>
       </c>
       <c r="Q3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V3">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W3">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -777,16 +777,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6352204</v>
+        <v>6352203</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,10 +898,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -910,44 +910,44 @@
         <v>46</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L5">
         <v>3.1</v>
       </c>
       <c r="M5">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N5">
+        <v>3.6</v>
+      </c>
+      <c r="O5">
+        <v>3.1</v>
+      </c>
+      <c r="P5">
+        <v>1.95</v>
+      </c>
+      <c r="Q5">
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <v>1.775</v>
+      </c>
+      <c r="S5">
+        <v>2.025</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>1.925</v>
+      </c>
+      <c r="V5">
+        <v>1.875</v>
+      </c>
+      <c r="W5">
         <v>2.6</v>
       </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>2.55</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>1.925</v>
-      </c>
-      <c r="S5">
-        <v>1.875</v>
-      </c>
-      <c r="T5">
-        <v>2.25</v>
-      </c>
-      <c r="U5">
-        <v>1.9</v>
-      </c>
-      <c r="V5">
-        <v>1.9</v>
-      </c>
-      <c r="W5">
-        <v>1.6</v>
-      </c>
       <c r="X5">
         <v>-1</v>
       </c>
@@ -955,16 +955,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.925</v>
       </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
       <c r="AC5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6353318</v>
+        <v>6352209</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,58 +1429,58 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
         <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>46</v>
       </c>
       <c r="K11">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N11">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P11">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1489,16 +1489,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6352209</v>
+        <v>6353318</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,58 +1518,58 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M12">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O12">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W12">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,16 +1578,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>39</v>
@@ -1877,7 +1877,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6352212</v>
+        <v>6352213</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,76 +1963,76 @@
         <v>45010.125</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N17">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P17">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z17">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6352213</v>
+        <v>6352212</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45010.125</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K18">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N18">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O18">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S18">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA18">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2144,7 +2144,7 @@
         <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6352879</v>
+        <v>6352880</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,55 +2230,55 @@
         <v>45011.08333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>47</v>
       </c>
       <c r="K20">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L20">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="M20">
         <v>2.75</v>
       </c>
       <c r="N20">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="O20">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="P20">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
         <v>2</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2287,19 +2287,19 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6352880</v>
+        <v>6352879</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2319,55 +2319,55 @@
         <v>45011.08333333334</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>47</v>
       </c>
       <c r="K21">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="M21">
         <v>2.75</v>
       </c>
       <c r="N21">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="P21">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
         <v>2</v>
       </c>
       <c r="U21">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V21">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2376,19 +2376,19 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC21">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2411,7 +2411,7 @@
         <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6352882</v>
+        <v>6352214</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L23">
         <v>3.1</v>
       </c>
       <c r="M23">
+        <v>3.75</v>
+      </c>
+      <c r="N23">
+        <v>1.7</v>
+      </c>
+      <c r="O23">
+        <v>3.1</v>
+      </c>
+      <c r="P23">
+        <v>4.75</v>
+      </c>
+      <c r="Q23">
+        <v>-0.75</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23">
+        <v>1.8</v>
+      </c>
+      <c r="T23">
+        <v>2</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="V23">
+        <v>1.8</v>
+      </c>
+      <c r="W23">
+        <v>-1</v>
+      </c>
+      <c r="X23">
         <v>2.1</v>
       </c>
-      <c r="N23">
-        <v>3</v>
-      </c>
-      <c r="O23">
-        <v>2.9</v>
-      </c>
-      <c r="P23">
-        <v>2.3</v>
-      </c>
-      <c r="Q23">
-        <v>0.25</v>
-      </c>
-      <c r="R23">
-        <v>1.775</v>
-      </c>
-      <c r="S23">
-        <v>2.025</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23">
-        <v>1.85</v>
-      </c>
-      <c r="V23">
-        <v>1.95</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
       <c r="Y23">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6352214</v>
+        <v>6352882</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L24">
         <v>3.1</v>
       </c>
       <c r="M24">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N24">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P24">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T24">
         <v>2</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2856,7 +2856,7 @@
         <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>45024.08333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3476,7 +3476,7 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>36</v>
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6353322</v>
+        <v>6352220</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3921,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39">
+        <v>1.5</v>
+      </c>
+      <c r="L39">
+        <v>3.75</v>
+      </c>
+      <c r="M39">
+        <v>5.5</v>
+      </c>
+      <c r="N39">
+        <v>1.55</v>
+      </c>
+      <c r="O39">
+        <v>3.5</v>
+      </c>
+      <c r="P39">
+        <v>5</v>
+      </c>
+      <c r="Q39">
+        <v>-0.75</v>
+      </c>
+      <c r="R39">
+        <v>1.725</v>
+      </c>
+      <c r="S39">
+        <v>1.975</v>
+      </c>
+      <c r="T39">
+        <v>2.25</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="V39">
+        <v>1.8</v>
+      </c>
+      <c r="W39">
+        <v>0.55</v>
+      </c>
+      <c r="X39">
+        <v>-1</v>
+      </c>
+      <c r="Y39">
+        <v>-1</v>
+      </c>
+      <c r="Z39">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>1</v>
       </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>45</v>
-      </c>
-      <c r="K39">
-        <v>2.15</v>
-      </c>
-      <c r="L39">
-        <v>3.1</v>
-      </c>
-      <c r="M39">
-        <v>3.1</v>
-      </c>
-      <c r="N39">
-        <v>2.05</v>
-      </c>
-      <c r="O39">
-        <v>3.1</v>
-      </c>
-      <c r="P39">
-        <v>3.3</v>
-      </c>
-      <c r="Q39">
-        <v>-0.25</v>
-      </c>
-      <c r="R39">
-        <v>1.8</v>
-      </c>
-      <c r="S39">
-        <v>2</v>
-      </c>
-      <c r="T39">
-        <v>2</v>
-      </c>
-      <c r="U39">
-        <v>1.8</v>
-      </c>
-      <c r="V39">
-        <v>2</v>
-      </c>
-      <c r="W39">
-        <v>-1</v>
-      </c>
-      <c r="X39">
-        <v>2.1</v>
-      </c>
-      <c r="Y39">
-        <v>-1</v>
-      </c>
-      <c r="Z39">
-        <v>-0.5</v>
-      </c>
-      <c r="AA39">
-        <v>0.5</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352220</v>
+        <v>6353322</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="N40">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P40">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4354,7 +4354,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6352223</v>
+        <v>6352887</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4366,16 +4366,16 @@
         <v>45038.08333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>45</v>
@@ -4384,58 +4384,58 @@
         <v>2.9</v>
       </c>
       <c r="L44">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M44">
+        <v>2.3</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44">
         <v>2.25</v>
       </c>
-      <c r="N44">
-        <v>3.4</v>
-      </c>
-      <c r="O44">
-        <v>3.2</v>
-      </c>
-      <c r="P44">
-        <v>1.95</v>
-      </c>
       <c r="Q44">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>2.25</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.7749999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4443,7 +4443,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6352887</v>
+        <v>6352223</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4455,16 +4455,16 @@
         <v>45038.08333333334</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>45</v>
@@ -4473,58 +4473,58 @@
         <v>2.9</v>
       </c>
       <c r="L45">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O45">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P45">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T45">
         <v>2.25</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.4</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA45">
+        <v>-1</v>
+      </c>
+      <c r="AB45">
         <v>-0.5</v>
       </c>
-      <c r="AB45">
-        <v>0.9750000000000001</v>
-      </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -5256,7 +5256,7 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
         <v>34</v>
@@ -5345,7 +5345,7 @@
         <v>45046.08333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>43</v>
@@ -5615,7 +5615,7 @@
         <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5879,7 +5879,7 @@
         <v>45053.08333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6352233</v>
+        <v>6352895</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,55 +5968,55 @@
         <v>45053.125</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L62">
+        <v>3.25</v>
+      </c>
+      <c r="M62">
+        <v>1.833</v>
+      </c>
+      <c r="N62">
         <v>3.1</v>
-      </c>
-      <c r="M62">
-        <v>1.909</v>
-      </c>
-      <c r="N62">
-        <v>3.5</v>
       </c>
       <c r="O62">
         <v>3.1</v>
       </c>
       <c r="P62">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6025,19 +6025,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6352895</v>
+        <v>6352233</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,55 +6057,55 @@
         <v>45053.125</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M63">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="N63">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
         <v>3.1</v>
       </c>
       <c r="P63">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6114,19 +6114,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>45059.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>35</v>
@@ -6413,7 +6413,7 @@
         <v>45060.08333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6861,7 +6861,7 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7039,7 +7039,7 @@
         <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7481,7 +7481,7 @@
         <v>45073.08333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>31</v>
@@ -7573,7 +7573,7 @@
         <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6352901</v>
+        <v>6352900</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45073.125</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N82">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O82">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6352900</v>
+        <v>6352901</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45073.125</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M83">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P83">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
         <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -8196,7 +8196,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6352244</v>
+        <v>6352245</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,58 +8282,58 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>46</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N88">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q88">
         <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
+        <v>1.975</v>
+      </c>
+      <c r="V88">
         <v>1.825</v>
       </c>
-      <c r="V88">
-        <v>1.975</v>
-      </c>
       <c r="W88">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8342,13 +8342,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6352245</v>
+        <v>6352244</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,58 +8371,58 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
         <v>46</v>
       </c>
       <c r="K89">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M89">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N89">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P89">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q89">
         <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U89">
+        <v>1.825</v>
+      </c>
+      <c r="V89">
         <v>1.975</v>
       </c>
-      <c r="V89">
-        <v>1.825</v>
-      </c>
       <c r="W89">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,13 +8431,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8460,7 +8460,7 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
         <v>31</v>
@@ -9172,10 +9172,10 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F98" t="s">
+        <v>32</v>
+      </c>
+      <c r="G98" t="s">
         <v>30</v>
-      </c>
-      <c r="G98" t="s">
-        <v>32</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6352252</v>
+        <v>6352253</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,76 +9350,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>45</v>
       </c>
       <c r="K100">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>6</v>
+      </c>
+      <c r="N100">
+        <v>1.571</v>
+      </c>
+      <c r="O100">
+        <v>3.8</v>
+      </c>
+      <c r="P100">
+        <v>4.75</v>
+      </c>
+      <c r="Q100">
+        <v>-0.75</v>
+      </c>
+      <c r="R100">
+        <v>1.775</v>
+      </c>
+      <c r="S100">
+        <v>2.025</v>
+      </c>
+      <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
+        <v>1.925</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
         <v>2.8</v>
       </c>
-      <c r="M100">
-        <v>3</v>
-      </c>
-      <c r="N100">
-        <v>2.625</v>
-      </c>
-      <c r="O100">
-        <v>2.875</v>
-      </c>
-      <c r="P100">
-        <v>2.55</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>1.95</v>
-      </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>1.95</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
-      <c r="X100">
-        <v>1.875</v>
-      </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9442,7 +9442,7 @@
         <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6352253</v>
+        <v>6352252</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,76 +9528,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>45</v>
       </c>
       <c r="K102">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L102">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M102">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P102">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U102">
+        <v>1.85</v>
+      </c>
+      <c r="V102">
+        <v>1.95</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
         <v>1.875</v>
       </c>
-      <c r="V102">
-        <v>1.925</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>2.8</v>
-      </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6352256</v>
+        <v>6352921</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,76 +10062,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>46</v>
+      </c>
+      <c r="K108">
+        <v>1.8</v>
+      </c>
+      <c r="L108">
+        <v>3.1</v>
+      </c>
+      <c r="M108">
+        <v>4.2</v>
+      </c>
+      <c r="N108">
+        <v>2.25</v>
+      </c>
+      <c r="O108">
         <v>3</v>
       </c>
-      <c r="J108" t="s">
-        <v>47</v>
-      </c>
-      <c r="K108">
-        <v>2.625</v>
-      </c>
-      <c r="L108">
-        <v>3.2</v>
-      </c>
-      <c r="M108">
-        <v>2.375</v>
-      </c>
-      <c r="N108">
-        <v>2.1</v>
-      </c>
-      <c r="O108">
-        <v>3.2</v>
-      </c>
       <c r="P108">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q108">
         <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V108">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6352921</v>
+        <v>6352256</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,76 +10151,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K109">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L109">
+        <v>3.2</v>
+      </c>
+      <c r="M109">
+        <v>2.375</v>
+      </c>
+      <c r="N109">
+        <v>2.1</v>
+      </c>
+      <c r="O109">
+        <v>3.2</v>
+      </c>
+      <c r="P109">
         <v>3.1</v>
-      </c>
-      <c r="M109">
-        <v>4.2</v>
-      </c>
-      <c r="N109">
-        <v>2.25</v>
-      </c>
-      <c r="O109">
-        <v>3</v>
-      </c>
-      <c r="P109">
-        <v>3</v>
       </c>
       <c r="Q109">
         <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
+        <v>1.925</v>
+      </c>
+      <c r="T109">
+        <v>2.25</v>
+      </c>
+      <c r="U109">
+        <v>2</v>
+      </c>
+      <c r="V109">
         <v>1.8</v>
       </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
-      <c r="U109">
-        <v>1.725</v>
-      </c>
-      <c r="V109">
-        <v>1.975</v>
-      </c>
       <c r="W109">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z109">
+        <v>-1</v>
+      </c>
+      <c r="AA109">
+        <v>0.925</v>
+      </c>
+      <c r="AB109">
         <v>1</v>
       </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6352258</v>
+        <v>6352257</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K110">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L110">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M110">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P110">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q110">
         <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U110">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB110">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC110">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6352257</v>
+        <v>6352258</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K111">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L111">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M111">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N111">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O111">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P111">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q111">
         <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S111">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y111">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10599,7 +10599,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11219,7 +11219,7 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>40</v>
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352265</v>
+        <v>6352923</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,58 +11397,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
         <v>46</v>
       </c>
       <c r="K123">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M123">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N123">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="O123">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S123">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T123">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
+        <v>1.75</v>
+      </c>
+      <c r="V123">
         <v>1.95</v>
       </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
       <c r="W123">
-        <v>0.6659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11457,16 +11457,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA123">
+        <v>-1</v>
+      </c>
+      <c r="AB123">
         <v>-0.5</v>
       </c>
-      <c r="AB123">
-        <v>0.95</v>
-      </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11486,7 +11486,7 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
         <v>39</v>
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6352923</v>
+        <v>6352265</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,58 +11575,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>46</v>
       </c>
       <c r="K125">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L125">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N125">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O125">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P125">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q125">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>0.3999999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11635,16 +11635,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
         <v>36</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6353023</v>
+        <v>6352268</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,58 +11931,58 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
         <v>1</v>
-      </c>
-      <c r="I129">
-        <v>0</v>
       </c>
       <c r="J129" t="s">
         <v>46</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L129">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M129">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="N129">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O129">
         <v>2.75</v>
       </c>
       <c r="P129">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R129">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T129">
         <v>1.75</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>1.15</v>
+        <v>2.3</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11991,16 +11991,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC129">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6352268</v>
+        <v>6352267</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,49 +12020,49 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L130">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M130">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N130">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="O130">
+        <v>3.4</v>
+      </c>
+      <c r="P130">
         <v>2.75</v>
       </c>
-      <c r="P130">
+      <c r="Q130">
+        <v>-0.25</v>
+      </c>
+      <c r="R130">
+        <v>2.025</v>
+      </c>
+      <c r="S130">
+        <v>1.775</v>
+      </c>
+      <c r="T130">
         <v>2.25</v>
-      </c>
-      <c r="Q130">
-        <v>0.25</v>
-      </c>
-      <c r="R130">
-        <v>1.825</v>
-      </c>
-      <c r="S130">
-        <v>1.975</v>
-      </c>
-      <c r="T130">
-        <v>1.75</v>
       </c>
       <c r="U130">
         <v>1.85</v>
@@ -12071,25 +12071,25 @@
         <v>1.95</v>
       </c>
       <c r="W130">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB130">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6352267</v>
+        <v>6353023</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,76 +12109,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K131">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L131">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M131">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O131">
+        <v>2.75</v>
+      </c>
+      <c r="P131">
         <v>3.4</v>
-      </c>
-      <c r="P131">
-        <v>2.75</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
+        <v>1.875</v>
+      </c>
+      <c r="S131">
+        <v>1.925</v>
+      </c>
+      <c r="T131">
+        <v>1.75</v>
+      </c>
+      <c r="U131">
+        <v>1.775</v>
+      </c>
+      <c r="V131">
         <v>2.025</v>
       </c>
-      <c r="S131">
-        <v>1.775</v>
-      </c>
-      <c r="T131">
-        <v>2.25</v>
-      </c>
-      <c r="U131">
-        <v>1.85</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X131">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA131">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12379,7 +12379,7 @@
         <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6352927</v>
+        <v>6352270</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,73 +12554,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>46</v>
       </c>
       <c r="K136">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W136">
+        <v>0.833</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6352270</v>
+        <v>6352927</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,58 +12643,58 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H137">
+        <v>4</v>
+      </c>
+      <c r="I137">
         <v>3</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>46</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N137">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
         <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,13 +12703,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6353328</v>
+        <v>6353022</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,61 +12821,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L139">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N139">
+        <v>1.5</v>
+      </c>
+      <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
+        <v>6</v>
+      </c>
+      <c r="Q139">
+        <v>-1</v>
+      </c>
+      <c r="R139">
+        <v>1.875</v>
+      </c>
+      <c r="S139">
+        <v>1.925</v>
+      </c>
+      <c r="T139">
         <v>2.5</v>
       </c>
-      <c r="O139">
-        <v>2.9</v>
-      </c>
-      <c r="P139">
-        <v>2.9</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>1.775</v>
-      </c>
-      <c r="S139">
-        <v>2.025</v>
-      </c>
-      <c r="T139">
-        <v>2</v>
-      </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X139">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
@@ -12887,10 +12887,10 @@
         <v>-0</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6353022</v>
+        <v>6353328</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,61 +12910,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
+        <v>2.9</v>
+      </c>
+      <c r="M140">
         <v>3.4</v>
       </c>
-      <c r="M140">
-        <v>6</v>
-      </c>
       <c r="N140">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P140">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12976,10 +12976,10 @@
         <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6353329</v>
+        <v>6352272</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L142">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="N142">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R142">
+        <v>1.875</v>
+      </c>
+      <c r="S142">
         <v>1.925</v>
       </c>
-      <c r="S142">
-        <v>1.875</v>
-      </c>
       <c r="T142">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6352272</v>
+        <v>6353329</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K143">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M143">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="N143">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q143">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
+        <v>1.925</v>
+      </c>
+      <c r="S143">
         <v>1.875</v>
       </c>
-      <c r="S143">
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
+        <v>1.875</v>
+      </c>
+      <c r="V143">
         <v>1.925</v>
       </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
-      <c r="U143">
-        <v>1.85</v>
-      </c>
-      <c r="V143">
-        <v>1.95</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13355,7 +13355,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G145" t="s">
         <v>38</v>
@@ -13711,7 +13711,7 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
         <v>34</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6352279</v>
+        <v>6353330</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,76 +14245,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G155" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K155">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L155">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M155">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N155">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O155">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P155">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q155">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T155">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U155">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V155">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6353330</v>
+        <v>6352279</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K156">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="L156">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M156">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N156">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O156">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P156">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q156">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R156">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S156">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U156">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V156">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W156">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z156">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB156">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC156">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6352281</v>
+        <v>6352280</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,73 +14423,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H157">
         <v>2</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L157">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N157">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O157">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S157">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X157">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB157">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6352280</v>
+        <v>6352281</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,73 +14512,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M158">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N158">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P158">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q158">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -15049,7 +15049,7 @@
         <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15135,7 +15135,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
         <v>43</v>
@@ -15761,7 +15761,7 @@
         <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -15850,7 +15850,7 @@
         <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6352289</v>
+        <v>6352290</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,58 +16114,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="s">
         <v>46</v>
       </c>
       <c r="K176">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L176">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M176">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N176">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O176">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P176">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="Q176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R176">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S176">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T176">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U176">
+        <v>1.925</v>
+      </c>
+      <c r="V176">
         <v>1.875</v>
       </c>
-      <c r="V176">
-        <v>1.925</v>
-      </c>
       <c r="W176">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
+        <v>-1</v>
+      </c>
+      <c r="AC176">
         <v>0.875</v>
-      </c>
-      <c r="AC176">
-        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6352290</v>
+        <v>6352289</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,58 +16203,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>46</v>
       </c>
       <c r="K177">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L177">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M177">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="N177">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O177">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P177">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="Q177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T177">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U177">
+        <v>1.875</v>
+      </c>
+      <c r="V177">
         <v>1.925</v>
       </c>
-      <c r="V177">
-        <v>1.875</v>
-      </c>
       <c r="W177">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16263,16 +16263,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC177">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6352291</v>
+        <v>6353019</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,13 +16292,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -16307,43 +16307,43 @@
         <v>46</v>
       </c>
       <c r="K178">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L178">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M178">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N178">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O178">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P178">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R178">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,13 +16352,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6353019</v>
+        <v>6352291</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,13 +16381,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -16396,43 +16396,43 @@
         <v>46</v>
       </c>
       <c r="K179">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L179">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M179">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N179">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O179">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P179">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>0.3999999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16441,13 +16441,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16648,7 +16648,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F182" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
         <v>33</v>
@@ -17093,7 +17093,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G187" t="s">
         <v>29</v>
@@ -17274,7 +17274,7 @@
         <v>31</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17538,7 +17538,7 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G192" t="s">
         <v>41</v>
@@ -17808,7 +17808,7 @@
         <v>31</v>
       </c>
       <c r="G195" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -18327,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6352951</v>
+        <v>6353333</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18339,58 +18339,58 @@
         <v>45234.125</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
         <v>46</v>
       </c>
       <c r="K201">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M201">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N201">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P201">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W201">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18399,13 +18399,13 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6353333</v>
+        <v>6352951</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,58 +18428,58 @@
         <v>45234.125</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
         <v>46</v>
       </c>
       <c r="K202">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L202">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N202">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O202">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
+        <v>1.825</v>
+      </c>
+      <c r="S202">
+        <v>1.975</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.875</v>
+      </c>
+      <c r="V202">
         <v>1.925</v>
       </c>
-      <c r="S202">
-        <v>1.875</v>
-      </c>
-      <c r="T202">
-        <v>2.25</v>
-      </c>
-      <c r="U202">
-        <v>1.85</v>
-      </c>
-      <c r="V202">
-        <v>1.95</v>
-      </c>
       <c r="W202">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18488,13 +18488,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18517,10 +18517,10 @@
         <v>45235.08333333334</v>
       </c>
       <c r="F203" t="s">
+        <v>30</v>
+      </c>
+      <c r="G203" t="s">
         <v>32</v>
-      </c>
-      <c r="G203" t="s">
-        <v>30</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6353334</v>
+        <v>6352957</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,46 +18606,46 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G204" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J204" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K204">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L204">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M204">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N204">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="O204">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P204">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q204">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R204">
+        <v>2</v>
+      </c>
+      <c r="S204">
         <v>1.8</v>
-      </c>
-      <c r="S204">
-        <v>2</v>
       </c>
       <c r="T204">
         <v>2.5</v>
@@ -18660,22 +18660,22 @@
         <v>-1</v>
       </c>
       <c r="X204">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y204">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
         <v>-1</v>
       </c>
       <c r="AA204">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB204">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC204">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6352958</v>
+        <v>6352956</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,76 +18695,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G205" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H205">
         <v>0</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K205">
+        <v>2.05</v>
+      </c>
+      <c r="L205">
         <v>3.5</v>
       </c>
-      <c r="L205">
-        <v>3.25</v>
-      </c>
       <c r="M205">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N205">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O205">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R205">
-        <v>1.675</v>
+        <v>1.8</v>
       </c>
       <c r="S205">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="T205">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V205">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y205">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA205">
-        <v>1.15</v>
+        <v>-0.5</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6353335</v>
+        <v>6353334</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,73 +18784,73 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G206" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H206">
         <v>2</v>
       </c>
       <c r="I206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J206" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K206">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L206">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M206">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N206">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O206">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P206">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q206">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R206">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S206">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB206">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC206">
         <v>-1</v>
@@ -18861,7 +18861,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6352956</v>
+        <v>6353335</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18873,76 +18873,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G207" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
         <v>45</v>
       </c>
       <c r="K207">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L207">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N207">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O207">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P207">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q207">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
         <v>1.8</v>
       </c>
-      <c r="S207">
-        <v>2</v>
-      </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U207">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V207">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA207">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB207">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC207">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6352953</v>
+        <v>6352958</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,76 +18962,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G208" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K208">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L208">
         <v>3.25</v>
       </c>
       <c r="M208">
+        <v>1.909</v>
+      </c>
+      <c r="N208">
+        <v>2.25</v>
+      </c>
+      <c r="O208">
         <v>3.1</v>
       </c>
-      <c r="N208">
-        <v>1.8</v>
-      </c>
-      <c r="O208">
-        <v>3.4</v>
-      </c>
       <c r="P208">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>1.825</v>
+        <v>1.675</v>
       </c>
       <c r="S208">
-        <v>1.975</v>
+        <v>2.15</v>
       </c>
       <c r="T208">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U208">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W208">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X208">
         <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z208">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA208">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AB208">
         <v>-1</v>
       </c>
       <c r="AC208">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6352957</v>
+        <v>6352952</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,76 +19051,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G209" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H209">
         <v>0</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K209">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L209">
         <v>3.2</v>
       </c>
       <c r="M209">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N209">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="O209">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P209">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q209">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R209">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S209">
+        <v>1.85</v>
+      </c>
+      <c r="T209">
+        <v>2.25</v>
+      </c>
+      <c r="U209">
         <v>1.8</v>
       </c>
-      <c r="T209">
-        <v>2.5</v>
-      </c>
-      <c r="U209">
-        <v>1.925</v>
-      </c>
       <c r="V209">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z209">
         <v>-1</v>
       </c>
       <c r="AA209">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB209">
         <v>-1</v>
       </c>
       <c r="AC209">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19128,7 +19128,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6352952</v>
+        <v>6352953</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19140,76 +19140,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G210" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K210">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N210">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O210">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P210">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R210">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S210">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T210">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U210">
+        <v>2</v>
+      </c>
+      <c r="V210">
         <v>1.8</v>
       </c>
-      <c r="V210">
-        <v>2</v>
-      </c>
       <c r="W210">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z210">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA210">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="211" spans="1:29">

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -103,13 +103,13 @@
     <t>South Korea K3 League</t>
   </si>
   <si>
-    <t>Busan Trans Corp</t>
-  </si>
-  <si>
     <t>Pocheon Citizen FC</t>
   </si>
   <si>
     <t>Hwaseong FC</t>
+  </si>
+  <si>
+    <t>Busan Trans Corp</t>
   </si>
   <si>
     <t>Ulsan Citizen FC</t>
@@ -151,10 +151,10 @@
     <t>Jinju Citizen FC</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
     <t>A</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6378022</v>
+        <v>6352204</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,73 +631,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>45</v>
       </c>
       <c r="K2">
-        <v>1.533</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M2">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N2">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="O2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>2.55</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S2">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X2">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA2">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6352204</v>
+        <v>6352205</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,55 +720,55 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
+        <v>3.6</v>
+      </c>
+      <c r="N3">
+        <v>2.1</v>
+      </c>
+      <c r="O3">
         <v>3.1</v>
       </c>
-      <c r="M3">
-        <v>3.4</v>
-      </c>
-      <c r="N3">
-        <v>2.6</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
       <c r="P3">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
+        <v>1.875</v>
+      </c>
+      <c r="S3">
         <v>1.925</v>
       </c>
-      <c r="S3">
-        <v>1.875</v>
-      </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -777,16 +777,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -794,7 +794,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6352205</v>
+        <v>6378022</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -809,73 +809,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>46</v>
       </c>
       <c r="K4">
-        <v>1.909</v>
+        <v>1.533</v>
       </c>
       <c r="L4">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P4">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB4">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>3.75</v>
@@ -996,7 +996,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>1.615</v>
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1254,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1263,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K9">
         <v>2.625</v>
@@ -1441,7 +1441,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K12">
         <v>1.833</v>
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6352210</v>
+        <v>6353035</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,73 +1699,73 @@
         <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L14">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M14">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N14">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O14">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P14">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q14">
+        <v>-0.75</v>
+      </c>
+      <c r="R14">
+        <v>1.9</v>
+      </c>
+      <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
+        <v>1.775</v>
+      </c>
+      <c r="V14">
+        <v>2.025</v>
+      </c>
+      <c r="W14">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+      <c r="Z14">
+        <v>0.45</v>
+      </c>
+      <c r="AA14">
         <v>-0.5</v>
       </c>
-      <c r="R14">
-        <v>2</v>
-      </c>
-      <c r="S14">
-        <v>1.8</v>
-      </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>1.925</v>
-      </c>
-      <c r="V14">
-        <v>1.875</v>
-      </c>
-      <c r="W14">
-        <v>-1</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>2.5</v>
-      </c>
-      <c r="Z14">
-        <v>-1</v>
-      </c>
-      <c r="AA14">
-        <v>0.8</v>
-      </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC14">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6353035</v>
+        <v>6352210</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N15">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P15">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q15">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S15">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W15">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z15">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
+        <v>0.8</v>
+      </c>
+      <c r="AB15">
         <v>-0.5</v>
       </c>
-      <c r="AB15">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6352213</v>
+        <v>6352212</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,76 +1963,76 @@
         <v>45010.125</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K17">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N17">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O17">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S17">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA17">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6352212</v>
+        <v>6352213</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45010.125</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N18">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P18">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S18">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z18">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6353034</v>
+        <v>6352880</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45011.08333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K19">
+        <v>2.4</v>
+      </c>
+      <c r="L19">
         <v>3</v>
       </c>
-      <c r="L19">
-        <v>3.6</v>
-      </c>
       <c r="M19">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N19">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P19">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6352880</v>
+        <v>6353034</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45011.08333333334</v>
       </c>
       <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
         <v>29</v>
       </c>
-      <c r="G20" t="s">
-        <v>38</v>
-      </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>3.6</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>2.75</v>
+      </c>
+      <c r="O20">
+        <v>3.4</v>
+      </c>
+      <c r="P20">
+        <v>2.25</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.975</v>
+      </c>
+      <c r="S20">
+        <v>1.725</v>
+      </c>
+      <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>1.8</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
         <v>2.4</v>
       </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20">
-        <v>2.75</v>
-      </c>
-      <c r="N20">
-        <v>2.55</v>
-      </c>
-      <c r="O20">
-        <v>2.875</v>
-      </c>
-      <c r="P20">
-        <v>2.7</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>1.85</v>
-      </c>
-      <c r="S20">
-        <v>1.95</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20">
-        <v>1.9</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
-      <c r="W20">
-        <v>-1</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
       <c r="Y20">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6353033</v>
+        <v>6352882</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M22">
-        <v>1.727</v>
+        <v>2.1</v>
       </c>
       <c r="N22">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="O22">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P22">
+        <v>2.3</v>
+      </c>
+      <c r="Q22">
+        <v>0.25</v>
+      </c>
+      <c r="R22">
+        <v>1.775</v>
+      </c>
+      <c r="S22">
+        <v>2.025</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>1.85</v>
+      </c>
+      <c r="V22">
         <v>1.95</v>
       </c>
-      <c r="Q22">
-        <v>0.5</v>
-      </c>
-      <c r="R22">
-        <v>1.8</v>
-      </c>
-      <c r="S22">
-        <v>2</v>
-      </c>
-      <c r="T22">
-        <v>2.25</v>
-      </c>
-      <c r="U22">
-        <v>1.975</v>
-      </c>
-      <c r="V22">
-        <v>1.825</v>
-      </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2497,7 +2497,7 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>38</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K23">
         <v>1.909</v>
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6352882</v>
+        <v>6353033</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L24">
+        <v>3.4</v>
+      </c>
+      <c r="M24">
+        <v>1.727</v>
+      </c>
+      <c r="N24">
+        <v>3.6</v>
+      </c>
+      <c r="O24">
         <v>3.1</v>
       </c>
-      <c r="M24">
+      <c r="P24">
+        <v>1.95</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
+        <v>1.8</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <v>2.25</v>
+      </c>
+      <c r="U24">
+        <v>1.975</v>
+      </c>
+      <c r="V24">
+        <v>1.825</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
         <v>2.1</v>
       </c>
-      <c r="N24">
-        <v>3</v>
-      </c>
-      <c r="O24">
-        <v>2.9</v>
-      </c>
-      <c r="P24">
-        <v>2.3</v>
-      </c>
-      <c r="Q24">
-        <v>0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.775</v>
-      </c>
-      <c r="S24">
-        <v>2.025</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24">
-        <v>1.85</v>
-      </c>
-      <c r="V24">
-        <v>1.95</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
       <c r="Y24">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6353320</v>
+        <v>6352215</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,10 +2675,10 @@
         <v>45018.125</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2690,40 +2690,40 @@
         <v>47</v>
       </c>
       <c r="K25">
+        <v>2.4</v>
+      </c>
+      <c r="L25">
         <v>3</v>
       </c>
-      <c r="L25">
-        <v>3.1</v>
-      </c>
       <c r="M25">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N25">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O25">
         <v>3</v>
       </c>
       <c r="P25">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2732,19 +2732,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6352216</v>
+        <v>6353320</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,34 +2764,34 @@
         <v>45018.125</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>3.1</v>
       </c>
       <c r="M26">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N26">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O26">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P26">
         <v>3.2</v>
@@ -2809,31 +2809,31 @@
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z26">
+        <v>-1</v>
+      </c>
+      <c r="AA26">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6352215</v>
+        <v>6352216</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45018.125</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N27">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2954,7 +2954,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K28">
         <v>1.727</v>
@@ -3123,7 +3123,7 @@
         <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -3132,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K30">
         <v>2.8</v>
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6352217</v>
+        <v>6353032</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45024.08333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L31">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N31">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O31">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P31">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U31">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z31">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6353032</v>
+        <v>6352217</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45024.08333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L32">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M32">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N32">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O32">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P32">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T32">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U32">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA32">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3488,7 +3488,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>2.05</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
         <v>2.375</v>
@@ -3755,7 +3755,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K37">
         <v>2.75</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6352889</v>
+        <v>6353322</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,40 +3832,40 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P38">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
         <v>1.8</v>
@@ -3874,34 +3874,34 @@
         <v>2</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y38">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6352220</v>
+        <v>6352889</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3924,73 +3924,73 @@
         <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P39">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q39">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T39">
         <v>2.25</v>
       </c>
       <c r="U39">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W39">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z39">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB39">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6353322</v>
+        <v>6352220</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>45</v>
       </c>
       <c r="K40">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="O40">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
+        <v>1.725</v>
+      </c>
+      <c r="S40">
+        <v>1.975</v>
+      </c>
+      <c r="T40">
+        <v>2.25</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="V40">
         <v>1.8</v>
       </c>
-      <c r="S40">
-        <v>2</v>
-      </c>
-      <c r="T40">
-        <v>2</v>
-      </c>
-      <c r="U40">
-        <v>1.8</v>
-      </c>
-      <c r="V40">
-        <v>2</v>
-      </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X40">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA40">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4111,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>2.25</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4289,7 +4289,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K43">
         <v>2.4</v>
@@ -4378,7 +4378,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K44">
         <v>2.9</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K45">
         <v>2.9</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6352225</v>
+        <v>6352224</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,73 +4544,73 @@
         <v>45038.125</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L46">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M46">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="N46">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O46">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P46">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
         <v>1.975</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6352224</v>
+        <v>6352226</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45038.125</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L47">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="N47">
+        <v>1.666</v>
+      </c>
+      <c r="O47">
+        <v>3.4</v>
+      </c>
+      <c r="P47">
+        <v>4.5</v>
+      </c>
+      <c r="Q47">
+        <v>-0.75</v>
+      </c>
+      <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
+        <v>1.85</v>
+      </c>
+      <c r="T47">
         <v>2.25</v>
       </c>
-      <c r="O47">
-        <v>3.1</v>
-      </c>
-      <c r="P47">
-        <v>3</v>
-      </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
-        <v>2</v>
-      </c>
-      <c r="S47">
-        <v>1.8</v>
-      </c>
-      <c r="T47">
-        <v>2</v>
-      </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6352226</v>
+        <v>6352225</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,13 +4722,13 @@
         <v>45038.125</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4737,40 +4737,40 @@
         <v>47</v>
       </c>
       <c r="K48">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M48">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N48">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O48">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P48">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S48">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4779,19 +4779,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC48">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4900,7 +4900,7 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
         <v>33</v>
@@ -4912,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K50">
         <v>4.75</v>
@@ -4989,7 +4989,7 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
         <v>35</v>
@@ -5001,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K51">
         <v>1.833</v>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K52">
         <v>2.25</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6352892</v>
+        <v>6352229</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,49 +5167,49 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H53">
         <v>4</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K53">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L53">
+        <v>3.1</v>
+      </c>
+      <c r="M53">
         <v>3.4</v>
       </c>
-      <c r="M53">
+      <c r="N53">
+        <v>1.85</v>
+      </c>
+      <c r="O53">
+        <v>3.2</v>
+      </c>
+      <c r="P53">
         <v>3.8</v>
-      </c>
-      <c r="N53">
-        <v>1.727</v>
-      </c>
-      <c r="O53">
-        <v>3.4</v>
-      </c>
-      <c r="P53">
-        <v>4.5</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
         <v>1.975</v>
@@ -5218,7 +5218,7 @@
         <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.7270000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5227,7 +5227,7 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA53">
         <v>-1</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6352229</v>
+        <v>6352892</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,49 +5256,49 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
+        <v>3.8</v>
+      </c>
+      <c r="N54">
+        <v>1.727</v>
+      </c>
+      <c r="O54">
         <v>3.4</v>
       </c>
-      <c r="N54">
-        <v>1.85</v>
-      </c>
-      <c r="O54">
-        <v>3.2</v>
-      </c>
       <c r="P54">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U54">
         <v>1.975</v>
@@ -5307,7 +5307,7 @@
         <v>1.825</v>
       </c>
       <c r="W54">
-        <v>0.8500000000000001</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5316,7 +5316,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6352230</v>
+        <v>6353323</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,73 +5345,73 @@
         <v>45046.08333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>45</v>
       </c>
       <c r="K55">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N55">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O55">
         <v>3.1</v>
       </c>
       <c r="P55">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
+        <v>1.95</v>
+      </c>
+      <c r="S55">
         <v>1.85</v>
       </c>
-      <c r="S55">
-        <v>1.95</v>
-      </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X55">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6353323</v>
+        <v>6352230</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,73 +5434,73 @@
         <v>45046.08333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>46</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N56">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O56">
         <v>3.1</v>
       </c>
       <c r="P56">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R56">
+        <v>1.85</v>
+      </c>
+      <c r="S56">
         <v>1.95</v>
       </c>
-      <c r="S56">
-        <v>1.85</v>
-      </c>
       <c r="T56">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K58">
         <v>1.833</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6353031</v>
+        <v>6352894</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L59">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N59">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="O59">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
+        <v>1.85</v>
+      </c>
+      <c r="S59">
+        <v>1.95</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
         <v>1.75</v>
       </c>
-      <c r="S59">
+      <c r="V59">
         <v>2.05</v>
       </c>
-      <c r="T59">
-        <v>2</v>
-      </c>
-      <c r="U59">
-        <v>1.9</v>
-      </c>
-      <c r="V59">
-        <v>1.9</v>
-      </c>
       <c r="W59">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
+        <v>0.95</v>
+      </c>
+      <c r="AB59">
         <v>0.75</v>
       </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6352894</v>
+        <v>6353031</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K60">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M60">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N60">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P60">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T60">
         <v>2</v>
       </c>
       <c r="U60">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>45053.08333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K61">
         <v>2.375</v>
@@ -6060,7 +6060,7 @@
         <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6158,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K64">
         <v>2.3</v>
@@ -6247,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K65">
         <v>2.875</v>
@@ -6413,7 +6413,7 @@
         <v>45060.08333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6425,7 +6425,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K67">
         <v>2.3</v>
@@ -6514,7 +6514,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K68">
         <v>2.25</v>
@@ -6591,10 +6591,10 @@
         <v>45060.20833333334</v>
       </c>
       <c r="F69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
         <v>31</v>
-      </c>
-      <c r="G69" t="s">
-        <v>29</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6603,7 +6603,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K69">
         <v>1.95</v>
@@ -6781,7 +6781,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K71">
         <v>2.875</v>
@@ -6858,11 +6858,11 @@
         <v>45066.08333333334</v>
       </c>
       <c r="F72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
         <v>29</v>
       </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
       <c r="H72">
         <v>2</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K72">
         <v>3.1</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6352898</v>
+        <v>6352238</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45066.125</v>
       </c>
       <c r="F73" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K73">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="L73">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M73">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="N73">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P73">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z73">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6352238</v>
+        <v>6352898</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45066.125</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="L74">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M74">
+        <v>1.571</v>
+      </c>
+      <c r="N74">
+        <v>2.6</v>
+      </c>
+      <c r="O74">
+        <v>3.6</v>
+      </c>
+      <c r="P74">
         <v>2.2</v>
       </c>
-      <c r="N74">
-        <v>2.2</v>
-      </c>
-      <c r="O74">
-        <v>3.1</v>
-      </c>
-      <c r="P74">
-        <v>3</v>
-      </c>
       <c r="Q74">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S74">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K75">
         <v>1.833</v>
@@ -7226,7 +7226,7 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K76">
         <v>2.375</v>
@@ -7306,7 +7306,7 @@
         <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7404,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K78">
         <v>2.5</v>
@@ -7481,10 +7481,10 @@
         <v>45073.08333333334</v>
       </c>
       <c r="F79" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" t="s">
         <v>30</v>
-      </c>
-      <c r="G79" t="s">
-        <v>31</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7570,7 +7570,7 @@
         <v>45073.08333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
         <v>32</v>
@@ -7582,7 +7582,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80">
         <v>2.15</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6352242</v>
+        <v>6352901</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45073.125</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K81">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="L81">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="N81">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="O81">
-        <v>2.875</v>
+        <v>2.9</v>
       </c>
       <c r="P81">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="Q81">
         <v>0</v>
       </c>
       <c r="R81">
+        <v>1.875</v>
+      </c>
+      <c r="S81">
+        <v>1.925</v>
+      </c>
+      <c r="T81">
+        <v>2.25</v>
+      </c>
+      <c r="U81">
+        <v>2</v>
+      </c>
+      <c r="V81">
         <v>1.8</v>
       </c>
-      <c r="S81">
-        <v>2</v>
-      </c>
-      <c r="T81">
-        <v>1.75</v>
-      </c>
-      <c r="U81">
-        <v>1.875</v>
-      </c>
-      <c r="V81">
-        <v>1.925</v>
-      </c>
       <c r="W81">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA81">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7760,7 +7760,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
         <v>1.615</v>
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6352901</v>
+        <v>6352242</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45073.125</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H83">
+        <v>2</v>
+      </c>
+      <c r="I83">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>47</v>
+      </c>
+      <c r="K83">
+        <v>2.8</v>
+      </c>
+      <c r="L83">
+        <v>2.875</v>
+      </c>
+      <c r="M83">
+        <v>2.45</v>
+      </c>
+      <c r="N83">
+        <v>2.55</v>
+      </c>
+      <c r="O83">
+        <v>2.875</v>
+      </c>
+      <c r="P83">
+        <v>2.8</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="R83">
+        <v>1.8</v>
+      </c>
+      <c r="S83">
+        <v>2</v>
+      </c>
+      <c r="T83">
+        <v>1.75</v>
+      </c>
+      <c r="U83">
+        <v>1.875</v>
+      </c>
+      <c r="V83">
+        <v>1.925</v>
+      </c>
+      <c r="W83">
+        <v>-1</v>
+      </c>
+      <c r="X83">
+        <v>-1</v>
+      </c>
+      <c r="Y83">
+        <v>1.8</v>
+      </c>
+      <c r="Z83">
+        <v>-1</v>
+      </c>
+      <c r="AA83">
         <v>1</v>
       </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83" t="s">
-        <v>46</v>
-      </c>
-      <c r="K83">
-        <v>2.3</v>
-      </c>
-      <c r="L83">
-        <v>3</v>
-      </c>
-      <c r="M83">
-        <v>2.9</v>
-      </c>
-      <c r="N83">
-        <v>2.625</v>
-      </c>
-      <c r="O83">
-        <v>2.9</v>
-      </c>
-      <c r="P83">
-        <v>2.625</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
-      </c>
-      <c r="R83">
-        <v>1.875</v>
-      </c>
-      <c r="S83">
-        <v>1.925</v>
-      </c>
-      <c r="T83">
-        <v>2.25</v>
-      </c>
-      <c r="U83">
-        <v>2</v>
-      </c>
-      <c r="V83">
-        <v>1.8</v>
-      </c>
-      <c r="W83">
-        <v>1.625</v>
-      </c>
-      <c r="X83">
-        <v>-1</v>
-      </c>
-      <c r="Y83">
-        <v>-1</v>
-      </c>
-      <c r="Z83">
+      <c r="AB83">
         <v>0.875</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
       <c r="AC83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7938,7 +7938,7 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K84">
         <v>1.6</v>
@@ -8015,7 +8015,7 @@
         <v>45079.29166666666</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G85" t="s">
         <v>37</v>
@@ -8116,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K86">
         <v>2</v>
@@ -8196,7 +8196,7 @@
         <v>41</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -8205,7 +8205,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K87">
         <v>3.4</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6352245</v>
+        <v>6352244</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,58 +8282,58 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" t="s">
+        <v>45</v>
+      </c>
+      <c r="K88">
+        <v>2</v>
+      </c>
+      <c r="L88">
         <v>3</v>
       </c>
-      <c r="I88">
-        <v>2</v>
-      </c>
-      <c r="J88" t="s">
-        <v>46</v>
-      </c>
-      <c r="K88">
-        <v>1.727</v>
-      </c>
-      <c r="L88">
-        <v>3.5</v>
-      </c>
       <c r="M88">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N88">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P88">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q88">
         <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U88">
+        <v>1.825</v>
+      </c>
+      <c r="V88">
         <v>1.975</v>
       </c>
-      <c r="V88">
-        <v>1.825</v>
-      </c>
       <c r="W88">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8342,13 +8342,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6352244</v>
+        <v>6352245</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,58 +8371,58 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K89">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N89">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O89">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q89">
         <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
+        <v>1.975</v>
+      </c>
+      <c r="V89">
         <v>1.825</v>
       </c>
-      <c r="V89">
-        <v>1.975</v>
-      </c>
       <c r="W89">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X89">
         <v>-1</v>
@@ -8431,13 +8431,13 @@
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8463,7 +8463,7 @@
         <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8638,7 +8638,7 @@
         <v>45086.29166666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G92" t="s">
         <v>42</v>
@@ -8650,7 +8650,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K92">
         <v>2</v>
@@ -8727,7 +8727,7 @@
         <v>45087.20833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
         <v>37</v>
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K93">
         <v>1.5</v>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6352250</v>
+        <v>6353027</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,46 +8816,46 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>46</v>
       </c>
       <c r="K94">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M94">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N94">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O94">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P94">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q94">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R94">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T94">
         <v>2.25</v>
@@ -8867,25 +8867,25 @@
         <v>1.725</v>
       </c>
       <c r="W94">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB94">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC94">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6353027</v>
+        <v>6352250</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,46 +8905,46 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>45</v>
       </c>
       <c r="K95">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
+        <v>3.4</v>
+      </c>
+      <c r="M95">
+        <v>3.6</v>
+      </c>
+      <c r="N95">
+        <v>2.1</v>
+      </c>
+      <c r="O95">
         <v>3.25</v>
       </c>
-      <c r="M95">
-        <v>3.3</v>
-      </c>
-      <c r="N95">
-        <v>1.7</v>
-      </c>
-      <c r="O95">
-        <v>3.5</v>
-      </c>
       <c r="P95">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T95">
         <v>2.25</v>
@@ -8956,25 +8956,25 @@
         <v>1.725</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X95">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9006,7 +9006,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>2.8</v>
@@ -9095,7 +9095,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K97">
         <v>2.5</v>
@@ -9175,7 +9175,7 @@
         <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>45093.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
         <v>39</v>
@@ -9350,7 +9350,7 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>42</v>
@@ -9362,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K100">
         <v>1.333</v>
@@ -9451,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K101">
         <v>3.8</v>
@@ -9528,7 +9528,7 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>37</v>
@@ -9540,7 +9540,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K102">
         <v>2.375</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K103">
         <v>2.5</v>
@@ -9718,7 +9718,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K104">
         <v>2.25</v>
@@ -9807,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K105">
         <v>2.375</v>
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6353326</v>
+        <v>6352256</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,55 +9973,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" t="s">
         <v>47</v>
       </c>
       <c r="K107">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L107">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M107">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N107">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O107">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P107">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S107">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10030,19 +10030,19 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC107">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10074,7 +10074,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K108">
         <v>1.8</v>
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6352256</v>
+        <v>6353326</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,55 +10151,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
         <v>1</v>
-      </c>
-      <c r="I109">
-        <v>3</v>
       </c>
       <c r="J109" t="s">
         <v>47</v>
       </c>
       <c r="K109">
+        <v>2.2</v>
+      </c>
+      <c r="L109">
+        <v>3.25</v>
+      </c>
+      <c r="M109">
+        <v>2.8</v>
+      </c>
+      <c r="N109">
+        <v>2.3</v>
+      </c>
+      <c r="O109">
+        <v>3.25</v>
+      </c>
+      <c r="P109">
         <v>2.625</v>
       </c>
-      <c r="L109">
-        <v>3.2</v>
-      </c>
-      <c r="M109">
-        <v>2.375</v>
-      </c>
-      <c r="N109">
-        <v>2.1</v>
-      </c>
-      <c r="O109">
-        <v>3.2</v>
-      </c>
-      <c r="P109">
-        <v>3.1</v>
-      </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S109">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10341,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K111">
         <v>2.375</v>
@@ -10421,7 +10421,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K112">
         <v>6</v>
@@ -10519,7 +10519,7 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K113">
         <v>2.375</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K114">
         <v>2.2</v>
@@ -10688,7 +10688,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10697,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K115">
         <v>3.3</v>
@@ -10774,7 +10774,7 @@
         <v>45108.29166666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G116" t="s">
         <v>36</v>
@@ -10786,7 +10786,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K116">
         <v>2.3</v>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K117">
         <v>2.5</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6352262</v>
+        <v>6352922</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
         <v>45</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N118">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V118">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X118">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA118">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6352922</v>
+        <v>6352262</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G119" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
       </c>
       <c r="K119">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M119">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N119">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P119">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V119">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA119">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6352263</v>
+        <v>6441138</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,13 +11130,13 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -11145,61 +11145,61 @@
         <v>45</v>
       </c>
       <c r="K120">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
         <v>3.2</v>
       </c>
       <c r="M120">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N120">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P120">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q120">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X120">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11219,7 +11219,7 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
         <v>40</v>
@@ -11231,7 +11231,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K121">
         <v>2</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6441138</v>
+        <v>6352263</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,13 +11308,13 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -11323,61 +11323,61 @@
         <v>46</v>
       </c>
       <c r="K122">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L122">
         <v>3.2</v>
       </c>
       <c r="M122">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N122">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O122">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P122">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V122">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W122">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352923</v>
+        <v>6352265</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,58 +11397,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H123">
         <v>2</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K123">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L123">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N123">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P123">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q123">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U123">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
-        <v>0.3999999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X123">
         <v>-1</v>
@@ -11457,16 +11457,16 @@
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC123">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6352264</v>
+        <v>6352923</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K124">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N124">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O124">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q124">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6352265</v>
+        <v>6352264</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K125">
         <v>1.727</v>
       </c>
       <c r="L125">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N125">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O125">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R125">
+        <v>1.9</v>
+      </c>
+      <c r="S125">
+        <v>1.9</v>
+      </c>
+      <c r="T125">
+        <v>2</v>
+      </c>
+      <c r="U125">
         <v>1.925</v>
       </c>
-      <c r="S125">
+      <c r="V125">
         <v>1.875</v>
       </c>
-      <c r="T125">
-        <v>2</v>
-      </c>
-      <c r="U125">
-        <v>1.95</v>
-      </c>
-      <c r="V125">
-        <v>1.85</v>
-      </c>
       <c r="W125">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z125">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11667,7 +11667,7 @@
         <v>38</v>
       </c>
       <c r="G126" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11842,7 +11842,7 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
         <v>36</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6352268</v>
+        <v>6353023</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,58 +11931,58 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K129">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L129">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M129">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="N129">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="O129">
         <v>2.75</v>
       </c>
       <c r="P129">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q129">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T129">
         <v>1.75</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>2.3</v>
+        <v>1.15</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11991,16 +11991,16 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA129">
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12032,7 +12032,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K130">
         <v>2.25</v>
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6353023</v>
+        <v>6352268</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,58 +12109,58 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
         <v>1</v>
       </c>
-      <c r="I131">
-        <v>0</v>
-      </c>
       <c r="J131" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L131">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M131">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="N131">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O131">
         <v>2.75</v>
       </c>
       <c r="P131">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
         <v>1.75</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>1.15</v>
+        <v>2.3</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12169,16 +12169,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12210,7 +12210,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K132">
         <v>2.35</v>
@@ -12465,7 +12465,7 @@
         <v>45129.20833333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
         <v>34</v>
@@ -12477,7 +12477,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K135">
         <v>2.2</v>
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6352270</v>
+        <v>6352927</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,58 +12554,58 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G136" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H136">
+        <v>4</v>
+      </c>
+      <c r="I136">
         <v>3</v>
       </c>
-      <c r="I136">
-        <v>1</v>
-      </c>
       <c r="J136" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L136">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N136">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P136">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12614,13 +12614,13 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6352927</v>
+        <v>6352270</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,73 +12643,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K137">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L137">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M137">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N137">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O137">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q137">
         <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T137">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W137">
+        <v>0.833</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12744,7 +12744,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K138">
         <v>1.833</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6353022</v>
+        <v>6353328</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,61 +12821,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>46</v>
       </c>
       <c r="K139">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L139">
+        <v>2.9</v>
+      </c>
+      <c r="M139">
         <v>3.4</v>
       </c>
-      <c r="M139">
-        <v>6</v>
-      </c>
       <c r="N139">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P139">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y139">
         <v>-1</v>
@@ -12887,10 +12887,10 @@
         <v>-0</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC139">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6353328</v>
+        <v>6353022</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,61 +12910,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
         <v>45</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L140">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N140">
+        <v>1.5</v>
+      </c>
+      <c r="O140">
+        <v>3.5</v>
+      </c>
+      <c r="P140">
+        <v>6</v>
+      </c>
+      <c r="Q140">
+        <v>-1</v>
+      </c>
+      <c r="R140">
+        <v>1.875</v>
+      </c>
+      <c r="S140">
+        <v>1.925</v>
+      </c>
+      <c r="T140">
         <v>2.5</v>
       </c>
-      <c r="O140">
-        <v>2.9</v>
-      </c>
-      <c r="P140">
-        <v>2.9</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-      <c r="R140">
-        <v>1.775</v>
-      </c>
-      <c r="S140">
-        <v>2.025</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X140">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12976,10 +12976,10 @@
         <v>-0</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6352272</v>
+        <v>6353329</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G142" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K142">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M142">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="N142">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="O142">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q142">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R142">
+        <v>1.925</v>
+      </c>
+      <c r="S142">
         <v>1.875</v>
       </c>
-      <c r="S142">
+      <c r="T142">
+        <v>2</v>
+      </c>
+      <c r="U142">
+        <v>1.875</v>
+      </c>
+      <c r="V142">
         <v>1.925</v>
       </c>
-      <c r="T142">
-        <v>2.25</v>
-      </c>
-      <c r="U142">
-        <v>1.85</v>
-      </c>
-      <c r="V142">
-        <v>1.95</v>
-      </c>
       <c r="W142">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA142">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6353329</v>
+        <v>6352272</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K143">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L143">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="N143">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P143">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q143">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R143">
+        <v>1.875</v>
+      </c>
+      <c r="S143">
         <v>1.925</v>
       </c>
-      <c r="S143">
-        <v>1.875</v>
-      </c>
       <c r="T143">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V143">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W143">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z143">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA143">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB143">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC143">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -13278,7 +13278,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K144">
         <v>2.375</v>
@@ -13367,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K145">
         <v>2.6</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6352931</v>
+        <v>6352274</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,13 +13444,13 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -13459,19 +13459,19 @@
         <v>46</v>
       </c>
       <c r="K146">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L146">
         <v>3</v>
       </c>
       <c r="M146">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N146">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O146">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P146">
         <v>4</v>
@@ -13480,40 +13480,40 @@
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6352274</v>
+        <v>6352931</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,13 +13533,13 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -13548,19 +13548,19 @@
         <v>45</v>
       </c>
       <c r="K147">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L147">
         <v>3</v>
       </c>
       <c r="M147">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N147">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O147">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P147">
         <v>4</v>
@@ -13569,40 +13569,40 @@
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X147">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13634,7 +13634,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K148">
         <v>2.3</v>
@@ -13711,7 +13711,7 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G149" t="s">
         <v>34</v>
@@ -13723,7 +13723,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K149">
         <v>2</v>
@@ -13800,7 +13800,7 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G150" t="s">
         <v>35</v>
@@ -13990,7 +13990,7 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K152">
         <v>1.833</v>
@@ -14067,7 +14067,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G153" t="s">
         <v>43</v>
@@ -14159,7 +14159,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14257,7 +14257,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K155">
         <v>4</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6352280</v>
+        <v>6352281</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,7 +14423,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>30</v>
@@ -14432,64 +14432,64 @@
         <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>46</v>
       </c>
       <c r="K157">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N157">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P157">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6352281</v>
+        <v>6352280</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,73 +14512,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
         <v>45</v>
       </c>
       <c r="K158">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L158">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M158">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N158">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S158">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X158">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB158">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14613,7 +14613,7 @@
         <v>1</v>
       </c>
       <c r="J159" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K159">
         <v>3.4</v>
@@ -14702,7 +14702,7 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K160">
         <v>2.625</v>
@@ -14791,7 +14791,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K161">
         <v>2.2</v>
@@ -14868,7 +14868,7 @@
         <v>45171.08333333334</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
         <v>41</v>
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K162">
         <v>2</v>
@@ -14969,7 +14969,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K163">
         <v>1.909</v>
@@ -15049,7 +15049,7 @@
         <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -15058,7 +15058,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K164">
         <v>1.909</v>
@@ -15147,7 +15147,7 @@
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K165">
         <v>2.3</v>
@@ -15236,7 +15236,7 @@
         <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K166">
         <v>2.5</v>
@@ -15313,7 +15313,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K167">
         <v>1.666</v>
@@ -15402,10 +15402,10 @@
         <v>45178.08333333334</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15414,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K168">
         <v>6</v>
@@ -15503,7 +15503,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K169">
         <v>3.6</v>
@@ -15592,7 +15592,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K170">
         <v>2.4</v>
@@ -15657,7 +15657,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>6352941</v>
+        <v>6352287</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15669,73 +15669,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F171" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>46</v>
       </c>
       <c r="K171">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="L171">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="M171">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="N171">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O171">
+        <v>3.25</v>
+      </c>
+      <c r="P171">
         <v>4</v>
       </c>
-      <c r="P171">
-        <v>5.75</v>
-      </c>
       <c r="Q171">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S171">
         <v>1.975</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W171">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB171">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC171">
         <v>-1</v>
@@ -15746,7 +15746,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>6352287</v>
+        <v>6352941</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15758,73 +15758,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I172">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
         <v>45</v>
       </c>
       <c r="K172">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L172">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="M172">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="N172">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O172">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P172">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q172">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R172">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S172">
         <v>1.975</v>
       </c>
       <c r="T172">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X172">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA172">
+        <v>-1</v>
+      </c>
+      <c r="AB172">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB172">
-        <v>1</v>
       </c>
       <c r="AC172">
         <v>-1</v>
@@ -15850,7 +15850,7 @@
         <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -15859,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K173">
         <v>1.909</v>
@@ -15948,7 +15948,7 @@
         <v>3</v>
       </c>
       <c r="J174" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K174">
         <v>2.25</v>
@@ -16102,7 +16102,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6352290</v>
+        <v>6352289</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16114,58 +16114,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F176" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G176" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H176">
+        <v>3</v>
+      </c>
+      <c r="I176">
+        <v>2</v>
+      </c>
+      <c r="J176" t="s">
+        <v>45</v>
+      </c>
+      <c r="K176">
+        <v>4.2</v>
+      </c>
+      <c r="L176">
+        <v>3.6</v>
+      </c>
+      <c r="M176">
+        <v>1.666</v>
+      </c>
+      <c r="N176">
+        <v>4.5</v>
+      </c>
+      <c r="O176">
+        <v>3.8</v>
+      </c>
+      <c r="P176">
+        <v>1.571</v>
+      </c>
+      <c r="Q176">
         <v>1</v>
       </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176" t="s">
-        <v>46</v>
-      </c>
-      <c r="K176">
-        <v>2.3</v>
-      </c>
-      <c r="L176">
-        <v>3</v>
-      </c>
-      <c r="M176">
-        <v>2.875</v>
-      </c>
-      <c r="N176">
-        <v>2.5</v>
-      </c>
-      <c r="O176">
-        <v>3</v>
-      </c>
-      <c r="P176">
-        <v>2.625</v>
-      </c>
-      <c r="Q176">
-        <v>0</v>
-      </c>
       <c r="R176">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S176">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T176">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U176">
+        <v>1.875</v>
+      </c>
+      <c r="V176">
         <v>1.925</v>
       </c>
-      <c r="V176">
-        <v>1.875</v>
-      </c>
       <c r="W176">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16174,16 +16174,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA176">
         <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16191,7 +16191,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6352289</v>
+        <v>6352290</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16203,58 +16203,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F177" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177" t="s">
+        <v>45</v>
+      </c>
+      <c r="K177">
+        <v>2.3</v>
+      </c>
+      <c r="L177">
         <v>3</v>
       </c>
-      <c r="I177">
-        <v>2</v>
-      </c>
-      <c r="J177" t="s">
-        <v>46</v>
-      </c>
-      <c r="K177">
-        <v>4.2</v>
-      </c>
-      <c r="L177">
-        <v>3.6</v>
-      </c>
       <c r="M177">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N177">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O177">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P177">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="Q177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R177">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T177">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U177">
+        <v>1.925</v>
+      </c>
+      <c r="V177">
         <v>1.875</v>
       </c>
-      <c r="V177">
-        <v>1.925</v>
-      </c>
       <c r="W177">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16263,16 +16263,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>0.875</v>
-      </c>
-      <c r="AC177">
-        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6353019</v>
+        <v>6352291</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,58 +16292,58 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F178" t="s">
+        <v>29</v>
+      </c>
+      <c r="G178" t="s">
         <v>31</v>
       </c>
-      <c r="G178" t="s">
-        <v>41</v>
-      </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>1</v>
       </c>
       <c r="J178" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K178">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L178">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M178">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N178">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O178">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P178">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
-        <v>0.3999999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,13 +16352,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6352291</v>
+        <v>6353019</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16384,55 +16384,55 @@
         <v>30</v>
       </c>
       <c r="G179" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179">
         <v>1</v>
       </c>
       <c r="J179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K179">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L179">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M179">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N179">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O179">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P179">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16441,13 +16441,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16482,7 +16482,7 @@
         <v>1</v>
       </c>
       <c r="J180" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K180">
         <v>1.444</v>
@@ -16571,7 +16571,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K181">
         <v>1.85</v>
@@ -16749,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K183">
         <v>4</v>
@@ -16838,7 +16838,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K184">
         <v>3.25</v>
@@ -16927,7 +16927,7 @@
         <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K185">
         <v>3.5</v>
@@ -17096,7 +17096,7 @@
         <v>32</v>
       </c>
       <c r="G187" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="J188" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K188">
         <v>1.909</v>
@@ -17271,10 +17271,10 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17283,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K189">
         <v>1.615</v>
@@ -17363,7 +17363,7 @@
         <v>37</v>
       </c>
       <c r="G190" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H190">
         <v>1</v>
@@ -17437,7 +17437,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6352296</v>
+        <v>6353018</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17449,10 +17449,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G191" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17464,40 +17464,40 @@
         <v>47</v>
       </c>
       <c r="K191">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L191">
         <v>3.1</v>
       </c>
       <c r="M191">
+        <v>2.8</v>
+      </c>
+      <c r="N191">
         <v>2.4</v>
-      </c>
-      <c r="N191">
-        <v>3</v>
       </c>
       <c r="O191">
         <v>3.1</v>
       </c>
       <c r="P191">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q191">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R191">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S191">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V191">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W191">
         <v>-1</v>
@@ -17506,16 +17506,16 @@
         <v>-1</v>
       </c>
       <c r="Y191">
-        <v>1.2</v>
+        <v>1.625</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB191">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC191">
         <v>-1</v>
@@ -17526,7 +17526,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6353018</v>
+        <v>6352296</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17538,10 +17538,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F192" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17553,40 +17553,40 @@
         <v>47</v>
       </c>
       <c r="K192">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L192">
         <v>3.1</v>
       </c>
       <c r="M192">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N192">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O192">
         <v>3.1</v>
       </c>
       <c r="P192">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q192">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R192">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T192">
         <v>2.25</v>
       </c>
       <c r="U192">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V192">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W192">
         <v>-1</v>
@@ -17595,16 +17595,16 @@
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>1.625</v>
+        <v>1.2</v>
       </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB192">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC192">
         <v>-1</v>
@@ -17615,7 +17615,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6352948</v>
+        <v>6352949</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17627,73 +17627,73 @@
         <v>45227.125</v>
       </c>
       <c r="F193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G193" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H193">
         <v>3</v>
       </c>
       <c r="I193">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J193" t="s">
         <v>46</v>
       </c>
       <c r="K193">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L193">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N193">
-        <v>2.15</v>
+        <v>1.363</v>
       </c>
       <c r="O193">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P193">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="Q193">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R193">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S193">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T193">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB193">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17704,7 +17704,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6352949</v>
+        <v>6352948</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17716,73 +17716,73 @@
         <v>45227.125</v>
       </c>
       <c r="F194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G194" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H194">
         <v>3</v>
       </c>
       <c r="I194">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J194" t="s">
         <v>45</v>
       </c>
       <c r="K194">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L194">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M194">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N194">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O194">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P194">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q194">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R194">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S194">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U194">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V194">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X194">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA194">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -17805,7 +17805,7 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
         <v>32</v>
@@ -17817,7 +17817,7 @@
         <v>1</v>
       </c>
       <c r="J195" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K195">
         <v>1.615</v>
@@ -17995,7 +17995,7 @@
         <v>1</v>
       </c>
       <c r="J197" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K197">
         <v>3.1</v>
@@ -18075,7 +18075,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K199">
         <v>2.25</v>
@@ -18327,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6353333</v>
+        <v>6352951</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18339,58 +18339,58 @@
         <v>45234.125</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K201">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L201">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N201">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O201">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>1.975</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>1.875</v>
+      </c>
+      <c r="V201">
         <v>1.925</v>
       </c>
-      <c r="S201">
-        <v>1.875</v>
-      </c>
-      <c r="T201">
-        <v>2.25</v>
-      </c>
-      <c r="U201">
-        <v>1.85</v>
-      </c>
-      <c r="V201">
-        <v>1.95</v>
-      </c>
       <c r="W201">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18399,13 +18399,13 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6352951</v>
+        <v>6353333</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,58 +18428,58 @@
         <v>45234.125</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K202">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M202">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N202">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P202">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18488,13 +18488,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18517,7 +18517,7 @@
         <v>45235.08333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G203" t="s">
         <v>32</v>
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6352957</v>
+        <v>6352953</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,13 +18606,13 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204">
         <v>0</v>
@@ -18621,61 +18621,61 @@
         <v>45</v>
       </c>
       <c r="K204">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L204">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M204">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N204">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O204">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P204">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q204">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R204">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S204">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V204">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W204">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X204">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y204">
         <v>-1</v>
       </c>
       <c r="Z204">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
         <v>0.8</v>
-      </c>
-      <c r="AB204">
-        <v>-1</v>
-      </c>
-      <c r="AC204">
-        <v>0.875</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6352956</v>
+        <v>6352957</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,10 +18695,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G205" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -18707,64 +18707,64 @@
         <v>0</v>
       </c>
       <c r="J205" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K205">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L205">
+        <v>3.2</v>
+      </c>
+      <c r="M205">
         <v>3.5</v>
       </c>
-      <c r="M205">
-        <v>2.9</v>
-      </c>
       <c r="N205">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O205">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q205">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R205">
+        <v>2</v>
+      </c>
+      <c r="S205">
         <v>1.8</v>
-      </c>
-      <c r="S205">
-        <v>2</v>
       </c>
       <c r="T205">
         <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y205">
         <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6353334</v>
+        <v>6352958</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,49 +18784,49 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G206" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
         <v>47</v>
       </c>
       <c r="K206">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L206">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M206">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N206">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O206">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P206">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="Q206">
         <v>0</v>
       </c>
       <c r="R206">
-        <v>1.8</v>
+        <v>1.675</v>
       </c>
       <c r="S206">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="T206">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U206">
         <v>1.925</v>
@@ -18841,19 +18841,19 @@
         <v>-1</v>
       </c>
       <c r="Y206">
-        <v>1.55</v>
+        <v>1.875</v>
       </c>
       <c r="Z206">
         <v>-1</v>
       </c>
       <c r="AA206">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AB206">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC206">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18861,7 +18861,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6353335</v>
+        <v>6353334</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18873,73 +18873,73 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G207" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H207">
         <v>2</v>
       </c>
       <c r="I207">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J207" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K207">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L207">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M207">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N207">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O207">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P207">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q207">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T207">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V207">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W207">
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z207">
         <v>-1</v>
       </c>
       <c r="AA207">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB207">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC207">
         <v>-1</v>
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6352958</v>
+        <v>6353335</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,76 +18962,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G208" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K208">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L208">
         <v>3.25</v>
       </c>
       <c r="M208">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N208">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O208">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P208">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R208">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="S208">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="T208">
         <v>2.25</v>
       </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y208">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
         <v>-1</v>
       </c>
       <c r="AA208">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="AB208">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC208">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6352952</v>
+        <v>6352956</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,76 +19051,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G209" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H209">
         <v>0</v>
       </c>
       <c r="I209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K209">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L209">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M209">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N209">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O209">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P209">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q209">
         <v>0.25</v>
       </c>
       <c r="R209">
+        <v>1.8</v>
+      </c>
+      <c r="S209">
+        <v>2</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
         <v>1.95</v>
       </c>
-      <c r="S209">
+      <c r="V209">
         <v>1.85</v>
       </c>
-      <c r="T209">
-        <v>2.25</v>
-      </c>
-      <c r="U209">
-        <v>1.8</v>
-      </c>
-      <c r="V209">
-        <v>2</v>
-      </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y209">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA209">
+        <v>-0.5</v>
+      </c>
+      <c r="AB209">
+        <v>-1</v>
+      </c>
+      <c r="AC209">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB209">
-        <v>-1</v>
-      </c>
-      <c r="AC209">
-        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19128,7 +19128,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6352953</v>
+        <v>6352952</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19140,76 +19140,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G210" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K210">
+        <v>2.6</v>
+      </c>
+      <c r="L210">
+        <v>3.2</v>
+      </c>
+      <c r="M210">
+        <v>2.4</v>
+      </c>
+      <c r="N210">
+        <v>3.1</v>
+      </c>
+      <c r="O210">
+        <v>3.3</v>
+      </c>
+      <c r="P210">
         <v>2.05</v>
       </c>
-      <c r="L210">
-        <v>3.25</v>
-      </c>
-      <c r="M210">
-        <v>3.1</v>
-      </c>
-      <c r="N210">
+      <c r="Q210">
+        <v>0.25</v>
+      </c>
+      <c r="R210">
+        <v>1.95</v>
+      </c>
+      <c r="S210">
+        <v>1.85</v>
+      </c>
+      <c r="T210">
+        <v>2.25</v>
+      </c>
+      <c r="U210">
         <v>1.8</v>
       </c>
-      <c r="O210">
-        <v>3.4</v>
-      </c>
-      <c r="P210">
-        <v>3.75</v>
-      </c>
-      <c r="Q210">
-        <v>-0.5</v>
-      </c>
-      <c r="R210">
-        <v>1.825</v>
-      </c>
-      <c r="S210">
-        <v>1.975</v>
-      </c>
-      <c r="T210">
-        <v>2.5</v>
-      </c>
-      <c r="U210">
-        <v>2</v>
-      </c>
       <c r="V210">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W210">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X210">
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z210">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA210">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:29">
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K211">
         <v>1.909</v>

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -106,13 +106,13 @@
     <t>Pocheon Citizen FC</t>
   </si>
   <si>
-    <t>Hwaseong FC</t>
+    <t>Ulsan Citizen FC</t>
   </si>
   <si>
     <t>Busan Trans Corp</t>
   </si>
   <si>
-    <t>Ulsan Citizen FC</t>
+    <t>Hwaseong FC</t>
   </si>
   <si>
     <t>Siheung City AC</t>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6352205</v>
+        <v>6352203</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -720,7 +720,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -732,43 +732,43 @@
         <v>45</v>
       </c>
       <c r="K3">
+        <v>3.75</v>
+      </c>
+      <c r="L3">
+        <v>3.1</v>
+      </c>
+      <c r="M3">
         <v>1.909</v>
       </c>
-      <c r="L3">
-        <v>3.2</v>
-      </c>
-      <c r="M3">
+      <c r="N3">
         <v>3.6</v>
-      </c>
-      <c r="N3">
-        <v>2.1</v>
       </c>
       <c r="O3">
         <v>3.1</v>
       </c>
       <c r="P3">
-        <v>3.25</v>
+        <v>1.95</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R3">
+        <v>1.775</v>
+      </c>
+      <c r="S3">
+        <v>2.025</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>1.925</v>
+      </c>
+      <c r="V3">
         <v>1.875</v>
       </c>
-      <c r="S3">
-        <v>1.925</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3">
-        <v>1.85</v>
-      </c>
-      <c r="V3">
-        <v>1.95</v>
-      </c>
       <c r="W3">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -777,13 +777,13 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC3">
         <v>-1</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6352203</v>
+        <v>6352205</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,7 +898,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -910,43 +910,43 @@
         <v>45</v>
       </c>
       <c r="K5">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N5">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="O5">
         <v>3.1</v>
       </c>
       <c r="P5">
+        <v>3.25</v>
+      </c>
+      <c r="Q5">
+        <v>-0.25</v>
+      </c>
+      <c r="R5">
+        <v>1.875</v>
+      </c>
+      <c r="S5">
+        <v>1.925</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>1.85</v>
+      </c>
+      <c r="V5">
         <v>1.95</v>
       </c>
-      <c r="Q5">
-        <v>0.5</v>
-      </c>
-      <c r="R5">
-        <v>1.775</v>
-      </c>
-      <c r="S5">
-        <v>2.025</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>1.925</v>
-      </c>
-      <c r="V5">
-        <v>1.875</v>
-      </c>
       <c r="W5">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -955,13 +955,13 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC5">
         <v>-1</v>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6352209</v>
+        <v>6353318</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,58 +1429,58 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>45</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N11">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O11">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W11">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1489,16 +1489,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6353318</v>
+        <v>6352209</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,58 +1518,58 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N12">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P12">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,16 +1578,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>45004.08333333334</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>40</v>
@@ -1877,7 +1877,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -2055,7 +2055,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6352882</v>
+        <v>6352214</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2408,76 +2408,76 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K22">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L22">
         <v>3.1</v>
       </c>
       <c r="M22">
+        <v>3.75</v>
+      </c>
+      <c r="N22">
+        <v>1.7</v>
+      </c>
+      <c r="O22">
+        <v>3.1</v>
+      </c>
+      <c r="P22">
+        <v>4.75</v>
+      </c>
+      <c r="Q22">
+        <v>-0.75</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>1.8</v>
+      </c>
+      <c r="W22">
+        <v>-1</v>
+      </c>
+      <c r="X22">
         <v>2.1</v>
       </c>
-      <c r="N22">
-        <v>3</v>
-      </c>
-      <c r="O22">
-        <v>2.9</v>
-      </c>
-      <c r="P22">
-        <v>2.3</v>
-      </c>
-      <c r="Q22">
-        <v>0.25</v>
-      </c>
-      <c r="R22">
-        <v>1.775</v>
-      </c>
-      <c r="S22">
-        <v>2.025</v>
-      </c>
-      <c r="T22">
-        <v>2</v>
-      </c>
-      <c r="U22">
-        <v>1.85</v>
-      </c>
-      <c r="V22">
-        <v>1.95</v>
-      </c>
-      <c r="W22">
-        <v>-1</v>
-      </c>
-      <c r="X22">
-        <v>-1</v>
-      </c>
       <c r="Y22">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
         <v>-1</v>
       </c>
       <c r="AA22">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6352214</v>
+        <v>6352882</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2497,76 +2497,76 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K23">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L23">
         <v>3.1</v>
       </c>
       <c r="M23">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="N23">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P23">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R23">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S23">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T23">
         <v>2</v>
       </c>
       <c r="U23">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AB23">
         <v>-1</v>
       </c>
       <c r="AC23">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2589,7 +2589,7 @@
         <v>40</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6352215</v>
+        <v>6352216</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2675,76 @@
         <v>45018.125</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N25">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6352216</v>
+        <v>6352215</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45018.125</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L27">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="N27">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q27">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W27">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3197,7 +3197,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6353032</v>
+        <v>6352217</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3209,76 +3209,76 @@
         <v>45024.08333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H31">
         <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L31">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M31">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N31">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="O31">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P31">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q31">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U31">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6352217</v>
+        <v>6353032</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3298,76 +3298,76 @@
         <v>45024.08333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H32">
         <v>1</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="L32">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M32">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N32">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O32">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P32">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S32">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T32">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U32">
-        <v>1.725</v>
+        <v>2</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3476,7 +3476,7 @@
         <v>45024.29166666666</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>36</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6353322</v>
+        <v>6352220</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38">
+        <v>1.5</v>
+      </c>
+      <c r="L38">
+        <v>3.75</v>
+      </c>
+      <c r="M38">
+        <v>5.5</v>
+      </c>
+      <c r="N38">
+        <v>1.55</v>
+      </c>
+      <c r="O38">
+        <v>3.5</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <v>-0.75</v>
+      </c>
+      <c r="R38">
+        <v>1.725</v>
+      </c>
+      <c r="S38">
+        <v>1.975</v>
+      </c>
+      <c r="T38">
+        <v>2.25</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="V38">
+        <v>1.8</v>
+      </c>
+      <c r="W38">
+        <v>0.55</v>
+      </c>
+      <c r="X38">
+        <v>-1</v>
+      </c>
+      <c r="Y38">
+        <v>-1</v>
+      </c>
+      <c r="Z38">
+        <v>0.7250000000000001</v>
+      </c>
+      <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
         <v>1</v>
       </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38" t="s">
-        <v>46</v>
-      </c>
-      <c r="K38">
-        <v>2.15</v>
-      </c>
-      <c r="L38">
-        <v>3.1</v>
-      </c>
-      <c r="M38">
-        <v>3.1</v>
-      </c>
-      <c r="N38">
-        <v>2.05</v>
-      </c>
-      <c r="O38">
-        <v>3.1</v>
-      </c>
-      <c r="P38">
-        <v>3.3</v>
-      </c>
-      <c r="Q38">
-        <v>-0.25</v>
-      </c>
-      <c r="R38">
-        <v>1.8</v>
-      </c>
-      <c r="S38">
-        <v>2</v>
-      </c>
-      <c r="T38">
-        <v>2</v>
-      </c>
-      <c r="U38">
-        <v>1.8</v>
-      </c>
-      <c r="V38">
-        <v>2</v>
-      </c>
-      <c r="W38">
-        <v>-1</v>
-      </c>
-      <c r="X38">
-        <v>2.1</v>
-      </c>
-      <c r="Y38">
-        <v>-1</v>
-      </c>
-      <c r="Z38">
-        <v>-0.5</v>
-      </c>
-      <c r="AA38">
-        <v>0.5</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
       <c r="AC38">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6352889</v>
+        <v>6353322</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,40 +3921,40 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K39">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O39">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P39">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
         <v>1.8</v>
@@ -3963,34 +3963,34 @@
         <v>2</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V39">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y39">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352220</v>
+        <v>6352889</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N40">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O40">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P40">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T40">
         <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W40">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z40">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4191,7 +4191,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6352226</v>
+        <v>6352225</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,13 +4633,13 @@
         <v>45038.125</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -4648,40 +4648,40 @@
         <v>47</v>
       </c>
       <c r="K47">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L47">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M47">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N47">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O47">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P47">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V47">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W47">
         <v>-1</v>
@@ -4690,19 +4690,19 @@
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z47">
         <v>-1</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6352225</v>
+        <v>6352226</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,13 +4722,13 @@
         <v>45038.125</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4737,40 +4737,40 @@
         <v>47</v>
       </c>
       <c r="K48">
-        <v>2.6</v>
+        <v>1.666</v>
       </c>
       <c r="L48">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M48">
-        <v>2.6</v>
+        <v>4.5</v>
       </c>
       <c r="N48">
-        <v>2.9</v>
+        <v>1.666</v>
       </c>
       <c r="O48">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="P48">
-        <v>2.375</v>
+        <v>4.5</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S48">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T48">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4779,19 +4779,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.375</v>
+        <v>3.5</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB48">
-        <v>0.7250000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6352891</v>
+        <v>6352227</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50">
+        <v>1.833</v>
+      </c>
+      <c r="L50">
+        <v>3.4</v>
+      </c>
+      <c r="M50">
+        <v>3.6</v>
+      </c>
+      <c r="N50">
+        <v>1.75</v>
+      </c>
+      <c r="O50">
+        <v>3.6</v>
+      </c>
+      <c r="P50">
+        <v>4</v>
+      </c>
+      <c r="Q50">
+        <v>-0.5</v>
+      </c>
+      <c r="R50">
+        <v>1.75</v>
+      </c>
+      <c r="S50">
+        <v>1.95</v>
+      </c>
+      <c r="T50">
+        <v>1.75</v>
+      </c>
+      <c r="U50">
+        <v>1.8</v>
+      </c>
+      <c r="V50">
+        <v>2</v>
+      </c>
+      <c r="W50">
+        <v>-1</v>
+      </c>
+      <c r="X50">
+        <v>2.6</v>
+      </c>
+      <c r="Y50">
+        <v>-1</v>
+      </c>
+      <c r="Z50">
+        <v>-1</v>
+      </c>
+      <c r="AA50">
+        <v>0.95</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>1</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50" t="s">
-        <v>45</v>
-      </c>
-      <c r="K50">
-        <v>4.75</v>
-      </c>
-      <c r="L50">
-        <v>3.8</v>
-      </c>
-      <c r="M50">
-        <v>1.571</v>
-      </c>
-      <c r="N50">
-        <v>2.75</v>
-      </c>
-      <c r="O50">
-        <v>3.25</v>
-      </c>
-      <c r="P50">
-        <v>2.3</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>1.975</v>
-      </c>
-      <c r="S50">
-        <v>1.725</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
-      <c r="U50">
-        <v>1.75</v>
-      </c>
-      <c r="V50">
-        <v>1.95</v>
-      </c>
-      <c r="W50">
-        <v>1.75</v>
-      </c>
-      <c r="X50">
-        <v>-1</v>
-      </c>
-      <c r="Y50">
-        <v>-1</v>
-      </c>
-      <c r="Z50">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA50">
-        <v>-1</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>0.95</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6352227</v>
+        <v>6352891</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K51">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="L51">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="N51">
+        <v>2.75</v>
+      </c>
+      <c r="O51">
+        <v>3.25</v>
+      </c>
+      <c r="P51">
+        <v>2.3</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>1.975</v>
+      </c>
+      <c r="S51">
+        <v>1.725</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
         <v>1.75</v>
       </c>
-      <c r="O51">
-        <v>3.6</v>
-      </c>
-      <c r="P51">
-        <v>4</v>
-      </c>
-      <c r="Q51">
-        <v>-0.5</v>
-      </c>
-      <c r="R51">
+      <c r="V51">
+        <v>1.95</v>
+      </c>
+      <c r="W51">
         <v>1.75</v>
       </c>
-      <c r="S51">
-        <v>1.95</v>
-      </c>
-      <c r="T51">
-        <v>1.75</v>
-      </c>
-      <c r="U51">
-        <v>1.8</v>
-      </c>
-      <c r="V51">
-        <v>2</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
       <c r="X51">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA51">
+        <v>-1</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>0.95</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
         <v>34</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6353323</v>
+        <v>6352230</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,73 +5345,73 @@
         <v>45046.08333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L55">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O55">
         <v>3.1</v>
       </c>
       <c r="P55">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q55">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R55">
+        <v>1.85</v>
+      </c>
+      <c r="S55">
         <v>1.95</v>
       </c>
-      <c r="S55">
-        <v>1.85</v>
-      </c>
       <c r="T55">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X55">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB55">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6352230</v>
+        <v>6353323</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,73 +5434,73 @@
         <v>45046.08333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K56">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M56">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N56">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O56">
         <v>3.1</v>
       </c>
       <c r="P56">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
+        <v>1.95</v>
+      </c>
+      <c r="S56">
         <v>1.85</v>
       </c>
-      <c r="S56">
-        <v>1.95</v>
-      </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X56">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA56">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5615,7 +5615,7 @@
         <v>43</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6352894</v>
+        <v>6353031</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L59">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M59">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N59">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="O59">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P59">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S59">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T59">
         <v>2</v>
       </c>
       <c r="U59">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V59">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6353031</v>
+        <v>6352894</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45052.16666666666</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L60">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M60">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N60">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="O60">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P60">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
+        <v>1.85</v>
+      </c>
+      <c r="S60">
+        <v>1.95</v>
+      </c>
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
         <v>1.75</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>2.05</v>
       </c>
-      <c r="T60">
-        <v>2</v>
-      </c>
-      <c r="U60">
-        <v>1.9</v>
-      </c>
-      <c r="V60">
-        <v>1.9</v>
-      </c>
       <c r="W60">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z60">
+        <v>-1</v>
+      </c>
+      <c r="AA60">
+        <v>0.95</v>
+      </c>
+      <c r="AB60">
         <v>0.75</v>
       </c>
-      <c r="AA60">
-        <v>-1</v>
-      </c>
-      <c r="AB60">
-        <v>-1</v>
-      </c>
       <c r="AC60">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6352895</v>
+        <v>6352233</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,55 +5968,55 @@
         <v>45053.125</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L62">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M62">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="N62">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O62">
         <v>3.1</v>
       </c>
       <c r="P62">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q62">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6025,19 +6025,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC62">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6352233</v>
+        <v>6352895</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,55 +6057,55 @@
         <v>45053.125</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L63">
+        <v>3.25</v>
+      </c>
+      <c r="M63">
+        <v>1.833</v>
+      </c>
+      <c r="N63">
         <v>3.1</v>
-      </c>
-      <c r="M63">
-        <v>1.909</v>
-      </c>
-      <c r="N63">
-        <v>3.5</v>
       </c>
       <c r="O63">
         <v>3.1</v>
       </c>
       <c r="P63">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q63">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S63">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U63">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6114,19 +6114,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>45059.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
         <v>35</v>
@@ -6591,7 +6591,7 @@
         <v>45060.20833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
         <v>31</v>
@@ -6950,7 +6950,7 @@
         <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7306,7 +7306,7 @@
         <v>41</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7484,7 +7484,7 @@
         <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>31</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6352901</v>
+        <v>6352242</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,76 +7659,76 @@
         <v>45073.125</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>4</v>
+      </c>
+      <c r="J81" t="s">
+        <v>47</v>
+      </c>
+      <c r="K81">
+        <v>2.8</v>
+      </c>
+      <c r="L81">
+        <v>2.875</v>
+      </c>
+      <c r="M81">
+        <v>2.45</v>
+      </c>
+      <c r="N81">
+        <v>2.55</v>
+      </c>
+      <c r="O81">
+        <v>2.875</v>
+      </c>
+      <c r="P81">
+        <v>2.8</v>
+      </c>
+      <c r="Q81">
+        <v>0</v>
+      </c>
+      <c r="R81">
+        <v>1.8</v>
+      </c>
+      <c r="S81">
+        <v>2</v>
+      </c>
+      <c r="T81">
+        <v>1.75</v>
+      </c>
+      <c r="U81">
+        <v>1.875</v>
+      </c>
+      <c r="V81">
+        <v>1.925</v>
+      </c>
+      <c r="W81">
+        <v>-1</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>1.8</v>
+      </c>
+      <c r="Z81">
+        <v>-1</v>
+      </c>
+      <c r="AA81">
         <v>1</v>
       </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81" t="s">
-        <v>45</v>
-      </c>
-      <c r="K81">
-        <v>2.3</v>
-      </c>
-      <c r="L81">
-        <v>3</v>
-      </c>
-      <c r="M81">
-        <v>2.9</v>
-      </c>
-      <c r="N81">
-        <v>2.625</v>
-      </c>
-      <c r="O81">
-        <v>2.9</v>
-      </c>
-      <c r="P81">
-        <v>2.625</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>1.875</v>
-      </c>
-      <c r="S81">
-        <v>1.925</v>
-      </c>
-      <c r="T81">
-        <v>2.25</v>
-      </c>
-      <c r="U81">
-        <v>2</v>
-      </c>
-      <c r="V81">
-        <v>1.8</v>
-      </c>
-      <c r="W81">
-        <v>1.625</v>
-      </c>
-      <c r="X81">
-        <v>-1</v>
-      </c>
-      <c r="Y81">
-        <v>-1</v>
-      </c>
-      <c r="Z81">
+      <c r="AB81">
         <v>0.875</v>
       </c>
-      <c r="AA81">
-        <v>-1</v>
-      </c>
-      <c r="AB81">
-        <v>-1</v>
-      </c>
       <c r="AC81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6352900</v>
+        <v>6352901</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45073.125</v>
       </c>
       <c r="F82" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K82">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="N82">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O82">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P82">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S82">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X82">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6352242</v>
+        <v>6352900</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,73 +7837,73 @@
         <v>45073.125</v>
       </c>
       <c r="F83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K83">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L83">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
       <c r="M83">
-        <v>2.45</v>
+        <v>4.75</v>
       </c>
       <c r="N83">
-        <v>2.55</v>
+        <v>1.5</v>
       </c>
       <c r="O83">
-        <v>2.875</v>
+        <v>3.6</v>
       </c>
       <c r="P83">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="Q83">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T83">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V83">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y83">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB83">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC83">
         <v>-1</v>
@@ -8460,10 +8460,10 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F90" t="s">
+        <v>30</v>
+      </c>
+      <c r="G90" t="s">
         <v>32</v>
-      </c>
-      <c r="G90" t="s">
-        <v>30</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -8727,7 +8727,7 @@
         <v>45087.20833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>37</v>
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6353027</v>
+        <v>6352250</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,46 +8816,46 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G94" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>3.6</v>
+      </c>
+      <c r="N94">
+        <v>2.1</v>
+      </c>
+      <c r="O94">
         <v>3.25</v>
       </c>
-      <c r="M94">
-        <v>3.3</v>
-      </c>
-      <c r="N94">
-        <v>1.7</v>
-      </c>
-      <c r="O94">
-        <v>3.5</v>
-      </c>
       <c r="P94">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q94">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R94">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S94">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T94">
         <v>2.25</v>
@@ -8867,25 +8867,25 @@
         <v>1.725</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X94">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA94">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC94">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6352250</v>
+        <v>6353027</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,46 +8905,46 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M95">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N95">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O95">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q95">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R95">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
         <v>2.25</v>
@@ -8956,25 +8956,25 @@
         <v>1.725</v>
       </c>
       <c r="W95">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -9071,7 +9071,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6352908</v>
+        <v>6352251</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9083,76 +9083,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K97">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L97">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N97">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O97">
         <v>3</v>
       </c>
       <c r="P97">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
+        <v>2.025</v>
+      </c>
+      <c r="S97">
+        <v>1.775</v>
+      </c>
+      <c r="T97">
+        <v>2</v>
+      </c>
+      <c r="U97">
         <v>1.95</v>
       </c>
-      <c r="S97">
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="T97">
-        <v>2.25</v>
-      </c>
-      <c r="U97">
-        <v>2.025</v>
-      </c>
-      <c r="V97">
-        <v>1.775</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9160,7 +9160,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6352251</v>
+        <v>6352908</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9172,76 +9172,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H98">
         <v>0</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K98">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M98">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N98">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O98">
         <v>3</v>
       </c>
       <c r="P98">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>1.85</v>
+      </c>
+      <c r="T98">
+        <v>2.25</v>
+      </c>
+      <c r="U98">
         <v>2.025</v>
       </c>
-      <c r="S98">
+      <c r="V98">
         <v>1.775</v>
       </c>
-      <c r="T98">
-        <v>2</v>
-      </c>
-      <c r="U98">
-        <v>1.95</v>
-      </c>
-      <c r="V98">
-        <v>1.85</v>
-      </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y98">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA98">
+        <v>-0</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
-      <c r="AC98">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6352253</v>
+        <v>6353026</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,10 +9350,10 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F100" t="s">
+        <v>41</v>
+      </c>
+      <c r="G100" t="s">
         <v>30</v>
-      </c>
-      <c r="G100" t="s">
-        <v>42</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9365,61 +9365,61 @@
         <v>46</v>
       </c>
       <c r="K100">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="N100">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P100">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q100">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R100">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S100">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA100">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB100">
         <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6353026</v>
+        <v>6352252</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,76 +9439,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="s">
         <v>46</v>
       </c>
       <c r="K101">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L101">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M101">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N101">
+        <v>2.625</v>
+      </c>
+      <c r="O101">
         <v>2.875</v>
       </c>
-      <c r="O101">
-        <v>3.25</v>
-      </c>
       <c r="P101">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S101">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U101">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6352252</v>
+        <v>6352253</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9528,76 +9528,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>46</v>
       </c>
       <c r="K102">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L102">
+        <v>5</v>
+      </c>
+      <c r="M102">
+        <v>6</v>
+      </c>
+      <c r="N102">
+        <v>1.571</v>
+      </c>
+      <c r="O102">
+        <v>3.8</v>
+      </c>
+      <c r="P102">
+        <v>4.75</v>
+      </c>
+      <c r="Q102">
+        <v>-0.75</v>
+      </c>
+      <c r="R102">
+        <v>1.775</v>
+      </c>
+      <c r="S102">
+        <v>2.025</v>
+      </c>
+      <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>1.875</v>
+      </c>
+      <c r="V102">
+        <v>1.925</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
         <v>2.8</v>
       </c>
-      <c r="M102">
-        <v>3</v>
-      </c>
-      <c r="N102">
-        <v>2.625</v>
-      </c>
-      <c r="O102">
-        <v>2.875</v>
-      </c>
-      <c r="P102">
-        <v>2.55</v>
-      </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.95</v>
-      </c>
-      <c r="S102">
-        <v>1.85</v>
-      </c>
-      <c r="T102">
-        <v>2</v>
-      </c>
-      <c r="U102">
-        <v>1.85</v>
-      </c>
-      <c r="V102">
-        <v>1.95</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>1.875</v>
-      </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC102">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9887,7 +9887,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6352256</v>
+        <v>6353326</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9973,55 +9973,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
         <v>1</v>
-      </c>
-      <c r="I107">
-        <v>3</v>
       </c>
       <c r="J107" t="s">
         <v>47</v>
       </c>
       <c r="K107">
+        <v>2.2</v>
+      </c>
+      <c r="L107">
+        <v>3.25</v>
+      </c>
+      <c r="M107">
+        <v>2.8</v>
+      </c>
+      <c r="N107">
+        <v>2.3</v>
+      </c>
+      <c r="O107">
+        <v>3.25</v>
+      </c>
+      <c r="P107">
         <v>2.625</v>
       </c>
-      <c r="L107">
-        <v>3.2</v>
-      </c>
-      <c r="M107">
-        <v>2.375</v>
-      </c>
-      <c r="N107">
-        <v>2.1</v>
-      </c>
-      <c r="O107">
-        <v>3.2</v>
-      </c>
-      <c r="P107">
-        <v>3.1</v>
-      </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T107">
         <v>2.25</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
         <v>-1</v>
@@ -10030,19 +10030,19 @@
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z107">
         <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB107">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6353326</v>
+        <v>6352256</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,55 +10151,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J109" t="s">
         <v>47</v>
       </c>
       <c r="K109">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L109">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M109">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N109">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O109">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P109">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10208,19 +10208,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10421,7 +10421,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10599,7 +10599,7 @@
         <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6352922</v>
+        <v>6352262</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,76 +10952,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K118">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N118">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P118">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V118">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W118">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC118">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6352262</v>
+        <v>6352922</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,76 +11041,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K119">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L119">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N119">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O119">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q119">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X119">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA119">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB119">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352265</v>
+        <v>6352264</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11400,73 +11400,73 @@
         <v>30</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K123">
         <v>1.727</v>
       </c>
       <c r="L123">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M123">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N123">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O123">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P123">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q123">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R123">
+        <v>1.9</v>
+      </c>
+      <c r="S123">
+        <v>1.9</v>
+      </c>
+      <c r="T123">
+        <v>2</v>
+      </c>
+      <c r="U123">
         <v>1.925</v>
       </c>
-      <c r="S123">
+      <c r="V123">
         <v>1.875</v>
       </c>
-      <c r="T123">
-        <v>2</v>
-      </c>
-      <c r="U123">
-        <v>1.95</v>
-      </c>
-      <c r="V123">
-        <v>1.85</v>
-      </c>
       <c r="W123">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z123">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB123">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6352264</v>
+        <v>6352265</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11578,73 +11578,73 @@
         <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K125">
         <v>1.727</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N125">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O125">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P125">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q125">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T125">
         <v>2</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA125">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11931,7 +11931,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
@@ -12112,7 +12112,7 @@
         <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -12379,7 +12379,7 @@
         <v>36</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6353328</v>
+        <v>6353022</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,61 +12821,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L139">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N139">
+        <v>1.5</v>
+      </c>
+      <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
+        <v>6</v>
+      </c>
+      <c r="Q139">
+        <v>-1</v>
+      </c>
+      <c r="R139">
+        <v>1.875</v>
+      </c>
+      <c r="S139">
+        <v>1.925</v>
+      </c>
+      <c r="T139">
         <v>2.5</v>
       </c>
-      <c r="O139">
-        <v>2.9</v>
-      </c>
-      <c r="P139">
-        <v>2.9</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>1.775</v>
-      </c>
-      <c r="S139">
-        <v>2.025</v>
-      </c>
-      <c r="T139">
-        <v>2</v>
-      </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X139">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
@@ -12887,10 +12887,10 @@
         <v>-0</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6353022</v>
+        <v>6353328</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,61 +12910,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
+        <v>2.9</v>
+      </c>
+      <c r="M140">
         <v>3.4</v>
       </c>
-      <c r="M140">
-        <v>6</v>
-      </c>
       <c r="N140">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P140">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12976,10 +12976,10 @@
         <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13180,7 +13180,7 @@
         <v>34</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13355,7 +13355,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>38</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6352274</v>
+        <v>6352931</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,34 +13444,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K146">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L146">
         <v>3</v>
       </c>
       <c r="M146">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N146">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O146">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P146">
         <v>4</v>
@@ -13480,40 +13480,40 @@
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S146">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U146">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X146">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA146">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC146">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6352931</v>
+        <v>6352274</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,34 +13533,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K147">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L147">
         <v>3</v>
       </c>
       <c r="M147">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N147">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O147">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P147">
         <v>4</v>
@@ -13569,40 +13569,40 @@
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S147">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T147">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB147">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -14067,7 +14067,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
         <v>43</v>
@@ -14233,7 +14233,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6353330</v>
+        <v>6352279</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14245,76 +14245,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F155" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K155">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="L155">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M155">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N155">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O155">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R155">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S155">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V155">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W155">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z155">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC155">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14322,7 +14322,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6352279</v>
+        <v>6353330</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14334,76 +14334,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K156">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L156">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M156">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N156">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O156">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P156">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q156">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R156">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T156">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U156">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6352281</v>
+        <v>6352280</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,73 +14423,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>2</v>
       </c>
       <c r="I157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K157">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L157">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M157">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N157">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O157">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P157">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q157">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R157">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S157">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T157">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U157">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V157">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W157">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X157">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AA157">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB157">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6352280</v>
+        <v>6352281</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,73 +14512,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H158">
         <v>2</v>
       </c>
       <c r="I158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K158">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L158">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M158">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N158">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O158">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P158">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q158">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R158">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S158">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T158">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V158">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W158">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AA158">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6352283</v>
+        <v>6352284</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,46 +15046,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G164" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K164">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L164">
         <v>3.1</v>
       </c>
       <c r="M164">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N164">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O164">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P164">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q164">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R164">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T164">
         <v>2.25</v>
@@ -15097,19 +15097,19 @@
         <v>1.825</v>
       </c>
       <c r="W164">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X164">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB164">
         <v>-0.5</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6352284</v>
+        <v>6352283</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,46 +15135,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K165">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L165">
         <v>3.1</v>
       </c>
       <c r="M165">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N165">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O165">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P165">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q165">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R165">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S165">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T165">
         <v>2.25</v>
@@ -15186,19 +15186,19 @@
         <v>1.825</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X165">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA165">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
         <v>-0.5</v>
@@ -15313,7 +15313,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15405,7 +15405,7 @@
         <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15672,7 +15672,7 @@
         <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6352291</v>
+        <v>6353019</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16292,13 +16292,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F178" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -16307,43 +16307,43 @@
         <v>45</v>
       </c>
       <c r="K178">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L178">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M178">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N178">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O178">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P178">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q178">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R178">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S178">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,13 +16352,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6353019</v>
+        <v>6352291</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16381,13 +16381,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -16396,43 +16396,43 @@
         <v>45</v>
       </c>
       <c r="K179">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L179">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M179">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N179">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O179">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P179">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q179">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R179">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S179">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V179">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W179">
-        <v>0.3999999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16441,13 +16441,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16648,7 +16648,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G182" t="s">
         <v>33</v>
@@ -16992,7 +16992,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>6352295</v>
+        <v>6352294</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -17004,46 +17004,46 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J186" t="s">
         <v>47</v>
       </c>
       <c r="K186">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L186">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M186">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N186">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O186">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P186">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q186">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R186">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S186">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T186">
         <v>2.25</v>
@@ -17061,19 +17061,19 @@
         <v>-1</v>
       </c>
       <c r="Y186">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Z186">
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB186">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC186">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>6352294</v>
+        <v>6352295</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17093,46 +17093,46 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F187" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G187" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H187">
+        <v>0</v>
+      </c>
+      <c r="I187">
         <v>1</v>
-      </c>
-      <c r="I187">
-        <v>3</v>
       </c>
       <c r="J187" t="s">
         <v>47</v>
       </c>
       <c r="K187">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L187">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M187">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N187">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O187">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P187">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q187">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R187">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S187">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T187">
         <v>2.25</v>
@@ -17150,19 +17150,19 @@
         <v>-1</v>
       </c>
       <c r="Y187">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z187">
         <v>-1</v>
       </c>
       <c r="AA187">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB187">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17271,7 +17271,7 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G189" t="s">
         <v>29</v>
@@ -17615,7 +17615,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6352949</v>
+        <v>6352948</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17627,73 +17627,73 @@
         <v>45227.125</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H193">
         <v>3</v>
       </c>
       <c r="I193">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K193">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M193">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N193">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O193">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P193">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q193">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R193">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S193">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X193">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA193">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC193">
         <v>-1</v>
@@ -17704,7 +17704,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6352948</v>
+        <v>6352949</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17716,73 +17716,73 @@
         <v>45227.125</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G194" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H194">
         <v>3</v>
       </c>
       <c r="I194">
+        <v>3</v>
+      </c>
+      <c r="J194" t="s">
+        <v>46</v>
+      </c>
+      <c r="K194">
+        <v>1.571</v>
+      </c>
+      <c r="L194">
+        <v>3.6</v>
+      </c>
+      <c r="M194">
+        <v>5</v>
+      </c>
+      <c r="N194">
+        <v>1.363</v>
+      </c>
+      <c r="O194">
+        <v>4.75</v>
+      </c>
+      <c r="P194">
+        <v>6</v>
+      </c>
+      <c r="Q194">
+        <v>-1.25</v>
+      </c>
+      <c r="R194">
+        <v>1.8</v>
+      </c>
+      <c r="S194">
+        <v>2</v>
+      </c>
+      <c r="T194">
+        <v>2.5</v>
+      </c>
+      <c r="U194">
+        <v>1.85</v>
+      </c>
+      <c r="V194">
+        <v>1.95</v>
+      </c>
+      <c r="W194">
+        <v>-1</v>
+      </c>
+      <c r="X194">
+        <v>3.75</v>
+      </c>
+      <c r="Y194">
+        <v>-1</v>
+      </c>
+      <c r="Z194">
+        <v>-1</v>
+      </c>
+      <c r="AA194">
         <v>1</v>
       </c>
-      <c r="J194" t="s">
-        <v>45</v>
-      </c>
-      <c r="K194">
-        <v>2</v>
-      </c>
-      <c r="L194">
-        <v>3.1</v>
-      </c>
-      <c r="M194">
-        <v>3.4</v>
-      </c>
-      <c r="N194">
-        <v>2.15</v>
-      </c>
-      <c r="O194">
-        <v>3.1</v>
-      </c>
-      <c r="P194">
-        <v>3.1</v>
-      </c>
-      <c r="Q194">
-        <v>-0.25</v>
-      </c>
-      <c r="R194">
-        <v>1.925</v>
-      </c>
-      <c r="S194">
-        <v>1.875</v>
-      </c>
-      <c r="T194">
-        <v>2.25</v>
-      </c>
-      <c r="U194">
-        <v>1.9</v>
-      </c>
-      <c r="V194">
-        <v>1.9</v>
-      </c>
-      <c r="W194">
-        <v>1.15</v>
-      </c>
-      <c r="X194">
-        <v>-1</v>
-      </c>
-      <c r="Y194">
-        <v>-1</v>
-      </c>
-      <c r="Z194">
-        <v>0.925</v>
-      </c>
-      <c r="AA194">
-        <v>-1</v>
-      </c>
       <c r="AB194">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -17805,10 +17805,10 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F195" t="s">
+        <v>32</v>
+      </c>
+      <c r="G195" t="s">
         <v>30</v>
-      </c>
-      <c r="G195" t="s">
-        <v>32</v>
       </c>
       <c r="H195">
         <v>1</v>
@@ -18075,7 +18075,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18327,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6352951</v>
+        <v>6353333</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18339,58 +18339,58 @@
         <v>45234.125</v>
       </c>
       <c r="F201" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H201">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
         <v>45</v>
       </c>
       <c r="K201">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M201">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N201">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O201">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P201">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q201">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R201">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S201">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V201">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W201">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18399,13 +18399,13 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6353333</v>
+        <v>6352951</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,58 +18428,58 @@
         <v>45234.125</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H202">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J202" t="s">
         <v>45</v>
       </c>
       <c r="K202">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L202">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N202">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O202">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P202">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R202">
+        <v>1.825</v>
+      </c>
+      <c r="S202">
+        <v>1.975</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.875</v>
+      </c>
+      <c r="V202">
         <v>1.925</v>
       </c>
-      <c r="S202">
-        <v>1.875</v>
-      </c>
-      <c r="T202">
-        <v>2.25</v>
-      </c>
-      <c r="U202">
-        <v>1.85</v>
-      </c>
-      <c r="V202">
-        <v>1.95</v>
-      </c>
       <c r="W202">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18488,13 +18488,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18520,7 +18520,7 @@
         <v>29</v>
       </c>
       <c r="G203" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H203">
         <v>2</v>
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6352957</v>
+        <v>6352952</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,76 +18695,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H205">
         <v>0</v>
       </c>
       <c r="I205">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K205">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L205">
         <v>3.2</v>
       </c>
       <c r="M205">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N205">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="O205">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P205">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q205">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
+        <v>1.85</v>
+      </c>
+      <c r="T205">
+        <v>2.25</v>
+      </c>
+      <c r="U205">
         <v>1.8</v>
       </c>
-      <c r="T205">
-        <v>2.5</v>
-      </c>
-      <c r="U205">
-        <v>1.925</v>
-      </c>
       <c r="V205">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB205">
         <v>-1</v>
       </c>
       <c r="AC205">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6352958</v>
+        <v>6352956</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,76 +18784,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G206" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K206">
+        <v>2.05</v>
+      </c>
+      <c r="L206">
         <v>3.5</v>
       </c>
-      <c r="L206">
-        <v>3.25</v>
-      </c>
       <c r="M206">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N206">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O206">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
-        <v>1.675</v>
+        <v>1.8</v>
       </c>
       <c r="S206">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="T206">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y206">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA206">
-        <v>1.15</v>
+        <v>-0.5</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18861,7 +18861,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6353334</v>
+        <v>6352957</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18873,46 +18873,46 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G207" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K207">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L207">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M207">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N207">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="O207">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P207">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q207">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
         <v>1.8</v>
-      </c>
-      <c r="S207">
-        <v>2</v>
       </c>
       <c r="T207">
         <v>2.5</v>
@@ -18927,22 +18927,22 @@
         <v>-1</v>
       </c>
       <c r="X207">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y207">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
         <v>-1</v>
       </c>
       <c r="AA207">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB207">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC207">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6353335</v>
+        <v>6353334</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,73 +18962,73 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G208" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H208">
         <v>2</v>
       </c>
       <c r="I208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K208">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L208">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M208">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="N208">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="O208">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P208">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q208">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R208">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S208">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T208">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V208">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z208">
         <v>-1</v>
       </c>
       <c r="AA208">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB208">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC208">
         <v>-1</v>
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6352956</v>
+        <v>6353335</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,76 +19051,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J209" t="s">
         <v>46</v>
       </c>
       <c r="K209">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L209">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M209">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N209">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O209">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q209">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R209">
+        <v>2</v>
+      </c>
+      <c r="S209">
         <v>1.8</v>
       </c>
-      <c r="S209">
-        <v>2</v>
-      </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U209">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V209">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y209">
         <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA209">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB209">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC209">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19128,7 +19128,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6352952</v>
+        <v>6352958</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19140,10 +19140,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F210" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -19155,40 +19155,40 @@
         <v>47</v>
       </c>
       <c r="K210">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L210">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M210">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N210">
+        <v>2.25</v>
+      </c>
+      <c r="O210">
         <v>3.1</v>
       </c>
-      <c r="O210">
-        <v>3.3</v>
-      </c>
       <c r="P210">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="Q210">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R210">
-        <v>1.95</v>
+        <v>1.675</v>
       </c>
       <c r="S210">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="T210">
         <v>2.25</v>
       </c>
       <c r="U210">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V210">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W210">
         <v>-1</v>
@@ -19197,19 +19197,19 @@
         <v>-1</v>
       </c>
       <c r="Y210">
-        <v>1.05</v>
+        <v>1.875</v>
       </c>
       <c r="Z210">
         <v>-1</v>
       </c>
       <c r="AA210">
-        <v>0.8500000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="AB210">
         <v>-1</v>
       </c>
       <c r="AC210">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="211" spans="1:29">

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6353318</v>
+        <v>6352209</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,58 +1429,58 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
         <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>45</v>
       </c>
       <c r="K11">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N11">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P11">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V11">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W11">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1489,16 +1489,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6352209</v>
+        <v>6353318</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,58 +1518,58 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M12">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O12">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P12">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q12">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W12">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,16 +1578,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6352212</v>
+        <v>6352213</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,76 +1963,76 @@
         <v>45010.125</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K17">
-        <v>1.8</v>
+        <v>2.75</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="N17">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P17">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S17">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z17">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AB17">
         <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6352213</v>
+        <v>6352212</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45010.125</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="N18">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="O18">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S18">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA18">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
         <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6352880</v>
+        <v>6353034</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45011.08333333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>3.6</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>2.75</v>
+      </c>
+      <c r="O19">
+        <v>3.4</v>
+      </c>
+      <c r="P19">
+        <v>2.25</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.975</v>
+      </c>
+      <c r="S19">
+        <v>1.725</v>
+      </c>
+      <c r="T19">
+        <v>2.25</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>1.8</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
         <v>2.4</v>
       </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>2.75</v>
-      </c>
-      <c r="N19">
-        <v>2.55</v>
-      </c>
-      <c r="O19">
-        <v>2.875</v>
-      </c>
-      <c r="P19">
-        <v>2.7</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1.85</v>
-      </c>
-      <c r="S19">
-        <v>1.95</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19">
-        <v>1.9</v>
-      </c>
-      <c r="V19">
-        <v>1.9</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
       <c r="Y19">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2218,7 +2218,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6353034</v>
+        <v>6352880</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2230,76 +2230,76 @@
         <v>45011.08333333334</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20">
+        <v>2.4</v>
+      </c>
+      <c r="L20">
         <v>3</v>
       </c>
-      <c r="L20">
-        <v>3.6</v>
-      </c>
       <c r="M20">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N20">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P20">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.725</v>
+        <v>1.95</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V20">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6352216</v>
+        <v>6353320</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,34 +2675,34 @@
         <v>45018.125</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>3.1</v>
       </c>
       <c r="M25">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N25">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P25">
         <v>3.2</v>
@@ -2720,31 +2720,31 @@
         <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z25">
+        <v>-1</v>
+      </c>
+      <c r="AA25">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6353320</v>
+        <v>6352215</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,10 +2764,10 @@
         <v>45018.125</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2779,40 +2779,40 @@
         <v>47</v>
       </c>
       <c r="K26">
+        <v>2.4</v>
+      </c>
+      <c r="L26">
         <v>3</v>
       </c>
-      <c r="L26">
-        <v>3.1</v>
-      </c>
       <c r="M26">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N26">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O26">
         <v>3</v>
       </c>
       <c r="P26">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V26">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2821,19 +2821,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6352215</v>
+        <v>6352216</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45018.125</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K27">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N27">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6352888</v>
+        <v>6352219</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,58 +3654,58 @@
         <v>45031.125</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
         <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>45</v>
       </c>
       <c r="K36">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L36">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N36">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O36">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U36">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3714,16 +3714,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6352219</v>
+        <v>6352888</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,58 +3743,58 @@
         <v>45031.125</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>45</v>
       </c>
       <c r="K37">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L37">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M37">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N37">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P37">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V37">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W37">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3803,16 +3803,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6352220</v>
+        <v>6352889</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="L38">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="N38">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P38">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.725</v>
+        <v>1.8</v>
       </c>
       <c r="S38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T38">
         <v>2.25</v>
       </c>
       <c r="U38">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V38">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W38">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z38">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352889</v>
+        <v>6352220</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M40">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="N40">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.725</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T40">
         <v>2.25</v>
       </c>
       <c r="U40">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
         <v>1</v>
       </c>
-      <c r="AB40">
-        <v>-0.5</v>
-      </c>
       <c r="AC40">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6352224</v>
+        <v>6352225</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,73 +4544,73 @@
         <v>45038.125</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="L46">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M46">
-        <v>3.3</v>
+        <v>2.6</v>
       </c>
       <c r="N46">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="O46">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P46">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q46">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S46">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="V46">
         <v>1.975</v>
       </c>
       <c r="W46">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB46">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6352225</v>
+        <v>6352224</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,73 +4633,73 @@
         <v>45038.125</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>2</v>
-      </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K47">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L47">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M47">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O47">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P47">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R47">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S47">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T47">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U47">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
         <v>1.975</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA47">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -10050,7 +10050,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6352921</v>
+        <v>6352256</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,76 +10062,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L108">
+        <v>3.2</v>
+      </c>
+      <c r="M108">
+        <v>2.375</v>
+      </c>
+      <c r="N108">
+        <v>2.1</v>
+      </c>
+      <c r="O108">
+        <v>3.2</v>
+      </c>
+      <c r="P108">
         <v>3.1</v>
-      </c>
-      <c r="M108">
-        <v>4.2</v>
-      </c>
-      <c r="N108">
-        <v>2.25</v>
-      </c>
-      <c r="O108">
-        <v>3</v>
-      </c>
-      <c r="P108">
-        <v>3</v>
       </c>
       <c r="Q108">
         <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S108">
+        <v>1.925</v>
+      </c>
+      <c r="T108">
+        <v>2.25</v>
+      </c>
+      <c r="U108">
+        <v>2</v>
+      </c>
+      <c r="V108">
         <v>1.8</v>
       </c>
-      <c r="T108">
-        <v>2</v>
-      </c>
-      <c r="U108">
-        <v>1.725</v>
-      </c>
-      <c r="V108">
-        <v>1.975</v>
-      </c>
       <c r="W108">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z108">
+        <v>-1</v>
+      </c>
+      <c r="AA108">
+        <v>0.925</v>
+      </c>
+      <c r="AB108">
         <v>1</v>
       </c>
-      <c r="AA108">
-        <v>-1</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
       <c r="AC108">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6352256</v>
+        <v>6352921</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,76 +10151,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>45</v>
+      </c>
+      <c r="K109">
+        <v>1.8</v>
+      </c>
+      <c r="L109">
+        <v>3.1</v>
+      </c>
+      <c r="M109">
+        <v>4.2</v>
+      </c>
+      <c r="N109">
+        <v>2.25</v>
+      </c>
+      <c r="O109">
         <v>3</v>
       </c>
-      <c r="J109" t="s">
-        <v>47</v>
-      </c>
-      <c r="K109">
-        <v>2.625</v>
-      </c>
-      <c r="L109">
-        <v>3.2</v>
-      </c>
-      <c r="M109">
-        <v>2.375</v>
-      </c>
-      <c r="N109">
-        <v>2.1</v>
-      </c>
-      <c r="O109">
-        <v>3.2</v>
-      </c>
       <c r="P109">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q109">
         <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U109">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V109">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6353023</v>
+        <v>6352267</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G129" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K129">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L129">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M129">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N129">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O129">
+        <v>3.4</v>
+      </c>
+      <c r="P129">
         <v>2.75</v>
-      </c>
-      <c r="P129">
-        <v>3.4</v>
       </c>
       <c r="Q129">
         <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S129">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T129">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC129">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6352267</v>
+        <v>6352268</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,49 +12020,49 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K130">
+        <v>3.5</v>
+      </c>
+      <c r="L130">
+        <v>2.875</v>
+      </c>
+      <c r="M130">
+        <v>2.1</v>
+      </c>
+      <c r="N130">
+        <v>3.3</v>
+      </c>
+      <c r="O130">
+        <v>2.75</v>
+      </c>
+      <c r="P130">
         <v>2.25</v>
       </c>
-      <c r="L130">
-        <v>3.1</v>
-      </c>
-      <c r="M130">
-        <v>2.9</v>
-      </c>
-      <c r="N130">
-        <v>2.2</v>
-      </c>
-      <c r="O130">
-        <v>3.4</v>
-      </c>
-      <c r="P130">
-        <v>2.75</v>
-      </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U130">
         <v>1.85</v>
@@ -12071,25 +12071,25 @@
         <v>1.95</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X130">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC130">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6352268</v>
+        <v>6353023</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,58 +12109,58 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L131">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M131">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="N131">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="O131">
         <v>2.75</v>
       </c>
       <c r="P131">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T131">
         <v>1.75</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>2.3</v>
+        <v>1.15</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12169,16 +12169,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12542,7 +12542,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6352927</v>
+        <v>6352270</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12554,73 +12554,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F136" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H136">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I136">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
         <v>45</v>
       </c>
       <c r="K136">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N136">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O136">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q136">
         <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W136">
+        <v>0.833</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA136">
         <v>-1</v>
       </c>
       <c r="AB136">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC136">
         <v>-1</v>
@@ -12631,7 +12631,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6352270</v>
+        <v>6352927</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12643,58 +12643,58 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F137" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H137">
+        <v>4</v>
+      </c>
+      <c r="I137">
         <v>3</v>
-      </c>
-      <c r="I137">
-        <v>1</v>
       </c>
       <c r="J137" t="s">
         <v>45</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N137">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P137">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
         <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S137">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T137">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U137">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V137">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W137">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12703,13 +12703,13 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC137">
         <v>-1</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6353022</v>
+        <v>6353328</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,61 +12821,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K139">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L139">
+        <v>2.9</v>
+      </c>
+      <c r="M139">
         <v>3.4</v>
       </c>
-      <c r="M139">
-        <v>6</v>
-      </c>
       <c r="N139">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P139">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S139">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T139">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U139">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X139">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y139">
         <v>-1</v>
@@ -12887,10 +12887,10 @@
         <v>-0</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC139">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6353328</v>
+        <v>6353022</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,61 +12910,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L140">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M140">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N140">
+        <v>1.5</v>
+      </c>
+      <c r="O140">
+        <v>3.5</v>
+      </c>
+      <c r="P140">
+        <v>6</v>
+      </c>
+      <c r="Q140">
+        <v>-1</v>
+      </c>
+      <c r="R140">
+        <v>1.875</v>
+      </c>
+      <c r="S140">
+        <v>1.925</v>
+      </c>
+      <c r="T140">
         <v>2.5</v>
       </c>
-      <c r="O140">
-        <v>2.9</v>
-      </c>
-      <c r="P140">
-        <v>2.9</v>
-      </c>
-      <c r="Q140">
-        <v>0</v>
-      </c>
-      <c r="R140">
-        <v>1.775</v>
-      </c>
-      <c r="S140">
-        <v>2.025</v>
-      </c>
-      <c r="T140">
-        <v>2</v>
-      </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X140">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12976,10 +12976,10 @@
         <v>-0</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC140">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13076,7 +13076,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6353329</v>
+        <v>6352272</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13088,76 +13088,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H142">
         <v>1</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K142">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L142">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="N142">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P142">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q142">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R142">
+        <v>1.875</v>
+      </c>
+      <c r="S142">
         <v>1.925</v>
       </c>
-      <c r="S142">
-        <v>1.875</v>
-      </c>
       <c r="T142">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V142">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W142">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X142">
         <v>-1</v>
       </c>
       <c r="Y142">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z142">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:29">
@@ -13165,7 +13165,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6352272</v>
+        <v>6353329</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13177,76 +13177,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G143" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H143">
         <v>1</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K143">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M143">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="N143">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="O143">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q143">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R143">
+        <v>1.925</v>
+      </c>
+      <c r="S143">
         <v>1.875</v>
       </c>
-      <c r="S143">
+      <c r="T143">
+        <v>2</v>
+      </c>
+      <c r="U143">
+        <v>1.875</v>
+      </c>
+      <c r="V143">
         <v>1.925</v>
       </c>
-      <c r="T143">
-        <v>2.25</v>
-      </c>
-      <c r="U143">
-        <v>1.85</v>
-      </c>
-      <c r="V143">
-        <v>1.95</v>
-      </c>
       <c r="W143">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA143">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC143">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="144" spans="1:29">
@@ -18327,7 +18327,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>6353333</v>
+        <v>6352951</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18339,58 +18339,58 @@
         <v>45234.125</v>
       </c>
       <c r="F201" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H201">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
         <v>45</v>
       </c>
       <c r="K201">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L201">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N201">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O201">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P201">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q201">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R201">
+        <v>1.825</v>
+      </c>
+      <c r="S201">
+        <v>1.975</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>1.875</v>
+      </c>
+      <c r="V201">
         <v>1.925</v>
       </c>
-      <c r="S201">
-        <v>1.875</v>
-      </c>
-      <c r="T201">
-        <v>2.25</v>
-      </c>
-      <c r="U201">
-        <v>1.85</v>
-      </c>
-      <c r="V201">
-        <v>1.95</v>
-      </c>
       <c r="W201">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X201">
         <v>-1</v>
@@ -18399,13 +18399,13 @@
         <v>-1</v>
       </c>
       <c r="Z201">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA201">
         <v>-1</v>
       </c>
       <c r="AB201">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC201">
         <v>-1</v>
@@ -18416,7 +18416,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>6352951</v>
+        <v>6353333</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18428,58 +18428,58 @@
         <v>45234.125</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G202" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H202">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J202" t="s">
         <v>45</v>
       </c>
       <c r="K202">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M202">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N202">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O202">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P202">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q202">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S202">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U202">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V202">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W202">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18488,13 +18488,13 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA202">
         <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC202">
         <v>-1</v>

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -103,7 +103,7 @@
     <t>South Korea K3 League</t>
   </si>
   <si>
-    <t>Pocheon Citizen FC</t>
+    <t>Hwaseong FC</t>
   </si>
   <si>
     <t>Ulsan Citizen FC</t>
@@ -112,7 +112,7 @@
     <t>Busan Trans Corp</t>
   </si>
   <si>
-    <t>Hwaseong FC</t>
+    <t>Pocheon Citizen FC</t>
   </si>
   <si>
     <t>Siheung City AC</t>
@@ -136,10 +136,10 @@
     <t>Gangneung City</t>
   </si>
   <si>
-    <t>Chuncheon FC</t>
+    <t>Yangpyeong FC</t>
   </si>
   <si>
-    <t>Yangpyeong FC</t>
+    <t>Chuncheon FC</t>
   </si>
   <si>
     <t>Gyeongju HNP</t>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6352204</v>
+        <v>6352205</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -631,10 +631,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -643,43 +643,43 @@
         <v>45</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L2">
+        <v>3.2</v>
+      </c>
+      <c r="M2">
+        <v>3.6</v>
+      </c>
+      <c r="N2">
+        <v>2.1</v>
+      </c>
+      <c r="O2">
         <v>3.1</v>
       </c>
-      <c r="M2">
-        <v>3.4</v>
-      </c>
-      <c r="N2">
-        <v>2.6</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
       <c r="P2">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
+        <v>1.875</v>
+      </c>
+      <c r="S2">
         <v>1.925</v>
       </c>
-      <c r="S2">
-        <v>1.875</v>
-      </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="X2">
         <v>-1</v>
@@ -688,16 +688,16 @@
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AA2">
         <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -809,7 +809,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6352205</v>
+        <v>6352204</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,10 +898,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -910,43 +910,43 @@
         <v>45</v>
       </c>
       <c r="K5">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="O5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P5">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
+        <v>1.925</v>
+      </c>
+      <c r="S5">
         <v>1.875</v>
       </c>
-      <c r="S5">
-        <v>1.925</v>
-      </c>
       <c r="T5">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -955,16 +955,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1076,7 +1076,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6352209</v>
+        <v>6353318</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,58 +1429,58 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
         <v>45</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="N11">
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="O11">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P11">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="Q11">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T11">
         <v>2.25</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V11">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W11">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1489,16 +1489,16 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6353318</v>
+        <v>6352209</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,58 +1518,58 @@
         <v>45003.08333333334</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
         <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>45</v>
       </c>
       <c r="K12">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M12">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="N12">
-        <v>1.75</v>
+        <v>3.5</v>
       </c>
       <c r="O12">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P12">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
         <v>2.25</v>
       </c>
       <c r="U12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W12">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1578,16 +1578,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.5125</v>
+        <v>1</v>
       </c>
       <c r="AA12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6353035</v>
+        <v>6352210</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1699,73 +1699,73 @@
         <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M14">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="N14">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O14">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P14">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q14">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z14">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
+        <v>0.8</v>
+      </c>
+      <c r="AB14">
         <v>-0.5</v>
       </c>
-      <c r="AB14">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6352210</v>
+        <v>6353035</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1788,73 +1788,73 @@
         <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M15">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="N15">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O15">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q15">
+        <v>-0.75</v>
+      </c>
+      <c r="R15">
+        <v>1.9</v>
+      </c>
+      <c r="S15">
+        <v>1.9</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
+        <v>1.775</v>
+      </c>
+      <c r="V15">
+        <v>2.025</v>
+      </c>
+      <c r="W15">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>-1</v>
+      </c>
+      <c r="Z15">
+        <v>0.45</v>
+      </c>
+      <c r="AA15">
         <v>-0.5</v>
       </c>
-      <c r="R15">
-        <v>2</v>
-      </c>
-      <c r="S15">
-        <v>1.8</v>
-      </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>1.925</v>
-      </c>
-      <c r="V15">
-        <v>1.875</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>2.5</v>
-      </c>
-      <c r="Z15">
-        <v>-1</v>
-      </c>
-      <c r="AA15">
-        <v>0.8</v>
-      </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC15">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1966,7 +1966,7 @@
         <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6353034</v>
+        <v>6352879</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2144,73 +2144,73 @@
         <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="L19">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="N19">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P19">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
+        <v>1.875</v>
+      </c>
+      <c r="S19">
+        <v>1.925</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
         <v>1.975</v>
       </c>
-      <c r="S19">
-        <v>1.725</v>
-      </c>
-      <c r="T19">
-        <v>2.25</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
+        <v>0.925</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
         <v>-0</v>
-      </c>
-      <c r="AB19">
-        <v>-0.5</v>
-      </c>
-      <c r="AC19">
-        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2307,7 +2307,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6352879</v>
+        <v>6353034</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2322,73 +2322,73 @@
         <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>3.6</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>2.75</v>
+      </c>
+      <c r="O21">
+        <v>3.4</v>
+      </c>
+      <c r="P21">
         <v>2.25</v>
       </c>
-      <c r="L21">
-        <v>3.3</v>
-      </c>
-      <c r="M21">
-        <v>2.75</v>
-      </c>
-      <c r="N21">
-        <v>3.1</v>
-      </c>
-      <c r="O21">
-        <v>3.2</v>
-      </c>
-      <c r="P21">
-        <v>2.1</v>
-      </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.725</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y21">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC21">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2408,7 +2408,7 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2586,7 +2586,7 @@
         <v>45018.08333333334</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6353320</v>
+        <v>6352215</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,10 +2675,10 @@
         <v>45018.125</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2690,40 +2690,40 @@
         <v>47</v>
       </c>
       <c r="K25">
+        <v>2.4</v>
+      </c>
+      <c r="L25">
         <v>3</v>
       </c>
-      <c r="L25">
-        <v>3.1</v>
-      </c>
       <c r="M25">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="N25">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="O25">
         <v>3</v>
       </c>
       <c r="P25">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2732,19 +2732,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6352215</v>
+        <v>6352216</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2764,76 @@
         <v>45018.125</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K26">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M26">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="N26">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6352216</v>
+        <v>6353320</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,34 +2853,34 @@
         <v>45018.125</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>3.1</v>
       </c>
       <c r="M27">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="N27">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P27">
         <v>3.2</v>
@@ -2898,31 +2898,31 @@
         <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X27">
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z27">
+        <v>-1</v>
+      </c>
+      <c r="AA27">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA27">
-        <v>-1</v>
-      </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3034,7 +3034,7 @@
         <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3209,7 +3209,7 @@
         <v>45024.08333333334</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>38</v>
@@ -3298,7 +3298,7 @@
         <v>45024.08333333334</v>
       </c>
       <c r="F32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6352219</v>
+        <v>6352888</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,58 +3654,58 @@
         <v>45031.125</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>45</v>
       </c>
       <c r="K36">
-        <v>2.75</v>
+        <v>2.375</v>
       </c>
       <c r="L36">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="M36">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N36">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P36">
-        <v>2.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W36">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3714,16 +3714,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AA36">
         <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6352888</v>
+        <v>6352219</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,58 +3743,58 @@
         <v>45031.125</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
         <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
       </c>
       <c r="J37" t="s">
         <v>45</v>
       </c>
       <c r="K37">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="L37">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="M37">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N37">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="O37">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P37">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S37">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U37">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V37">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W37">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="X37">
         <v>-1</v>
@@ -3803,16 +3803,16 @@
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6352889</v>
+        <v>6353322</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,40 +3832,40 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="O38">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P38">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
         <v>1.8</v>
@@ -3874,34 +3874,34 @@
         <v>2</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V38">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y38">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AB38">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>0.3875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6353322</v>
+        <v>6352889</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,40 +3921,40 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="L39">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N39">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P39">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>1.8</v>
@@ -3963,34 +3963,34 @@
         <v>2</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
         <v>-0.5</v>
       </c>
-      <c r="AA39">
-        <v>0.5</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4010,7 +4010,7 @@
         <v>45032.08333333334</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
         <v>34</v>
@@ -4366,7 +4366,7 @@
         <v>45038.08333333334</v>
       </c>
       <c r="F44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4458,7 +4458,7 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6352225</v>
+        <v>6352224</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,73 +4544,73 @@
         <v>45038.125</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
         <v>1</v>
       </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L46">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M46">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="N46">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="O46">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="P46">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S46">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T46">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="U46">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
         <v>1.975</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA46">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC46">
         <v>-1</v>
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6352224</v>
+        <v>6352226</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,76 +4633,76 @@
         <v>45038.125</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K47">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L47">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="N47">
+        <v>1.666</v>
+      </c>
+      <c r="O47">
+        <v>3.4</v>
+      </c>
+      <c r="P47">
+        <v>4.5</v>
+      </c>
+      <c r="Q47">
+        <v>-0.75</v>
+      </c>
+      <c r="R47">
+        <v>1.95</v>
+      </c>
+      <c r="S47">
+        <v>1.85</v>
+      </c>
+      <c r="T47">
         <v>2.25</v>
       </c>
-      <c r="O47">
-        <v>3.1</v>
-      </c>
-      <c r="P47">
-        <v>3</v>
-      </c>
-      <c r="Q47">
-        <v>-0.25</v>
-      </c>
-      <c r="R47">
-        <v>2</v>
-      </c>
-      <c r="S47">
-        <v>1.8</v>
-      </c>
-      <c r="T47">
-        <v>2</v>
-      </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W47">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z47">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6352226</v>
+        <v>6352225</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,13 +4722,13 @@
         <v>45038.125</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>2</v>
@@ -4737,40 +4737,40 @@
         <v>47</v>
       </c>
       <c r="K48">
-        <v>1.666</v>
+        <v>2.6</v>
       </c>
       <c r="L48">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M48">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="N48">
-        <v>1.666</v>
+        <v>2.9</v>
       </c>
       <c r="O48">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="P48">
-        <v>4.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S48">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T48">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U48">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="V48">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4779,19 +4779,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>3.5</v>
+        <v>1.375</v>
       </c>
       <c r="Z48">
         <v>-1</v>
       </c>
       <c r="AA48">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AC48">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4814,7 +4814,7 @@
         <v>39</v>
       </c>
       <c r="G49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6352227</v>
+        <v>6352891</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,76 +4900,76 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>4.75</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M50">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="N50">
+        <v>2.75</v>
+      </c>
+      <c r="O50">
+        <v>3.25</v>
+      </c>
+      <c r="P50">
+        <v>2.3</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>1.975</v>
+      </c>
+      <c r="S50">
+        <v>1.725</v>
+      </c>
+      <c r="T50">
+        <v>2.25</v>
+      </c>
+      <c r="U50">
         <v>1.75</v>
       </c>
-      <c r="O50">
-        <v>3.6</v>
-      </c>
-      <c r="P50">
-        <v>4</v>
-      </c>
-      <c r="Q50">
-        <v>-0.5</v>
-      </c>
-      <c r="R50">
+      <c r="V50">
+        <v>1.95</v>
+      </c>
+      <c r="W50">
         <v>1.75</v>
       </c>
-      <c r="S50">
-        <v>1.95</v>
-      </c>
-      <c r="T50">
-        <v>1.75</v>
-      </c>
-      <c r="U50">
-        <v>1.8</v>
-      </c>
-      <c r="V50">
-        <v>2</v>
-      </c>
-      <c r="W50">
-        <v>-1</v>
-      </c>
       <c r="X50">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
+        <v>-1</v>
+      </c>
+      <c r="AB50">
+        <v>-1</v>
+      </c>
+      <c r="AC50">
         <v>0.95</v>
-      </c>
-      <c r="AB50">
-        <v>-1</v>
-      </c>
-      <c r="AC50">
-        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,7 +4977,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6352891</v>
+        <v>6352227</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4989,76 +4989,76 @@
         <v>45045.08333333334</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51">
+        <v>1.833</v>
+      </c>
+      <c r="L51">
+        <v>3.4</v>
+      </c>
+      <c r="M51">
+        <v>3.6</v>
+      </c>
+      <c r="N51">
+        <v>1.75</v>
+      </c>
+      <c r="O51">
+        <v>3.6</v>
+      </c>
+      <c r="P51">
+        <v>4</v>
+      </c>
+      <c r="Q51">
+        <v>-0.5</v>
+      </c>
+      <c r="R51">
+        <v>1.75</v>
+      </c>
+      <c r="S51">
+        <v>1.95</v>
+      </c>
+      <c r="T51">
+        <v>1.75</v>
+      </c>
+      <c r="U51">
+        <v>1.8</v>
+      </c>
+      <c r="V51">
+        <v>2</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <v>2.6</v>
+      </c>
+      <c r="Y51">
+        <v>-1</v>
+      </c>
+      <c r="Z51">
+        <v>-1</v>
+      </c>
+      <c r="AA51">
+        <v>0.95</v>
+      </c>
+      <c r="AB51">
+        <v>-1</v>
+      </c>
+      <c r="AC51">
         <v>1</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>45</v>
-      </c>
-      <c r="K51">
-        <v>4.75</v>
-      </c>
-      <c r="L51">
-        <v>3.8</v>
-      </c>
-      <c r="M51">
-        <v>1.571</v>
-      </c>
-      <c r="N51">
-        <v>2.75</v>
-      </c>
-      <c r="O51">
-        <v>3.25</v>
-      </c>
-      <c r="P51">
-        <v>2.3</v>
-      </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>1.975</v>
-      </c>
-      <c r="S51">
-        <v>1.725</v>
-      </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
-      <c r="U51">
-        <v>1.75</v>
-      </c>
-      <c r="V51">
-        <v>1.95</v>
-      </c>
-      <c r="W51">
-        <v>1.75</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>-1</v>
-      </c>
-      <c r="Z51">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
-      <c r="AC51">
-        <v>0.95</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6352229</v>
+        <v>6352892</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,49 +5167,49 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H53">
         <v>4</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
         <v>45</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L53">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M53">
+        <v>3.8</v>
+      </c>
+      <c r="N53">
+        <v>1.727</v>
+      </c>
+      <c r="O53">
         <v>3.4</v>
       </c>
-      <c r="N53">
-        <v>1.85</v>
-      </c>
-      <c r="O53">
-        <v>3.2</v>
-      </c>
       <c r="P53">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U53">
         <v>1.975</v>
@@ -5218,7 +5218,7 @@
         <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.8500000000000001</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5227,7 +5227,7 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AA53">
         <v>-1</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6352892</v>
+        <v>6352229</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,49 +5256,49 @@
         <v>45045.20833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>4</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>45</v>
       </c>
       <c r="K54">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L54">
+        <v>3.1</v>
+      </c>
+      <c r="M54">
         <v>3.4</v>
       </c>
-      <c r="M54">
+      <c r="N54">
+        <v>1.85</v>
+      </c>
+      <c r="O54">
+        <v>3.2</v>
+      </c>
+      <c r="P54">
         <v>3.8</v>
-      </c>
-      <c r="N54">
-        <v>1.727</v>
-      </c>
-      <c r="O54">
-        <v>3.4</v>
-      </c>
-      <c r="P54">
-        <v>4.5</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
         <v>1.975</v>
@@ -5307,7 +5307,7 @@
         <v>1.825</v>
       </c>
       <c r="W54">
-        <v>0.7270000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5316,7 +5316,7 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA54">
         <v>-1</v>
@@ -5333,7 +5333,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6352230</v>
+        <v>6353323</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5345,73 +5345,73 @@
         <v>45046.08333333334</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G55" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H55">
         <v>2</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K55">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M55">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="N55">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O55">
         <v>3.1</v>
       </c>
       <c r="P55">
-        <v>2.55</v>
+        <v>3.1</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
+        <v>1.95</v>
+      </c>
+      <c r="S55">
         <v>1.85</v>
       </c>
-      <c r="S55">
-        <v>1.95</v>
-      </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W55">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X55">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y55">
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC55">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6353323</v>
+        <v>6352230</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,73 +5434,73 @@
         <v>45046.08333333334</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H56">
         <v>2</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="L56">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M56">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="N56">
-        <v>2.2</v>
+        <v>2.45</v>
       </c>
       <c r="O56">
         <v>3.1</v>
       </c>
       <c r="P56">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="Q56">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R56">
+        <v>1.85</v>
+      </c>
+      <c r="S56">
         <v>1.95</v>
       </c>
-      <c r="S56">
-        <v>1.85</v>
-      </c>
       <c r="T56">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6353031</v>
+        <v>6352894</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5704,73 +5704,73 @@
         <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="L59">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M59">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="N59">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="O59">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="P59">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
+        <v>1.85</v>
+      </c>
+      <c r="S59">
+        <v>1.95</v>
+      </c>
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
         <v>1.75</v>
       </c>
-      <c r="S59">
+      <c r="V59">
         <v>2.05</v>
       </c>
-      <c r="T59">
-        <v>2</v>
-      </c>
-      <c r="U59">
-        <v>1.9</v>
-      </c>
-      <c r="V59">
-        <v>1.9</v>
-      </c>
       <c r="W59">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z59">
+        <v>-1</v>
+      </c>
+      <c r="AA59">
+        <v>0.95</v>
+      </c>
+      <c r="AB59">
         <v>0.75</v>
       </c>
-      <c r="AA59">
-        <v>-1</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6352894</v>
+        <v>6353031</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5793,73 +5793,73 @@
         <v>41</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K60">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="L60">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M60">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="N60">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="O60">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="P60">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S60">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T60">
         <v>2</v>
       </c>
       <c r="U60">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5879,7 +5879,7 @@
         <v>45053.08333333334</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>35</v>
@@ -5956,7 +5956,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6352233</v>
+        <v>6352895</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5968,55 +5968,55 @@
         <v>45053.125</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>0</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>47</v>
       </c>
       <c r="K62">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L62">
+        <v>3.25</v>
+      </c>
+      <c r="M62">
+        <v>1.833</v>
+      </c>
+      <c r="N62">
         <v>3.1</v>
-      </c>
-      <c r="M62">
-        <v>1.909</v>
-      </c>
-      <c r="N62">
-        <v>3.5</v>
       </c>
       <c r="O62">
         <v>3.1</v>
       </c>
       <c r="P62">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="Q62">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R62">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S62">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U62">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
         <v>-1</v>
@@ -6025,19 +6025,19 @@
         <v>-1</v>
       </c>
       <c r="Y62">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="Z62">
         <v>-1</v>
       </c>
       <c r="AA62">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>0.3875</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6352895</v>
+        <v>6352233</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,55 +6057,55 @@
         <v>45053.125</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>47</v>
       </c>
       <c r="K63">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M63">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="N63">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="O63">
         <v>3.1</v>
       </c>
       <c r="P63">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R63">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T63">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W63">
         <v>-1</v>
@@ -6114,19 +6114,19 @@
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="Z63">
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>0.875</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6413,7 +6413,7 @@
         <v>45060.08333333334</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6505,7 +6505,7 @@
         <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -6591,7 +6591,7 @@
         <v>45060.20833333334</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
         <v>31</v>
@@ -6683,7 +6683,7 @@
         <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6861,7 +6861,7 @@
         <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6352238</v>
+        <v>6352898</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45066.125</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K73">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="L73">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="M73">
+        <v>1.571</v>
+      </c>
+      <c r="N73">
+        <v>2.6</v>
+      </c>
+      <c r="O73">
+        <v>3.6</v>
+      </c>
+      <c r="P73">
         <v>2.2</v>
       </c>
-      <c r="N73">
-        <v>2.2</v>
-      </c>
-      <c r="O73">
-        <v>3.1</v>
-      </c>
-      <c r="P73">
-        <v>3</v>
-      </c>
       <c r="Q73">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T73">
         <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
         <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y73">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6352898</v>
+        <v>6352238</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,76 +7036,76 @@
         <v>45066.125</v>
       </c>
       <c r="F74" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="L74">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="M74">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P74">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S74">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T74">
         <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z74">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7303,10 +7303,10 @@
         <v>45067.16666666666</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7395,7 +7395,7 @@
         <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7469,7 +7469,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6352241</v>
+        <v>6352243</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7481,76 +7481,76 @@
         <v>45073.08333333334</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K79">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="L79">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M79">
-        <v>1.952</v>
+        <v>3.25</v>
       </c>
       <c r="N79">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="O79">
         <v>3.1</v>
       </c>
       <c r="P79">
+        <v>3.2</v>
+      </c>
+      <c r="Q79">
+        <v>-0.25</v>
+      </c>
+      <c r="R79">
         <v>1.95</v>
       </c>
-      <c r="Q79">
-        <v>0.5</v>
-      </c>
-      <c r="R79">
-        <v>1.8</v>
-      </c>
       <c r="S79">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA79">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,7 +7558,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6352243</v>
+        <v>6352241</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7570,76 +7570,76 @@
         <v>45073.08333333334</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>1</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K80">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="L80">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M80">
-        <v>3.25</v>
+        <v>1.952</v>
       </c>
       <c r="N80">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="O80">
         <v>3.1</v>
       </c>
       <c r="P80">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB80">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AC80">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6352901</v>
+        <v>6352900</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,76 +7748,76 @@
         <v>45073.125</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N82">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="O82">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="P82">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
         <v>2.25</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W82">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7825,7 +7825,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6352900</v>
+        <v>6352901</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7837,76 +7837,76 @@
         <v>45073.125</v>
       </c>
       <c r="F83" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K83">
-        <v>1.615</v>
+        <v>2.3</v>
       </c>
       <c r="L83">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M83">
-        <v>4.75</v>
+        <v>2.9</v>
       </c>
       <c r="N83">
-        <v>1.5</v>
+        <v>2.625</v>
       </c>
       <c r="O83">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="P83">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R83">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S83">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T83">
         <v>2.25</v>
       </c>
       <c r="U83">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA83">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7929,7 +7929,7 @@
         <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H84">
         <v>4</v>
@@ -8193,10 +8193,10 @@
         <v>45080.20833333334</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>3</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6352244</v>
+        <v>6352245</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,58 +8282,58 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>45</v>
       </c>
       <c r="K88">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M88">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N88">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O88">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q88">
         <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T88">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
+        <v>1.975</v>
+      </c>
+      <c r="V88">
         <v>1.825</v>
       </c>
-      <c r="V88">
-        <v>1.975</v>
-      </c>
       <c r="W88">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X88">
         <v>-1</v>
@@ -8342,13 +8342,13 @@
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA88">
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6352245</v>
+        <v>6352246</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,76 +8371,76 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K89">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M89">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N89">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="O89">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P89">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q89">
+        <v>0.75</v>
+      </c>
+      <c r="R89">
+        <v>1.9</v>
+      </c>
+      <c r="S89">
+        <v>1.9</v>
+      </c>
+      <c r="T89">
+        <v>2</v>
+      </c>
+      <c r="U89">
+        <v>1.8</v>
+      </c>
+      <c r="V89">
+        <v>2</v>
+      </c>
+      <c r="W89">
+        <v>-1</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z89">
         <v>-0.5</v>
       </c>
-      <c r="R89">
-        <v>1.75</v>
-      </c>
-      <c r="S89">
-        <v>1.95</v>
-      </c>
-      <c r="T89">
-        <v>2.25</v>
-      </c>
-      <c r="U89">
-        <v>1.975</v>
-      </c>
-      <c r="V89">
-        <v>1.825</v>
-      </c>
-      <c r="W89">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X89">
-        <v>-1</v>
-      </c>
-      <c r="Y89">
-        <v>-1</v>
-      </c>
-      <c r="Z89">
-        <v>0.75</v>
-      </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8448,7 +8448,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6352246</v>
+        <v>6352244</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8460,76 +8460,76 @@
         <v>45080.29166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K90">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M90">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N90">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O90">
         <v>3.1</v>
       </c>
       <c r="P90">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T90">
         <v>2</v>
       </c>
       <c r="U90">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V90">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC90">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8549,7 +8549,7 @@
         <v>45081.20833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G91" t="s">
         <v>43</v>
@@ -8727,7 +8727,7 @@
         <v>45087.20833333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
         <v>37</v>
@@ -8908,7 +8908,7 @@
         <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -9086,7 +9086,7 @@
         <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -9338,7 +9338,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6353026</v>
+        <v>6352253</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9350,10 +9350,10 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9365,61 +9365,61 @@
         <v>46</v>
       </c>
       <c r="K100">
+        <v>1.333</v>
+      </c>
+      <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>6</v>
+      </c>
+      <c r="N100">
+        <v>1.571</v>
+      </c>
+      <c r="O100">
         <v>3.8</v>
       </c>
-      <c r="L100">
-        <v>3.25</v>
-      </c>
-      <c r="M100">
-        <v>1.833</v>
-      </c>
-      <c r="N100">
-        <v>2.875</v>
-      </c>
-      <c r="O100">
-        <v>3.25</v>
-      </c>
       <c r="P100">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R100">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S100">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T100">
         <v>2.25</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W100">
         <v>-1</v>
       </c>
       <c r="X100">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB100">
         <v>-0.5</v>
       </c>
       <c r="AC100">
-        <v>0.4</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9427,7 +9427,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6352252</v>
+        <v>6353026</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9439,76 +9439,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
         <v>46</v>
       </c>
       <c r="K101">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="L101">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N101">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="O101">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P101">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S101">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V101">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W101">
         <v>-1</v>
       </c>
       <c r="X101">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6352253</v>
+        <v>6352252</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9531,73 +9531,73 @@
         <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="s">
         <v>46</v>
       </c>
       <c r="K102">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L102">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M102">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O102">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P102">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q102">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S102">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T102">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U102">
+        <v>1.85</v>
+      </c>
+      <c r="V102">
+        <v>1.95</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
         <v>1.875</v>
       </c>
-      <c r="V102">
-        <v>1.925</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
-      <c r="X102">
-        <v>2.8</v>
-      </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA102">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB102">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>45095.20833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G104" t="s">
         <v>33</v>
@@ -9961,7 +9961,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6353326</v>
+        <v>6352921</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9976,73 +9976,73 @@
         <v>41</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>45</v>
+      </c>
+      <c r="K107">
+        <v>1.8</v>
+      </c>
+      <c r="L107">
+        <v>3.1</v>
+      </c>
+      <c r="M107">
+        <v>4.2</v>
+      </c>
+      <c r="N107">
+        <v>2.25</v>
+      </c>
+      <c r="O107">
+        <v>3</v>
+      </c>
+      <c r="P107">
+        <v>3</v>
+      </c>
+      <c r="Q107">
+        <v>-0.25</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>1.8</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>1.725</v>
+      </c>
+      <c r="V107">
+        <v>1.975</v>
+      </c>
+      <c r="W107">
+        <v>1.25</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
         <v>1</v>
       </c>
-      <c r="J107" t="s">
-        <v>47</v>
-      </c>
-      <c r="K107">
-        <v>2.2</v>
-      </c>
-      <c r="L107">
-        <v>3.25</v>
-      </c>
-      <c r="M107">
-        <v>2.8</v>
-      </c>
-      <c r="N107">
-        <v>2.3</v>
-      </c>
-      <c r="O107">
-        <v>3.25</v>
-      </c>
-      <c r="P107">
-        <v>2.625</v>
-      </c>
-      <c r="Q107">
-        <v>0</v>
-      </c>
-      <c r="R107">
-        <v>1.775</v>
-      </c>
-      <c r="S107">
-        <v>2.025</v>
-      </c>
-      <c r="T107">
-        <v>2.25</v>
-      </c>
-      <c r="U107">
-        <v>1.925</v>
-      </c>
-      <c r="V107">
-        <v>1.875</v>
-      </c>
-      <c r="W107">
-        <v>-1</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>1.625</v>
-      </c>
-      <c r="Z107">
-        <v>-1</v>
-      </c>
       <c r="AA107">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
         <v>-1</v>
       </c>
       <c r="AC107">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10065,7 +10065,7 @@
         <v>42</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10139,7 +10139,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6352921</v>
+        <v>6353326</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10154,73 +10154,73 @@
         <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
         <v>1</v>
       </c>
-      <c r="I109">
-        <v>0</v>
-      </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K109">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L109">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M109">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N109">
+        <v>2.3</v>
+      </c>
+      <c r="O109">
+        <v>3.25</v>
+      </c>
+      <c r="P109">
+        <v>2.625</v>
+      </c>
+      <c r="Q109">
+        <v>0</v>
+      </c>
+      <c r="R109">
+        <v>1.775</v>
+      </c>
+      <c r="S109">
+        <v>2.025</v>
+      </c>
+      <c r="T109">
         <v>2.25</v>
       </c>
-      <c r="O109">
-        <v>3</v>
-      </c>
-      <c r="P109">
-        <v>3</v>
-      </c>
-      <c r="Q109">
-        <v>-0.25</v>
-      </c>
-      <c r="R109">
-        <v>2</v>
-      </c>
-      <c r="S109">
-        <v>1.8</v>
-      </c>
-      <c r="T109">
-        <v>2</v>
-      </c>
       <c r="U109">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z109">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB109">
         <v>-1</v>
       </c>
       <c r="AC109">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6352257</v>
+        <v>6352258</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,76 +10240,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>1</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K110">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L110">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M110">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N110">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P110">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q110">
         <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S110">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y110">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB110">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC110">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6352258</v>
+        <v>6352257</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,76 +10329,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>1</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K111">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L111">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N111">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O111">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P111">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q111">
         <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S111">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U111">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB111">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10421,7 +10421,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>45108.25</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10863,7 +10863,7 @@
         <v>45109.20833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G117" t="s">
         <v>37</v>
@@ -10955,7 +10955,7 @@
         <v>39</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H118">
         <v>3</v>
@@ -11118,7 +11118,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6441138</v>
+        <v>6353024</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11130,76 +11130,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>46</v>
+      </c>
+      <c r="K120">
+        <v>2</v>
+      </c>
+      <c r="L120">
+        <v>3.1</v>
+      </c>
+      <c r="M120">
+        <v>3.4</v>
+      </c>
+      <c r="N120">
+        <v>2.3</v>
+      </c>
+      <c r="O120">
         <v>3</v>
       </c>
-      <c r="I120">
-        <v>0</v>
-      </c>
-      <c r="J120" t="s">
-        <v>45</v>
-      </c>
-      <c r="K120">
-        <v>2.1</v>
-      </c>
-      <c r="L120">
-        <v>3.2</v>
-      </c>
-      <c r="M120">
-        <v>3.1</v>
-      </c>
-      <c r="N120">
-        <v>2.15</v>
-      </c>
-      <c r="O120">
-        <v>3.2</v>
-      </c>
       <c r="P120">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q120">
         <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S120">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T120">
         <v>2</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W120">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6353024</v>
+        <v>6352263</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,10 +11219,10 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -11234,34 +11234,34 @@
         <v>46</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="L121">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N121">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P121">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R121">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
         <v>1.75</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
         <v>1.95</v>
@@ -11273,16 +11273,16 @@
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA121">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>-1</v>
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6352263</v>
+        <v>6441138</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K122">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L122">
         <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O122">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q122">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X122">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352264</v>
+        <v>6352265</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K123">
         <v>1.727</v>
       </c>
       <c r="L123">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M123">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N123">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O123">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P123">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q123">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T123">
         <v>2</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA123">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6352923</v>
+        <v>6352264</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N124">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P124">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U124">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB124">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6352265</v>
+        <v>6352923</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,58 +11575,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
         <v>45</v>
       </c>
       <c r="K125">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L125">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M125">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N125">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="O125">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P125">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R125">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S125">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T125">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
+        <v>1.75</v>
+      </c>
+      <c r="V125">
         <v>1.95</v>
       </c>
-      <c r="V125">
-        <v>1.85</v>
-      </c>
       <c r="W125">
-        <v>0.6659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11635,16 +11635,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
         <v>-0.5</v>
       </c>
-      <c r="AB125">
-        <v>0.95</v>
-      </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11842,7 +11842,7 @@
         <v>45122.20833333334</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G128" t="s">
         <v>36</v>
@@ -11919,7 +11919,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6352267</v>
+        <v>6353023</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11931,76 +11931,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H129">
         <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K129">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L129">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M129">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N129">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O129">
+        <v>2.75</v>
+      </c>
+      <c r="P129">
         <v>3.4</v>
-      </c>
-      <c r="P129">
-        <v>2.75</v>
       </c>
       <c r="Q129">
         <v>-0.25</v>
       </c>
       <c r="R129">
+        <v>1.875</v>
+      </c>
+      <c r="S129">
+        <v>1.925</v>
+      </c>
+      <c r="T129">
+        <v>1.75</v>
+      </c>
+      <c r="U129">
+        <v>1.775</v>
+      </c>
+      <c r="V129">
         <v>2.025</v>
       </c>
-      <c r="S129">
-        <v>1.775</v>
-      </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
-      <c r="U129">
-        <v>1.85</v>
-      </c>
-      <c r="V129">
-        <v>1.95</v>
-      </c>
       <c r="W129">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X129">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA129">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12008,7 +12008,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6352268</v>
+        <v>6352267</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12020,49 +12020,49 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G130" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K130">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="L130">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="M130">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="N130">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="O130">
+        <v>3.4</v>
+      </c>
+      <c r="P130">
         <v>2.75</v>
       </c>
-      <c r="P130">
+      <c r="Q130">
+        <v>-0.25</v>
+      </c>
+      <c r="R130">
+        <v>2.025</v>
+      </c>
+      <c r="S130">
+        <v>1.775</v>
+      </c>
+      <c r="T130">
         <v>2.25</v>
-      </c>
-      <c r="Q130">
-        <v>0.25</v>
-      </c>
-      <c r="R130">
-        <v>1.825</v>
-      </c>
-      <c r="S130">
-        <v>1.975</v>
-      </c>
-      <c r="T130">
-        <v>1.75</v>
       </c>
       <c r="U130">
         <v>1.85</v>
@@ -12071,25 +12071,25 @@
         <v>1.95</v>
       </c>
       <c r="W130">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB130">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12097,7 +12097,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6353023</v>
+        <v>6352268</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12109,58 +12109,58 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
         <v>1</v>
-      </c>
-      <c r="I131">
-        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L131">
-        <v>2.8</v>
+        <v>2.875</v>
       </c>
       <c r="M131">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="N131">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="O131">
         <v>2.75</v>
       </c>
       <c r="P131">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
         <v>1.75</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>1.15</v>
+        <v>2.3</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12169,16 +12169,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12186,7 +12186,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6352926</v>
+        <v>6353327</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12198,37 +12198,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K132">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="L132">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M132">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N132">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O132">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q132">
         <v>0.25</v>
@@ -12243,31 +12243,31 @@
         <v>2.25</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z132">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6353327</v>
+        <v>6352926</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12287,37 +12287,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F133" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K133">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="L133">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M133">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N133">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O133">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P133">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q133">
         <v>0.25</v>
@@ -12332,31 +12332,31 @@
         <v>2.25</v>
       </c>
       <c r="U133">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y133">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA133">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC133">
-        <v>0.7250000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12557,7 +12557,7 @@
         <v>38</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H136">
         <v>3</v>
@@ -12732,7 +12732,7 @@
         <v>45130.25</v>
       </c>
       <c r="F138" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G138" t="s">
         <v>37</v>
@@ -12809,7 +12809,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6353328</v>
+        <v>6353022</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12821,61 +12821,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F139" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H139">
         <v>1</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K139">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L139">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M139">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N139">
+        <v>1.5</v>
+      </c>
+      <c r="O139">
+        <v>3.5</v>
+      </c>
+      <c r="P139">
+        <v>6</v>
+      </c>
+      <c r="Q139">
+        <v>-1</v>
+      </c>
+      <c r="R139">
+        <v>1.875</v>
+      </c>
+      <c r="S139">
+        <v>1.925</v>
+      </c>
+      <c r="T139">
         <v>2.5</v>
       </c>
-      <c r="O139">
-        <v>2.9</v>
-      </c>
-      <c r="P139">
-        <v>2.9</v>
-      </c>
-      <c r="Q139">
-        <v>0</v>
-      </c>
-      <c r="R139">
-        <v>1.775</v>
-      </c>
-      <c r="S139">
-        <v>2.025</v>
-      </c>
-      <c r="T139">
-        <v>2</v>
-      </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X139">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
         <v>-1</v>
@@ -12887,10 +12887,10 @@
         <v>-0</v>
       </c>
       <c r="AB139">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC139">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12898,7 +12898,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6353022</v>
+        <v>6353328</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12910,61 +12910,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H140">
         <v>1</v>
       </c>
       <c r="I140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K140">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L140">
+        <v>2.9</v>
+      </c>
+      <c r="M140">
         <v>3.4</v>
       </c>
-      <c r="M140">
-        <v>6</v>
-      </c>
       <c r="N140">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P140">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S140">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T140">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U140">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X140">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y140">
         <v>-1</v>
@@ -12976,10 +12976,10 @@
         <v>-0</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13091,7 +13091,7 @@
         <v>34</v>
       </c>
       <c r="G142" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13177,7 +13177,7 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G143" t="s">
         <v>39</v>
@@ -13266,7 +13266,7 @@
         <v>45150.25</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G144" t="s">
         <v>42</v>
@@ -13432,7 +13432,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>6352931</v>
+        <v>6352274</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13444,34 +13444,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F146" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K146">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L146">
         <v>3</v>
       </c>
       <c r="M146">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N146">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O146">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P146">
         <v>4</v>
@@ -13480,40 +13480,40 @@
         <v>-0.5</v>
       </c>
       <c r="R146">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S146">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T146">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U146">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V146">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X146">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y146">
         <v>-1</v>
       </c>
       <c r="Z146">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA146">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB146">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13521,7 +13521,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6352274</v>
+        <v>6352931</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13533,34 +13533,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K147">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L147">
         <v>3</v>
       </c>
       <c r="M147">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N147">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O147">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P147">
         <v>4</v>
@@ -13569,40 +13569,40 @@
         <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S147">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U147">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X147">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA147">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC147">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13711,7 +13711,7 @@
         <v>45157.20833333334</v>
       </c>
       <c r="F149" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
         <v>34</v>
@@ -13788,7 +13788,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6352277</v>
+        <v>6352933</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13800,10 +13800,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13815,40 +13815,40 @@
         <v>47</v>
       </c>
       <c r="K150">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L150">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M150">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N150">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O150">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P150">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q150">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R150">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S150">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T150">
         <v>2</v>
       </c>
       <c r="U150">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V150">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W150">
         <v>-1</v>
@@ -13857,16 +13857,16 @@
         <v>-1</v>
       </c>
       <c r="Y150">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Z150">
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB150">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC150">
         <v>-1</v>
@@ -13877,7 +13877,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6352933</v>
+        <v>6352277</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13889,10 +13889,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F151" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13904,40 +13904,40 @@
         <v>47</v>
       </c>
       <c r="K151">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L151">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M151">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N151">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O151">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P151">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q151">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R151">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S151">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T151">
         <v>2</v>
       </c>
       <c r="U151">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V151">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W151">
         <v>-1</v>
@@ -13946,16 +13946,16 @@
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Z151">
         <v>-1</v>
       </c>
       <c r="AA151">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB151">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC151">
         <v>-1</v>
@@ -13981,7 +13981,7 @@
         <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H152">
         <v>4</v>
@@ -14067,7 +14067,7 @@
         <v>45158.29166666666</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
         <v>43</v>
@@ -14334,10 +14334,10 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F156" t="s">
+        <v>40</v>
+      </c>
+      <c r="G156" t="s">
         <v>41</v>
-      </c>
-      <c r="G156" t="s">
-        <v>40</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14411,7 +14411,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6352280</v>
+        <v>6352281</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14423,7 +14423,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F157" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G157" t="s">
         <v>29</v>
@@ -14432,64 +14432,64 @@
         <v>2</v>
       </c>
       <c r="I157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K157">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L157">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M157">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N157">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O157">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P157">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R157">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S157">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V157">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W157">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X157">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB157">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC157">
         <v>-1</v>
@@ -14500,7 +14500,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6352281</v>
+        <v>6352280</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14512,7 +14512,7 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F158" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G158" t="s">
         <v>32</v>
@@ -14521,64 +14521,64 @@
         <v>2</v>
       </c>
       <c r="I158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K158">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L158">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M158">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N158">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O158">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q158">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R158">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S158">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U158">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V158">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W158">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X158">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AA158">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB158">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14782,7 +14782,7 @@
         <v>36</v>
       </c>
       <c r="G161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -14871,7 +14871,7 @@
         <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H162">
         <v>4</v>
@@ -15034,7 +15034,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6352284</v>
+        <v>6352283</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15046,46 +15046,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G164" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K164">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L164">
         <v>3.1</v>
       </c>
       <c r="M164">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N164">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P164">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S164">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T164">
         <v>2.25</v>
@@ -15097,19 +15097,19 @@
         <v>1.825</v>
       </c>
       <c r="W164">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X164">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
         <v>-1</v>
       </c>
       <c r="Z164">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA164">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB164">
         <v>-0.5</v>
@@ -15123,7 +15123,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6352283</v>
+        <v>6352284</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15135,46 +15135,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K165">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L165">
         <v>3.1</v>
       </c>
       <c r="M165">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N165">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O165">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P165">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R165">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S165">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T165">
         <v>2.25</v>
@@ -15186,19 +15186,19 @@
         <v>1.825</v>
       </c>
       <c r="W165">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB165">
         <v>-0.5</v>
@@ -15313,7 +15313,7 @@
         <v>45172.20833333334</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G167" t="s">
         <v>33</v>
@@ -15405,7 +15405,7 @@
         <v>31</v>
       </c>
       <c r="G168" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H168">
         <v>1</v>
@@ -15491,7 +15491,7 @@
         <v>45178.16666666666</v>
       </c>
       <c r="F169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G169" t="s">
         <v>36</v>
@@ -15580,7 +15580,7 @@
         <v>45178.20833333334</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G170" t="s">
         <v>38</v>
@@ -15850,7 +15850,7 @@
         <v>33</v>
       </c>
       <c r="G173" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -16025,7 +16025,7 @@
         <v>45182.25</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G175" t="s">
         <v>39</v>
@@ -16280,7 +16280,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6353019</v>
+        <v>6352291</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16295,10 +16295,10 @@
         <v>32</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -16307,43 +16307,43 @@
         <v>45</v>
       </c>
       <c r="K178">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L178">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M178">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N178">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O178">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P178">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q178">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R178">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S178">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
         <v>2.25</v>
       </c>
       <c r="U178">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W178">
-        <v>0.3999999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16352,13 +16352,13 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16369,7 +16369,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6352291</v>
+        <v>6353019</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16384,10 +16384,10 @@
         <v>29</v>
       </c>
       <c r="G179" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179">
         <v>1</v>
@@ -16396,43 +16396,43 @@
         <v>45</v>
       </c>
       <c r="K179">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L179">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M179">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N179">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O179">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P179">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q179">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R179">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T179">
         <v>2.25</v>
       </c>
       <c r="U179">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V179">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16441,13 +16441,13 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC179">
         <v>-1</v>
@@ -16915,7 +16915,7 @@
         <v>45192.16666666666</v>
       </c>
       <c r="F185" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G185" t="s">
         <v>38</v>
@@ -17182,7 +17182,7 @@
         <v>45193.20833333334</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G188" t="s">
         <v>34</v>
@@ -17271,10 +17271,10 @@
         <v>45220.08333333334</v>
       </c>
       <c r="F189" t="s">
+        <v>29</v>
+      </c>
+      <c r="G189" t="s">
         <v>32</v>
-      </c>
-      <c r="G189" t="s">
-        <v>29</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -17449,10 +17449,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F191" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H191">
         <v>1</v>
@@ -17719,7 +17719,7 @@
         <v>43</v>
       </c>
       <c r="G194" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H194">
         <v>3</v>
@@ -17805,7 +17805,7 @@
         <v>45227.20833333334</v>
       </c>
       <c r="F195" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G195" t="s">
         <v>30</v>
@@ -18075,7 +18075,7 @@
         <v>37</v>
       </c>
       <c r="G198" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H198">
         <v>1</v>
@@ -18250,7 +18250,7 @@
         <v>45234.08333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G200" t="s">
         <v>35</v>
@@ -18517,7 +18517,7 @@
         <v>45235.08333333334</v>
       </c>
       <c r="F203" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G203" t="s">
         <v>30</v>
@@ -18594,7 +18594,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6352953</v>
+        <v>6353334</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18606,76 +18606,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F204" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G204" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H204">
         <v>2</v>
       </c>
       <c r="I204">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J204" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K204">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L204">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M204">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N204">
+        <v>2.375</v>
+      </c>
+      <c r="O204">
+        <v>3.3</v>
+      </c>
+      <c r="P204">
+        <v>2.55</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
         <v>1.8</v>
       </c>
-      <c r="O204">
-        <v>3.4</v>
-      </c>
-      <c r="P204">
-        <v>3.75</v>
-      </c>
-      <c r="Q204">
-        <v>-0.5</v>
-      </c>
-      <c r="R204">
-        <v>1.825</v>
-      </c>
       <c r="S204">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T204">
         <v>2.5</v>
       </c>
       <c r="U204">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V204">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X204">
         <v>-1</v>
       </c>
       <c r="Y204">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z204">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA204">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB204">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC204">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18683,7 +18683,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6352952</v>
+        <v>6353335</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18695,76 +18695,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G205" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K205">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="L205">
+        <v>3.25</v>
+      </c>
+      <c r="M205">
+        <v>2.8</v>
+      </c>
+      <c r="N205">
+        <v>1.95</v>
+      </c>
+      <c r="O205">
+        <v>3.4</v>
+      </c>
+      <c r="P205">
         <v>3.2</v>
       </c>
-      <c r="M205">
-        <v>2.4</v>
-      </c>
-      <c r="N205">
-        <v>3.1</v>
-      </c>
-      <c r="O205">
-        <v>3.3</v>
-      </c>
-      <c r="P205">
-        <v>2.05</v>
-      </c>
       <c r="Q205">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T205">
         <v>2.25</v>
       </c>
       <c r="U205">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V205">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W205">
         <v>-1</v>
       </c>
       <c r="X205">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y205">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
         <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB205">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC205">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,7 +18772,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6352956</v>
+        <v>6352952</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18784,76 +18784,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G206" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H206">
         <v>0</v>
       </c>
       <c r="I206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K206">
+        <v>2.6</v>
+      </c>
+      <c r="L206">
+        <v>3.2</v>
+      </c>
+      <c r="M206">
+        <v>2.4</v>
+      </c>
+      <c r="N206">
+        <v>3.1</v>
+      </c>
+      <c r="O206">
+        <v>3.3</v>
+      </c>
+      <c r="P206">
         <v>2.05</v>
-      </c>
-      <c r="L206">
-        <v>3.5</v>
-      </c>
-      <c r="M206">
-        <v>2.9</v>
-      </c>
-      <c r="N206">
-        <v>2.75</v>
-      </c>
-      <c r="O206">
-        <v>3.5</v>
-      </c>
-      <c r="P206">
-        <v>2.15</v>
       </c>
       <c r="Q206">
         <v>0.25</v>
       </c>
       <c r="R206">
+        <v>1.95</v>
+      </c>
+      <c r="S206">
+        <v>1.85</v>
+      </c>
+      <c r="T206">
+        <v>2.25</v>
+      </c>
+      <c r="U206">
         <v>1.8</v>
       </c>
-      <c r="S206">
-        <v>2</v>
-      </c>
-      <c r="T206">
-        <v>2.5</v>
-      </c>
-      <c r="U206">
-        <v>1.95</v>
-      </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W206">
         <v>-1</v>
       </c>
       <c r="X206">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y206">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z206">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB206">
         <v>-1</v>
       </c>
       <c r="AC206">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18861,7 +18861,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>6352957</v>
+        <v>6352953</v>
       </c>
       <c r="C207" t="s">
         <v>28</v>
@@ -18873,76 +18873,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F207" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207">
         <v>0</v>
       </c>
       <c r="J207" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K207">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L207">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M207">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N207">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O207">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P207">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q207">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R207">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S207">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T207">
         <v>2.5</v>
       </c>
       <c r="U207">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V207">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W207">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X207">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
         <v>-1</v>
       </c>
       <c r="Z207">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA207">
+        <v>-1</v>
+      </c>
+      <c r="AB207">
+        <v>-1</v>
+      </c>
+      <c r="AC207">
         <v>0.8</v>
-      </c>
-      <c r="AB207">
-        <v>-1</v>
-      </c>
-      <c r="AC207">
-        <v>0.875</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18950,7 +18950,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>6353334</v>
+        <v>6352956</v>
       </c>
       <c r="C208" t="s">
         <v>28</v>
@@ -18962,40 +18962,40 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G208" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J208" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K208">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L208">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M208">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N208">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O208">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P208">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q208">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R208">
         <v>1.8</v>
@@ -19007,31 +19007,31 @@
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V208">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W208">
         <v>-1</v>
       </c>
       <c r="X208">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y208">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA208">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB208">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC208">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="209" spans="1:29">
@@ -19039,7 +19039,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>6353335</v>
+        <v>6352957</v>
       </c>
       <c r="C209" t="s">
         <v>28</v>
@@ -19051,40 +19051,40 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F209" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G209" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J209" t="s">
         <v>46</v>
       </c>
       <c r="K209">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L209">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M209">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N209">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="O209">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P209">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q209">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R209">
         <v>2</v>
@@ -19093,19 +19093,19 @@
         <v>1.8</v>
       </c>
       <c r="T209">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U209">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V209">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W209">
         <v>-1</v>
       </c>
       <c r="X209">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y209">
         <v>-1</v>
@@ -19117,10 +19117,10 @@
         <v>0.8</v>
       </c>
       <c r="AB209">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC209">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="210" spans="1:29">
@@ -19143,7 +19143,7 @@
         <v>42</v>
       </c>
       <c r="G210" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H210">
         <v>0</v>

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -112,13 +112,13 @@
     <t>Yangpyeong FC</t>
   </si>
   <si>
-    <t>Ulsan Citizen FC</t>
+    <t>Daejeon Korail</t>
   </si>
   <si>
     <t>Gimhae City</t>
   </si>
   <si>
-    <t>Daejeon Korail</t>
+    <t>Ulsan Citizen FC</t>
   </si>
   <si>
     <t>Chuncheon FC</t>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6352246</v>
+        <v>6352244</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
         <v>3.1</v>
       </c>
       <c r="P5">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA5">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6352244</v>
+        <v>6352246</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N7">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>3.1</v>
       </c>
       <c r="P7">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="Q7">
+        <v>0.75</v>
+      </c>
+      <c r="R7">
+        <v>1.9</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1.8</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z7">
         <v>-0.5</v>
       </c>
-      <c r="R7">
-        <v>1.8</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>1.825</v>
-      </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
-      <c r="W7">
-        <v>0.8</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
-      <c r="Z7">
-        <v>0.8</v>
-      </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1432,7 +1432,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1785,7 +1785,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1966,7 +1966,7 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2230,7 +2230,7 @@
         <v>45094.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -2500,7 +2500,7 @@
         <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6352256</v>
+        <v>6352921</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24">
+        <v>1.8</v>
+      </c>
+      <c r="L24">
+        <v>3.1</v>
+      </c>
+      <c r="M24">
+        <v>4.2</v>
+      </c>
+      <c r="N24">
+        <v>2.25</v>
+      </c>
+      <c r="O24">
         <v>3</v>
       </c>
-      <c r="J24" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24">
-        <v>2.625</v>
-      </c>
-      <c r="L24">
-        <v>3.2</v>
-      </c>
-      <c r="M24">
-        <v>2.375</v>
-      </c>
-      <c r="N24">
-        <v>2.1</v>
-      </c>
-      <c r="O24">
-        <v>3.2</v>
-      </c>
       <c r="P24">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6352921</v>
+        <v>6353326</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2675,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N25">
+        <v>2.3</v>
+      </c>
+      <c r="O25">
+        <v>3.25</v>
+      </c>
+      <c r="P25">
+        <v>2.625</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.775</v>
+      </c>
+      <c r="S25">
+        <v>2.025</v>
+      </c>
+      <c r="T25">
         <v>2.25</v>
       </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>3</v>
-      </c>
-      <c r="Q25">
-        <v>-0.25</v>
-      </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-      <c r="S25">
-        <v>1.8</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
       <c r="U25">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6353326</v>
+        <v>6352256</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,55 +2764,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
         <v>45</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N26">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O26">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P26">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2821,19 +2821,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2942,7 +2942,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3212,7 +3212,7 @@
         <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6352263</v>
+        <v>6441138</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L38">
         <v>3.2</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q38">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X38">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6441138</v>
+        <v>6352263</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,76 +3921,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
         <v>3.2</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352264</v>
+        <v>6352923</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N40">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6352265</v>
+        <v>6352264</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K41">
         <v>1.727</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N41">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
+        <v>1.9</v>
+      </c>
+      <c r="S41">
+        <v>1.9</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
         <v>1.925</v>
       </c>
-      <c r="S41">
+      <c r="V41">
         <v>1.875</v>
       </c>
-      <c r="T41">
-        <v>2</v>
-      </c>
-      <c r="U41">
-        <v>1.95</v>
-      </c>
-      <c r="V41">
-        <v>1.85</v>
-      </c>
       <c r="W41">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z41">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6352923</v>
+        <v>6352265</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,58 +4188,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>46</v>
       </c>
       <c r="K42">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M42">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N42">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O42">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P42">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>0.3999999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4248,16 +4248,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4458,7 +4458,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6353023</v>
+        <v>6352267</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L46">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M46">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O46">
+        <v>3.4</v>
+      </c>
+      <c r="P46">
         <v>2.75</v>
-      </c>
-      <c r="P46">
-        <v>3.4</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6352267</v>
+        <v>6352268</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4633,49 +4633,49 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K47">
+        <v>3.5</v>
+      </c>
+      <c r="L47">
+        <v>2.875</v>
+      </c>
+      <c r="M47">
+        <v>2.1</v>
+      </c>
+      <c r="N47">
+        <v>3.3</v>
+      </c>
+      <c r="O47">
+        <v>2.75</v>
+      </c>
+      <c r="P47">
         <v>2.25</v>
       </c>
-      <c r="L47">
-        <v>3.1</v>
-      </c>
-      <c r="M47">
-        <v>2.9</v>
-      </c>
-      <c r="N47">
-        <v>2.2</v>
-      </c>
-      <c r="O47">
-        <v>3.4</v>
-      </c>
-      <c r="P47">
-        <v>2.75</v>
-      </c>
       <c r="Q47">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="U47">
         <v>1.85</v>
@@ -4684,25 +4684,25 @@
         <v>1.95</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X47">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC47">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6352268</v>
+        <v>6353023</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,58 +4722,58 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
         <v>46</v>
       </c>
       <c r="K48">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="M48">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="N48">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
         <v>2.75</v>
       </c>
       <c r="P48">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
         <v>1.75</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W48">
-        <v>2.3</v>
+        <v>1.15</v>
       </c>
       <c r="X48">
         <v>-1</v>
@@ -4782,16 +4782,16 @@
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
         <v>-1</v>
       </c>
       <c r="AB48">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4799,7 +4799,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6353327</v>
+        <v>6352926</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4811,37 +4811,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M49">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N49">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O49">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q49">
         <v>0.25</v>
@@ -4856,31 +4856,31 @@
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y49">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC49">
-        <v>0.7250000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6352926</v>
+        <v>6353327</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4900,37 +4900,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K50">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N50">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q50">
         <v>0.25</v>
@@ -4945,31 +4945,31 @@
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z50">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4989,10 +4989,10 @@
         <v>45128.29166666666</v>
       </c>
       <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
         <v>34</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6353328</v>
+        <v>6353022</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,61 +5434,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L56">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N56">
+        <v>1.5</v>
+      </c>
+      <c r="O56">
+        <v>3.5</v>
+      </c>
+      <c r="P56">
+        <v>6</v>
+      </c>
+      <c r="Q56">
+        <v>-1</v>
+      </c>
+      <c r="R56">
+        <v>1.875</v>
+      </c>
+      <c r="S56">
+        <v>1.925</v>
+      </c>
+      <c r="T56">
         <v>2.5</v>
       </c>
-      <c r="O56">
-        <v>2.9</v>
-      </c>
-      <c r="P56">
-        <v>2.9</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>1.775</v>
-      </c>
-      <c r="S56">
-        <v>2.025</v>
-      </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X56">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5500,10 +5500,10 @@
         <v>-0</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6353022</v>
+        <v>6353328</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,61 +5523,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
+        <v>2.9</v>
+      </c>
+      <c r="M57">
         <v>3.4</v>
       </c>
-      <c r="M57">
-        <v>6</v>
-      </c>
       <c r="N57">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P57">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5589,10 +5589,10 @@
         <v>-0</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5615,7 +5615,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6352272</v>
+        <v>6353329</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K59">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="N59">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P59">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
+        <v>1.925</v>
+      </c>
+      <c r="S59">
         <v>1.875</v>
       </c>
-      <c r="S59">
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>1.875</v>
+      </c>
+      <c r="V59">
         <v>1.925</v>
       </c>
-      <c r="T59">
-        <v>2.25</v>
-      </c>
-      <c r="U59">
-        <v>1.85</v>
-      </c>
-      <c r="V59">
-        <v>1.95</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6353329</v>
+        <v>6352272</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K60">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L60">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="N60">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P60">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R60">
+        <v>1.875</v>
+      </c>
+      <c r="S60">
         <v>1.925</v>
       </c>
-      <c r="S60">
-        <v>1.875</v>
-      </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z60">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5968,7 +5968,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>43</v>
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6352931</v>
+        <v>6352274</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,34 +6057,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L63">
         <v>3</v>
       </c>
       <c r="M63">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N63">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
         <v>4</v>
@@ -6093,40 +6093,40 @@
         <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6352274</v>
+        <v>6352931</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,34 +6146,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L64">
         <v>3</v>
       </c>
       <c r="M64">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N64">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O64">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P64">
         <v>4</v>
@@ -6182,40 +6182,40 @@
         <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X64">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC64">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6235,7 +6235,7 @@
         <v>45156.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>42</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6352933</v>
+        <v>6352277</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,10 +6413,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6428,40 +6428,40 @@
         <v>45</v>
       </c>
       <c r="K67">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L67">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O67">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P67">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
         <v>2</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6470,16 +6470,16 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6352277</v>
+        <v>6352933</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,10 +6502,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6517,40 +6517,40 @@
         <v>45</v>
       </c>
       <c r="K68">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L68">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O68">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P68">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
         <v>2</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6559,16 +6559,16 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6861,7 +6861,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7306,7 +7306,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7392,7 +7392,7 @@
         <v>45170.29166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>35</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6352284</v>
+        <v>6352283</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,46 +7659,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L81">
         <v>3.1</v>
       </c>
       <c r="M81">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N81">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P81">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
         <v>2.25</v>
@@ -7710,19 +7710,19 @@
         <v>1.825</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X81">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-0.5</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6352283</v>
+        <v>6352284</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,46 +7748,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L82">
         <v>3.1</v>
       </c>
       <c r="M82">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N82">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O82">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P82">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
         <v>2.25</v>
@@ -7799,19 +7799,19 @@
         <v>1.825</v>
       </c>
       <c r="W82">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
         <v>-0.5</v>
@@ -8107,7 +8107,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8285,7 +8285,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8727,7 +8727,7 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>43</v>
@@ -9261,7 +9261,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
         <v>30</v>
@@ -9617,7 +9617,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>29</v>
@@ -10154,7 +10154,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10228,7 +10228,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6352948</v>
+        <v>6352949</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10240,73 @@
         <v>45227.125</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>3</v>
       </c>
       <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110" t="s">
+        <v>47</v>
+      </c>
+      <c r="K110">
+        <v>1.571</v>
+      </c>
+      <c r="L110">
+        <v>3.6</v>
+      </c>
+      <c r="M110">
+        <v>5</v>
+      </c>
+      <c r="N110">
+        <v>1.363</v>
+      </c>
+      <c r="O110">
+        <v>4.75</v>
+      </c>
+      <c r="P110">
+        <v>6</v>
+      </c>
+      <c r="Q110">
+        <v>-1.25</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
+        <v>2</v>
+      </c>
+      <c r="T110">
+        <v>2.5</v>
+      </c>
+      <c r="U110">
+        <v>1.85</v>
+      </c>
+      <c r="V110">
+        <v>1.95</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>3.75</v>
+      </c>
+      <c r="Y110">
+        <v>-1</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
         <v>1</v>
       </c>
-      <c r="J110" t="s">
-        <v>46</v>
-      </c>
-      <c r="K110">
-        <v>2</v>
-      </c>
-      <c r="L110">
-        <v>3.1</v>
-      </c>
-      <c r="M110">
-        <v>3.4</v>
-      </c>
-      <c r="N110">
-        <v>2.15</v>
-      </c>
-      <c r="O110">
-        <v>3.1</v>
-      </c>
-      <c r="P110">
-        <v>3.1</v>
-      </c>
-      <c r="Q110">
-        <v>-0.25</v>
-      </c>
-      <c r="R110">
-        <v>1.925</v>
-      </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
-      <c r="T110">
-        <v>2.25</v>
-      </c>
-      <c r="U110">
-        <v>1.9</v>
-      </c>
-      <c r="V110">
-        <v>1.9</v>
-      </c>
-      <c r="W110">
-        <v>1.15</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
-      <c r="Z110">
-        <v>0.925</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10317,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6352949</v>
+        <v>6352948</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10329,73 @@
         <v>45227.125</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>3</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K111">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N111">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O111">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X111">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10421,7 +10421,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10596,7 +10596,7 @@
         <v>45233.125</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>37</v>
@@ -10940,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6352951</v>
+        <v>6353333</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,58 +10952,58 @@
         <v>45234.125</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>46</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M118">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N118">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11012,13 +11012,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11029,7 +11029,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6353333</v>
+        <v>6352951</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,58 +11041,58 @@
         <v>45234.125</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>46</v>
       </c>
       <c r="K119">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N119">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
+        <v>1.975</v>
+      </c>
+      <c r="T119">
+        <v>2.5</v>
+      </c>
+      <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
         <v>1.925</v>
       </c>
-      <c r="S119">
-        <v>1.875</v>
-      </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>1.85</v>
-      </c>
-      <c r="V119">
-        <v>1.95</v>
-      </c>
       <c r="W119">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11101,13 +11101,13 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11133,7 +11133,7 @@
         <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6353334</v>
+        <v>6352957</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,46 +11219,46 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N121">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="O121">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P121">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
         <v>1.8</v>
-      </c>
-      <c r="S121">
-        <v>2</v>
       </c>
       <c r="T121">
         <v>2.5</v>
@@ -11273,22 +11273,22 @@
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y121">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6352952</v>
+        <v>6352956</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N122">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O122">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P122">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q122">
         <v>0.25</v>
       </c>
       <c r="R122">
+        <v>1.8</v>
+      </c>
+      <c r="S122">
+        <v>2</v>
+      </c>
+      <c r="T122">
+        <v>2.5</v>
+      </c>
+      <c r="U122">
         <v>1.95</v>
       </c>
-      <c r="S122">
+      <c r="V122">
         <v>1.85</v>
       </c>
-      <c r="T122">
-        <v>2.25</v>
-      </c>
-      <c r="U122">
-        <v>1.8</v>
-      </c>
-      <c r="V122">
-        <v>2</v>
-      </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y122">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA122">
+        <v>-0.5</v>
+      </c>
+      <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB122">
-        <v>-1</v>
-      </c>
-      <c r="AC122">
-        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352956</v>
+        <v>6352953</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F123" t="s">
+        <v>33</v>
+      </c>
+      <c r="G123" t="s">
         <v>32</v>
       </c>
-      <c r="G123" t="s">
-        <v>31</v>
-      </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K123">
         <v>2.05</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N123">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O123">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P123">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V123">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X123">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA123">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6353335</v>
+        <v>6352952</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,76 +11486,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K124">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N124">
+        <v>3.1</v>
+      </c>
+      <c r="O124">
+        <v>3.3</v>
+      </c>
+      <c r="P124">
+        <v>2.05</v>
+      </c>
+      <c r="Q124">
+        <v>0.25</v>
+      </c>
+      <c r="R124">
         <v>1.95</v>
       </c>
-      <c r="O124">
-        <v>3.4</v>
-      </c>
-      <c r="P124">
-        <v>3.2</v>
-      </c>
-      <c r="Q124">
-        <v>-0.5</v>
-      </c>
-      <c r="R124">
-        <v>2</v>
-      </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
         <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6352957</v>
+        <v>6353335</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,40 +11664,40 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>47</v>
       </c>
       <c r="K126">
+        <v>2.2</v>
+      </c>
+      <c r="L126">
+        <v>3.25</v>
+      </c>
+      <c r="M126">
+        <v>2.8</v>
+      </c>
+      <c r="N126">
         <v>1.95</v>
       </c>
-      <c r="L126">
+      <c r="O126">
+        <v>3.4</v>
+      </c>
+      <c r="P126">
         <v>3.2</v>
       </c>
-      <c r="M126">
-        <v>3.5</v>
-      </c>
-      <c r="N126">
-        <v>1.45</v>
-      </c>
-      <c r="O126">
-        <v>4</v>
-      </c>
-      <c r="P126">
-        <v>6</v>
-      </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
         <v>2</v>
@@ -11706,19 +11706,19 @@
         <v>1.8</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y126">
         <v>-1</v>
@@ -11730,10 +11730,10 @@
         <v>0.8</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6352953</v>
+        <v>6353334</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,76 +11753,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K127">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M127">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N127">
+        <v>2.375</v>
+      </c>
+      <c r="O127">
+        <v>3.3</v>
+      </c>
+      <c r="P127">
+        <v>2.55</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
         <v>1.8</v>
       </c>
-      <c r="O127">
-        <v>3.4</v>
-      </c>
-      <c r="P127">
-        <v>3.75</v>
-      </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.825</v>
-      </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T127">
         <v>2.5</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -112,13 +112,13 @@
     <t>Yangpyeong FC</t>
   </si>
   <si>
-    <t>Daejeon Korail</t>
+    <t>Ulsan Citizen FC</t>
   </si>
   <si>
     <t>Gimhae City</t>
   </si>
   <si>
-    <t>Ulsan Citizen FC</t>
+    <t>Daejeon Korail</t>
   </si>
   <si>
     <t>Chuncheon FC</t>
@@ -883,7 +883,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6352244</v>
+        <v>6352246</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -898,73 +898,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N5">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="O5">
         <v>3.1</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="Q5">
+        <v>0.75</v>
+      </c>
+      <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>1.9</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>1.8</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z5">
         <v>-0.5</v>
       </c>
-      <c r="R5">
-        <v>1.8</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>1.975</v>
-      </c>
-      <c r="W5">
-        <v>0.8</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.8</v>
-      </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6352246</v>
+        <v>6352244</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1076,73 +1076,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
         <v>3.1</v>
       </c>
       <c r="P7">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="Q7">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>2</v>
       </c>
       <c r="U7">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1432,7 +1432,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1785,7 +1785,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>40</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6353026</v>
+        <v>6352252</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,76 +1963,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L17">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N17">
+        <v>2.625</v>
+      </c>
+      <c r="O17">
         <v>2.875</v>
       </c>
-      <c r="O17">
-        <v>3.25</v>
-      </c>
       <c r="P17">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6352253</v>
+        <v>6353026</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,10 +2052,10 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2067,61 +2067,61 @@
         <v>47</v>
       </c>
       <c r="K18">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="N18">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P18">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
         <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6352252</v>
+        <v>6352253</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2141,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>1.571</v>
+      </c>
+      <c r="O19">
+        <v>3.8</v>
+      </c>
+      <c r="P19">
+        <v>4.75</v>
+      </c>
+      <c r="Q19">
+        <v>-0.75</v>
+      </c>
+      <c r="R19">
+        <v>1.775</v>
+      </c>
+      <c r="S19">
+        <v>2.025</v>
+      </c>
+      <c r="T19">
+        <v>2.25</v>
+      </c>
+      <c r="U19">
+        <v>1.875</v>
+      </c>
+      <c r="V19">
+        <v>1.925</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
         <v>2.8</v>
       </c>
-      <c r="M19">
-        <v>3</v>
-      </c>
-      <c r="N19">
-        <v>2.625</v>
-      </c>
-      <c r="O19">
-        <v>2.875</v>
-      </c>
-      <c r="P19">
-        <v>2.55</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1.95</v>
-      </c>
-      <c r="S19">
-        <v>1.85</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19">
-        <v>1.85</v>
-      </c>
-      <c r="V19">
-        <v>1.95</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>1.875</v>
-      </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2230,7 +2230,7 @@
         <v>45094.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -2500,7 +2500,7 @@
         <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2574,7 +2574,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6352921</v>
+        <v>6353326</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,76 +2586,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M24">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N24">
+        <v>2.3</v>
+      </c>
+      <c r="O24">
+        <v>3.25</v>
+      </c>
+      <c r="P24">
+        <v>2.625</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.775</v>
+      </c>
+      <c r="S24">
+        <v>2.025</v>
+      </c>
+      <c r="T24">
         <v>2.25</v>
       </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>3</v>
-      </c>
-      <c r="Q24">
-        <v>-0.25</v>
-      </c>
-      <c r="R24">
-        <v>2</v>
-      </c>
-      <c r="S24">
-        <v>1.8</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
       <c r="U24">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2663,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6353326</v>
+        <v>6352256</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,55 +2675,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>45</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2732,19 +2732,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2752,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6352256</v>
+        <v>6352921</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2764,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26">
+        <v>1.8</v>
+      </c>
+      <c r="L26">
+        <v>3.1</v>
+      </c>
+      <c r="M26">
+        <v>4.2</v>
+      </c>
+      <c r="N26">
+        <v>2.25</v>
+      </c>
+      <c r="O26">
         <v>3</v>
       </c>
-      <c r="J26" t="s">
-        <v>45</v>
-      </c>
-      <c r="K26">
-        <v>2.625</v>
-      </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
-      <c r="M26">
-        <v>2.375</v>
-      </c>
-      <c r="N26">
-        <v>2.1</v>
-      </c>
-      <c r="O26">
-        <v>3.2</v>
-      </c>
       <c r="P26">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q26">
         <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T26">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V26">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2942,7 +2942,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3212,7 +3212,7 @@
         <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6352262</v>
+        <v>6352922</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N35">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O35">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X35">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6352922</v>
+        <v>6352262</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N36">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P36">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352923</v>
+        <v>6352264</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K40">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4087,7 +4087,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6352264</v>
+        <v>6352265</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4099,76 +4099,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
         <v>34</v>
       </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K41">
         <v>1.727</v>
       </c>
       <c r="L41">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N41">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P41">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC41">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6352265</v>
+        <v>6352923</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,58 +4188,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>46</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L42">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N42">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="O42">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P42">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
+        <v>1.75</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
       <c r="W42">
-        <v>0.6659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4248,16 +4248,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
         <v>-0.5</v>
       </c>
-      <c r="AB42">
-        <v>0.95</v>
-      </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4458,7 +4458,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
@@ -4989,10 +4989,10 @@
         <v>45128.29166666666</v>
       </c>
       <c r="F51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" t="s">
         <v>32</v>
-      </c>
-      <c r="G51" t="s">
-        <v>34</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6352927</v>
+        <v>6352270</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,73 +5167,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>46</v>
       </c>
       <c r="K53">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N53">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P53">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W53">
+        <v>0.833</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6352270</v>
+        <v>6352927</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,58 +5256,58 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
         <v>3</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>46</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O54">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5316,13 +5316,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5615,7 +5615,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5968,7 +5968,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>43</v>
@@ -6235,7 +6235,7 @@
         <v>45156.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>42</v>
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6352277</v>
+        <v>6352933</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,10 +6413,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6428,40 +6428,40 @@
         <v>45</v>
       </c>
       <c r="K67">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L67">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M67">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O67">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P67">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
         <v>2</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6470,16 +6470,16 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6352933</v>
+        <v>6352277</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,10 +6502,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6517,40 +6517,40 @@
         <v>45</v>
       </c>
       <c r="K68">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N68">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O68">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P68">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
         <v>2</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6559,16 +6559,16 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6861,7 +6861,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6352281</v>
+        <v>6352280</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,73 +7036,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K74">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N74">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AA74">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6352280</v>
+        <v>6352281</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,73 +7125,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7306,7 +7306,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7392,7 +7392,7 @@
         <v>45170.29166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>35</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6352283</v>
+        <v>6352284</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,46 +7659,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L81">
         <v>3.1</v>
       </c>
       <c r="M81">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N81">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O81">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P81">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
         <v>2.25</v>
@@ -7710,19 +7710,19 @@
         <v>1.825</v>
       </c>
       <c r="W81">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
         <v>-0.5</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6352284</v>
+        <v>6352283</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,46 +7748,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K82">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L82">
         <v>3.1</v>
       </c>
       <c r="M82">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N82">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O82">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P82">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
         <v>2.25</v>
@@ -7799,19 +7799,19 @@
         <v>1.825</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X82">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-0.5</v>
@@ -8107,7 +8107,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8285,7 +8285,7 @@
         <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6352290</v>
+        <v>6352289</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,58 +8727,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="N93">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
+        <v>1.875</v>
+      </c>
+      <c r="V93">
         <v>1.925</v>
       </c>
-      <c r="V93">
-        <v>1.875</v>
-      </c>
       <c r="W93">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8787,16 +8787,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6352289</v>
+        <v>6352290</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,58 +8816,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>46</v>
       </c>
       <c r="K94">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M94">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N94">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P94">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U94">
+        <v>1.925</v>
+      </c>
+      <c r="V94">
         <v>1.875</v>
       </c>
-      <c r="V94">
-        <v>1.925</v>
-      </c>
       <c r="W94">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
         <v>0.875</v>
-      </c>
-      <c r="AC94">
-        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6353019</v>
+        <v>6352291</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8905,13 +8905,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -8920,43 +8920,43 @@
         <v>46</v>
       </c>
       <c r="K95">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L95">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M95">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N95">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O95">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P95">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q95">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>0.3999999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8965,13 +8965,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8982,7 +8982,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6352291</v>
+        <v>6353019</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8994,13 +8994,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -9009,43 +9009,43 @@
         <v>46</v>
       </c>
       <c r="K96">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L96">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M96">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N96">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O96">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P96">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V96">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9054,13 +9054,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9261,7 +9261,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>30</v>
@@ -9605,7 +9605,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6352294</v>
+        <v>6352295</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9617,46 +9617,46 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
         <v>1</v>
-      </c>
-      <c r="I103">
-        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>45</v>
       </c>
       <c r="K103">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O103">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2.25</v>
@@ -9674,19 +9674,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9694,7 +9694,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6352295</v>
+        <v>6352294</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9706,46 +9706,46 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>45</v>
       </c>
       <c r="K104">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N104">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P104">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
         <v>2.25</v>
@@ -9763,19 +9763,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10154,7 +10154,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10421,7 +10421,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10596,7 +10596,7 @@
         <v>45233.125</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
         <v>37</v>
@@ -11133,7 +11133,7 @@
         <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6352957</v>
+        <v>6352952</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,76 +11219,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G121" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>0</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K121">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L121">
         <v>3.2</v>
       </c>
       <c r="M121">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N121">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="O121">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P121">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q121">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
+        <v>1.85</v>
+      </c>
+      <c r="T121">
+        <v>2.25</v>
+      </c>
+      <c r="U121">
         <v>1.8</v>
       </c>
-      <c r="T121">
-        <v>2.5</v>
-      </c>
-      <c r="U121">
-        <v>1.925</v>
-      </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11308,7 +11308,7 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>31</v>
@@ -11400,7 +11400,7 @@
         <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6352952</v>
+        <v>6353334</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,55 +11486,55 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J124" t="s">
         <v>45</v>
       </c>
       <c r="K124">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M124">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N124">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O124">
         <v>3.3</v>
       </c>
       <c r="P124">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
         <v>-1</v>
@@ -11543,19 +11543,19 @@
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6352958</v>
+        <v>6353335</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="L125">
         <v>3.25</v>
       </c>
       <c r="M125">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="N125">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P125">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="S125">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="T125">
         <v>2.25</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y125">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6353335</v>
+        <v>6352958</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K126">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="L126">
         <v>3.25</v>
       </c>
       <c r="M126">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="N126">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P126">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="T126">
         <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z126">
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="AB126">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6353334</v>
+        <v>6352957</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,46 +11753,46 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G127" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L127">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M127">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N127">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="O127">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P127">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
         <v>1.8</v>
-      </c>
-      <c r="S127">
-        <v>2</v>
       </c>
       <c r="T127">
         <v>2.5</v>
@@ -11807,22 +11807,22 @@
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y127">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB127">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="128" spans="1:29">

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -519,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC128"/>
+  <dimension ref="A1:AC131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6352250</v>
+        <v>6353027</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1429,46 +1429,46 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M11">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N11">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O11">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T11">
         <v>2.25</v>
@@ -1480,25 +1480,25 @@
         <v>1.725</v>
       </c>
       <c r="W11">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1506,7 +1506,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6353027</v>
+        <v>6352250</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1518,46 +1518,46 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L12">
+        <v>3.4</v>
+      </c>
+      <c r="M12">
+        <v>3.6</v>
+      </c>
+      <c r="N12">
+        <v>2.1</v>
+      </c>
+      <c r="O12">
         <v>3.25</v>
       </c>
-      <c r="M12">
-        <v>3.3</v>
-      </c>
-      <c r="N12">
-        <v>1.7</v>
-      </c>
-      <c r="O12">
-        <v>3.5</v>
-      </c>
       <c r="P12">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q12">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S12">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
         <v>2.25</v>
@@ -1569,25 +1569,25 @@
         <v>1.725</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X12">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC12">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1684,7 +1684,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6352908</v>
+        <v>6352251</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1696,76 +1696,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M14">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O14">
         <v>3</v>
       </c>
       <c r="P14">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
+        <v>2.025</v>
+      </c>
+      <c r="S14">
+        <v>1.775</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
         <v>1.95</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.85</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>2.025</v>
-      </c>
-      <c r="V14">
-        <v>1.775</v>
-      </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6352251</v>
+        <v>6352908</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1785,76 +1785,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O15">
         <v>3</v>
       </c>
       <c r="P15">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>1.95</v>
+      </c>
+      <c r="S15">
+        <v>1.85</v>
+      </c>
+      <c r="T15">
+        <v>2.25</v>
+      </c>
+      <c r="U15">
         <v>2.025</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.775</v>
       </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>1.95</v>
-      </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y15">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
+        <v>-0</v>
+      </c>
+      <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6352252</v>
+        <v>6352253</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,76 +1963,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>1.571</v>
+      </c>
+      <c r="O17">
+        <v>3.8</v>
+      </c>
+      <c r="P17">
+        <v>4.75</v>
+      </c>
+      <c r="Q17">
+        <v>-0.75</v>
+      </c>
+      <c r="R17">
+        <v>1.775</v>
+      </c>
+      <c r="S17">
+        <v>2.025</v>
+      </c>
+      <c r="T17">
+        <v>2.25</v>
+      </c>
+      <c r="U17">
+        <v>1.875</v>
+      </c>
+      <c r="V17">
+        <v>1.925</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
         <v>2.8</v>
       </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
-        <v>2.625</v>
-      </c>
-      <c r="O17">
-        <v>2.875</v>
-      </c>
-      <c r="P17">
-        <v>2.55</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>1.95</v>
-      </c>
-      <c r="S17">
-        <v>1.85</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>1.875</v>
-      </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2040,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6353026</v>
+        <v>6352252</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2052,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>47</v>
       </c>
       <c r="K18">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L18">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M18">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N18">
+        <v>2.625</v>
+      </c>
+      <c r="O18">
         <v>2.875</v>
       </c>
-      <c r="O18">
-        <v>3.25</v>
-      </c>
       <c r="P18">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6352253</v>
+        <v>6353026</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,10 +2141,10 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2156,61 +2156,61 @@
         <v>47</v>
       </c>
       <c r="K19">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="N19">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB19">
         <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2841,7 +2841,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6352257</v>
+        <v>6352258</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2853,76 +2853,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L27">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q27">
         <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y27">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB27">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2930,7 +2930,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6352258</v>
+        <v>6352257</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2942,76 +2942,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K28">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M28">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N28">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
         <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC28">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3553,7 +3553,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6352922</v>
+        <v>6352262</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3565,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M35">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N35">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P35">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3642,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6352262</v>
+        <v>6352922</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3654,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L36">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N36">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3731,7 +3731,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6353024</v>
+        <v>6441138</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3743,76 +3743,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L37">
+        <v>3.2</v>
+      </c>
+      <c r="M37">
         <v>3.1</v>
       </c>
-      <c r="M37">
-        <v>3.4</v>
-      </c>
       <c r="N37">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P37">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA37">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,7 +3820,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6441138</v>
+        <v>6352263</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3832,76 +3832,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
         <v>3.2</v>
       </c>
       <c r="M38">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P38">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q38">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V38">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W38">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6352263</v>
+        <v>6353024</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3921,10 +3921,10 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3936,34 +3936,34 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S39">
         <v>1.75</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
         <v>1.95</v>
@@ -3975,16 +3975,16 @@
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB39">
         <v>-1</v>
@@ -3998,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352264</v>
+        <v>6352923</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4010,76 +4010,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K40">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N40">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6352923</v>
+        <v>6352264</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4188,76 +4188,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N42">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O42">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6352267</v>
+        <v>6353023</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4544,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K46">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N46">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O46">
+        <v>2.75</v>
+      </c>
+      <c r="P46">
         <v>3.4</v>
-      </c>
-      <c r="P46">
-        <v>2.75</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
+        <v>1.875</v>
+      </c>
+      <c r="S46">
+        <v>1.925</v>
+      </c>
+      <c r="T46">
+        <v>1.75</v>
+      </c>
+      <c r="U46">
+        <v>1.775</v>
+      </c>
+      <c r="V46">
         <v>2.025</v>
       </c>
-      <c r="S46">
-        <v>1.775</v>
-      </c>
-      <c r="T46">
-        <v>2.25</v>
-      </c>
-      <c r="U46">
-        <v>1.85</v>
-      </c>
-      <c r="V46">
-        <v>1.95</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X46">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4710,7 +4710,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6353023</v>
+        <v>6352267</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4722,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L48">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O48">
+        <v>3.4</v>
+      </c>
+      <c r="P48">
         <v>2.75</v>
-      </c>
-      <c r="P48">
-        <v>3.4</v>
       </c>
       <c r="Q48">
         <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T48">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5155,7 +5155,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6352270</v>
+        <v>6352927</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,58 +5167,58 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
         <v>3</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>46</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L53">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O53">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5227,13 +5227,13 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5244,7 +5244,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6352927</v>
+        <v>6352270</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,73 +5256,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>46</v>
       </c>
       <c r="K54">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M54">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N54">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P54">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W54">
+        <v>0.833</v>
+      </c>
+      <c r="X54">
+        <v>-1</v>
+      </c>
+      <c r="Y54">
+        <v>-1</v>
+      </c>
+      <c r="Z54">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
-      <c r="Y54">
-        <v>-1</v>
-      </c>
-      <c r="Z54">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5422,7 +5422,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6353022</v>
+        <v>6353328</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5434,61 +5434,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K56">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
+        <v>2.9</v>
+      </c>
+      <c r="M56">
         <v>3.4</v>
       </c>
-      <c r="M56">
-        <v>6</v>
-      </c>
       <c r="N56">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P56">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5500,10 +5500,10 @@
         <v>-0</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5511,7 +5511,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6353328</v>
+        <v>6353022</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5523,61 +5523,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L57">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N57">
+        <v>1.5</v>
+      </c>
+      <c r="O57">
+        <v>3.5</v>
+      </c>
+      <c r="P57">
+        <v>6</v>
+      </c>
+      <c r="Q57">
+        <v>-1</v>
+      </c>
+      <c r="R57">
+        <v>1.875</v>
+      </c>
+      <c r="S57">
+        <v>1.925</v>
+      </c>
+      <c r="T57">
         <v>2.5</v>
       </c>
-      <c r="O57">
-        <v>2.9</v>
-      </c>
-      <c r="P57">
-        <v>2.9</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>1.775</v>
-      </c>
-      <c r="S57">
-        <v>2.025</v>
-      </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X57">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5589,10 +5589,10 @@
         <v>-0</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6353329</v>
+        <v>6352272</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5701,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K59">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L59">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="N59">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R59">
+        <v>1.875</v>
+      </c>
+      <c r="S59">
         <v>1.925</v>
       </c>
-      <c r="S59">
-        <v>1.875</v>
-      </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5778,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6352272</v>
+        <v>6353329</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5790,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K60">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="N60">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="O60">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P60">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
+        <v>1.925</v>
+      </c>
+      <c r="S60">
         <v>1.875</v>
       </c>
-      <c r="S60">
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>1.875</v>
+      </c>
+      <c r="V60">
         <v>1.925</v>
       </c>
-      <c r="T60">
-        <v>2.25</v>
-      </c>
-      <c r="U60">
-        <v>1.85</v>
-      </c>
-      <c r="V60">
-        <v>1.95</v>
-      </c>
       <c r="W60">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6045,7 +6045,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6352274</v>
+        <v>6352931</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6057,34 +6057,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K63">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L63">
         <v>3</v>
       </c>
       <c r="M63">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N63">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O63">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P63">
         <v>4</v>
@@ -6093,40 +6093,40 @@
         <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X63">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6134,7 +6134,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6352931</v>
+        <v>6352274</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6146,34 +6146,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L64">
         <v>3</v>
       </c>
       <c r="M64">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N64">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P64">
         <v>4</v>
@@ -6182,40 +6182,40 @@
         <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6352933</v>
+        <v>6352277</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6413,10 +6413,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6428,40 +6428,40 @@
         <v>45</v>
       </c>
       <c r="K67">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L67">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O67">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P67">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
         <v>2</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6470,16 +6470,16 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6490,7 +6490,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6352277</v>
+        <v>6352933</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6502,10 +6502,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6517,40 +6517,40 @@
         <v>45</v>
       </c>
       <c r="K68">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L68">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O68">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P68">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
         <v>2</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6559,16 +6559,16 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6846,7 +6846,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6352279</v>
+        <v>6353330</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6858,76 +6858,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K72">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M72">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N72">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O72">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P72">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S72">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V72">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,7 +6935,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6353330</v>
+        <v>6352279</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6947,76 +6947,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K73">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="L73">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N73">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O73">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q73">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W73">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z73">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC73">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7024,7 +7024,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6352280</v>
+        <v>6352281</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,73 +7036,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7113,7 +7113,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6352281</v>
+        <v>6352280</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,73 +7125,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N75">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S75">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X75">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AA75">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6352284</v>
+        <v>6352283</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7659,46 +7659,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L81">
         <v>3.1</v>
       </c>
       <c r="M81">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N81">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P81">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
         <v>2.25</v>
@@ -7710,19 +7710,19 @@
         <v>1.825</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X81">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-0.5</v>
@@ -7736,7 +7736,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6352283</v>
+        <v>6352284</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7748,46 +7748,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K82">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L82">
         <v>3.1</v>
       </c>
       <c r="M82">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N82">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O82">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P82">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
         <v>2.25</v>
@@ -7799,19 +7799,19 @@
         <v>1.825</v>
       </c>
       <c r="W82">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
         <v>-0.5</v>
@@ -8270,7 +8270,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6352287</v>
+        <v>6352941</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,73 +8282,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="M88">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="N88">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O88">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S88">
         <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X88">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB88">
-        <v>1</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8359,7 +8359,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6352941</v>
+        <v>6352287</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,73 +8371,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" t="s">
+        <v>47</v>
+      </c>
+      <c r="K89">
+        <v>2.4</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>2.75</v>
+      </c>
+      <c r="N89">
+        <v>1.8</v>
+      </c>
+      <c r="O89">
+        <v>3.25</v>
+      </c>
+      <c r="P89">
         <v>4</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>46</v>
-      </c>
-      <c r="K89">
-        <v>1.333</v>
-      </c>
-      <c r="L89">
-        <v>4.25</v>
-      </c>
-      <c r="M89">
-        <v>8</v>
-      </c>
-      <c r="N89">
-        <v>1.45</v>
-      </c>
-      <c r="O89">
-        <v>4</v>
-      </c>
-      <c r="P89">
-        <v>5.75</v>
-      </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
         <v>1.975</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8715,7 +8715,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6352289</v>
+        <v>6352290</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8727,58 +8727,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>46</v>
       </c>
       <c r="K93">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M93">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N93">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P93">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
         <v>1.875</v>
       </c>
-      <c r="V93">
-        <v>1.925</v>
-      </c>
       <c r="W93">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8787,16 +8787,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.875</v>
-      </c>
-      <c r="AC93">
-        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8804,7 +8804,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6352290</v>
+        <v>6352289</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8816,58 +8816,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>46</v>
       </c>
       <c r="K94">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L94">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="N94">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O94">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
+        <v>1.875</v>
+      </c>
+      <c r="V94">
         <v>1.925</v>
       </c>
-      <c r="V94">
-        <v>1.875</v>
-      </c>
       <c r="W94">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8876,16 +8876,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -11207,7 +11207,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6352952</v>
+        <v>6353334</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11219,55 +11219,55 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
         <v>45</v>
       </c>
       <c r="K121">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="N121">
-        <v>3.1</v>
+        <v>2.375</v>
       </c>
       <c r="O121">
         <v>3.3</v>
       </c>
       <c r="P121">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q121">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
         <v>-1</v>
@@ -11276,19 +11276,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.05</v>
+        <v>1.55</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC121">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11296,7 +11296,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6352956</v>
+        <v>6352958</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11308,76 +11308,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K122">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>2.9</v>
+        <v>1.909</v>
       </c>
       <c r="N122">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="O122">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P122">
+        <v>2.875</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>1.675</v>
+      </c>
+      <c r="S122">
         <v>2.15</v>
       </c>
-      <c r="Q122">
-        <v>0.25</v>
-      </c>
-      <c r="R122">
-        <v>1.8</v>
-      </c>
-      <c r="S122">
-        <v>2</v>
-      </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z122">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>1.15</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11385,7 +11385,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352953</v>
+        <v>6352952</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11397,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K123">
+        <v>2.6</v>
+      </c>
+      <c r="L123">
+        <v>3.2</v>
+      </c>
+      <c r="M123">
+        <v>2.4</v>
+      </c>
+      <c r="N123">
+        <v>3.1</v>
+      </c>
+      <c r="O123">
+        <v>3.3</v>
+      </c>
+      <c r="P123">
         <v>2.05</v>
       </c>
-      <c r="L123">
-        <v>3.25</v>
-      </c>
-      <c r="M123">
-        <v>3.1</v>
-      </c>
-      <c r="N123">
+      <c r="Q123">
+        <v>0.25</v>
+      </c>
+      <c r="R123">
+        <v>1.95</v>
+      </c>
+      <c r="S123">
+        <v>1.85</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
         <v>1.8</v>
       </c>
-      <c r="O123">
-        <v>3.4</v>
-      </c>
-      <c r="P123">
-        <v>3.75</v>
-      </c>
-      <c r="Q123">
-        <v>-0.5</v>
-      </c>
-      <c r="R123">
-        <v>1.825</v>
-      </c>
-      <c r="S123">
-        <v>1.975</v>
-      </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>2</v>
-      </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6353334</v>
+        <v>6352957</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,46 +11486,46 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L124">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N124">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.55</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
         <v>1.8</v>
-      </c>
-      <c r="S124">
-        <v>2</v>
       </c>
       <c r="T124">
         <v>2.5</v>
@@ -11540,22 +11540,22 @@
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y124">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11563,7 +11563,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6353335</v>
+        <v>6352953</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11575,76 +11575,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K125">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L125">
         <v>3.25</v>
       </c>
       <c r="M125">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N125">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O125">
         <v>3.4</v>
       </c>
       <c r="P125">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q125">
         <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
+        <v>1.975</v>
+      </c>
+      <c r="T125">
+        <v>2.5</v>
+      </c>
+      <c r="U125">
+        <v>2</v>
+      </c>
+      <c r="V125">
         <v>1.8</v>
       </c>
-      <c r="T125">
-        <v>2.25</v>
-      </c>
-      <c r="U125">
-        <v>1.775</v>
-      </c>
-      <c r="V125">
-        <v>2.025</v>
-      </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X125">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
         <v>0.8</v>
-      </c>
-      <c r="AB125">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11652,7 +11652,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6352958</v>
+        <v>6352956</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11664,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K126">
+        <v>2.05</v>
+      </c>
+      <c r="L126">
         <v>3.5</v>
       </c>
-      <c r="L126">
-        <v>3.25</v>
-      </c>
       <c r="M126">
-        <v>1.909</v>
+        <v>2.9</v>
       </c>
       <c r="N126">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="O126">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="Q126">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>1.675</v>
+        <v>1.8</v>
       </c>
       <c r="S126">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y126">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA126">
-        <v>1.15</v>
+        <v>-0.5</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11741,7 +11741,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6352957</v>
+        <v>6353335</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11753,40 +11753,40 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>47</v>
       </c>
       <c r="K127">
+        <v>2.2</v>
+      </c>
+      <c r="L127">
+        <v>3.25</v>
+      </c>
+      <c r="M127">
+        <v>2.8</v>
+      </c>
+      <c r="N127">
         <v>1.95</v>
       </c>
-      <c r="L127">
+      <c r="O127">
+        <v>3.4</v>
+      </c>
+      <c r="P127">
         <v>3.2</v>
       </c>
-      <c r="M127">
-        <v>3.5</v>
-      </c>
-      <c r="N127">
-        <v>1.45</v>
-      </c>
-      <c r="O127">
-        <v>4</v>
-      </c>
-      <c r="P127">
-        <v>6</v>
-      </c>
       <c r="Q127">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
         <v>2</v>
@@ -11795,19 +11795,19 @@
         <v>1.8</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V127">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y127">
         <v>-1</v>
@@ -11819,10 +11819,10 @@
         <v>0.8</v>
       </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC127">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11912,6 +11912,228 @@
       </c>
       <c r="AC128">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>7866862</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45354.08333333334</v>
+      </c>
+      <c r="F129" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" t="s">
+        <v>35</v>
+      </c>
+      <c r="K129">
+        <v>1.95</v>
+      </c>
+      <c r="L129">
+        <v>3.2</v>
+      </c>
+      <c r="M129">
+        <v>3.5</v>
+      </c>
+      <c r="N129">
+        <v>1.95</v>
+      </c>
+      <c r="O129">
+        <v>3.2</v>
+      </c>
+      <c r="P129">
+        <v>3.5</v>
+      </c>
+      <c r="Q129">
+        <v>-0.5</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>1.8</v>
+      </c>
+      <c r="T129">
+        <v>2.25</v>
+      </c>
+      <c r="U129">
+        <v>1.9</v>
+      </c>
+      <c r="V129">
+        <v>1.9</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>7866868</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45354.08333333334</v>
+      </c>
+      <c r="F130" t="s">
+        <v>33</v>
+      </c>
+      <c r="G130" t="s">
+        <v>41</v>
+      </c>
+      <c r="K130">
+        <v>1.666</v>
+      </c>
+      <c r="L130">
+        <v>3.5</v>
+      </c>
+      <c r="M130">
+        <v>4.333</v>
+      </c>
+      <c r="N130">
+        <v>1.666</v>
+      </c>
+      <c r="O130">
+        <v>3.5</v>
+      </c>
+      <c r="P130">
+        <v>4.333</v>
+      </c>
+      <c r="Q130">
+        <v>-0.75</v>
+      </c>
+      <c r="R130">
+        <v>1.925</v>
+      </c>
+      <c r="S130">
+        <v>1.875</v>
+      </c>
+      <c r="T130">
+        <v>2.25</v>
+      </c>
+      <c r="U130">
+        <v>1.9</v>
+      </c>
+      <c r="V130">
+        <v>1.9</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>7866869</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45354.08333333334</v>
+      </c>
+      <c r="F131" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" t="s">
+        <v>32</v>
+      </c>
+      <c r="K131">
+        <v>2.5</v>
+      </c>
+      <c r="L131">
+        <v>2.8</v>
+      </c>
+      <c r="M131">
+        <v>2.8</v>
+      </c>
+      <c r="N131">
+        <v>2.5</v>
+      </c>
+      <c r="O131">
+        <v>2.8</v>
+      </c>
+      <c r="P131">
+        <v>2.75</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>1.8</v>
+      </c>
+      <c r="S131">
+        <v>2</v>
+      </c>
+      <c r="T131">
+        <v>2</v>
+      </c>
+      <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
+        <v>1.975</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -148,7 +148,13 @@
     <t>Paju Citizen FC</t>
   </si>
   <si>
+    <t>Yeoju</t>
+  </si>
+  <si>
     <t>Jinju Citizen FC</t>
+  </si>
+  <si>
+    <t>Daegu FC Reserves</t>
   </si>
   <si>
     <t>A</t>
@@ -519,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC131"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -640,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K2">
         <v>2.5</v>
@@ -729,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -818,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K4">
         <v>3.4</v>
@@ -907,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5">
         <v>3.75</v>
@@ -996,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K6">
         <v>1.727</v>
@@ -1085,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -1174,7 +1180,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>2.5</v>
@@ -1263,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1352,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>1.5</v>
@@ -1441,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1530,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>1.833</v>
@@ -1619,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>2.8</v>
@@ -1708,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K14">
         <v>1.909</v>
@@ -1797,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>2.5</v>
@@ -1886,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K16">
         <v>2.1</v>
@@ -1951,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6352253</v>
+        <v>6353026</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1963,10 +1969,10 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1975,64 +1981,64 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="N17">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O17">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P17">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA17">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
         <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6352252</v>
+        <v>6352253</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2052,76 +2058,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>1.571</v>
+      </c>
+      <c r="O18">
+        <v>3.8</v>
+      </c>
+      <c r="P18">
+        <v>4.75</v>
+      </c>
+      <c r="Q18">
+        <v>-0.75</v>
+      </c>
+      <c r="R18">
+        <v>1.775</v>
+      </c>
+      <c r="S18">
+        <v>2.025</v>
+      </c>
+      <c r="T18">
+        <v>2.25</v>
+      </c>
+      <c r="U18">
+        <v>1.875</v>
+      </c>
+      <c r="V18">
+        <v>1.925</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
         <v>2.8</v>
       </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="N18">
-        <v>2.625</v>
-      </c>
-      <c r="O18">
-        <v>2.875</v>
-      </c>
-      <c r="P18">
-        <v>2.55</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>1.95</v>
-      </c>
-      <c r="S18">
-        <v>1.85</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>1.875</v>
-      </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6353026</v>
+        <v>6352252</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2141,76 +2147,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K19">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L19">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M19">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N19">
+        <v>2.625</v>
+      </c>
+      <c r="O19">
         <v>2.875</v>
       </c>
-      <c r="O19">
-        <v>3.25</v>
-      </c>
       <c r="P19">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2242,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20">
         <v>2.5</v>
@@ -2331,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K21">
         <v>2.25</v>
@@ -2420,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K22">
         <v>2.375</v>
@@ -2509,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K23">
         <v>2.2</v>
@@ -2574,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6353326</v>
+        <v>6352256</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2586,55 +2592,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L24">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M24">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N24">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O24">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
         <v>2.25</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2643,19 +2649,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2663,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6352256</v>
+        <v>6352921</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2675,76 +2681,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25">
+        <v>1.8</v>
+      </c>
+      <c r="L25">
+        <v>3.1</v>
+      </c>
+      <c r="M25">
+        <v>4.2</v>
+      </c>
+      <c r="N25">
+        <v>2.25</v>
+      </c>
+      <c r="O25">
         <v>3</v>
       </c>
-      <c r="J25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25">
-        <v>2.625</v>
-      </c>
-      <c r="L25">
-        <v>3.2</v>
-      </c>
-      <c r="M25">
-        <v>2.375</v>
-      </c>
-      <c r="N25">
-        <v>2.1</v>
-      </c>
-      <c r="O25">
-        <v>3.2</v>
-      </c>
       <c r="P25">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2752,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6352921</v>
+        <v>6353326</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2764,76 +2770,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K26">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N26">
+        <v>2.3</v>
+      </c>
+      <c r="O26">
+        <v>3.25</v>
+      </c>
+      <c r="P26">
+        <v>2.625</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1.775</v>
+      </c>
+      <c r="S26">
+        <v>2.025</v>
+      </c>
+      <c r="T26">
         <v>2.25</v>
       </c>
-      <c r="O26">
-        <v>3</v>
-      </c>
-      <c r="P26">
-        <v>3</v>
-      </c>
-      <c r="Q26">
-        <v>-0.25</v>
-      </c>
-      <c r="R26">
-        <v>2</v>
-      </c>
-      <c r="S26">
-        <v>1.8</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
       <c r="U26">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2865,7 +2871,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K27">
         <v>2.375</v>
@@ -2954,7 +2960,7 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K28">
         <v>2.25</v>
@@ -3043,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K29">
         <v>6</v>
@@ -3132,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K30">
         <v>2.375</v>
@@ -3221,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K31">
         <v>2.2</v>
@@ -3310,7 +3316,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K32">
         <v>3.3</v>
@@ -3399,7 +3405,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K33">
         <v>2.3</v>
@@ -3488,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K34">
         <v>2.5</v>
@@ -3553,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6352262</v>
+        <v>6352922</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3565,76 +3571,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N35">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O35">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X35">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3642,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6352922</v>
+        <v>6352262</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3654,76 +3660,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N36">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P36">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3755,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K37">
         <v>2.1</v>
@@ -3844,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>2.5</v>
@@ -3933,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -4022,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K40">
         <v>1.533</v>
@@ -4111,7 +4117,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K41">
         <v>1.727</v>
@@ -4200,7 +4206,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K42">
         <v>1.727</v>
@@ -4289,7 +4295,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4378,7 +4384,7 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -4467,7 +4473,7 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K45">
         <v>1.95</v>
@@ -4532,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6353023</v>
+        <v>6352267</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4544,76 +4550,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L46">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M46">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O46">
+        <v>3.4</v>
+      </c>
+      <c r="P46">
         <v>2.75</v>
-      </c>
-      <c r="P46">
-        <v>3.4</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4645,7 +4651,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K47">
         <v>3.5</v>
@@ -4710,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6352267</v>
+        <v>6353023</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4722,76 +4728,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K48">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M48">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N48">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
+        <v>2.75</v>
+      </c>
+      <c r="P48">
         <v>3.4</v>
-      </c>
-      <c r="P48">
-        <v>2.75</v>
       </c>
       <c r="Q48">
         <v>-0.25</v>
       </c>
       <c r="R48">
+        <v>1.875</v>
+      </c>
+      <c r="S48">
+        <v>1.925</v>
+      </c>
+      <c r="T48">
+        <v>1.75</v>
+      </c>
+      <c r="U48">
+        <v>1.775</v>
+      </c>
+      <c r="V48">
         <v>2.025</v>
       </c>
-      <c r="S48">
-        <v>1.775</v>
-      </c>
-      <c r="T48">
-        <v>2.25</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X48">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4823,7 +4829,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K49">
         <v>2.35</v>
@@ -4912,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K50">
         <v>2.25</v>
@@ -5001,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -5090,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K52">
         <v>2.2</v>
@@ -5155,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6352927</v>
+        <v>6352270</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5167,73 +5173,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K53">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N53">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P53">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W53">
+        <v>0.833</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5244,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6352270</v>
+        <v>6352927</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5256,58 +5262,58 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
         <v>3</v>
       </c>
-      <c r="I54">
-        <v>1</v>
-      </c>
       <c r="J54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O54">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5316,13 +5322,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5357,7 +5363,7 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K55">
         <v>1.833</v>
@@ -5446,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K56">
         <v>2.1</v>
@@ -5535,7 +5541,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K57">
         <v>1.533</v>
@@ -5624,7 +5630,7 @@
         <v>4</v>
       </c>
       <c r="J58" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K58">
         <v>2.7</v>
@@ -5689,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6352272</v>
+        <v>6353329</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5701,76 +5707,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="N59">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P59">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
+        <v>1.925</v>
+      </c>
+      <c r="S59">
         <v>1.875</v>
       </c>
-      <c r="S59">
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>1.875</v>
+      </c>
+      <c r="V59">
         <v>1.925</v>
       </c>
-      <c r="T59">
-        <v>2.25</v>
-      </c>
-      <c r="U59">
-        <v>1.85</v>
-      </c>
-      <c r="V59">
-        <v>1.95</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5778,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6353329</v>
+        <v>6352272</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5790,76 +5796,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L60">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="N60">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P60">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R60">
+        <v>1.875</v>
+      </c>
+      <c r="S60">
         <v>1.925</v>
       </c>
-      <c r="S60">
-        <v>1.875</v>
-      </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z60">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5891,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K61">
         <v>2.375</v>
@@ -5980,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K62">
         <v>2.6</v>
@@ -6069,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6158,7 +6164,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K64">
         <v>1.8</v>
@@ -6247,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K65">
         <v>2.3</v>
@@ -6336,7 +6342,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -6425,7 +6431,7 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K67">
         <v>2.8</v>
@@ -6514,7 +6520,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K68">
         <v>1.727</v>
@@ -6603,7 +6609,7 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K69">
         <v>1.833</v>
@@ -6692,7 +6698,7 @@
         <v>4</v>
       </c>
       <c r="J70" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -6781,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K71">
         <v>1.571</v>
@@ -6870,7 +6876,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K72">
         <v>4</v>
@@ -6959,7 +6965,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K73">
         <v>4.8</v>
@@ -7024,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6352281</v>
+        <v>6352280</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7036,73 +7042,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N74">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AA74">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7113,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6352280</v>
+        <v>6352281</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7125,73 +7131,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7226,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K76">
         <v>3.4</v>
@@ -7315,7 +7321,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K77">
         <v>2.625</v>
@@ -7404,7 +7410,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K78">
         <v>2.2</v>
@@ -7493,7 +7499,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -7582,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K80">
         <v>1.909</v>
@@ -7671,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K81">
         <v>1.909</v>
@@ -7760,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K82">
         <v>2.3</v>
@@ -7849,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K83">
         <v>2.5</v>
@@ -7938,7 +7944,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K84">
         <v>1.666</v>
@@ -8027,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K85">
         <v>6</v>
@@ -8116,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K86">
         <v>3.6</v>
@@ -8205,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K87">
         <v>2.4</v>
@@ -8270,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6352941</v>
+        <v>6352287</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8282,73 +8288,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" t="s">
+        <v>49</v>
+      </c>
+      <c r="K88">
+        <v>2.4</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>2.75</v>
+      </c>
+      <c r="N88">
+        <v>1.8</v>
+      </c>
+      <c r="O88">
+        <v>3.25</v>
+      </c>
+      <c r="P88">
         <v>4</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="s">
-        <v>46</v>
-      </c>
-      <c r="K88">
-        <v>1.333</v>
-      </c>
-      <c r="L88">
-        <v>4.25</v>
-      </c>
-      <c r="M88">
-        <v>8</v>
-      </c>
-      <c r="N88">
-        <v>1.45</v>
-      </c>
-      <c r="O88">
-        <v>4</v>
-      </c>
-      <c r="P88">
-        <v>5.75</v>
-      </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
         <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8359,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6352287</v>
+        <v>6352941</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8371,73 +8377,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K89">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="M89">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="N89">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O89">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S89">
         <v>1.975</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X89">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB89">
-        <v>1</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8472,7 +8478,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K90">
         <v>1.909</v>
@@ -8561,7 +8567,7 @@
         <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K91">
         <v>2.25</v>
@@ -8650,7 +8656,7 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K92">
         <v>1.8</v>
@@ -8739,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K93">
         <v>2.3</v>
@@ -8828,7 +8834,7 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K94">
         <v>4.2</v>
@@ -8917,7 +8923,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K95">
         <v>2.4</v>
@@ -9006,7 +9012,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K96">
         <v>1.3</v>
@@ -9095,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K97">
         <v>1.444</v>
@@ -9184,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K98">
         <v>1.85</v>
@@ -9273,7 +9279,7 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K99">
         <v>1.833</v>
@@ -9362,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K100">
         <v>4</v>
@@ -9451,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K101">
         <v>3.25</v>
@@ -9540,7 +9546,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K102">
         <v>3.5</v>
@@ -9629,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K103">
         <v>1.833</v>
@@ -9718,7 +9724,7 @@
         <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K104">
         <v>2.1</v>
@@ -9807,7 +9813,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K105">
         <v>1.909</v>
@@ -9896,7 +9902,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K106">
         <v>1.615</v>
@@ -9985,7 +9991,7 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K107">
         <v>2.4</v>
@@ -10050,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6353018</v>
+        <v>6352296</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10062,10 +10068,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10074,43 +10080,43 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N108">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O108">
         <v>3.1</v>
       </c>
       <c r="P108">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10119,16 +10125,16 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.625</v>
+        <v>1.2</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB108">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10139,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6352296</v>
+        <v>6353018</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10151,10 +10157,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10163,43 +10169,43 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K109">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L109">
         <v>3.1</v>
       </c>
       <c r="M109">
+        <v>2.8</v>
+      </c>
+      <c r="N109">
         <v>2.4</v>
-      </c>
-      <c r="N109">
-        <v>3</v>
       </c>
       <c r="O109">
         <v>3.1</v>
       </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10208,16 +10214,16 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.2</v>
+        <v>1.625</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10228,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6352949</v>
+        <v>6352948</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10240,73 +10246,73 @@
         <v>45227.125</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>3</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K110">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N110">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P110">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X110">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10317,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6352948</v>
+        <v>6352949</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10329,73 +10335,73 @@
         <v>45227.125</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>3</v>
       </c>
       <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111" t="s">
+        <v>49</v>
+      </c>
+      <c r="K111">
+        <v>1.571</v>
+      </c>
+      <c r="L111">
+        <v>3.6</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
+      <c r="N111">
+        <v>1.363</v>
+      </c>
+      <c r="O111">
+        <v>4.75</v>
+      </c>
+      <c r="P111">
+        <v>6</v>
+      </c>
+      <c r="Q111">
+        <v>-1.25</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>2.5</v>
+      </c>
+      <c r="U111">
+        <v>1.85</v>
+      </c>
+      <c r="V111">
+        <v>1.95</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>3.75</v>
+      </c>
+      <c r="Y111">
+        <v>-1</v>
+      </c>
+      <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
         <v>1</v>
       </c>
-      <c r="J111" t="s">
-        <v>46</v>
-      </c>
-      <c r="K111">
-        <v>2</v>
-      </c>
-      <c r="L111">
-        <v>3.1</v>
-      </c>
-      <c r="M111">
-        <v>3.4</v>
-      </c>
-      <c r="N111">
-        <v>2.15</v>
-      </c>
-      <c r="O111">
-        <v>3.1</v>
-      </c>
-      <c r="P111">
-        <v>3.1</v>
-      </c>
-      <c r="Q111">
-        <v>-0.25</v>
-      </c>
-      <c r="R111">
-        <v>1.925</v>
-      </c>
-      <c r="S111">
-        <v>1.875</v>
-      </c>
-      <c r="T111">
-        <v>2.25</v>
-      </c>
-      <c r="U111">
-        <v>1.9</v>
-      </c>
-      <c r="V111">
-        <v>1.9</v>
-      </c>
-      <c r="W111">
-        <v>1.15</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
-      <c r="Z111">
-        <v>0.925</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10430,7 +10436,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K112">
         <v>1.615</v>
@@ -10519,7 +10525,7 @@
         <v>5</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K113">
         <v>2.8</v>
@@ -10608,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K114">
         <v>3.1</v>
@@ -10697,7 +10703,7 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K115">
         <v>5.5</v>
@@ -10786,7 +10792,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K116">
         <v>2.25</v>
@@ -10875,7 +10881,7 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K117">
         <v>3</v>
@@ -10940,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6353333</v>
+        <v>6352951</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10952,58 +10958,58 @@
         <v>45234.125</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K118">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L118">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N118">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P118">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
+        <v>1.825</v>
+      </c>
+      <c r="S118">
+        <v>1.975</v>
+      </c>
+      <c r="T118">
+        <v>2.5</v>
+      </c>
+      <c r="U118">
+        <v>1.875</v>
+      </c>
+      <c r="V118">
         <v>1.925</v>
       </c>
-      <c r="S118">
-        <v>1.875</v>
-      </c>
-      <c r="T118">
-        <v>2.25</v>
-      </c>
-      <c r="U118">
-        <v>1.85</v>
-      </c>
-      <c r="V118">
-        <v>1.95</v>
-      </c>
       <c r="W118">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11012,13 +11018,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11029,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6352951</v>
+        <v>6353333</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11041,58 +11047,58 @@
         <v>45234.125</v>
       </c>
       <c r="F119" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K119">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M119">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O119">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P119">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q119">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W119">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11101,13 +11107,13 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11142,7 +11148,7 @@
         <v>3</v>
       </c>
       <c r="J120" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K120">
         <v>3.8</v>
@@ -11231,7 +11237,7 @@
         <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K121">
         <v>2.1</v>
@@ -11320,7 +11326,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K122">
         <v>3.5</v>
@@ -11385,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352952</v>
+        <v>6352957</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11397,76 +11403,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K123">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L123">
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N123">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P123">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11474,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6352957</v>
+        <v>6352956</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11486,10 +11492,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -11498,64 +11504,64 @@
         <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
+        <v>2.9</v>
+      </c>
+      <c r="N124">
+        <v>2.75</v>
+      </c>
+      <c r="O124">
         <v>3.5</v>
       </c>
-      <c r="N124">
-        <v>1.45</v>
-      </c>
-      <c r="O124">
-        <v>4</v>
-      </c>
       <c r="P124">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T124">
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11587,7 +11593,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K125">
         <v>2.05</v>
@@ -11652,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6352956</v>
+        <v>6352952</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11664,76 +11670,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="s">
         <v>47</v>
       </c>
       <c r="K126">
+        <v>2.6</v>
+      </c>
+      <c r="L126">
+        <v>3.2</v>
+      </c>
+      <c r="M126">
+        <v>2.4</v>
+      </c>
+      <c r="N126">
+        <v>3.1</v>
+      </c>
+      <c r="O126">
+        <v>3.3</v>
+      </c>
+      <c r="P126">
         <v>2.05</v>
-      </c>
-      <c r="L126">
-        <v>3.5</v>
-      </c>
-      <c r="M126">
-        <v>2.9</v>
-      </c>
-      <c r="N126">
-        <v>2.75</v>
-      </c>
-      <c r="O126">
-        <v>3.5</v>
-      </c>
-      <c r="P126">
-        <v>2.15</v>
       </c>
       <c r="Q126">
         <v>0.25</v>
       </c>
       <c r="R126">
+        <v>1.95</v>
+      </c>
+      <c r="S126">
+        <v>1.85</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
         <v>1.8</v>
       </c>
-      <c r="S126">
-        <v>2</v>
-      </c>
-      <c r="T126">
-        <v>2.5</v>
-      </c>
-      <c r="U126">
-        <v>1.95</v>
-      </c>
       <c r="V126">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z126">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11765,7 +11771,7 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>2.2</v>
@@ -11845,7 +11851,7 @@
         <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11854,7 +11860,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K128">
         <v>1.909</v>
@@ -11914,12 +11920,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:29">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7866862</v>
+        <v>7873812</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11928,72 +11934,87 @@
         <v>28</v>
       </c>
       <c r="E129" s="2">
-        <v>45354.08333333334</v>
+        <v>45353.08333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>48</v>
       </c>
       <c r="K129">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="L129">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M129">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="N129">
-        <v>1.95</v>
+        <v>1.444</v>
       </c>
       <c r="O129">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="P129">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
+        <v>1.825</v>
+      </c>
+      <c r="T129">
+        <v>2.5</v>
+      </c>
+      <c r="U129">
         <v>1.8</v>
       </c>
-      <c r="T129">
-        <v>2.25</v>
-      </c>
-      <c r="U129">
-        <v>1.9</v>
-      </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W129">
-        <v>0</v>
+        <v>0.444</v>
       </c>
       <c r="X129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7866868</v>
+        <v>7866865</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12002,137 +12023,567 @@
         <v>28</v>
       </c>
       <c r="E130" s="2">
-        <v>45354.08333333334</v>
+        <v>45353.08333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>48</v>
       </c>
       <c r="K130">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N130">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="O130">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P130">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="Q130">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
+        <v>1.725</v>
+      </c>
+      <c r="S130">
+        <v>1.975</v>
+      </c>
+      <c r="T130">
+        <v>2</v>
+      </c>
+      <c r="U130">
+        <v>1.875</v>
+      </c>
+      <c r="V130">
         <v>1.925</v>
       </c>
-      <c r="S130">
-        <v>1.875</v>
-      </c>
-      <c r="T130">
-        <v>2.25</v>
-      </c>
-      <c r="U130">
-        <v>1.9</v>
-      </c>
-      <c r="V130">
-        <v>1.9</v>
-      </c>
       <c r="W130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="131" spans="1:29">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
+        <v>7866861</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45353.08333333334</v>
+      </c>
+      <c r="F131" t="s">
+        <v>40</v>
+      </c>
+      <c r="G131" t="s">
+        <v>30</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>49</v>
+      </c>
+      <c r="K131">
+        <v>2.8</v>
+      </c>
+      <c r="L131">
+        <v>3.1</v>
+      </c>
+      <c r="M131">
+        <v>2.3</v>
+      </c>
+      <c r="N131">
+        <v>2.7</v>
+      </c>
+      <c r="O131">
+        <v>3.1</v>
+      </c>
+      <c r="P131">
+        <v>2.375</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>2.025</v>
+      </c>
+      <c r="S131">
+        <v>1.775</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
+        <v>1.975</v>
+      </c>
+      <c r="V131">
+        <v>1.825</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
+        <v>2.1</v>
+      </c>
+      <c r="Y131">
+        <v>-1</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>-0</v>
+      </c>
+      <c r="AB131">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC131">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:29">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>7866860</v>
+      </c>
+      <c r="C132" t="s">
+        <v>28</v>
+      </c>
+      <c r="D132" t="s">
+        <v>28</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45353.08333333334</v>
+      </c>
+      <c r="F132" t="s">
+        <v>34</v>
+      </c>
+      <c r="G132" t="s">
+        <v>39</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>48</v>
+      </c>
+      <c r="K132">
+        <v>2.1</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>3.3</v>
+      </c>
+      <c r="N132">
+        <v>2.1</v>
+      </c>
+      <c r="O132">
+        <v>3</v>
+      </c>
+      <c r="P132">
+        <v>3.4</v>
+      </c>
+      <c r="Q132">
+        <v>-0.25</v>
+      </c>
+      <c r="R132">
+        <v>1.825</v>
+      </c>
+      <c r="S132">
+        <v>1.975</v>
+      </c>
+      <c r="T132">
+        <v>2</v>
+      </c>
+      <c r="U132">
+        <v>1.85</v>
+      </c>
+      <c r="V132">
+        <v>1.95</v>
+      </c>
+      <c r="W132">
+        <v>1.1</v>
+      </c>
+      <c r="X132">
+        <v>-1</v>
+      </c>
+      <c r="Y132">
+        <v>-1</v>
+      </c>
+      <c r="Z132">
+        <v>0.825</v>
+      </c>
+      <c r="AA132">
+        <v>-1</v>
+      </c>
+      <c r="AB132">
+        <v>-1</v>
+      </c>
+      <c r="AC132">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="133" spans="1:29">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>7900927</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45353.125</v>
+      </c>
+      <c r="F133" t="s">
+        <v>44</v>
+      </c>
+      <c r="G133" t="s">
+        <v>37</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
+      </c>
+      <c r="I133">
+        <v>2</v>
+      </c>
+      <c r="J133" t="s">
+        <v>47</v>
+      </c>
+      <c r="K133">
+        <v>3.6</v>
+      </c>
+      <c r="L133">
+        <v>3.2</v>
+      </c>
+      <c r="M133">
+        <v>1.909</v>
+      </c>
+      <c r="N133">
+        <v>3.6</v>
+      </c>
+      <c r="O133">
+        <v>3.2</v>
+      </c>
+      <c r="P133">
+        <v>1.909</v>
+      </c>
+      <c r="Q133">
+        <v>0.5</v>
+      </c>
+      <c r="R133">
+        <v>1.85</v>
+      </c>
+      <c r="S133">
+        <v>1.95</v>
+      </c>
+      <c r="T133">
+        <v>2.25</v>
+      </c>
+      <c r="U133">
+        <v>1.95</v>
+      </c>
+      <c r="V133">
+        <v>1.85</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
+        <v>-1</v>
+      </c>
+      <c r="Y133">
+        <v>0.909</v>
+      </c>
+      <c r="Z133">
+        <v>-1</v>
+      </c>
+      <c r="AA133">
+        <v>0.95</v>
+      </c>
+      <c r="AB133">
+        <v>0.95</v>
+      </c>
+      <c r="AC133">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:29">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
         <v>7866869</v>
       </c>
-      <c r="C131" t="s">
-        <v>28</v>
-      </c>
-      <c r="D131" t="s">
-        <v>28</v>
-      </c>
-      <c r="E131" s="2">
+      <c r="C134" t="s">
+        <v>28</v>
+      </c>
+      <c r="D134" t="s">
+        <v>28</v>
+      </c>
+      <c r="E134" s="2">
         <v>45354.08333333334</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F134" t="s">
         <v>31</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G134" t="s">
         <v>32</v>
       </c>
-      <c r="K131">
+      <c r="K134">
         <v>2.5</v>
       </c>
-      <c r="L131">
+      <c r="L134">
         <v>2.8</v>
       </c>
-      <c r="M131">
+      <c r="M134">
         <v>2.8</v>
       </c>
-      <c r="N131">
+      <c r="N134">
         <v>2.5</v>
       </c>
-      <c r="O131">
+      <c r="O134">
         <v>2.8</v>
       </c>
-      <c r="P131">
+      <c r="P134">
         <v>2.75</v>
       </c>
-      <c r="Q131">
-        <v>0</v>
-      </c>
-      <c r="R131">
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
         <v>1.8</v>
       </c>
-      <c r="S131">
-        <v>2</v>
-      </c>
-      <c r="T131">
-        <v>2</v>
-      </c>
-      <c r="U131">
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>2</v>
+      </c>
+      <c r="U134">
         <v>1.825</v>
       </c>
-      <c r="V131">
+      <c r="V134">
         <v>1.975</v>
       </c>
-      <c r="W131">
-        <v>0</v>
-      </c>
-      <c r="X131">
-        <v>0</v>
-      </c>
-      <c r="Y131">
-        <v>0</v>
-      </c>
-      <c r="Z131">
-        <v>0</v>
-      </c>
-      <c r="AA131">
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:29">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>7866868</v>
+      </c>
+      <c r="C135" t="s">
+        <v>28</v>
+      </c>
+      <c r="D135" t="s">
+        <v>28</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45354.08333333334</v>
+      </c>
+      <c r="F135" t="s">
+        <v>33</v>
+      </c>
+      <c r="G135" t="s">
+        <v>41</v>
+      </c>
+      <c r="K135">
+        <v>1.666</v>
+      </c>
+      <c r="L135">
+        <v>3.5</v>
+      </c>
+      <c r="M135">
+        <v>4.333</v>
+      </c>
+      <c r="N135">
+        <v>1.666</v>
+      </c>
+      <c r="O135">
+        <v>3.5</v>
+      </c>
+      <c r="P135">
+        <v>4.333</v>
+      </c>
+      <c r="Q135">
+        <v>-0.75</v>
+      </c>
+      <c r="R135">
+        <v>1.925</v>
+      </c>
+      <c r="S135">
+        <v>1.875</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>1.9</v>
+      </c>
+      <c r="V135">
+        <v>1.9</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:29">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>7866862</v>
+      </c>
+      <c r="C136" t="s">
+        <v>28</v>
+      </c>
+      <c r="D136" t="s">
+        <v>28</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45354.08333333334</v>
+      </c>
+      <c r="F136" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136" t="s">
+        <v>35</v>
+      </c>
+      <c r="K136">
+        <v>1.95</v>
+      </c>
+      <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
+        <v>3.5</v>
+      </c>
+      <c r="N136">
+        <v>1.95</v>
+      </c>
+      <c r="O136">
+        <v>3.2</v>
+      </c>
+      <c r="P136">
+        <v>3.5</v>
+      </c>
+      <c r="Q136">
+        <v>-0.5</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>1.8</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>1.9</v>
+      </c>
+      <c r="V136">
+        <v>1.9</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
         <v>0</v>
       </c>
     </row>

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,13 +112,13 @@
     <t>Yangpyeong FC</t>
   </si>
   <si>
-    <t>Ulsan Citizen FC</t>
+    <t>Daejeon Korail</t>
   </si>
   <si>
     <t>Gimhae City</t>
   </si>
   <si>
-    <t>Daejeon Korail</t>
+    <t>Ulsan Citizen FC</t>
   </si>
   <si>
     <t>Chuncheon FC</t>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6352246</v>
+        <v>6352244</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
         <v>3.1</v>
       </c>
       <c r="P5">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA5">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6352244</v>
+        <v>6352246</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,73 +1082,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N7">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="O7">
         <v>3.1</v>
       </c>
       <c r="P7">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="Q7">
+        <v>0.75</v>
+      </c>
+      <c r="R7">
+        <v>1.9</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1.8</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7">
+        <v>-1</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z7">
         <v>-0.5</v>
       </c>
-      <c r="R7">
-        <v>1.8</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>1.825</v>
-      </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
-      <c r="W7">
-        <v>0.8</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
-      <c r="Y7">
-        <v>-1</v>
-      </c>
-      <c r="Z7">
-        <v>0.8</v>
-      </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1527,7 +1527,7 @@
         <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6352251</v>
+        <v>6352908</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1702,76 +1702,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L14">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N14">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O14">
         <v>3</v>
       </c>
       <c r="P14">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R14">
+        <v>1.95</v>
+      </c>
+      <c r="S14">
+        <v>1.85</v>
+      </c>
+      <c r="T14">
+        <v>2.25</v>
+      </c>
+      <c r="U14">
         <v>2.025</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.775</v>
       </c>
-      <c r="T14">
-        <v>2</v>
-      </c>
-      <c r="U14">
-        <v>1.95</v>
-      </c>
-      <c r="V14">
-        <v>1.85</v>
-      </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y14">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
+        <v>-0</v>
+      </c>
+      <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
-      <c r="AC14">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6352908</v>
+        <v>6352251</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,76 +1791,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M15">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N15">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O15">
         <v>3</v>
       </c>
       <c r="P15">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
+        <v>2.025</v>
+      </c>
+      <c r="S15">
+        <v>1.775</v>
+      </c>
+      <c r="T15">
+        <v>2</v>
+      </c>
+      <c r="U15">
         <v>1.95</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
-      <c r="U15">
-        <v>2.025</v>
-      </c>
-      <c r="V15">
-        <v>1.775</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB15">
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1972,7 +1972,7 @@
         <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>45094.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>33</v>
@@ -2506,7 +2506,7 @@
         <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6352258</v>
+        <v>6352257</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N27">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
         <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC27">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6352257</v>
+        <v>6352258</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L28">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N28">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q28">
         <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3218,7 +3218,7 @@
         <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6352922</v>
+        <v>6352262</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,76 +3571,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M35">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N35">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P35">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6352262</v>
+        <v>6352922</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,76 +3660,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L36">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N36">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6441138</v>
+        <v>6353024</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,76 +3749,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>3.1</v>
+      </c>
+      <c r="M37">
+        <v>3.4</v>
+      </c>
+      <c r="N37">
+        <v>2.3</v>
+      </c>
+      <c r="O37">
         <v>3</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>48</v>
-      </c>
-      <c r="K37">
-        <v>2.1</v>
-      </c>
-      <c r="L37">
-        <v>3.2</v>
-      </c>
-      <c r="M37">
-        <v>3.1</v>
-      </c>
-      <c r="N37">
-        <v>2.15</v>
-      </c>
-      <c r="O37">
-        <v>3.2</v>
-      </c>
       <c r="P37">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6353024</v>
+        <v>6441138</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L39">
+        <v>3.2</v>
+      </c>
+      <c r="M39">
         <v>3.1</v>
       </c>
-      <c r="M39">
-        <v>3.4</v>
-      </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O39">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
         <v>2</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X39">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA39">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352923</v>
+        <v>6352264</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K40">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M40">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N40">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P40">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z40">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4108,7 +4108,7 @@
         <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6352264</v>
+        <v>6352923</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N42">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P42">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6352267</v>
+        <v>6353023</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N46">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O46">
+        <v>2.75</v>
+      </c>
+      <c r="P46">
         <v>3.4</v>
-      </c>
-      <c r="P46">
-        <v>2.75</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
+        <v>1.875</v>
+      </c>
+      <c r="S46">
+        <v>1.925</v>
+      </c>
+      <c r="T46">
+        <v>1.75</v>
+      </c>
+      <c r="U46">
+        <v>1.775</v>
+      </c>
+      <c r="V46">
         <v>2.025</v>
       </c>
-      <c r="S46">
-        <v>1.775</v>
-      </c>
-      <c r="T46">
-        <v>2.25</v>
-      </c>
-      <c r="U46">
-        <v>1.85</v>
-      </c>
-      <c r="V46">
-        <v>1.95</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X46">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6353023</v>
+        <v>6352267</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L48">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O48">
+        <v>3.4</v>
+      </c>
+      <c r="P48">
         <v>2.75</v>
-      </c>
-      <c r="P48">
-        <v>3.4</v>
       </c>
       <c r="Q48">
         <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T48">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6352926</v>
+        <v>6353327</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,37 +4817,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="L49">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N49">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P49">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q49">
         <v>0.25</v>
@@ -4862,31 +4862,31 @@
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z49">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6353327</v>
+        <v>6352926</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,37 +4906,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q50">
         <v>0.25</v>
@@ -4951,31 +4951,31 @@
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y50">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC50">
-        <v>0.7250000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4995,10 +4995,10 @@
         <v>45128.29166666666</v>
       </c>
       <c r="F51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" t="s">
         <v>34</v>
-      </c>
-      <c r="G51" t="s">
-        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5621,7 +5621,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6353329</v>
+        <v>6352272</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L59">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="N59">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R59">
+        <v>1.875</v>
+      </c>
+      <c r="S59">
         <v>1.925</v>
       </c>
-      <c r="S59">
-        <v>1.875</v>
-      </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6352272</v>
+        <v>6353329</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,76 +5796,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="N60">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="O60">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P60">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
+        <v>1.925</v>
+      </c>
+      <c r="S60">
         <v>1.875</v>
       </c>
-      <c r="S60">
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>1.875</v>
+      </c>
+      <c r="V60">
         <v>1.925</v>
       </c>
-      <c r="T60">
-        <v>2.25</v>
-      </c>
-      <c r="U60">
-        <v>1.85</v>
-      </c>
-      <c r="V60">
-        <v>1.95</v>
-      </c>
       <c r="W60">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
         <v>43</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6352931</v>
+        <v>6352274</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,34 +6063,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L63">
         <v>3</v>
       </c>
       <c r="M63">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N63">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
         <v>4</v>
@@ -6099,40 +6099,40 @@
         <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6352274</v>
+        <v>6352931</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,34 +6152,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L64">
         <v>3</v>
       </c>
       <c r="M64">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N64">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O64">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P64">
         <v>4</v>
@@ -6188,40 +6188,40 @@
         <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X64">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC64">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6241,7 +6241,7 @@
         <v>45156.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>42</v>
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6352277</v>
+        <v>6352933</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,10 +6419,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6434,40 +6434,40 @@
         <v>47</v>
       </c>
       <c r="K67">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L67">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M67">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O67">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P67">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
         <v>2</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6476,16 +6476,16 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6352933</v>
+        <v>6352277</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,10 +6508,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6523,40 +6523,40 @@
         <v>47</v>
       </c>
       <c r="K68">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N68">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O68">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P68">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
         <v>2</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6565,16 +6565,16 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6956,7 +6956,7 @@
         <v>38</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6352280</v>
+        <v>6352281</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,73 +7042,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6352281</v>
+        <v>6352280</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,73 +7131,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N75">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S75">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X75">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AA75">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7312,7 +7312,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7398,7 +7398,7 @@
         <v>45170.29166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>35</v>
@@ -7754,7 +7754,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>37</v>
@@ -8113,7 +8113,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6352287</v>
+        <v>6352941</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,73 +8288,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="M88">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="N88">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O88">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S88">
         <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X88">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB88">
-        <v>1</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6352941</v>
+        <v>6352287</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,73 +8377,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" t="s">
+        <v>49</v>
+      </c>
+      <c r="K89">
+        <v>2.4</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>2.75</v>
+      </c>
+      <c r="N89">
+        <v>1.8</v>
+      </c>
+      <c r="O89">
+        <v>3.25</v>
+      </c>
+      <c r="P89">
         <v>4</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>48</v>
-      </c>
-      <c r="K89">
-        <v>1.333</v>
-      </c>
-      <c r="L89">
-        <v>4.25</v>
-      </c>
-      <c r="M89">
-        <v>8</v>
-      </c>
-      <c r="N89">
-        <v>1.45</v>
-      </c>
-      <c r="O89">
-        <v>4</v>
-      </c>
-      <c r="P89">
-        <v>5.75</v>
-      </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
         <v>1.975</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8733,7 +8733,7 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>43</v>
@@ -8899,7 +8899,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6352291</v>
+        <v>6353019</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8911,13 +8911,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -8926,43 +8926,43 @@
         <v>48</v>
       </c>
       <c r="K95">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="L95">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M95">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="N95">
-        <v>2.55</v>
+        <v>1.4</v>
       </c>
       <c r="O95">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P95">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
         <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="V95">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
-        <v>1.55</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X95">
         <v>-1</v>
@@ -8971,13 +8971,13 @@
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.875</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA95">
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.9750000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AC95">
         <v>-1</v>
@@ -8988,7 +8988,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6353019</v>
+        <v>6352291</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -9000,13 +9000,13 @@
         <v>45185.20833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -9015,43 +9015,43 @@
         <v>48</v>
       </c>
       <c r="K96">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="L96">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M96">
-        <v>7</v>
+        <v>2.75</v>
       </c>
       <c r="N96">
-        <v>1.4</v>
+        <v>2.55</v>
       </c>
       <c r="O96">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P96">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q96">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
         <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W96">
-        <v>0.3999999999999999</v>
+        <v>1.55</v>
       </c>
       <c r="X96">
         <v>-1</v>
@@ -9060,13 +9060,13 @@
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.7250000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
         <v>-1</v>
       </c>
       <c r="AB96">
-        <v>0.75</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC96">
         <v>-1</v>
@@ -9267,7 +9267,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G99" t="s">
         <v>30</v>
@@ -9712,7 +9712,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
         <v>29</v>
@@ -10071,7 +10071,7 @@
         <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6352948</v>
+        <v>6352949</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,73 +10246,73 @@
         <v>45227.125</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>3</v>
       </c>
       <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110" t="s">
+        <v>49</v>
+      </c>
+      <c r="K110">
+        <v>1.571</v>
+      </c>
+      <c r="L110">
+        <v>3.6</v>
+      </c>
+      <c r="M110">
+        <v>5</v>
+      </c>
+      <c r="N110">
+        <v>1.363</v>
+      </c>
+      <c r="O110">
+        <v>4.75</v>
+      </c>
+      <c r="P110">
+        <v>6</v>
+      </c>
+      <c r="Q110">
+        <v>-1.25</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
+        <v>2</v>
+      </c>
+      <c r="T110">
+        <v>2.5</v>
+      </c>
+      <c r="U110">
+        <v>1.85</v>
+      </c>
+      <c r="V110">
+        <v>1.95</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>3.75</v>
+      </c>
+      <c r="Y110">
+        <v>-1</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
         <v>1</v>
       </c>
-      <c r="J110" t="s">
-        <v>48</v>
-      </c>
-      <c r="K110">
-        <v>2</v>
-      </c>
-      <c r="L110">
-        <v>3.1</v>
-      </c>
-      <c r="M110">
-        <v>3.4</v>
-      </c>
-      <c r="N110">
-        <v>2.15</v>
-      </c>
-      <c r="O110">
-        <v>3.1</v>
-      </c>
-      <c r="P110">
-        <v>3.1</v>
-      </c>
-      <c r="Q110">
-        <v>-0.25</v>
-      </c>
-      <c r="R110">
-        <v>1.925</v>
-      </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
-      <c r="T110">
-        <v>2.25</v>
-      </c>
-      <c r="U110">
-        <v>1.9</v>
-      </c>
-      <c r="V110">
-        <v>1.9</v>
-      </c>
-      <c r="W110">
-        <v>1.15</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
-      <c r="Z110">
-        <v>0.925</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6352949</v>
+        <v>6352948</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,73 +10335,73 @@
         <v>45227.125</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>3</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N111">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O111">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X111">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10427,7 +10427,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10602,7 +10602,7 @@
         <v>45233.125</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>37</v>
@@ -11139,7 +11139,7 @@
         <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6353334</v>
+        <v>6352958</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,49 +11225,49 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>47</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N121">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O121">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P121">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
         <v>0</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.675</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
         <v>1.925</v>
@@ -11282,19 +11282,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.55</v>
+        <v>1.875</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6352958</v>
+        <v>6352957</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,49 +11314,49 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H122">
         <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K122">
+        <v>1.95</v>
+      </c>
+      <c r="L122">
+        <v>3.2</v>
+      </c>
+      <c r="M122">
         <v>3.5</v>
       </c>
-      <c r="L122">
-        <v>3.25</v>
-      </c>
-      <c r="M122">
-        <v>1.909</v>
-      </c>
       <c r="N122">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="O122">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P122">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R122">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
         <v>1.925</v>
@@ -11368,16 +11368,16 @@
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y122">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
         <v>-1</v>
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352957</v>
+        <v>6352952</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H123">
         <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>1.95</v>
+        <v>2.6</v>
       </c>
       <c r="L123">
         <v>3.2</v>
       </c>
       <c r="M123">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="N123">
-        <v>1.45</v>
+        <v>3.1</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="Q123">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S123">
+        <v>1.85</v>
+      </c>
+      <c r="T123">
+        <v>2.25</v>
+      </c>
+      <c r="U123">
         <v>1.8</v>
       </c>
-      <c r="T123">
-        <v>2.5</v>
-      </c>
-      <c r="U123">
-        <v>1.925</v>
-      </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6352956</v>
+        <v>6353335</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
         <v>49</v>
       </c>
       <c r="K124">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M124">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="N124">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
         <v>1.8</v>
       </c>
-      <c r="S124">
-        <v>2</v>
-      </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC124">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6352953</v>
+        <v>6353334</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,76 +11581,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K125">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N125">
+        <v>2.375</v>
+      </c>
+      <c r="O125">
+        <v>3.3</v>
+      </c>
+      <c r="P125">
+        <v>2.55</v>
+      </c>
+      <c r="Q125">
+        <v>0</v>
+      </c>
+      <c r="R125">
         <v>1.8</v>
       </c>
-      <c r="O125">
-        <v>3.4</v>
-      </c>
-      <c r="P125">
-        <v>3.75</v>
-      </c>
-      <c r="Q125">
-        <v>-0.5</v>
-      </c>
-      <c r="R125">
-        <v>1.825</v>
-      </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T125">
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V125">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z125">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6352952</v>
+        <v>6352956</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H126">
         <v>0</v>
       </c>
       <c r="I126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K126">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M126">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="N126">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="O126">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="Q126">
         <v>0.25</v>
       </c>
       <c r="R126">
+        <v>1.8</v>
+      </c>
+      <c r="S126">
+        <v>2</v>
+      </c>
+      <c r="T126">
+        <v>2.5</v>
+      </c>
+      <c r="U126">
         <v>1.95</v>
       </c>
-      <c r="S126">
+      <c r="V126">
         <v>1.85</v>
       </c>
-      <c r="T126">
-        <v>2.25</v>
-      </c>
-      <c r="U126">
-        <v>1.8</v>
-      </c>
-      <c r="V126">
-        <v>2</v>
-      </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y126">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA126">
+        <v>-0.5</v>
+      </c>
+      <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB126">
-        <v>-1</v>
-      </c>
-      <c r="AC126">
-        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6353335</v>
+        <v>6352953</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,76 +11759,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L127">
         <v>3.25</v>
       </c>
       <c r="M127">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N127">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="O127">
         <v>3.4</v>
       </c>
       <c r="P127">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="Q127">
         <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
+        <v>1.975</v>
+      </c>
+      <c r="T127">
+        <v>2.5</v>
+      </c>
+      <c r="U127">
+        <v>2</v>
+      </c>
+      <c r="V127">
         <v>1.8</v>
       </c>
-      <c r="T127">
-        <v>2.25</v>
-      </c>
-      <c r="U127">
-        <v>1.775</v>
-      </c>
-      <c r="V127">
-        <v>2.025</v>
-      </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X127">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA127">
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>-1</v>
+      </c>
+      <c r="AC127">
         <v>0.8</v>
-      </c>
-      <c r="AB127">
-        <v>0.7749999999999999</v>
-      </c>
-      <c r="AC127">
-        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7873812</v>
+        <v>7866860</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,13 +11937,13 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11952,43 +11952,43 @@
         <v>48</v>
       </c>
       <c r="K129">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L129">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P129">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
+        <v>1.825</v>
+      </c>
+      <c r="S129">
         <v>1.975</v>
       </c>
-      <c r="S129">
-        <v>1.825</v>
-      </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11997,7 +11997,7 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA129">
         <v>-1</v>
@@ -12006,7 +12006,7 @@
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7866865</v>
+        <v>7866861</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L130">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M130">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N130">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O130">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P130">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S130">
+        <v>1.775</v>
+      </c>
+      <c r="T130">
+        <v>2.25</v>
+      </c>
+      <c r="U130">
         <v>1.975</v>
       </c>
-      <c r="T130">
-        <v>2</v>
-      </c>
-      <c r="U130">
-        <v>1.875</v>
-      </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC130">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7866861</v>
+        <v>7873812</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K131">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="L131">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M131">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N131">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O131">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P131">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X131">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7866860</v>
+        <v>7866865</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,10 +12204,10 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12219,28 +12219,28 @@
         <v>48</v>
       </c>
       <c r="K132">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L132">
         <v>3</v>
       </c>
       <c r="M132">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N132">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O132">
         <v>3</v>
       </c>
       <c r="P132">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S132">
         <v>1.975</v>
@@ -12249,13 +12249,13 @@
         <v>2</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12264,7 +12264,7 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA132">
         <v>-1</v>
@@ -12273,7 +12273,7 @@
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7866869</v>
+        <v>7866862</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,61 +12382,76 @@
         <v>45354.08333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" t="s">
+        <v>47</v>
       </c>
       <c r="K134">
+        <v>1.95</v>
+      </c>
+      <c r="L134">
+        <v>3.2</v>
+      </c>
+      <c r="M134">
+        <v>3.5</v>
+      </c>
+      <c r="N134">
+        <v>1.95</v>
+      </c>
+      <c r="O134">
+        <v>3.2</v>
+      </c>
+      <c r="P134">
+        <v>3.5</v>
+      </c>
+      <c r="Q134">
+        <v>-0.5</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>1.8</v>
+      </c>
+      <c r="T134">
+        <v>2.25</v>
+      </c>
+      <c r="U134">
+        <v>1.9</v>
+      </c>
+      <c r="V134">
+        <v>1.9</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>-1</v>
+      </c>
+      <c r="Y134">
         <v>2.5</v>
       </c>
-      <c r="L134">
-        <v>2.8</v>
-      </c>
-      <c r="M134">
-        <v>2.8</v>
-      </c>
-      <c r="N134">
-        <v>2.5</v>
-      </c>
-      <c r="O134">
-        <v>2.8</v>
-      </c>
-      <c r="P134">
-        <v>2.75</v>
-      </c>
-      <c r="Q134">
-        <v>0</v>
-      </c>
-      <c r="R134">
-        <v>1.8</v>
-      </c>
-      <c r="S134">
-        <v>2</v>
-      </c>
-      <c r="T134">
-        <v>2</v>
-      </c>
-      <c r="U134">
-        <v>1.825</v>
-      </c>
-      <c r="V134">
-        <v>1.975</v>
-      </c>
-      <c r="W134">
-        <v>0</v>
-      </c>
-      <c r="X134">
-        <v>0</v>
-      </c>
-      <c r="Y134">
-        <v>0</v>
-      </c>
       <c r="Z134">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12444,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7866868</v>
+        <v>7866869</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,61 +12471,76 @@
         <v>45354.08333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>47</v>
       </c>
       <c r="K135">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="L135">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="M135">
-        <v>4.333</v>
+        <v>2.8</v>
       </c>
       <c r="N135">
-        <v>1.666</v>
+        <v>2.5</v>
       </c>
       <c r="O135">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="P135">
-        <v>4.333</v>
+        <v>2.75</v>
       </c>
       <c r="Q135">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+      <c r="AC135">
+        <v>-0</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12518,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7866862</v>
+        <v>7866868</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12530,37 +12560,46 @@
         <v>45354.08333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>41</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>48</v>
       </c>
       <c r="K136">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M136">
+        <v>4.333</v>
+      </c>
+      <c r="N136">
+        <v>1.666</v>
+      </c>
+      <c r="O136">
         <v>3.5</v>
       </c>
-      <c r="N136">
-        <v>1.95</v>
-      </c>
-      <c r="O136">
-        <v>3.2</v>
-      </c>
       <c r="P136">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q136">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S136">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T136">
         <v>2.25</v>
@@ -12572,19 +12611,25 @@
         <v>1.9</v>
       </c>
       <c r="W136">
-        <v>0</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.4625</v>
       </c>
       <c r="AA136">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB136">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC136">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -1423,7 +1423,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6353027</v>
+        <v>6352250</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1435,46 +1435,46 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1.833</v>
       </c>
       <c r="L11">
+        <v>3.4</v>
+      </c>
+      <c r="M11">
+        <v>3.6</v>
+      </c>
+      <c r="N11">
+        <v>2.1</v>
+      </c>
+      <c r="O11">
         <v>3.25</v>
       </c>
-      <c r="M11">
-        <v>3.3</v>
-      </c>
-      <c r="N11">
-        <v>1.7</v>
-      </c>
-      <c r="O11">
-        <v>3.5</v>
-      </c>
       <c r="P11">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S11">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T11">
         <v>2.25</v>
@@ -1486,25 +1486,25 @@
         <v>1.725</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X11">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1512,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6352250</v>
+        <v>6353027</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1524,46 +1524,46 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K12">
-        <v>1.833</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M12">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="N12">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="O12">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R12">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T12">
         <v>2.25</v>
@@ -1575,25 +1575,25 @@
         <v>1.725</v>
       </c>
       <c r="W12">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB12">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6353026</v>
+        <v>6352252</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,76 +1969,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>49</v>
       </c>
       <c r="K17">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L17">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N17">
+        <v>2.625</v>
+      </c>
+      <c r="O17">
         <v>2.875</v>
       </c>
-      <c r="O17">
-        <v>3.25</v>
-      </c>
       <c r="P17">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6352252</v>
+        <v>6353026</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,76 +2147,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
       </c>
       <c r="K19">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="L19">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N19">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="O19">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6352256</v>
+        <v>6353326</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,55 +2592,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>1</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
       </c>
       <c r="J24" t="s">
         <v>47</v>
       </c>
       <c r="K24">
+        <v>2.2</v>
+      </c>
+      <c r="L24">
+        <v>3.25</v>
+      </c>
+      <c r="M24">
+        <v>2.8</v>
+      </c>
+      <c r="N24">
+        <v>2.3</v>
+      </c>
+      <c r="O24">
+        <v>3.25</v>
+      </c>
+      <c r="P24">
         <v>2.625</v>
       </c>
-      <c r="L24">
-        <v>3.2</v>
-      </c>
-      <c r="M24">
-        <v>2.375</v>
-      </c>
-      <c r="N24">
-        <v>2.1</v>
-      </c>
-      <c r="O24">
-        <v>3.2</v>
-      </c>
-      <c r="P24">
-        <v>3.1</v>
-      </c>
       <c r="Q24">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T24">
         <v>2.25</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2649,19 +2649,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6353326</v>
+        <v>6352256</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,55 +2770,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
       </c>
       <c r="K26">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L26">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N26">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O26">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P26">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2827,19 +2827,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6352262</v>
+        <v>6352922</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,76 +3571,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N35">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O35">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X35">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6352922</v>
+        <v>6352262</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,76 +3660,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N36">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P36">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6353024</v>
+        <v>6441138</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,76 +3749,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L37">
+        <v>3.2</v>
+      </c>
+      <c r="M37">
         <v>3.1</v>
       </c>
-      <c r="M37">
-        <v>3.4</v>
-      </c>
       <c r="N37">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P37">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q37">
         <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
         <v>2</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA37">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3826,7 +3826,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6352263</v>
+        <v>6353024</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3838,10 +3838,10 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3853,34 +3853,34 @@
         <v>49</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N38">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P38">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="Q38">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S38">
         <v>1.75</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
         <v>1.95</v>
@@ -3892,16 +3892,16 @@
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB38">
         <v>-1</v>
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6441138</v>
+        <v>6352263</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
         <v>3.2</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352264</v>
+        <v>6352923</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,76 +4016,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K40">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N40">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="O40">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6352923</v>
+        <v>6352264</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N42">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O42">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6353023</v>
+        <v>6352267</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L46">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M46">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N46">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O46">
+        <v>3.4</v>
+      </c>
+      <c r="P46">
         <v>2.75</v>
-      </c>
-      <c r="P46">
-        <v>3.4</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U46">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC46">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6352267</v>
+        <v>6353023</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K48">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M48">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N48">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O48">
+        <v>2.75</v>
+      </c>
+      <c r="P48">
         <v>3.4</v>
-      </c>
-      <c r="P48">
-        <v>2.75</v>
       </c>
       <c r="Q48">
         <v>-0.25</v>
       </c>
       <c r="R48">
+        <v>1.875</v>
+      </c>
+      <c r="S48">
+        <v>1.925</v>
+      </c>
+      <c r="T48">
+        <v>1.75</v>
+      </c>
+      <c r="U48">
+        <v>1.775</v>
+      </c>
+      <c r="V48">
         <v>2.025</v>
       </c>
-      <c r="S48">
-        <v>1.775</v>
-      </c>
-      <c r="T48">
-        <v>2.25</v>
-      </c>
-      <c r="U48">
-        <v>1.85</v>
-      </c>
-      <c r="V48">
-        <v>1.95</v>
-      </c>
       <c r="W48">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X48">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA48">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6353327</v>
+        <v>6352926</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,37 +4817,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K49">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M49">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N49">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O49">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q49">
         <v>0.25</v>
@@ -4862,31 +4862,31 @@
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y49">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC49">
-        <v>0.7250000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6352926</v>
+        <v>6353327</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,37 +4906,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N50">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q50">
         <v>0.25</v>
@@ -4951,31 +4951,31 @@
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z50">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6352270</v>
+        <v>6352927</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,58 +5173,58 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
         <v>3</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
       </c>
       <c r="K53">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L53">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O53">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S53">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V53">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5233,13 +5233,13 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6352927</v>
+        <v>6352270</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,73 +5262,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>48</v>
       </c>
       <c r="K54">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M54">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N54">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O54">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P54">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W54">
+        <v>0.833</v>
+      </c>
+      <c r="X54">
+        <v>-1</v>
+      </c>
+      <c r="Y54">
+        <v>-1</v>
+      </c>
+      <c r="Z54">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X54">
-        <v>-1</v>
-      </c>
-      <c r="Y54">
-        <v>-1</v>
-      </c>
-      <c r="Z54">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6352283</v>
+        <v>6352284</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,46 +7665,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K81">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L81">
         <v>3.1</v>
       </c>
       <c r="M81">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N81">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O81">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P81">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q81">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T81">
         <v>2.25</v>
@@ -7716,19 +7716,19 @@
         <v>1.825</v>
       </c>
       <c r="W81">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
         <v>-0.5</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6352284</v>
+        <v>6352283</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7754,46 +7754,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K82">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L82">
         <v>3.1</v>
       </c>
       <c r="M82">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N82">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O82">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P82">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
         <v>2.25</v>
@@ -7805,19 +7805,19 @@
         <v>1.825</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X82">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-0.5</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6352290</v>
+        <v>6352289</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,58 +8733,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>48</v>
       </c>
       <c r="K93">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="N93">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O93">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P93">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="Q93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U93">
+        <v>1.875</v>
+      </c>
+      <c r="V93">
         <v>1.925</v>
       </c>
-      <c r="V93">
-        <v>1.875</v>
-      </c>
       <c r="W93">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8793,16 +8793,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC93">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6352289</v>
+        <v>6352290</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,58 +8822,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J94" t="s">
         <v>48</v>
       </c>
       <c r="K94">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M94">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N94">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O94">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P94">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="Q94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S94">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T94">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U94">
+        <v>1.925</v>
+      </c>
+      <c r="V94">
         <v>1.875</v>
       </c>
-      <c r="V94">
-        <v>1.925</v>
-      </c>
       <c r="W94">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8882,16 +8882,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
+        <v>-1</v>
+      </c>
+      <c r="AC94">
         <v>0.875</v>
-      </c>
-      <c r="AC94">
-        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6352295</v>
+        <v>6352294</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,46 +9623,46 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N103">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>2.25</v>
@@ -9680,19 +9680,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6352294</v>
+        <v>6352295</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,46 +9712,46 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>47</v>
       </c>
       <c r="K104">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O104">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2.25</v>
@@ -9769,19 +9769,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6352296</v>
+        <v>6353018</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,10 +10068,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10083,40 +10083,40 @@
         <v>47</v>
       </c>
       <c r="K108">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
+        <v>2.8</v>
+      </c>
+      <c r="N108">
         <v>2.4</v>
-      </c>
-      <c r="N108">
-        <v>3</v>
       </c>
       <c r="O108">
         <v>3.1</v>
       </c>
       <c r="P108">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10125,16 +10125,16 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.2</v>
+        <v>1.625</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6353018</v>
+        <v>6352296</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,40 +10172,40 @@
         <v>47</v>
       </c>
       <c r="K109">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L109">
         <v>3.1</v>
       </c>
       <c r="M109">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N109">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O109">
         <v>3.1</v>
       </c>
       <c r="P109">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10214,16 +10214,16 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.625</v>
+        <v>1.2</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB109">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6352958</v>
+        <v>6353334</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,49 +11225,49 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
         <v>47</v>
       </c>
       <c r="K121">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N121">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O121">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P121">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="Q121">
         <v>0</v>
       </c>
       <c r="R121">
-        <v>1.675</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
         <v>1.925</v>
@@ -11282,19 +11282,19 @@
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.875</v>
+        <v>1.55</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC121">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6352957</v>
+        <v>6353335</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,40 +11314,40 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
         <v>49</v>
       </c>
       <c r="K122">
+        <v>2.2</v>
+      </c>
+      <c r="L122">
+        <v>3.25</v>
+      </c>
+      <c r="M122">
+        <v>2.8</v>
+      </c>
+      <c r="N122">
         <v>1.95</v>
       </c>
-      <c r="L122">
+      <c r="O122">
+        <v>3.4</v>
+      </c>
+      <c r="P122">
         <v>3.2</v>
       </c>
-      <c r="M122">
-        <v>3.5</v>
-      </c>
-      <c r="N122">
-        <v>1.45</v>
-      </c>
-      <c r="O122">
-        <v>4</v>
-      </c>
-      <c r="P122">
-        <v>6</v>
-      </c>
       <c r="Q122">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R122">
         <v>2</v>
@@ -11356,19 +11356,19 @@
         <v>1.8</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y122">
         <v>-1</v>
@@ -11380,10 +11380,10 @@
         <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC122">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352952</v>
+        <v>6352953</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K123">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L123">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M123">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N123">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="O123">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="P123">
-        <v>2.05</v>
+        <v>3.75</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S123">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
+        <v>2</v>
+      </c>
+      <c r="V123">
         <v>1.8</v>
       </c>
-      <c r="V123">
-        <v>2</v>
-      </c>
       <c r="W123">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA123">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6353335</v>
+        <v>6352952</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L124">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N124">
+        <v>3.1</v>
+      </c>
+      <c r="O124">
+        <v>3.3</v>
+      </c>
+      <c r="P124">
+        <v>2.05</v>
+      </c>
+      <c r="Q124">
+        <v>0.25</v>
+      </c>
+      <c r="R124">
         <v>1.95</v>
       </c>
-      <c r="O124">
-        <v>3.4</v>
-      </c>
-      <c r="P124">
-        <v>3.2</v>
-      </c>
-      <c r="Q124">
-        <v>-0.5</v>
-      </c>
-      <c r="R124">
-        <v>2</v>
-      </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T124">
         <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6353334</v>
+        <v>6352958</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,49 +11581,49 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
         <v>47</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M125">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="N125">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>2.55</v>
+        <v>2.875</v>
       </c>
       <c r="Q125">
         <v>0</v>
       </c>
       <c r="R125">
-        <v>1.8</v>
+        <v>1.675</v>
       </c>
       <c r="S125">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U125">
         <v>1.925</v>
@@ -11638,19 +11638,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.55</v>
+        <v>1.875</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6352956</v>
+        <v>6352957</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,10 +11670,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11685,61 +11685,61 @@
         <v>49</v>
       </c>
       <c r="K126">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L126">
+        <v>3.2</v>
+      </c>
+      <c r="M126">
         <v>3.5</v>
       </c>
-      <c r="M126">
-        <v>2.9</v>
-      </c>
       <c r="N126">
-        <v>2.75</v>
+        <v>1.45</v>
       </c>
       <c r="O126">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="Q126">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
+        <v>2</v>
+      </c>
+      <c r="S126">
         <v>1.8</v>
-      </c>
-      <c r="S126">
-        <v>2</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA126">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB126">
         <v>-1</v>
       </c>
       <c r="AC126">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6352953</v>
+        <v>6352956</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,76 +11759,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
         <v>2.05</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M127">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N127">
+        <v>2.75</v>
+      </c>
+      <c r="O127">
+        <v>3.5</v>
+      </c>
+      <c r="P127">
+        <v>2.15</v>
+      </c>
+      <c r="Q127">
+        <v>0.25</v>
+      </c>
+      <c r="R127">
         <v>1.8</v>
       </c>
-      <c r="O127">
-        <v>3.4</v>
-      </c>
-      <c r="P127">
-        <v>3.75</v>
-      </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>1.825</v>
-      </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T127">
         <v>2.5</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7866861</v>
+        <v>7873812</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K130">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="L130">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M130">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N130">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O130">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P130">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X130">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7873812</v>
+        <v>7866865</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,13 +12115,13 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G131" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12130,43 +12130,43 @@
         <v>48</v>
       </c>
       <c r="K131">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="L131">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M131">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O131">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P131">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
+        <v>1.725</v>
+      </c>
+      <c r="S131">
         <v>1.975</v>
       </c>
-      <c r="S131">
-        <v>1.825</v>
-      </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U131">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>0.444</v>
+        <v>1</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12175,7 +12175,7 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA131">
         <v>-1</v>
@@ -12184,7 +12184,7 @@
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7866865</v>
+        <v>7866861</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K132">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M132">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="O132">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P132">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R132">
-        <v>1.725</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
+        <v>1.775</v>
+      </c>
+      <c r="T132">
+        <v>2.25</v>
+      </c>
+      <c r="U132">
         <v>1.975</v>
       </c>
-      <c r="T132">
-        <v>2</v>
-      </c>
-      <c r="U132">
-        <v>1.875</v>
-      </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W132">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.7250000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7866862</v>
+        <v>7866869</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,55 +12382,55 @@
         <v>45354.08333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>47</v>
       </c>
       <c r="K134">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L134">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M134">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N134">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P134">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC134">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7866869</v>
+        <v>7866862</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45354.08333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
         <v>47</v>
       </c>
       <c r="K135">
+        <v>1.95</v>
+      </c>
+      <c r="L135">
+        <v>3.2</v>
+      </c>
+      <c r="M135">
+        <v>3.5</v>
+      </c>
+      <c r="N135">
+        <v>1.95</v>
+      </c>
+      <c r="O135">
+        <v>3.2</v>
+      </c>
+      <c r="P135">
+        <v>3.5</v>
+      </c>
+      <c r="Q135">
+        <v>-0.5</v>
+      </c>
+      <c r="R135">
+        <v>2</v>
+      </c>
+      <c r="S135">
+        <v>1.8</v>
+      </c>
+      <c r="T135">
+        <v>2.25</v>
+      </c>
+      <c r="U135">
+        <v>1.9</v>
+      </c>
+      <c r="V135">
+        <v>1.9</v>
+      </c>
+      <c r="W135">
+        <v>-1</v>
+      </c>
+      <c r="X135">
+        <v>-1</v>
+      </c>
+      <c r="Y135">
         <v>2.5</v>
       </c>
-      <c r="L135">
-        <v>2.8</v>
-      </c>
-      <c r="M135">
-        <v>2.8</v>
-      </c>
-      <c r="N135">
-        <v>2.5</v>
-      </c>
-      <c r="O135">
-        <v>2.8</v>
-      </c>
-      <c r="P135">
-        <v>2.75</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-      <c r="R135">
-        <v>1.8</v>
-      </c>
-      <c r="S135">
-        <v>2</v>
-      </c>
-      <c r="T135">
-        <v>2</v>
-      </c>
-      <c r="U135">
-        <v>1.825</v>
-      </c>
-      <c r="V135">
-        <v>1.975</v>
-      </c>
-      <c r="W135">
-        <v>-1</v>
-      </c>
-      <c r="X135">
-        <v>-1</v>
-      </c>
-      <c r="Y135">
-        <v>1.75</v>
-      </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC135">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:29">

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -112,13 +112,13 @@
     <t>Yangpyeong FC</t>
   </si>
   <si>
+    <t>Ulsan Citizen FC</t>
+  </si>
+  <si>
     <t>Daejeon Korail</t>
   </si>
   <si>
     <t>Gimhae City</t>
-  </si>
-  <si>
-    <t>Ulsan Citizen FC</t>
   </si>
   <si>
     <t>Chuncheon FC</t>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6352244</v>
+        <v>6352246</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>1.909</v>
       </c>
       <c r="N5">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="O5">
         <v>3.1</v>
       </c>
       <c r="P5">
-        <v>4.2</v>
+        <v>1.666</v>
       </c>
       <c r="Q5">
+        <v>0.75</v>
+      </c>
+      <c r="R5">
+        <v>1.9</v>
+      </c>
+      <c r="S5">
+        <v>1.9</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5">
+        <v>1.8</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z5">
         <v>-0.5</v>
       </c>
-      <c r="R5">
-        <v>1.8</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5">
-        <v>1.825</v>
-      </c>
-      <c r="V5">
-        <v>1.975</v>
-      </c>
-      <c r="W5">
-        <v>0.8</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
-      <c r="Z5">
-        <v>0.8</v>
-      </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB5">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6352245</v>
+        <v>6352244</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,55 +993,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
       </c>
       <c r="K6">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N6">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q6">
         <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U6">
+        <v>1.825</v>
+      </c>
+      <c r="V6">
         <v>1.975</v>
       </c>
-      <c r="V6">
-        <v>1.825</v>
-      </c>
       <c r="W6">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1050,13 +1050,13 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6352246</v>
+        <v>6352245</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,73 +1082,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L7">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>1.909</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>1.727</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="Q7">
+        <v>-0.5</v>
+      </c>
+      <c r="R7">
+        <v>1.75</v>
+      </c>
+      <c r="S7">
+        <v>1.95</v>
+      </c>
+      <c r="T7">
+        <v>2.25</v>
+      </c>
+      <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
+        <v>1.825</v>
+      </c>
+      <c r="W7">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X7">
+        <v>-1</v>
+      </c>
+      <c r="Y7">
+        <v>-1</v>
+      </c>
+      <c r="Z7">
         <v>0.75</v>
       </c>
-      <c r="R7">
-        <v>1.9</v>
-      </c>
-      <c r="S7">
-        <v>1.9</v>
-      </c>
-      <c r="T7">
-        <v>2</v>
-      </c>
-      <c r="U7">
-        <v>1.8</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <v>-1</v>
-      </c>
-      <c r="X7">
-        <v>-1</v>
-      </c>
-      <c r="Y7">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="Z7">
-        <v>-0.5</v>
-      </c>
       <c r="AA7">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1438,7 +1438,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6352908</v>
+        <v>6352251</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1702,76 +1702,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K14">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L14">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M14">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="N14">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="O14">
         <v>3</v>
       </c>
       <c r="P14">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
+        <v>2.025</v>
+      </c>
+      <c r="S14">
+        <v>1.775</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14">
         <v>1.95</v>
       </c>
-      <c r="S14">
+      <c r="V14">
         <v>1.85</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
-      <c r="U14">
-        <v>2.025</v>
-      </c>
-      <c r="V14">
-        <v>1.775</v>
-      </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB14">
         <v>-1</v>
       </c>
       <c r="AC14">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1779,7 +1779,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6352251</v>
+        <v>6352908</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1791,76 +1791,76 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K15">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M15">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="O15">
         <v>3</v>
       </c>
       <c r="P15">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>1.95</v>
+      </c>
+      <c r="S15">
+        <v>1.85</v>
+      </c>
+      <c r="T15">
+        <v>2.25</v>
+      </c>
+      <c r="U15">
         <v>2.025</v>
       </c>
-      <c r="S15">
+      <c r="V15">
         <v>1.775</v>
       </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>1.95</v>
-      </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y15">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA15">
+        <v>-0</v>
+      </c>
+      <c r="AB15">
+        <v>-1</v>
+      </c>
+      <c r="AC15">
         <v>0.7749999999999999</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6352252</v>
+        <v>6353026</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,76 +1969,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>49</v>
       </c>
       <c r="K17">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="L17">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N17">
-        <v>2.625</v>
+        <v>2.875</v>
       </c>
       <c r="O17">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="P17">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>1.875</v>
+        <v>2.25</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6352253</v>
+        <v>6352252</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,76 +2058,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>49</v>
       </c>
       <c r="K18">
-        <v>1.333</v>
+        <v>2.375</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="P18">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U18">
+        <v>1.85</v>
+      </c>
+      <c r="V18">
+        <v>1.95</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
         <v>1.875</v>
       </c>
-      <c r="V18">
-        <v>1.925</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>2.8</v>
-      </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC18">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6353026</v>
+        <v>6352253</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,10 +2147,10 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2162,61 +2162,61 @@
         <v>49</v>
       </c>
       <c r="K19">
+        <v>1.333</v>
+      </c>
+      <c r="L19">
+        <v>5</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>1.571</v>
+      </c>
+      <c r="O19">
         <v>3.8</v>
       </c>
-      <c r="L19">
-        <v>3.25</v>
-      </c>
-      <c r="M19">
-        <v>1.833</v>
-      </c>
-      <c r="N19">
-        <v>2.875</v>
-      </c>
-      <c r="O19">
-        <v>3.25</v>
-      </c>
       <c r="P19">
-        <v>2.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB19">
         <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.4</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2236,10 +2236,10 @@
         <v>45094.29166666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2506,7 +2506,7 @@
         <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6353326</v>
+        <v>6352921</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+      <c r="K24">
+        <v>1.8</v>
+      </c>
+      <c r="L24">
+        <v>3.1</v>
+      </c>
+      <c r="M24">
+        <v>4.2</v>
+      </c>
+      <c r="N24">
+        <v>2.25</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>3</v>
+      </c>
+      <c r="Q24">
+        <v>-0.25</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>1.8</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>1.725</v>
+      </c>
+      <c r="V24">
+        <v>1.975</v>
+      </c>
+      <c r="W24">
+        <v>1.25</v>
+      </c>
+      <c r="X24">
+        <v>-1</v>
+      </c>
+      <c r="Y24">
+        <v>-1</v>
+      </c>
+      <c r="Z24">
         <v>1</v>
       </c>
-      <c r="J24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24">
-        <v>2.2</v>
-      </c>
-      <c r="L24">
-        <v>3.25</v>
-      </c>
-      <c r="M24">
-        <v>2.8</v>
-      </c>
-      <c r="N24">
-        <v>2.3</v>
-      </c>
-      <c r="O24">
-        <v>3.25</v>
-      </c>
-      <c r="P24">
-        <v>2.625</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>1.775</v>
-      </c>
-      <c r="S24">
-        <v>2.025</v>
-      </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
-      <c r="U24">
-        <v>1.925</v>
-      </c>
-      <c r="V24">
-        <v>1.875</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
-      <c r="Y24">
-        <v>1.625</v>
-      </c>
-      <c r="Z24">
-        <v>-1</v>
-      </c>
       <c r="AA24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6352921</v>
+        <v>6353326</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,76 +2681,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="N25">
+        <v>2.3</v>
+      </c>
+      <c r="O25">
+        <v>3.25</v>
+      </c>
+      <c r="P25">
+        <v>2.625</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.775</v>
+      </c>
+      <c r="S25">
+        <v>2.025</v>
+      </c>
+      <c r="T25">
         <v>2.25</v>
       </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>3</v>
-      </c>
-      <c r="Q25">
-        <v>-0.25</v>
-      </c>
-      <c r="R25">
-        <v>2</v>
-      </c>
-      <c r="S25">
-        <v>1.8</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
       <c r="U25">
-        <v>1.725</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2862,7 +2862,7 @@
         <v>43</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2948,7 +2948,7 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3218,7 +3218,7 @@
         <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6352922</v>
+        <v>6352262</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,76 +3571,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M35">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N35">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O35">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P35">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q35">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W35">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6352262</v>
+        <v>6352922</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,76 +3660,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L36">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N36">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P36">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R36">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S36">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X36">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA36">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB36">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6441138</v>
+        <v>6352263</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,76 +3749,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L37">
         <v>3.2</v>
       </c>
       <c r="M37">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N37">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O37">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P37">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q37">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R37">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S37">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V37">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W37">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6352263</v>
+        <v>6441138</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L39">
         <v>3.2</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q39">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X39">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6352265</v>
+        <v>6352264</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K41">
         <v>1.727</v>
       </c>
       <c r="L41">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="N41">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O41">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P41">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
+        <v>1.9</v>
+      </c>
+      <c r="S41">
+        <v>1.9</v>
+      </c>
+      <c r="T41">
+        <v>2</v>
+      </c>
+      <c r="U41">
         <v>1.925</v>
       </c>
-      <c r="S41">
+      <c r="V41">
         <v>1.875</v>
       </c>
-      <c r="T41">
-        <v>2</v>
-      </c>
-      <c r="U41">
-        <v>1.95</v>
-      </c>
-      <c r="V41">
-        <v>1.85</v>
-      </c>
       <c r="W41">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z41">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB41">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6352264</v>
+        <v>6352265</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K42">
         <v>1.727</v>
       </c>
       <c r="L42">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M42">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N42">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O42">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P42">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q42">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R42">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S42">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T42">
         <v>2</v>
       </c>
       <c r="U42">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V42">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA42">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4553,7 +4553,7 @@
         <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -4728,7 +4728,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G48" t="s">
         <v>35</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6352926</v>
+        <v>6353327</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,37 +4817,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K49">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="L49">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N49">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O49">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P49">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q49">
         <v>0.25</v>
@@ -4862,31 +4862,31 @@
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z49">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6353327</v>
+        <v>6352926</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,37 +4906,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K50">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M50">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N50">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O50">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q50">
         <v>0.25</v>
@@ -4951,31 +4951,31 @@
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y50">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA50">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC50">
-        <v>0.7250000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4995,10 +4995,10 @@
         <v>45128.29166666666</v>
       </c>
       <c r="F51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" t="s">
         <v>32</v>
-      </c>
-      <c r="G51" t="s">
-        <v>34</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5161,7 +5161,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6352927</v>
+        <v>6352270</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5173,73 +5173,73 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>48</v>
       </c>
       <c r="K53">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L53">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M53">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N53">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P53">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q53">
         <v>-0.5</v>
       </c>
       <c r="R53">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S53">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W53">
+        <v>0.833</v>
+      </c>
+      <c r="X53">
+        <v>-1</v>
+      </c>
+      <c r="Y53">
+        <v>-1</v>
+      </c>
+      <c r="Z53">
         <v>0.8500000000000001</v>
       </c>
-      <c r="X53">
-        <v>-1</v>
-      </c>
-      <c r="Y53">
-        <v>-1</v>
-      </c>
-      <c r="Z53">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC53">
         <v>-1</v>
@@ -5250,7 +5250,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6352270</v>
+        <v>6352927</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5262,58 +5262,58 @@
         <v>45129.29166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H54">
+        <v>4</v>
+      </c>
+      <c r="I54">
         <v>3</v>
-      </c>
-      <c r="I54">
-        <v>1</v>
       </c>
       <c r="J54" t="s">
         <v>48</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L54">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N54">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O54">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P54">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q54">
         <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S54">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>0.833</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5322,13 +5322,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6353328</v>
+        <v>6353022</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,61 +5440,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L56">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N56">
+        <v>1.5</v>
+      </c>
+      <c r="O56">
+        <v>3.5</v>
+      </c>
+      <c r="P56">
+        <v>6</v>
+      </c>
+      <c r="Q56">
+        <v>-1</v>
+      </c>
+      <c r="R56">
+        <v>1.875</v>
+      </c>
+      <c r="S56">
+        <v>1.925</v>
+      </c>
+      <c r="T56">
         <v>2.5</v>
       </c>
-      <c r="O56">
-        <v>2.9</v>
-      </c>
-      <c r="P56">
-        <v>2.9</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="R56">
-        <v>1.775</v>
-      </c>
-      <c r="S56">
-        <v>2.025</v>
-      </c>
-      <c r="T56">
-        <v>2</v>
-      </c>
       <c r="U56">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V56">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W56">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X56">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5506,10 +5506,10 @@
         <v>-0</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6353022</v>
+        <v>6353328</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,61 +5529,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L57">
+        <v>2.9</v>
+      </c>
+      <c r="M57">
         <v>3.4</v>
       </c>
-      <c r="M57">
-        <v>6</v>
-      </c>
       <c r="N57">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P57">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U57">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W57">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X57">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5595,10 +5595,10 @@
         <v>-0</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5974,7 +5974,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>43</v>
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6352274</v>
+        <v>6352931</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,34 +6063,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K63">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L63">
         <v>3</v>
       </c>
       <c r="M63">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N63">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O63">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P63">
         <v>4</v>
@@ -6099,40 +6099,40 @@
         <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V63">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X63">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC63">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6352931</v>
+        <v>6352274</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,34 +6152,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K64">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L64">
         <v>3</v>
       </c>
       <c r="M64">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N64">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O64">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P64">
         <v>4</v>
@@ -6188,40 +6188,40 @@
         <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V64">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6241,7 +6241,7 @@
         <v>45156.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>42</v>
@@ -6511,7 +6511,7 @@
         <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6852,7 +6852,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6353330</v>
+        <v>6352279</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6864,76 +6864,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K72">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="L72">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>1.833</v>
+        <v>1.615</v>
       </c>
       <c r="N72">
-        <v>2.375</v>
+        <v>3.5</v>
       </c>
       <c r="O72">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P72">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="W72">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z72">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC72">
-        <v>0.7749999999999999</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6352279</v>
+        <v>6353330</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6953,76 +6953,76 @@
         <v>45164.20833333334</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K73">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M73">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="N73">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="O73">
-        <v>3.3</v>
+        <v>2.875</v>
       </c>
       <c r="P73">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q73">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S73">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U73">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V73">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>0.425</v>
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6352281</v>
+        <v>6352280</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,73 +7042,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N74">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AA74">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6352280</v>
+        <v>6352281</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,73 +7131,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7312,7 +7312,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7398,7 +7398,7 @@
         <v>45170.29166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
         <v>35</v>
@@ -7665,7 +7665,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
         <v>37</v>
@@ -7754,7 +7754,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -8113,7 +8113,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8377,10 +8377,10 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -8721,7 +8721,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6352289</v>
+        <v>6352290</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8733,58 +8733,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>48</v>
       </c>
       <c r="K93">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M93">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="N93">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="O93">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P93">
-        <v>1.571</v>
+        <v>2.625</v>
       </c>
       <c r="Q93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U93">
+        <v>1.925</v>
+      </c>
+      <c r="V93">
         <v>1.875</v>
       </c>
-      <c r="V93">
-        <v>1.925</v>
-      </c>
       <c r="W93">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8793,16 +8793,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
+        <v>-1</v>
+      </c>
+      <c r="AC93">
         <v>0.875</v>
-      </c>
-      <c r="AC93">
-        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8810,7 +8810,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6352290</v>
+        <v>6352289</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8822,58 +8822,58 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>48</v>
       </c>
       <c r="K94">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="L94">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M94">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="N94">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="O94">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="P94">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="Q94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S94">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T94">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U94">
+        <v>1.875</v>
+      </c>
+      <c r="V94">
         <v>1.925</v>
       </c>
-      <c r="V94">
-        <v>1.875</v>
-      </c>
       <c r="W94">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="X94">
         <v>-1</v>
@@ -8882,16 +8882,16 @@
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA94">
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC94">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -9267,7 +9267,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>30</v>
@@ -9623,7 +9623,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G103" t="s">
         <v>29</v>
@@ -9712,7 +9712,7 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
         <v>42</v>
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6353018</v>
+        <v>6352296</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,10 +10068,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10083,40 +10083,40 @@
         <v>47</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N108">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O108">
         <v>3.1</v>
       </c>
       <c r="P108">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10125,16 +10125,16 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.625</v>
+        <v>1.2</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB108">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6352296</v>
+        <v>6353018</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,40 +10172,40 @@
         <v>47</v>
       </c>
       <c r="K109">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L109">
         <v>3.1</v>
       </c>
       <c r="M109">
+        <v>2.8</v>
+      </c>
+      <c r="N109">
         <v>2.4</v>
-      </c>
-      <c r="N109">
-        <v>3</v>
       </c>
       <c r="O109">
         <v>3.1</v>
       </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10214,16 +10214,16 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.2</v>
+        <v>1.625</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6352949</v>
+        <v>6352948</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,73 +10246,73 @@
         <v>45227.125</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H110">
         <v>3</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K110">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N110">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P110">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q110">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X110">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA110">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6352948</v>
+        <v>6352949</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,73 +10335,73 @@
         <v>45227.125</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H111">
         <v>3</v>
       </c>
       <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111" t="s">
+        <v>49</v>
+      </c>
+      <c r="K111">
+        <v>1.571</v>
+      </c>
+      <c r="L111">
+        <v>3.6</v>
+      </c>
+      <c r="M111">
+        <v>5</v>
+      </c>
+      <c r="N111">
+        <v>1.363</v>
+      </c>
+      <c r="O111">
+        <v>4.75</v>
+      </c>
+      <c r="P111">
+        <v>6</v>
+      </c>
+      <c r="Q111">
+        <v>-1.25</v>
+      </c>
+      <c r="R111">
+        <v>1.8</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <v>2.5</v>
+      </c>
+      <c r="U111">
+        <v>1.85</v>
+      </c>
+      <c r="V111">
+        <v>1.95</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>3.75</v>
+      </c>
+      <c r="Y111">
+        <v>-1</v>
+      </c>
+      <c r="Z111">
+        <v>-1</v>
+      </c>
+      <c r="AA111">
         <v>1</v>
       </c>
-      <c r="J111" t="s">
-        <v>48</v>
-      </c>
-      <c r="K111">
-        <v>2</v>
-      </c>
-      <c r="L111">
-        <v>3.1</v>
-      </c>
-      <c r="M111">
-        <v>3.4</v>
-      </c>
-      <c r="N111">
-        <v>2.15</v>
-      </c>
-      <c r="O111">
-        <v>3.1</v>
-      </c>
-      <c r="P111">
-        <v>3.1</v>
-      </c>
-      <c r="Q111">
-        <v>-0.25</v>
-      </c>
-      <c r="R111">
-        <v>1.925</v>
-      </c>
-      <c r="S111">
-        <v>1.875</v>
-      </c>
-      <c r="T111">
-        <v>2.25</v>
-      </c>
-      <c r="U111">
-        <v>1.9</v>
-      </c>
-      <c r="V111">
-        <v>1.9</v>
-      </c>
-      <c r="W111">
-        <v>1.15</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
-      <c r="Z111">
-        <v>0.925</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
       <c r="AB111">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10427,7 +10427,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10516,7 +10516,7 @@
         <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>45233.125</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
         <v>37</v>
@@ -10872,7 +10872,7 @@
         <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11139,7 +11139,7 @@
         <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6353334</v>
+        <v>6352956</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,40 +11225,40 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M121">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N121">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O121">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P121">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
         <v>1.8</v>
@@ -11270,31 +11270,31 @@
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y121">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA121">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6353335</v>
+        <v>6352952</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,76 +11314,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K122">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L122">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M122">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N122">
+        <v>3.1</v>
+      </c>
+      <c r="O122">
+        <v>3.3</v>
+      </c>
+      <c r="P122">
+        <v>2.05</v>
+      </c>
+      <c r="Q122">
+        <v>0.25</v>
+      </c>
+      <c r="R122">
         <v>1.95</v>
       </c>
-      <c r="O122">
-        <v>3.4</v>
-      </c>
-      <c r="P122">
-        <v>3.2</v>
-      </c>
-      <c r="Q122">
-        <v>-0.5</v>
-      </c>
-      <c r="R122">
-        <v>2</v>
-      </c>
       <c r="S122">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V122">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352953</v>
+        <v>6352958</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,76 +11403,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K123">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L123">
         <v>3.25</v>
       </c>
       <c r="M123">
+        <v>1.909</v>
+      </c>
+      <c r="N123">
+        <v>2.25</v>
+      </c>
+      <c r="O123">
         <v>3.1</v>
       </c>
-      <c r="N123">
-        <v>1.8</v>
-      </c>
-      <c r="O123">
-        <v>3.4</v>
-      </c>
       <c r="P123">
-        <v>3.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.825</v>
+        <v>1.675</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>2.15</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W123">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="AB123">
         <v>-1</v>
       </c>
       <c r="AC123">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6352952</v>
+        <v>6352957</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,76 +11492,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K124">
-        <v>2.6</v>
+        <v>1.95</v>
       </c>
       <c r="L124">
         <v>3.2</v>
       </c>
       <c r="M124">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="N124">
-        <v>3.1</v>
+        <v>1.45</v>
       </c>
       <c r="O124">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y124">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
         <v>-1</v>
       </c>
       <c r="AC124">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6352958</v>
+        <v>6353334</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,49 +11581,49 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J125" t="s">
         <v>47</v>
       </c>
       <c r="K125">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M125">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N125">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P125">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="Q125">
         <v>0</v>
       </c>
       <c r="R125">
-        <v>1.675</v>
+        <v>1.8</v>
       </c>
       <c r="S125">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
         <v>1.925</v>
@@ -11638,19 +11638,19 @@
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>1.875</v>
+        <v>1.55</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6352957</v>
+        <v>6353335</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,40 +11670,40 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>49</v>
       </c>
       <c r="K126">
+        <v>2.2</v>
+      </c>
+      <c r="L126">
+        <v>3.25</v>
+      </c>
+      <c r="M126">
+        <v>2.8</v>
+      </c>
+      <c r="N126">
         <v>1.95</v>
       </c>
-      <c r="L126">
+      <c r="O126">
+        <v>3.4</v>
+      </c>
+      <c r="P126">
         <v>3.2</v>
       </c>
-      <c r="M126">
-        <v>3.5</v>
-      </c>
-      <c r="N126">
-        <v>1.45</v>
-      </c>
-      <c r="O126">
-        <v>4</v>
-      </c>
-      <c r="P126">
-        <v>6</v>
-      </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
         <v>2</v>
@@ -11712,19 +11712,19 @@
         <v>1.8</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="Y126">
         <v>-1</v>
@@ -11736,10 +11736,10 @@
         <v>0.8</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC126">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6352956</v>
+        <v>6352953</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11762,73 +11762,73 @@
         <v>34</v>
       </c>
       <c r="G127" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K127">
         <v>2.05</v>
       </c>
       <c r="L127">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N127">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O127">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q127">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S127">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T127">
         <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V127">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W127">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X127">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA127">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7866860</v>
+        <v>7873812</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,13 +11937,13 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11952,43 +11952,43 @@
         <v>48</v>
       </c>
       <c r="K129">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M129">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="N129">
-        <v>2.1</v>
+        <v>1.444</v>
       </c>
       <c r="O129">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P129">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
+        <v>1.975</v>
+      </c>
+      <c r="S129">
         <v>1.825</v>
       </c>
-      <c r="S129">
-        <v>1.975</v>
-      </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W129">
-        <v>1.1</v>
+        <v>0.444</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11997,7 +11997,7 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA129">
         <v>-1</v>
@@ -12006,7 +12006,7 @@
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7873812</v>
+        <v>7866861</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K130">
-        <v>1.444</v>
+        <v>2.8</v>
       </c>
       <c r="L130">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="M130">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="N130">
-        <v>1.444</v>
+        <v>2.7</v>
       </c>
       <c r="O130">
-        <v>4.333</v>
+        <v>3.1</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R130">
+        <v>2.025</v>
+      </c>
+      <c r="S130">
+        <v>1.775</v>
+      </c>
+      <c r="T130">
+        <v>2.25</v>
+      </c>
+      <c r="U130">
         <v>1.975</v>
       </c>
-      <c r="S130">
+      <c r="V130">
         <v>1.825</v>
       </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
-      <c r="U130">
-        <v>1.8</v>
-      </c>
-      <c r="V130">
-        <v>2</v>
-      </c>
       <c r="W130">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>-0</v>
+      </c>
+      <c r="AB130">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA130">
-        <v>-1</v>
-      </c>
-      <c r="AB130">
-        <v>-1</v>
-      </c>
       <c r="AC130">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7866865</v>
+        <v>7866860</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,10 +12115,10 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -12130,28 +12130,28 @@
         <v>48</v>
       </c>
       <c r="K131">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L131">
         <v>3</v>
       </c>
       <c r="M131">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N131">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O131">
         <v>3</v>
       </c>
       <c r="P131">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
         <v>1.975</v>
@@ -12160,13 +12160,13 @@
         <v>2</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W131">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12175,7 +12175,7 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
         <v>-1</v>
@@ -12184,7 +12184,7 @@
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7866861</v>
+        <v>7866865</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,76 +12204,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K132">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="L132">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N132">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="O132">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P132">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q132">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>1.725</v>
       </c>
       <c r="S132">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T132">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U132">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X132">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA132">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7866869</v>
+        <v>7866868</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,76 +12382,76 @@
         <v>45354.08333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K134">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L134">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="M134">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N134">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O134">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P134">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q134">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R134">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S134">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T134">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U134">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC134">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7866868</v>
+        <v>7866869</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,76 +12560,76 @@
         <v>45354.08333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>47</v>
+      </c>
+      <c r="K136">
+        <v>2.5</v>
+      </c>
+      <c r="L136">
+        <v>2.8</v>
+      </c>
+      <c r="M136">
+        <v>2.8</v>
+      </c>
+      <c r="N136">
+        <v>2.5</v>
+      </c>
+      <c r="O136">
+        <v>2.8</v>
+      </c>
+      <c r="P136">
+        <v>2.75</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>1.8</v>
+      </c>
+      <c r="S136">
+        <v>2</v>
+      </c>
+      <c r="T136">
+        <v>2</v>
+      </c>
+      <c r="U136">
+        <v>1.825</v>
+      </c>
+      <c r="V136">
+        <v>1.975</v>
+      </c>
+      <c r="W136">
+        <v>-1</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>1.75</v>
+      </c>
+      <c r="Z136">
+        <v>-1</v>
+      </c>
+      <c r="AA136">
         <v>1</v>
       </c>
-      <c r="J136" t="s">
-        <v>48</v>
-      </c>
-      <c r="K136">
-        <v>1.666</v>
-      </c>
-      <c r="L136">
-        <v>3.5</v>
-      </c>
-      <c r="M136">
-        <v>4.333</v>
-      </c>
-      <c r="N136">
-        <v>1.666</v>
-      </c>
-      <c r="O136">
-        <v>3.5</v>
-      </c>
-      <c r="P136">
-        <v>4.333</v>
-      </c>
-      <c r="Q136">
-        <v>-0.75</v>
-      </c>
-      <c r="R136">
-        <v>1.925</v>
-      </c>
-      <c r="S136">
-        <v>1.875</v>
-      </c>
-      <c r="T136">
-        <v>2.25</v>
-      </c>
-      <c r="U136">
-        <v>1.9</v>
-      </c>
-      <c r="V136">
-        <v>1.9</v>
-      </c>
-      <c r="W136">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>-1</v>
-      </c>
-      <c r="Z136">
-        <v>0.4625</v>
-      </c>
-      <c r="AA136">
-        <v>-0.5</v>
-      </c>
       <c r="AB136">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC136">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -115,10 +115,10 @@
     <t>Ulsan Citizen FC</t>
   </si>
   <si>
-    <t>Daejeon Korail</t>
+    <t>Gimhae City</t>
   </si>
   <si>
-    <t>Gimhae City</t>
+    <t>Daejeon Korail</t>
   </si>
   <si>
     <t>Chuncheon FC</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC136"/>
+  <dimension ref="A1:AC140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6352244</v>
+        <v>6352245</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,55 +993,55 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>48</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M6">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O6">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q6">
         <v>-0.5</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
+        <v>1.975</v>
+      </c>
+      <c r="V6">
         <v>1.825</v>
       </c>
-      <c r="V6">
-        <v>1.975</v>
-      </c>
       <c r="W6">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1050,13 +1050,13 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC6">
         <v>-1</v>
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6352245</v>
+        <v>6352244</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,55 +1082,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
       <c r="K7">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P7">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q7">
         <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U7">
+        <v>1.825</v>
+      </c>
+      <c r="V7">
         <v>1.975</v>
       </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
       <c r="W7">
-        <v>0.7270000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1139,13 +1139,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1438,7 +1438,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6353026</v>
+        <v>6352252</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,76 +1969,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>49</v>
       </c>
       <c r="K17">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L17">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M17">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N17">
+        <v>2.625</v>
+      </c>
+      <c r="O17">
         <v>2.875</v>
       </c>
-      <c r="O17">
-        <v>3.25</v>
-      </c>
       <c r="P17">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q17">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6352252</v>
+        <v>6352253</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,76 +2058,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>49</v>
       </c>
       <c r="K18">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18">
+        <v>6</v>
+      </c>
+      <c r="N18">
+        <v>1.571</v>
+      </c>
+      <c r="O18">
+        <v>3.8</v>
+      </c>
+      <c r="P18">
+        <v>4.75</v>
+      </c>
+      <c r="Q18">
+        <v>-0.75</v>
+      </c>
+      <c r="R18">
+        <v>1.775</v>
+      </c>
+      <c r="S18">
+        <v>2.025</v>
+      </c>
+      <c r="T18">
+        <v>2.25</v>
+      </c>
+      <c r="U18">
+        <v>1.875</v>
+      </c>
+      <c r="V18">
+        <v>1.925</v>
+      </c>
+      <c r="W18">
+        <v>-1</v>
+      </c>
+      <c r="X18">
         <v>2.8</v>
       </c>
-      <c r="M18">
-        <v>3</v>
-      </c>
-      <c r="N18">
-        <v>2.625</v>
-      </c>
-      <c r="O18">
-        <v>2.875</v>
-      </c>
-      <c r="P18">
-        <v>2.55</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>1.95</v>
-      </c>
-      <c r="S18">
-        <v>1.85</v>
-      </c>
-      <c r="T18">
-        <v>2</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>1.875</v>
-      </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6352253</v>
+        <v>6353026</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,10 +2147,10 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2162,61 +2162,61 @@
         <v>49</v>
       </c>
       <c r="K19">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="N19">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O19">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R19">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA19">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB19">
         <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2236,10 +2236,10 @@
         <v>45094.29166666666</v>
       </c>
       <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
         <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>34</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6353326</v>
+        <v>6352256</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,55 +2681,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>47</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>2.8</v>
+        <v>2.375</v>
       </c>
       <c r="N25">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="O25">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P25">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.25</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2738,19 +2738,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1.625</v>
+        <v>2.1</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2758,7 +2758,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6352256</v>
+        <v>6353326</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2770,55 +2770,55 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>1</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
       </c>
       <c r="J26" t="s">
         <v>47</v>
       </c>
       <c r="K26">
+        <v>2.2</v>
+      </c>
+      <c r="L26">
+        <v>3.25</v>
+      </c>
+      <c r="M26">
+        <v>2.8</v>
+      </c>
+      <c r="N26">
+        <v>2.3</v>
+      </c>
+      <c r="O26">
+        <v>3.25</v>
+      </c>
+      <c r="P26">
         <v>2.625</v>
       </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
-      <c r="M26">
-        <v>2.375</v>
-      </c>
-      <c r="N26">
-        <v>2.1</v>
-      </c>
-      <c r="O26">
-        <v>3.2</v>
-      </c>
-      <c r="P26">
-        <v>3.1</v>
-      </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
         <v>2.25</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2827,19 +2827,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>2.1</v>
+        <v>1.625</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6352257</v>
+        <v>6352258</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F27" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L27">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M27">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N27">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O27">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q27">
         <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S27">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T27">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y27">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA27">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB27">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6352258</v>
+        <v>6352257</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F28" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" t="s">
         <v>33</v>
-      </c>
-      <c r="G28" t="s">
-        <v>30</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K28">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L28">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M28">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N28">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P28">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q28">
         <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB28">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC28">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3396,7 +3396,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3737,7 +3737,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6352263</v>
+        <v>6441138</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3749,76 +3749,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L37">
         <v>3.2</v>
       </c>
       <c r="M37">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N37">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="O37">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P37">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q37">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R37">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S37">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.85</v>
+        <v>1.725</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X37">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA37">
         <v>-1</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3915,7 +3915,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6441138</v>
+        <v>6352263</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3927,76 +3927,76 @@
         <v>45115.20833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
         <v>3.2</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>1.725</v>
+        <v>1.85</v>
       </c>
       <c r="W39">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352923</v>
+        <v>6352265</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,58 +4016,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
       </c>
       <c r="K40">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L40">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M40">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="N40">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P40">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q40">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>0.3999999999999999</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4076,16 +4076,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.9750000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC40">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6352265</v>
+        <v>6352923</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,58 +4194,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="s">
         <v>48</v>
       </c>
       <c r="K42">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L42">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M42">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N42">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="O42">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P42">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q42">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R42">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U42">
+        <v>1.75</v>
+      </c>
+      <c r="V42">
         <v>1.95</v>
       </c>
-      <c r="V42">
-        <v>1.85</v>
-      </c>
       <c r="W42">
-        <v>0.6659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4254,16 +4254,16 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA42">
+        <v>-1</v>
+      </c>
+      <c r="AB42">
         <v>-0.5</v>
       </c>
-      <c r="AB42">
-        <v>0.95</v>
-      </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6352267</v>
+        <v>6353023</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4550,76 +4550,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K46">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L46">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="M46">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="N46">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O46">
+        <v>2.75</v>
+      </c>
+      <c r="P46">
         <v>3.4</v>
-      </c>
-      <c r="P46">
-        <v>2.75</v>
       </c>
       <c r="Q46">
         <v>-0.25</v>
       </c>
       <c r="R46">
+        <v>1.875</v>
+      </c>
+      <c r="S46">
+        <v>1.925</v>
+      </c>
+      <c r="T46">
+        <v>1.75</v>
+      </c>
+      <c r="U46">
+        <v>1.775</v>
+      </c>
+      <c r="V46">
         <v>2.025</v>
       </c>
-      <c r="S46">
-        <v>1.775</v>
-      </c>
-      <c r="T46">
-        <v>2.25</v>
-      </c>
-      <c r="U46">
-        <v>1.85</v>
-      </c>
-      <c r="V46">
-        <v>1.95</v>
-      </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X46">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA46">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.475</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6353023</v>
+        <v>6352267</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4728,76 +4728,76 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L48">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="M48">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N48">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="O48">
+        <v>3.4</v>
+      </c>
+      <c r="P48">
         <v>2.75</v>
-      </c>
-      <c r="P48">
-        <v>3.4</v>
       </c>
       <c r="Q48">
         <v>-0.25</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T48">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC48">
-        <v>1.025</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4995,7 +4995,7 @@
         <v>45128.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -5428,7 +5428,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6353022</v>
+        <v>6353328</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5440,61 +5440,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H56">
         <v>1</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K56">
-        <v>1.533</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
+        <v>2.9</v>
+      </c>
+      <c r="M56">
         <v>3.4</v>
       </c>
-      <c r="M56">
-        <v>6</v>
-      </c>
       <c r="N56">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="O56">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="P56">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="Q56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U56">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W56">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5506,10 +5506,10 @@
         <v>-0</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>0.75</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5517,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6353328</v>
+        <v>6353022</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5529,61 +5529,61 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K57">
-        <v>2.1</v>
+        <v>1.533</v>
       </c>
       <c r="L57">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N57">
+        <v>1.5</v>
+      </c>
+      <c r="O57">
+        <v>3.5</v>
+      </c>
+      <c r="P57">
+        <v>6</v>
+      </c>
+      <c r="Q57">
+        <v>-1</v>
+      </c>
+      <c r="R57">
+        <v>1.875</v>
+      </c>
+      <c r="S57">
+        <v>1.925</v>
+      </c>
+      <c r="T57">
         <v>2.5</v>
       </c>
-      <c r="O57">
-        <v>2.9</v>
-      </c>
-      <c r="P57">
-        <v>2.9</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="R57">
-        <v>1.775</v>
-      </c>
-      <c r="S57">
-        <v>2.025</v>
-      </c>
-      <c r="T57">
-        <v>2</v>
-      </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V57">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X57">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
@@ -5595,10 +5595,10 @@
         <v>-0</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5621,7 +5621,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6352272</v>
+        <v>6353329</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K59">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L59">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M59">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="N59">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="O59">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P59">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q59">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R59">
+        <v>1.925</v>
+      </c>
+      <c r="S59">
         <v>1.875</v>
       </c>
-      <c r="S59">
+      <c r="T59">
+        <v>2</v>
+      </c>
+      <c r="U59">
+        <v>1.875</v>
+      </c>
+      <c r="V59">
         <v>1.925</v>
       </c>
-      <c r="T59">
-        <v>2.25</v>
-      </c>
-      <c r="U59">
-        <v>1.85</v>
-      </c>
-      <c r="V59">
-        <v>1.95</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA59">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6353329</v>
+        <v>6352272</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,76 +5796,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K60">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L60">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M60">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="N60">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="O60">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P60">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q60">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R60">
+        <v>1.875</v>
+      </c>
+      <c r="S60">
         <v>1.925</v>
       </c>
-      <c r="S60">
-        <v>1.875</v>
-      </c>
       <c r="T60">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U60">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z60">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA60">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -6051,7 +6051,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6352931</v>
+        <v>6352274</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6063,34 +6063,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L63">
         <v>3</v>
       </c>
       <c r="M63">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N63">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O63">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P63">
         <v>4</v>
@@ -6099,40 +6099,40 @@
         <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T63">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V63">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6352274</v>
+        <v>6352931</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6152,34 +6152,34 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L64">
         <v>3</v>
       </c>
       <c r="M64">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N64">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="O64">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P64">
         <v>4</v>
@@ -6188,40 +6188,40 @@
         <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V64">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X64">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC64">
-        <v>0.75</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6241,7 +6241,7 @@
         <v>45156.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G65" t="s">
         <v>42</v>
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6352933</v>
+        <v>6352277</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,10 +6419,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F67" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6434,40 +6434,40 @@
         <v>47</v>
       </c>
       <c r="K67">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L67">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M67">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N67">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O67">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P67">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q67">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T67">
         <v>2</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6476,16 +6476,16 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6352277</v>
+        <v>6352933</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,10 +6508,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6523,40 +6523,40 @@
         <v>47</v>
       </c>
       <c r="K68">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L68">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M68">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O68">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P68">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R68">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T68">
         <v>2</v>
       </c>
       <c r="U68">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6565,16 +6565,16 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB68">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6352280</v>
+        <v>6352281</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,73 +7042,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K74">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N74">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O74">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P74">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R74">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S74">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U74">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB74">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6352281</v>
+        <v>6352280</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,73 +7131,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K75">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L75">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M75">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N75">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O75">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P75">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q75">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R75">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S75">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V75">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X75">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AA75">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7312,7 +7312,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7398,7 +7398,7 @@
         <v>45170.29166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>35</v>
@@ -7754,7 +7754,7 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>40</v>
@@ -8113,7 +8113,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6352941</v>
+        <v>6352287</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,73 +8288,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88" t="s">
+        <v>49</v>
+      </c>
+      <c r="K88">
+        <v>2.4</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>2.75</v>
+      </c>
+      <c r="N88">
+        <v>1.8</v>
+      </c>
+      <c r="O88">
+        <v>3.25</v>
+      </c>
+      <c r="P88">
         <v>4</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88" t="s">
-        <v>48</v>
-      </c>
-      <c r="K88">
-        <v>1.333</v>
-      </c>
-      <c r="L88">
-        <v>4.25</v>
-      </c>
-      <c r="M88">
-        <v>8</v>
-      </c>
-      <c r="N88">
-        <v>1.45</v>
-      </c>
-      <c r="O88">
-        <v>4</v>
-      </c>
-      <c r="P88">
-        <v>5.75</v>
-      </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S88">
         <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W88">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6352287</v>
+        <v>6352941</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,73 +8377,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K89">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="M89">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="N89">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O89">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P89">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R89">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S89">
         <v>1.975</v>
       </c>
       <c r="T89">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U89">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X89">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA89">
+        <v>-1</v>
+      </c>
+      <c r="AB89">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB89">
-        <v>1</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8733,7 +8733,7 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
         <v>43</v>
@@ -8825,7 +8825,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6352294</v>
+        <v>6352295</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9623,46 +9623,46 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
         <v>1</v>
-      </c>
-      <c r="I103">
-        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L103">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M103">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O103">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P103">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
         <v>2.25</v>
@@ -9680,19 +9680,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6352295</v>
+        <v>6352294</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,46 +9712,46 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>47</v>
       </c>
       <c r="K104">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L104">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N104">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O104">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P104">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q104">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T104">
         <v>2.25</v>
@@ -9769,19 +9769,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6352296</v>
+        <v>6353018</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,10 +10068,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10083,40 +10083,40 @@
         <v>47</v>
       </c>
       <c r="K108">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
+        <v>2.8</v>
+      </c>
+      <c r="N108">
         <v>2.4</v>
-      </c>
-      <c r="N108">
-        <v>3</v>
       </c>
       <c r="O108">
         <v>3.1</v>
       </c>
       <c r="P108">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10125,16 +10125,16 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.2</v>
+        <v>1.625</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6353018</v>
+        <v>6352296</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,40 +10172,40 @@
         <v>47</v>
       </c>
       <c r="K109">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L109">
         <v>3.1</v>
       </c>
       <c r="M109">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N109">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O109">
         <v>3.1</v>
       </c>
       <c r="P109">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V109">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10214,16 +10214,16 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.625</v>
+        <v>1.2</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB109">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10516,7 +10516,7 @@
         <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>45233.125</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G114" t="s">
         <v>37</v>
@@ -10872,7 +10872,7 @@
         <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6352956</v>
+        <v>6352953</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K121">
         <v>2.05</v>
       </c>
       <c r="L121">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M121">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N121">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="O121">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P121">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q121">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T121">
         <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X121">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>-1</v>
       </c>
       <c r="AC121">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6352958</v>
+        <v>6353334</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11403,49 +11403,49 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J123" t="s">
         <v>47</v>
       </c>
       <c r="K123">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L123">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="M123">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="N123">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="O123">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P123">
-        <v>2.875</v>
+        <v>2.55</v>
       </c>
       <c r="Q123">
         <v>0</v>
       </c>
       <c r="R123">
-        <v>1.675</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="T123">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U123">
         <v>1.925</v>
@@ -11460,19 +11460,19 @@
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>1.875</v>
+        <v>1.55</v>
       </c>
       <c r="Z123">
         <v>-1</v>
       </c>
       <c r="AA123">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6352957</v>
+        <v>6352958</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,49 +11492,49 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K124">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M124">
-        <v>3.5</v>
+        <v>1.909</v>
       </c>
       <c r="N124">
-        <v>1.45</v>
+        <v>2.25</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P124">
-        <v>6</v>
+        <v>2.875</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>2</v>
+        <v>1.675</v>
       </c>
       <c r="S124">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
         <v>1.925</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>0.8</v>
+        <v>1.15</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11569,7 +11569,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6353334</v>
+        <v>6352956</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11581,40 +11581,40 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K125">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L125">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M125">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N125">
-        <v>2.375</v>
+        <v>2.75</v>
       </c>
       <c r="O125">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P125">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
         <v>1.8</v>
@@ -11626,31 +11626,31 @@
         <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y125">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA125">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB125">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6353335</v>
+        <v>6352957</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,40 +11670,40 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G126" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J126" t="s">
         <v>49</v>
       </c>
       <c r="K126">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="L126">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M126">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="N126">
-        <v>1.95</v>
+        <v>1.45</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P126">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R126">
         <v>2</v>
@@ -11712,19 +11712,19 @@
         <v>1.8</v>
       </c>
       <c r="T126">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V126">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
         <v>-1</v>
       </c>
       <c r="X126">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="Y126">
         <v>-1</v>
@@ -11736,10 +11736,10 @@
         <v>0.8</v>
       </c>
       <c r="AB126">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC126">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6352953</v>
+        <v>6353335</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,76 +11759,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>2</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K127">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L127">
         <v>3.25</v>
       </c>
       <c r="M127">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N127">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O127">
         <v>3.4</v>
       </c>
       <c r="P127">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q127">
         <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W127">
+        <v>-1</v>
+      </c>
+      <c r="X127">
+        <v>2.4</v>
+      </c>
+      <c r="Y127">
+        <v>-1</v>
+      </c>
+      <c r="Z127">
+        <v>-1</v>
+      </c>
+      <c r="AA127">
         <v>0.8</v>
       </c>
-      <c r="X127">
-        <v>-1</v>
-      </c>
-      <c r="Y127">
-        <v>-1</v>
-      </c>
-      <c r="Z127">
-        <v>0.825</v>
-      </c>
-      <c r="AA127">
-        <v>-1</v>
-      </c>
       <c r="AB127">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7873812</v>
+        <v>7866865</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,13 +11937,13 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G129" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11952,43 +11952,43 @@
         <v>48</v>
       </c>
       <c r="K129">
-        <v>1.444</v>
+        <v>2.15</v>
       </c>
       <c r="L129">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M129">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P129">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
+        <v>1.725</v>
+      </c>
+      <c r="S129">
         <v>1.975</v>
       </c>
-      <c r="S129">
-        <v>1.825</v>
-      </c>
       <c r="T129">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U129">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V129">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W129">
-        <v>0.444</v>
+        <v>1</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11997,7 +11997,7 @@
         <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0.9750000000000001</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA129">
         <v>-1</v>
@@ -12006,7 +12006,7 @@
         <v>-1</v>
       </c>
       <c r="AC129">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7866861</v>
+        <v>7873812</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,76 +12026,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H130">
         <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K130">
-        <v>2.8</v>
+        <v>1.444</v>
       </c>
       <c r="L130">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="M130">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="N130">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="O130">
-        <v>3.1</v>
+        <v>4.333</v>
       </c>
       <c r="P130">
-        <v>2.375</v>
+        <v>5.25</v>
       </c>
       <c r="Q130">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X130">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12103,7 +12103,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>7866860</v>
+        <v>7866861</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12115,76 +12115,76 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K131">
+        <v>2.8</v>
+      </c>
+      <c r="L131">
+        <v>3.1</v>
+      </c>
+      <c r="M131">
+        <v>2.3</v>
+      </c>
+      <c r="N131">
+        <v>2.7</v>
+      </c>
+      <c r="O131">
+        <v>3.1</v>
+      </c>
+      <c r="P131">
+        <v>2.375</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>2.025</v>
+      </c>
+      <c r="S131">
+        <v>1.775</v>
+      </c>
+      <c r="T131">
+        <v>2.25</v>
+      </c>
+      <c r="U131">
+        <v>1.975</v>
+      </c>
+      <c r="V131">
+        <v>1.825</v>
+      </c>
+      <c r="W131">
+        <v>-1</v>
+      </c>
+      <c r="X131">
         <v>2.1</v>
       </c>
-      <c r="L131">
-        <v>3</v>
-      </c>
-      <c r="M131">
-        <v>3.3</v>
-      </c>
-      <c r="N131">
-        <v>2.1</v>
-      </c>
-      <c r="O131">
-        <v>3</v>
-      </c>
-      <c r="P131">
-        <v>3.4</v>
-      </c>
-      <c r="Q131">
-        <v>-0.25</v>
-      </c>
-      <c r="R131">
-        <v>1.825</v>
-      </c>
-      <c r="S131">
-        <v>1.975</v>
-      </c>
-      <c r="T131">
-        <v>2</v>
-      </c>
-      <c r="U131">
-        <v>1.85</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
-      <c r="W131">
-        <v>1.1</v>
-      </c>
-      <c r="X131">
-        <v>-1</v>
-      </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7866865</v>
+        <v>7866860</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,10 +12204,10 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G132" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12219,28 +12219,28 @@
         <v>48</v>
       </c>
       <c r="K132">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="L132">
         <v>3</v>
       </c>
       <c r="M132">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N132">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="O132">
         <v>3</v>
       </c>
       <c r="P132">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S132">
         <v>1.975</v>
@@ -12249,13 +12249,13 @@
         <v>2</v>
       </c>
       <c r="U132">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W132">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12264,7 +12264,7 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.7250000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA132">
         <v>-1</v>
@@ -12273,7 +12273,7 @@
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7866868</v>
+        <v>7866862</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,46 +12382,46 @@
         <v>45354.08333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K134">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L134">
+        <v>3.2</v>
+      </c>
+      <c r="M134">
         <v>3.5</v>
       </c>
-      <c r="M134">
-        <v>4.333</v>
-      </c>
       <c r="N134">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O134">
+        <v>3.2</v>
+      </c>
+      <c r="P134">
         <v>3.5</v>
       </c>
-      <c r="P134">
-        <v>4.333</v>
-      </c>
       <c r="Q134">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
         <v>2.25</v>
@@ -12433,25 +12433,25 @@
         <v>1.9</v>
       </c>
       <c r="W134">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z134">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB134">
+        <v>-1</v>
+      </c>
+      <c r="AC134">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC134">
-        <v>-1</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7866862</v>
+        <v>7866869</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,55 +12471,55 @@
         <v>45354.08333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H135">
         <v>0</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>47</v>
       </c>
       <c r="K135">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L135">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M135">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N135">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O135">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P135">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q135">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S135">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T135">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U135">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V135">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W135">
         <v>-1</v>
@@ -12528,19 +12528,19 @@
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Z135">
         <v>-1</v>
       </c>
       <c r="AA135">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB135">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC135">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7866869</v>
+        <v>7866868</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,75 +12560,431 @@
         <v>45354.08333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G136" t="s">
+        <v>41</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" t="s">
+        <v>48</v>
+      </c>
+      <c r="K136">
+        <v>1.666</v>
+      </c>
+      <c r="L136">
+        <v>3.5</v>
+      </c>
+      <c r="M136">
+        <v>4.333</v>
+      </c>
+      <c r="N136">
+        <v>1.666</v>
+      </c>
+      <c r="O136">
+        <v>3.5</v>
+      </c>
+      <c r="P136">
+        <v>4.333</v>
+      </c>
+      <c r="Q136">
+        <v>-0.75</v>
+      </c>
+      <c r="R136">
+        <v>1.925</v>
+      </c>
+      <c r="S136">
+        <v>1.875</v>
+      </c>
+      <c r="T136">
+        <v>2.25</v>
+      </c>
+      <c r="U136">
+        <v>1.9</v>
+      </c>
+      <c r="V136">
+        <v>1.9</v>
+      </c>
+      <c r="W136">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X136">
+        <v>-1</v>
+      </c>
+      <c r="Y136">
+        <v>-1</v>
+      </c>
+      <c r="Z136">
+        <v>0.4625</v>
+      </c>
+      <c r="AA136">
+        <v>-0.5</v>
+      </c>
+      <c r="AB136">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC136">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:29">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>7867506</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137" t="s">
+        <v>28</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45367.08333333334</v>
+      </c>
+      <c r="F137" t="s">
         <v>32</v>
       </c>
-      <c r="H136">
-        <v>0</v>
-      </c>
-      <c r="I136">
-        <v>2</v>
-      </c>
-      <c r="J136" t="s">
+      <c r="G137" t="s">
+        <v>44</v>
+      </c>
+      <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>48</v>
+      </c>
+      <c r="K137">
+        <v>1.8</v>
+      </c>
+      <c r="L137">
+        <v>3.25</v>
+      </c>
+      <c r="M137">
+        <v>4</v>
+      </c>
+      <c r="N137">
+        <v>1.8</v>
+      </c>
+      <c r="O137">
+        <v>3.25</v>
+      </c>
+      <c r="P137">
+        <v>4</v>
+      </c>
+      <c r="Q137">
+        <v>-0.5</v>
+      </c>
+      <c r="R137">
+        <v>1.85</v>
+      </c>
+      <c r="S137">
+        <v>1.95</v>
+      </c>
+      <c r="T137">
+        <v>2.5</v>
+      </c>
+      <c r="U137">
+        <v>2</v>
+      </c>
+      <c r="V137">
+        <v>1.8</v>
+      </c>
+      <c r="W137">
+        <v>0.8</v>
+      </c>
+      <c r="X137">
+        <v>-1</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA137">
+        <v>-1</v>
+      </c>
+      <c r="AB137">
+        <v>-1</v>
+      </c>
+      <c r="AC137">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:29">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>7867508</v>
+      </c>
+      <c r="C138" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45367.08333333334</v>
+      </c>
+      <c r="F138" t="s">
+        <v>35</v>
+      </c>
+      <c r="G138" t="s">
+        <v>40</v>
+      </c>
+      <c r="H138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138" t="s">
         <v>47</v>
       </c>
-      <c r="K136">
+      <c r="K138">
+        <v>2.1</v>
+      </c>
+      <c r="L138">
+        <v>3.25</v>
+      </c>
+      <c r="M138">
+        <v>3</v>
+      </c>
+      <c r="N138">
+        <v>2.1</v>
+      </c>
+      <c r="O138">
+        <v>3.25</v>
+      </c>
+      <c r="P138">
+        <v>3</v>
+      </c>
+      <c r="Q138">
+        <v>-0.25</v>
+      </c>
+      <c r="R138">
+        <v>1.875</v>
+      </c>
+      <c r="S138">
+        <v>1.925</v>
+      </c>
+      <c r="T138">
+        <v>2.25</v>
+      </c>
+      <c r="U138">
+        <v>1.9</v>
+      </c>
+      <c r="V138">
+        <v>1.9</v>
+      </c>
+      <c r="W138">
+        <v>-1</v>
+      </c>
+      <c r="X138">
+        <v>-1</v>
+      </c>
+      <c r="Y138">
+        <v>2</v>
+      </c>
+      <c r="Z138">
+        <v>-1</v>
+      </c>
+      <c r="AA138">
+        <v>0.925</v>
+      </c>
+      <c r="AB138">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC138">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:29">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>7867509</v>
+      </c>
+      <c r="C139" t="s">
+        <v>28</v>
+      </c>
+      <c r="D139" t="s">
+        <v>28</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45367.08333333334</v>
+      </c>
+      <c r="F139" t="s">
+        <v>36</v>
+      </c>
+      <c r="G139" t="s">
+        <v>33</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" t="s">
+        <v>49</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>3.25</v>
+      </c>
+      <c r="M139">
+        <v>3.25</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139">
+        <v>3.1</v>
+      </c>
+      <c r="P139">
+        <v>3.4</v>
+      </c>
+      <c r="Q139">
+        <v>-0.25</v>
+      </c>
+      <c r="R139">
+        <v>1.8</v>
+      </c>
+      <c r="S139">
+        <v>2</v>
+      </c>
+      <c r="T139">
+        <v>2.25</v>
+      </c>
+      <c r="U139">
+        <v>2.025</v>
+      </c>
+      <c r="V139">
+        <v>1.775</v>
+      </c>
+      <c r="W139">
+        <v>-1</v>
+      </c>
+      <c r="X139">
+        <v>2.1</v>
+      </c>
+      <c r="Y139">
+        <v>-1</v>
+      </c>
+      <c r="Z139">
+        <v>-0.5</v>
+      </c>
+      <c r="AA139">
+        <v>0.5</v>
+      </c>
+      <c r="AB139">
+        <v>-0.5</v>
+      </c>
+      <c r="AC139">
+        <v>0.3875</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>7867507</v>
+      </c>
+      <c r="C140" t="s">
+        <v>28</v>
+      </c>
+      <c r="D140" t="s">
+        <v>28</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45367.08333333334</v>
+      </c>
+      <c r="F140" t="s">
+        <v>39</v>
+      </c>
+      <c r="G140" t="s">
+        <v>43</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>49</v>
+      </c>
+      <c r="K140">
         <v>2.5</v>
       </c>
-      <c r="L136">
+      <c r="L140">
+        <v>3.2</v>
+      </c>
+      <c r="M140">
+        <v>2.5</v>
+      </c>
+      <c r="N140">
+        <v>2.3</v>
+      </c>
+      <c r="O140">
+        <v>3.1</v>
+      </c>
+      <c r="P140">
         <v>2.8</v>
       </c>
-      <c r="M136">
-        <v>2.8</v>
-      </c>
-      <c r="N136">
-        <v>2.5</v>
-      </c>
-      <c r="O136">
-        <v>2.8</v>
-      </c>
-      <c r="P136">
-        <v>2.75</v>
-      </c>
-      <c r="Q136">
-        <v>0</v>
-      </c>
-      <c r="R136">
-        <v>1.8</v>
-      </c>
-      <c r="S136">
-        <v>2</v>
-      </c>
-      <c r="T136">
-        <v>2</v>
-      </c>
-      <c r="U136">
-        <v>1.825</v>
-      </c>
-      <c r="V136">
+      <c r="Q140">
+        <v>-0.25</v>
+      </c>
+      <c r="R140">
+        <v>2.05</v>
+      </c>
+      <c r="S140">
+        <v>1.75</v>
+      </c>
+      <c r="T140">
+        <v>2</v>
+      </c>
+      <c r="U140">
+        <v>1.725</v>
+      </c>
+      <c r="V140">
         <v>1.975</v>
       </c>
-      <c r="W136">
-        <v>-1</v>
-      </c>
-      <c r="X136">
-        <v>-1</v>
-      </c>
-      <c r="Y136">
-        <v>1.75</v>
-      </c>
-      <c r="Z136">
-        <v>-1</v>
-      </c>
-      <c r="AA136">
-        <v>1</v>
-      </c>
-      <c r="AB136">
-        <v>0</v>
-      </c>
-      <c r="AC136">
+      <c r="W140">
+        <v>-1</v>
+      </c>
+      <c r="X140">
+        <v>2.1</v>
+      </c>
+      <c r="Y140">
+        <v>-1</v>
+      </c>
+      <c r="Z140">
+        <v>-0.5</v>
+      </c>
+      <c r="AA140">
+        <v>0.375</v>
+      </c>
+      <c r="AB140">
+        <v>0</v>
+      </c>
+      <c r="AC140">
         <v>-0</v>
       </c>
     </row>

--- a/South Korea K3 League/South Korea K3 League.xlsx
+++ b/South Korea K3 League/South Korea K3 League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -112,13 +112,13 @@
     <t>Yangpyeong FC</t>
   </si>
   <si>
+    <t>Daejeon Korail</t>
+  </si>
+  <si>
     <t>Ulsan Citizen FC</t>
   </si>
   <si>
     <t>Gimhae City</t>
-  </si>
-  <si>
-    <t>Daejeon Korail</t>
   </si>
   <si>
     <t>Chuncheon FC</t>
@@ -151,10 +151,10 @@
     <t>Yeoju</t>
   </si>
   <si>
-    <t>Jinju Citizen FC</t>
+    <t>Daegu FC Reserves</t>
   </si>
   <si>
-    <t>Daegu FC Reserves</t>
+    <t>Jinju Citizen FC</t>
   </si>
   <si>
     <t>A</t>
@@ -525,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC140"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6352246</v>
+        <v>6352244</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -904,73 +904,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M5">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="O5">
         <v>3.1</v>
       </c>
       <c r="P5">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="Q5">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>2</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA5">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC5">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -978,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6352245</v>
+        <v>6352246</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -993,73 +993,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>1.909</v>
       </c>
       <c r="N6">
-        <v>1.727</v>
+        <v>5</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="Q6">
+        <v>0.75</v>
+      </c>
+      <c r="R6">
+        <v>1.9</v>
+      </c>
+      <c r="S6">
+        <v>1.9</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>1.8</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="Z6">
         <v>-0.5</v>
       </c>
-      <c r="R6">
-        <v>1.75</v>
-      </c>
-      <c r="S6">
-        <v>1.95</v>
-      </c>
-      <c r="T6">
-        <v>2.25</v>
-      </c>
-      <c r="U6">
-        <v>1.975</v>
-      </c>
-      <c r="V6">
-        <v>1.825</v>
-      </c>
-      <c r="W6">
-        <v>0.7270000000000001</v>
-      </c>
-      <c r="X6">
-        <v>-1</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
-      <c r="Z6">
-        <v>0.75</v>
-      </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1067,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6352244</v>
+        <v>6352245</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1082,55 +1082,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>48</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N7">
-        <v>1.8</v>
+        <v>1.727</v>
       </c>
       <c r="O7">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q7">
         <v>-0.5</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T7">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
+        <v>1.975</v>
+      </c>
+      <c r="V7">
         <v>1.825</v>
       </c>
-      <c r="V7">
-        <v>1.975</v>
-      </c>
       <c r="W7">
-        <v>0.8</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1139,13 +1139,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1438,7 +1438,7 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -1524,7 +1524,7 @@
         <v>45087.29166666666</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
         <v>35</v>
@@ -1702,7 +1702,7 @@
         <v>45088.29166666666</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>40</v>
@@ -1957,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6352252</v>
+        <v>6352253</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1969,76 +1969,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>49</v>
       </c>
       <c r="K17">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>6</v>
+      </c>
+      <c r="N17">
+        <v>1.571</v>
+      </c>
+      <c r="O17">
+        <v>3.8</v>
+      </c>
+      <c r="P17">
+        <v>4.75</v>
+      </c>
+      <c r="Q17">
+        <v>-0.75</v>
+      </c>
+      <c r="R17">
+        <v>1.775</v>
+      </c>
+      <c r="S17">
+        <v>2.025</v>
+      </c>
+      <c r="T17">
+        <v>2.25</v>
+      </c>
+      <c r="U17">
+        <v>1.875</v>
+      </c>
+      <c r="V17">
+        <v>1.925</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
         <v>2.8</v>
       </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
-        <v>2.625</v>
-      </c>
-      <c r="O17">
-        <v>2.875</v>
-      </c>
-      <c r="P17">
-        <v>2.55</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>1.95</v>
-      </c>
-      <c r="S17">
-        <v>1.85</v>
-      </c>
-      <c r="T17">
-        <v>2</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>1.875</v>
-      </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2046,7 +2046,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6352253</v>
+        <v>6353026</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2058,10 +2058,10 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2073,61 +2073,61 @@
         <v>49</v>
       </c>
       <c r="K18">
-        <v>1.333</v>
+        <v>3.8</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>6</v>
+        <v>1.833</v>
       </c>
       <c r="N18">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="O18">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P18">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.8</v>
+        <v>2.25</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA18">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
         <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>0.4625</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6353026</v>
+        <v>6352252</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2147,76 +2147,76 @@
         <v>45094.20833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>49</v>
       </c>
       <c r="K19">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="L19">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="M19">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N19">
+        <v>2.625</v>
+      </c>
+      <c r="O19">
         <v>2.875</v>
       </c>
-      <c r="O19">
-        <v>3.25</v>
-      </c>
       <c r="P19">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q19">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T19">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.25</v>
+        <v>1.875</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2236,10 +2236,10 @@
         <v>45094.29166666666</v>
       </c>
       <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
         <v>34</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2506,7 +2506,7 @@
         <v>41</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6352921</v>
+        <v>6352256</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2592,76 +2592,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K24">
-        <v>1.8</v>
+        <v>2.625</v>
       </c>
       <c r="L24">
+        <v>3.2</v>
+      </c>
+      <c r="M24">
+        <v>2.375</v>
+      </c>
+      <c r="N24">
+        <v>2.1</v>
+      </c>
+      <c r="O24">
+        <v>3.2</v>
+      </c>
+      <c r="P24">
         <v>3.1</v>
-      </c>
-      <c r="M24">
-        <v>4.2</v>
-      </c>
-      <c r="N24">
-        <v>2.25</v>
-      </c>
-      <c r="O24">
-        <v>3</v>
-      </c>
-      <c r="P24">
-        <v>3</v>
       </c>
       <c r="Q24">
         <v>-0.25</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
+        <v>1.925</v>
+      </c>
+      <c r="T24">
+        <v>2.25</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
         <v>1.8</v>
       </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
-      <c r="U24">
-        <v>1.725</v>
-      </c>
-      <c r="V24">
-        <v>1.975</v>
-      </c>
       <c r="W24">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z24">
+        <v>-1</v>
+      </c>
+      <c r="AA24">
+        <v>0.925</v>
+      </c>
+      <c r="AB24">
         <v>1</v>
       </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>-1</v>
-      </c>
       <c r="AC24">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2669,7 +2669,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6352256</v>
+        <v>6352921</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2681,76 +2681,76 @@
         <v>45101.20833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25">
+        <v>1.8</v>
+      </c>
+      <c r="L25">
+        <v>3.1</v>
+      </c>
+      <c r="M25">
+        <v>4.2</v>
+      </c>
+      <c r="N25">
+        <v>2.25</v>
+      </c>
+      <c r="O25">
         <v>3</v>
       </c>
-      <c r="J25" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25">
-        <v>2.625</v>
-      </c>
-      <c r="L25">
-        <v>3.2</v>
-      </c>
-      <c r="M25">
-        <v>2.375</v>
-      </c>
-      <c r="N25">
-        <v>2.1</v>
-      </c>
-      <c r="O25">
-        <v>3.2</v>
-      </c>
       <c r="P25">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q25">
         <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>2</v>
+        <v>1.725</v>
       </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2847,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6352258</v>
+        <v>6352257</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2859,76 +2859,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" t="s">
         <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>2.375</v>
+        <v>2.25</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M27">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="N27">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P27">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q27">
         <v>-0.25</v>
       </c>
       <c r="R27">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z27">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>0.375</v>
+        <v>0.875</v>
       </c>
       <c r="AB27">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AC27">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2936,7 +2936,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6352257</v>
+        <v>6352258</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2948,76 +2948,76 @@
         <v>45101.29166666666</v>
       </c>
       <c r="F28" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K28">
-        <v>2.25</v>
+        <v>2.375</v>
       </c>
       <c r="L28">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M28">
-        <v>2.875</v>
+        <v>2.75</v>
       </c>
       <c r="N28">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="O28">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q28">
         <v>-0.25</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S28">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y28">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>0.875</v>
+        <v>0.375</v>
       </c>
       <c r="AB28">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3218,7 +3218,7 @@
         <v>42</v>
       </c>
       <c r="G31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3396,7 +3396,7 @@
         <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3559,7 +3559,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6352262</v>
+        <v>6352922</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3571,76 +3571,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L35">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="N35">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="O35">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P35">
-        <v>2.7</v>
+        <v>4.333</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R35">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X35">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB35">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3648,7 +3648,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>6352922</v>
+        <v>6352262</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3660,76 +3660,76 @@
         <v>45109.29166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M36">
-        <v>4.5</v>
+        <v>2.625</v>
       </c>
       <c r="N36">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="O36">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P36">
-        <v>4.333</v>
+        <v>2.7</v>
       </c>
       <c r="Q36">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="S36">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W36">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y36">
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3930,7 +3930,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -4004,7 +4004,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6352265</v>
+        <v>6352923</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4016,58 +4016,58 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
       </c>
       <c r="K40">
-        <v>1.727</v>
+        <v>1.533</v>
       </c>
       <c r="L40">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M40">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="N40">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="O40">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T40">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U40">
+        <v>1.75</v>
+      </c>
+      <c r="V40">
         <v>1.95</v>
       </c>
-      <c r="V40">
-        <v>1.85</v>
-      </c>
       <c r="W40">
-        <v>0.6659999999999999</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4076,16 +4076,16 @@
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.4625</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA40">
+        <v>-1</v>
+      </c>
+      <c r="AB40">
         <v>-0.5</v>
       </c>
-      <c r="AB40">
-        <v>0.95</v>
-      </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4093,7 +4093,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6352264</v>
+        <v>6352265</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4105,76 +4105,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
         <v>32</v>
       </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K41">
         <v>1.727</v>
       </c>
       <c r="L41">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="N41">
-        <v>2.15</v>
+        <v>1.666</v>
       </c>
       <c r="O41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P41">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R41">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
         <v>2</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA41">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC41">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4182,7 +4182,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6352923</v>
+        <v>6352264</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4194,76 +4194,76 @@
         <v>45115.29166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K42">
-        <v>1.533</v>
+        <v>1.727</v>
       </c>
       <c r="L42">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M42">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N42">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O42">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="P42">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q42">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T42">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U42">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="V42">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W42">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z42">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC42">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4464,7 +4464,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4550,7 +4550,7 @@
         <v>45122.29166666666</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>35</v>
@@ -4731,7 +4731,7 @@
         <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4805,7 +4805,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6353327</v>
+        <v>6352926</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4817,37 +4817,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K49">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M49">
-        <v>2.8</v>
+        <v>2.625</v>
       </c>
       <c r="N49">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O49">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q49">
         <v>0.25</v>
@@ -4862,31 +4862,31 @@
         <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>1.725</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y49">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA49">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC49">
-        <v>0.7250000000000001</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4894,7 +4894,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6352926</v>
+        <v>6353327</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4906,37 +4906,37 @@
         <v>45123.20833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K50">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="L50">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>2.625</v>
+        <v>2.8</v>
       </c>
       <c r="N50">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O50">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P50">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="Q50">
         <v>0.25</v>
@@ -4951,31 +4951,31 @@
         <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>1.725</v>
       </c>
       <c r="W50">
         <v>-1</v>
       </c>
       <c r="X50">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z50">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.45</v>
+        <v>0.7250000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4995,10 +4995,10 @@
         <v>45128.29166666666</v>
       </c>
       <c r="F51" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5529,7 +5529,7 @@
         <v>45130.29166666666</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5621,7 +5621,7 @@
         <v>41</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5695,7 +5695,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6353329</v>
+        <v>6352272</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5707,76 +5707,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K59">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="L59">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="N59">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="O59">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P59">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q59">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R59">
+        <v>1.875</v>
+      </c>
+      <c r="S59">
         <v>1.925</v>
       </c>
-      <c r="S59">
-        <v>1.875</v>
-      </c>
       <c r="T59">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W59">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X59">
         <v>-1</v>
       </c>
       <c r="Y59">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5784,7 +5784,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6352272</v>
+        <v>6353329</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5796,76 +5796,76 @@
         <v>45150.20833333334</v>
       </c>
       <c r="F60" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K60">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M60">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="N60">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="O60">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P60">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q60">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R60">
+        <v>1.925</v>
+      </c>
+      <c r="S60">
         <v>1.875</v>
       </c>
-      <c r="S60">
+      <c r="T60">
+        <v>2</v>
+      </c>
+      <c r="U60">
+        <v>1.875</v>
+      </c>
+      <c r="V60">
         <v>1.925</v>
       </c>
-      <c r="T60">
-        <v>2.25</v>
-      </c>
-      <c r="U60">
-        <v>1.85</v>
-      </c>
-      <c r="V60">
-        <v>1.95</v>
-      </c>
       <c r="W60">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X60">
         <v>-1</v>
       </c>
       <c r="Y60">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5974,7 +5974,7 @@
         <v>45150.29166666666</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
         <v>43</v>
@@ -6063,7 +6063,7 @@
         <v>45151.29166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
         <v>30</v>
@@ -6241,7 +6241,7 @@
         <v>45156.29166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>42</v>
@@ -6407,7 +6407,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6352277</v>
+        <v>6352933</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6419,10 +6419,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6434,40 +6434,40 @@
         <v>47</v>
       </c>
       <c r="K67">
-        <v>2.8</v>
+        <v>1.727</v>
       </c>
       <c r="L67">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M67">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>2.7</v>
+        <v>1.833</v>
       </c>
       <c r="O67">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P67">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T67">
         <v>2</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6476,16 +6476,16 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="Z67">
         <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB67">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6496,7 +6496,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6352933</v>
+        <v>6352277</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6508,10 +6508,10 @@
         <v>45157.29166666666</v>
       </c>
       <c r="F68" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6523,40 +6523,40 @@
         <v>47</v>
       </c>
       <c r="K68">
-        <v>1.727</v>
+        <v>2.8</v>
       </c>
       <c r="L68">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="N68">
-        <v>1.833</v>
+        <v>2.7</v>
       </c>
       <c r="O68">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P68">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q68">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
         <v>2</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V68">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6565,16 +6565,16 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6867,7 +6867,7 @@
         <v>38</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -7030,7 +7030,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6352281</v>
+        <v>6352280</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7042,73 +7042,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H74">
         <v>2</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K74">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="L74">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2.2</v>
+        <v>6</v>
       </c>
       <c r="N74">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O74">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="P74">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q74">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.725</v>
       </c>
       <c r="S74">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X74">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0</v>
+        <v>0.3625</v>
       </c>
       <c r="AA74">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7119,7 +7119,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6352280</v>
+        <v>6352281</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7131,73 +7131,73 @@
         <v>45164.29166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>2</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K75">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="L75">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="N75">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O75">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P75">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R75">
-        <v>1.725</v>
+        <v>2.05</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U75">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W75">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.3625</v>
+        <v>0</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB75">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC75">
         <v>-1</v>
@@ -7312,7 +7312,7 @@
         <v>39</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7398,7 +7398,7 @@
         <v>45170.29166666666</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>35</v>
@@ -7653,7 +7653,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6352284</v>
+        <v>6352283</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7665,46 +7665,46 @@
         <v>45171.29166666666</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K81">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L81">
         <v>3.1</v>
       </c>
       <c r="M81">
-        <v>2.8</v>
+        <v>3.75</v>
       </c>
       <c r="N81">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="O81">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P81">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q81">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T81">
         <v>2.25</v>
@@ -7716,19 +7716,19 @@
         <v>1.825</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X81">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA81">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-0.5</v>
@@ -7742,7 +7742,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6352283</v>
+        <v>6352284</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7757,43 +7757,43 @@
         <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K82">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L82">
         <v>3.1</v>
       </c>
       <c r="M82">
-        <v>3.75</v>
+        <v>2.8</v>
       </c>
       <c r="N82">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="O82">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P82">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
         <v>2.25</v>
@@ -7805,19 +7805,19 @@
         <v>1.825</v>
       </c>
       <c r="W82">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
         <v>-0.5</v>
@@ -8113,7 +8113,7 @@
         <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8276,7 +8276,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6352287</v>
+        <v>6352941</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8288,73 +8288,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>4.25</v>
       </c>
       <c r="M88">
-        <v>2.75</v>
+        <v>8</v>
       </c>
       <c r="N88">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O88">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P88">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R88">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S88">
         <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X88">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA88">
+        <v>-1</v>
+      </c>
+      <c r="AB88">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB88">
-        <v>1</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8365,7 +8365,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6352941</v>
+        <v>6352287</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8377,73 +8377,73 @@
         <v>45178.29166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H89">
+        <v>2</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89" t="s">
+        <v>49</v>
+      </c>
+      <c r="K89">
+        <v>2.4</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>2.75</v>
+      </c>
+      <c r="N89">
+        <v>1.8</v>
+      </c>
+      <c r="O89">
+        <v>3.25</v>
+      </c>
+      <c r="P89">
         <v>4</v>
       </c>
-      <c r="I89">
-        <v>0</v>
-      </c>
-      <c r="J89" t="s">
-        <v>48</v>
-      </c>
-      <c r="K89">
-        <v>1.333</v>
-      </c>
-      <c r="L89">
-        <v>4.25</v>
-      </c>
-      <c r="M89">
-        <v>8</v>
-      </c>
-      <c r="N89">
-        <v>1.45</v>
-      </c>
-      <c r="O89">
-        <v>4</v>
-      </c>
-      <c r="P89">
-        <v>5.75</v>
-      </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R89">
-        <v>1.725</v>
+        <v>1.825</v>
       </c>
       <c r="S89">
         <v>1.975</v>
       </c>
       <c r="T89">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W89">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.7250000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB89">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8733,7 +8733,7 @@
         <v>45184.29166666666</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>43</v>
@@ -8825,7 +8825,7 @@
         <v>41</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -9267,7 +9267,7 @@
         <v>45186.29166666666</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
         <v>30</v>
@@ -9611,7 +9611,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6352295</v>
+        <v>6352294</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9626,43 +9626,43 @@
         <v>33</v>
       </c>
       <c r="G103" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J103" t="s">
         <v>47</v>
       </c>
       <c r="K103">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M103">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N103">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O103">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R103">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S103">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T103">
         <v>2.25</v>
@@ -9680,19 +9680,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC103">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9700,7 +9700,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6352294</v>
+        <v>6352295</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9712,46 +9712,46 @@
         <v>45192.29166666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>1</v>
-      </c>
-      <c r="I104">
-        <v>3</v>
       </c>
       <c r="J104" t="s">
         <v>47</v>
       </c>
       <c r="K104">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L104">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M104">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N104">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O104">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P104">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S104">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T104">
         <v>2.25</v>
@@ -9769,19 +9769,19 @@
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB104">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10056,7 +10056,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6353018</v>
+        <v>6352296</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10068,10 +10068,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -10083,40 +10083,40 @@
         <v>47</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="L108">
         <v>3.1</v>
       </c>
       <c r="M108">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N108">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="O108">
         <v>3.1</v>
       </c>
       <c r="P108">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
         <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10125,16 +10125,16 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.625</v>
+        <v>1.2</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB108">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10145,7 +10145,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6352296</v>
+        <v>6353018</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10157,10 +10157,10 @@
         <v>45227.08333333334</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10172,40 +10172,40 @@
         <v>47</v>
       </c>
       <c r="K109">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="L109">
         <v>3.1</v>
       </c>
       <c r="M109">
+        <v>2.8</v>
+      </c>
+      <c r="N109">
         <v>2.4</v>
-      </c>
-      <c r="N109">
-        <v>3</v>
       </c>
       <c r="O109">
         <v>3.1</v>
       </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10214,16 +10214,16 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.2</v>
+        <v>1.625</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB109">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10234,7 +10234,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6352948</v>
+        <v>6352949</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10246,73 +10246,73 @@
         <v>45227.125</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>3</v>
       </c>
       <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110" t="s">
+        <v>49</v>
+      </c>
+      <c r="K110">
+        <v>1.571</v>
+      </c>
+      <c r="L110">
+        <v>3.6</v>
+      </c>
+      <c r="M110">
+        <v>5</v>
+      </c>
+      <c r="N110">
+        <v>1.363</v>
+      </c>
+      <c r="O110">
+        <v>4.75</v>
+      </c>
+      <c r="P110">
+        <v>6</v>
+      </c>
+      <c r="Q110">
+        <v>-1.25</v>
+      </c>
+      <c r="R110">
+        <v>1.8</v>
+      </c>
+      <c r="S110">
+        <v>2</v>
+      </c>
+      <c r="T110">
+        <v>2.5</v>
+      </c>
+      <c r="U110">
+        <v>1.85</v>
+      </c>
+      <c r="V110">
+        <v>1.95</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>3.75</v>
+      </c>
+      <c r="Y110">
+        <v>-1</v>
+      </c>
+      <c r="Z110">
+        <v>-1</v>
+      </c>
+      <c r="AA110">
         <v>1</v>
       </c>
-      <c r="J110" t="s">
-        <v>48</v>
-      </c>
-      <c r="K110">
-        <v>2</v>
-      </c>
-      <c r="L110">
-        <v>3.1</v>
-      </c>
-      <c r="M110">
-        <v>3.4</v>
-      </c>
-      <c r="N110">
-        <v>2.15</v>
-      </c>
-      <c r="O110">
-        <v>3.1</v>
-      </c>
-      <c r="P110">
-        <v>3.1</v>
-      </c>
-      <c r="Q110">
-        <v>-0.25</v>
-      </c>
-      <c r="R110">
-        <v>1.925</v>
-      </c>
-      <c r="S110">
-        <v>1.875</v>
-      </c>
-      <c r="T110">
-        <v>2.25</v>
-      </c>
-      <c r="U110">
-        <v>1.9</v>
-      </c>
-      <c r="V110">
-        <v>1.9</v>
-      </c>
-      <c r="W110">
-        <v>1.15</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
-      <c r="Z110">
-        <v>0.925</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
       <c r="AB110">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10323,7 +10323,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6352949</v>
+        <v>6352948</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10335,73 +10335,73 @@
         <v>45227.125</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>3</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K111">
-        <v>1.571</v>
+        <v>2</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N111">
-        <v>1.363</v>
+        <v>2.15</v>
       </c>
       <c r="O111">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q111">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X111">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10427,7 +10427,7 @@
         <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10516,7 +10516,7 @@
         <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10602,7 +10602,7 @@
         <v>45233.125</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G114" t="s">
         <v>37</v>
@@ -10872,7 +10872,7 @@
         <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -10946,7 +10946,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6352951</v>
+        <v>6353333</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10958,58 +10958,58 @@
         <v>45234.125</v>
       </c>
       <c r="F118" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>48</v>
       </c>
       <c r="K118">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="M118">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N118">
-        <v>1.65</v>
+        <v>2.15</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.6499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -11018,13 +11018,13 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11035,7 +11035,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6353333</v>
+        <v>6352951</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11047,58 +11047,58 @@
         <v>45234.125</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>48</v>
       </c>
       <c r="K119">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="L119">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="M119">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N119">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="O119">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R119">
+        <v>1.825</v>
+      </c>
+      <c r="S119">
+        <v>1.975</v>
+      </c>
+      <c r="T119">
+        <v>2.5</v>
+      </c>
+      <c r="U119">
+        <v>1.875</v>
+      </c>
+      <c r="V119">
         <v>1.925</v>
       </c>
-      <c r="S119">
-        <v>1.875</v>
-      </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>1.85</v>
-      </c>
-      <c r="V119">
-        <v>1.95</v>
-      </c>
       <c r="W119">
-        <v>1.15</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X119">
         <v>-1</v>
@@ -11107,13 +11107,13 @@
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC119">
         <v>-1</v>
@@ -11139,7 +11139,7 @@
         <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -11213,7 +11213,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6352953</v>
+        <v>6353335</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11225,76 +11225,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>2</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K121">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="L121">
         <v>3.25</v>
       </c>
       <c r="M121">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="N121">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O121">
         <v>3.4</v>
       </c>
       <c r="P121">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q121">
         <v>-0.5</v>
       </c>
       <c r="R121">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W121">
+        <v>-1</v>
+      </c>
+      <c r="X121">
+        <v>2.4</v>
+      </c>
+      <c r="Y121">
+        <v>-1</v>
+      </c>
+      <c r="Z121">
+        <v>-1</v>
+      </c>
+      <c r="AA121">
         <v>0.8</v>
       </c>
-      <c r="X121">
-        <v>-1</v>
-      </c>
-      <c r="Y121">
-        <v>-1</v>
-      </c>
-      <c r="Z121">
-        <v>0.825</v>
-      </c>
-      <c r="AA121">
-        <v>-1</v>
-      </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11302,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6352952</v>
+        <v>6352958</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11314,10 +11314,10 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -11329,40 +11329,40 @@
         <v>47</v>
       </c>
       <c r="K122">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="L122">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M122">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="N122">
+        <v>2.25</v>
+      </c>
+      <c r="O122">
         <v>3.1</v>
       </c>
-      <c r="O122">
-        <v>3.3</v>
-      </c>
       <c r="P122">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.675</v>
       </c>
       <c r="S122">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="T122">
         <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -11371,19 +11371,19 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>1.05</v>
+        <v>1.875</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8500000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="AB122">
         <v>-1</v>
       </c>
       <c r="AC122">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6352958</v>
+        <v>6352957</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11492,49 +11492,49 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H124">
         <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K124">
+        <v>1.95</v>
+      </c>
+      <c r="L124">
+        <v>3.2</v>
+      </c>
+      <c r="M124">
         <v>3.5</v>
       </c>
-      <c r="L124">
-        <v>3.25</v>
-      </c>
-      <c r="M124">
-        <v>1.909</v>
-      </c>
       <c r="N124">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="O124">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>2.875</v>
+        <v>6</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
       <c r="R124">
-        <v>1.675</v>
+        <v>2</v>
       </c>
       <c r="S124">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="T124">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
         <v>1.925</v>
@@ -11546,16 +11546,16 @@
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y124">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="AB124">
         <v>-1</v>
@@ -11581,7 +11581,7 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G125" t="s">
         <v>31</v>
@@ -11658,7 +11658,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6352957</v>
+        <v>6352953</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11670,76 +11670,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F126" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126">
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K126">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L126">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M126">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="N126">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O126">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="Q126">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R126">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W126">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X126">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y126">
         <v>-1</v>
       </c>
       <c r="Z126">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA126">
+        <v>-1</v>
+      </c>
+      <c r="AB126">
+        <v>-1</v>
+      </c>
+      <c r="AC126">
         <v>0.8</v>
-      </c>
-      <c r="AB126">
-        <v>-1</v>
-      </c>
-      <c r="AC126">
-        <v>0.875</v>
       </c>
     </row>
     <row r="127" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6353335</v>
+        <v>6352952</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11759,76 +11759,76 @@
         <v>45241.08333333334</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K127">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="L127">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M127">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="N127">
+        <v>3.1</v>
+      </c>
+      <c r="O127">
+        <v>3.3</v>
+      </c>
+      <c r="P127">
+        <v>2.05</v>
+      </c>
+      <c r="Q127">
+        <v>0.25</v>
+      </c>
+      <c r="R127">
         <v>1.95</v>
       </c>
-      <c r="O127">
-        <v>3.4</v>
-      </c>
-      <c r="P127">
-        <v>3.2</v>
-      </c>
-      <c r="Q127">
-        <v>-0.5</v>
-      </c>
-      <c r="R127">
-        <v>2</v>
-      </c>
       <c r="S127">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T127">
         <v>2.25</v>
       </c>
       <c r="U127">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V127">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W127">
         <v>-1</v>
       </c>
       <c r="X127">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z127">
         <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB127">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11851,7 +11851,7 @@
         <v>41</v>
       </c>
       <c r="G128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11925,7 +11925,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>7866865</v>
+        <v>7873812</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11937,13 +11937,13 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G129" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11952,61 +11952,61 @@
         <v>48</v>
       </c>
       <c r="K129">
-        <v>2.15</v>
+        <v>1.444</v>
       </c>
       <c r="L129">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="M129">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="N129">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="O129">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P129">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.725</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V129">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W129">
+        <v>0.444</v>
+      </c>
+      <c r="X129">
+        <v>-1</v>
+      </c>
+      <c r="Y129">
+        <v>-1</v>
+      </c>
+      <c r="Z129">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA129">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
         <v>1</v>
-      </c>
-      <c r="X129">
-        <v>-1</v>
-      </c>
-      <c r="Y129">
-        <v>-1</v>
-      </c>
-      <c r="Z129">
-        <v>0.7250000000000001</v>
-      </c>
-      <c r="AA129">
-        <v>-1</v>
-      </c>
-      <c r="AB129">
-        <v>-1</v>
-      </c>
-      <c r="AC129">
-        <v>0.925</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12014,7 +12014,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>7873812</v>
+        <v>7866860</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12026,13 +12026,13 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12041,43 +12041,43 @@
         <v>48</v>
       </c>
       <c r="K130">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="L130">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="N130">
-        <v>1.444</v>
+        <v>2.1</v>
       </c>
       <c r="O130">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P130">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
+        <v>1.825</v>
+      </c>
+      <c r="S130">
         <v>1.975</v>
       </c>
-      <c r="S130">
-        <v>1.825</v>
-      </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U130">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
-        <v>0.444</v>
+        <v>1.1</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12086,7 +12086,7 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA130">
         <v>-1</v>
@@ -12095,7 +12095,7 @@
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12192,7 +12192,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>7866860</v>
+        <v>7866865</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12204,10 +12204,10 @@
         <v>45353.08333333334</v>
       </c>
       <c r="F132" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G132" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -12219,28 +12219,28 @@
         <v>48</v>
       </c>
       <c r="K132">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L132">
         <v>3</v>
       </c>
       <c r="M132">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N132">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O132">
         <v>3</v>
       </c>
       <c r="P132">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.825</v>
+        <v>1.725</v>
       </c>
       <c r="S132">
         <v>1.975</v>
@@ -12249,13 +12249,13 @@
         <v>2</v>
       </c>
       <c r="U132">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V132">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="X132">
         <v>-1</v>
@@ -12264,7 +12264,7 @@
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.825</v>
+        <v>0.7250000000000001</v>
       </c>
       <c r="AA132">
         <v>-1</v>
@@ -12273,7 +12273,7 @@
         <v>-1</v>
       </c>
       <c r="AC132">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12370,7 +12370,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>7866862</v>
+        <v>7866869</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12382,55 +12382,55 @@
         <v>45354.08333333334</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H134">
         <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>47</v>
       </c>
       <c r="K134">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L134">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="M134">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="N134">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="O134">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="P134">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T134">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U134">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V134">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W134">
         <v>-1</v>
@@ -12439,19 +12439,19 @@
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="Z134">
         <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC134">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>7866869</v>
+        <v>7866868</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12471,76 +12471,76 @@
         <v>45354.08333333334</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K135">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="L135">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="M135">
-        <v>2.8</v>
+        <v>4.333</v>
       </c>
       <c r="N135">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O135">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="P135">
-        <v>2.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R135">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S135">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T135">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X135">
         <v>-1</v>
       </c>
       <c r="Y135">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z135">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA135">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC135">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12548,7 +12548,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>7866868</v>
+        <v>7866862</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12560,46 +12560,46 @@
         <v>45354.08333333334</v>
       </c>
       <c r="F136" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K136">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L136">
+        <v>3.2</v>
+      </c>
+      <c r="M136">
         <v>3.5</v>
       </c>
-      <c r="M136">
-        <v>4.333</v>
-      </c>
       <c r="N136">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O136">
+        <v>3.2</v>
+      </c>
+      <c r="P136">
         <v>3.5</v>
       </c>
-      <c r="P136">
-        <v>4.333</v>
-      </c>
       <c r="Q136">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T136">
         <v>2.25</v>
@@ -12611,25 +12611,25 @@
         <v>1.9</v>
       </c>
       <c r="W136">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z136">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB136">
+        <v>-1</v>
+      </c>
+      <c r="AC136">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC136">
-        <v>-1</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12637,7 +12637,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>7867506</v>
+        <v>7867507</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12649,76 +12649,76 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K137">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="L137">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M137">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N137">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O137">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P137">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q137">
+        <v>-0.25</v>
+      </c>
+      <c r="R137">
+        <v>2.05</v>
+      </c>
+      <c r="S137">
+        <v>1.75</v>
+      </c>
+      <c r="T137">
+        <v>2</v>
+      </c>
+      <c r="U137">
+        <v>1.725</v>
+      </c>
+      <c r="V137">
+        <v>1.975</v>
+      </c>
+      <c r="W137">
+        <v>-1</v>
+      </c>
+      <c r="X137">
+        <v>2.1</v>
+      </c>
+      <c r="Y137">
+        <v>-1</v>
+      </c>
+      <c r="Z137">
         <v>-0.5</v>
       </c>
-      <c r="R137">
-        <v>1.85</v>
-      </c>
-      <c r="S137">
-        <v>1.95</v>
-      </c>
-      <c r="T137">
-        <v>2.5</v>
-      </c>
-      <c r="U137">
-        <v>2</v>
-      </c>
-      <c r="V137">
-        <v>1.8</v>
-      </c>
-      <c r="W137">
-        <v>0.8</v>
-      </c>
-      <c r="X137">
-        <v>-1</v>
-      </c>
-      <c r="Y137">
-        <v>-1</v>
-      </c>
-      <c r="Z137">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.375</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12726,7 +12726,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>7867508</v>
+        <v>7867509</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12738,76 +12738,76 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G138" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K138">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L138">
         <v>3.25</v>
       </c>
       <c r="M138">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N138">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O138">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P138">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q138">
         <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S138">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T138">
         <v>2.25</v>
       </c>
       <c r="U138">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V138">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W138">
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y138">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA138">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB138">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12815,7 +12815,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>7867509</v>
+        <v>7867508</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12827,76 +12827,76 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L139">
         <v>3.25</v>
       </c>
       <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
+        <v>2.1</v>
+      </c>
+      <c r="O139">
         <v>3.25</v>
       </c>
-      <c r="N139">
-        <v>2</v>
-      </c>
-      <c r="O139">
-        <v>3.1</v>
-      </c>
       <c r="P139">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q139">
         <v>-0.25</v>
       </c>
       <c r="R139">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S139">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T139">
         <v>2.25</v>
       </c>
       <c r="U139">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V139">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W139">
         <v>-1</v>
       </c>
       <c r="X139">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y139">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z139">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA139">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB139">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC139">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>7867507</v>
+        <v>7867506</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12916,76 +12916,432 @@
         <v>45367.08333333334</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>48</v>
+      </c>
+      <c r="K140">
+        <v>1.8</v>
+      </c>
+      <c r="L140">
+        <v>3.25</v>
+      </c>
+      <c r="M14